--- a/학습자료/단답형/영어_복습.xlsx
+++ b/학습자료/단답형/영어_복습.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="168">
   <si>
     <t>질문</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -517,9 +517,6 @@
     <t>be on the point of 동명사</t>
   </si>
   <si>
-    <t>cannot help ＋동명사</t>
-  </si>
-  <si>
     <t>can't refrain from 동명사</t>
   </si>
   <si>
@@ -794,6 +791,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>부정사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cannot help 동명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>come near to [   ] : 하마터면 ~할 뻔하다
 1. 동사원형
 2. 동명사
@@ -801,7 +806,171 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>부정사</t>
+    <t>be about to [   ] : 막 ~하려 하다
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be apt to [   ] : ~하는 경향이 있다
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be free to [   ] : 자유로이 ~하다
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be likely to [   ] : ~할 것 같다
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be ready to [   ] : ~할 준비가 되어 있다
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be sure to [   ] : 반드시 ~하다
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be willing to [   ] : 기꺼이 ~하다
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cannot but [   ] : ~하지 않을 수 없다
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cannot help [   ] : ~하지 않을 수 없다
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cannot help but [   ] : ~하지 않을 수 없다
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have no choice but to [   ] : ~하지 않을 수 없다
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can't refrain from [   ] : ~하지 않을 수 없다
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enough to [   ] : ~할 정도로 충분히 ~한
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>had better [   ] : ~하는 것이 더 낫다
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have no choice but to [   ] : ~하지 않을 수 없다
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in order to [   ] : ~하기 위해
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>so as to [   ] : ~하기 위해
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>so ~ as to [   ] : 매우 ~해서 ~하다
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>too ~ to [   ] : 너무 ~해서 ~할 수 없는
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>used to [   ] : ~하곤 했다
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>would rather [   ] : 오히려 ~하고 싶다
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be the last man to [   ] : ~할 사람이 아니다
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be cut out to [   ] : ~에 적임이다
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>come to [   ] : ~하게 되다
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1138,17 +1307,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.75" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
@@ -1172,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1183,7 +1352,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1194,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1205,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1216,7 +1385,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1227,7 +1396,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1238,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1249,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1260,7 +1429,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1271,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1282,7 +1451,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1293,7 +1462,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1304,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1315,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1326,7 +1495,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1337,7 +1506,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1348,7 +1517,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1359,7 +1528,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1370,7 +1539,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1381,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1392,7 +1561,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1403,7 +1572,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1414,7 +1583,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1425,7 +1594,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1436,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1447,7 +1616,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1458,7 +1627,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1469,7 +1638,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1480,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1491,7 +1660,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1502,7 +1671,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1513,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1524,7 +1693,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1535,7 +1704,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1546,7 +1715,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1557,7 +1726,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1568,7 +1737,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1579,7 +1748,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1590,7 +1759,7 @@
         <v>2</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1601,7 +1770,7 @@
         <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1612,7 +1781,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1623,7 +1792,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1634,7 +1803,7 @@
         <v>2</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1645,7 +1814,7 @@
         <v>2</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1656,7 +1825,7 @@
         <v>2</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1667,7 +1836,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1678,7 +1847,7 @@
         <v>2</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -1689,18 +1858,18 @@
         <v>2</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B50" s="1">
         <v>2</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
@@ -1711,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -1722,7 +1891,7 @@
         <v>52</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1733,7 +1902,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1744,7 +1913,7 @@
         <v>52</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1755,7 +1924,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1766,7 +1935,7 @@
         <v>56</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1777,7 +1946,7 @@
         <v>58</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1788,7 +1957,7 @@
         <v>60</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1799,7 +1968,7 @@
         <v>62</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1810,7 +1979,7 @@
         <v>64</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1821,29 +1990,29 @@
         <v>66</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1854,18 +2023,18 @@
         <v>66</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -1876,7 +2045,7 @@
         <v>68</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -1887,7 +2056,7 @@
         <v>70</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -1898,7 +2067,7 @@
         <v>66</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -1909,7 +2078,7 @@
         <v>73</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -1920,7 +2089,7 @@
         <v>75</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -1931,7 +2100,7 @@
         <v>77</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -1942,7 +2111,7 @@
         <v>79</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -1953,7 +2122,7 @@
         <v>81</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -1964,7 +2133,7 @@
         <v>83</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -1975,7 +2144,7 @@
         <v>85</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -1986,7 +2155,7 @@
         <v>87</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -1997,7 +2166,7 @@
         <v>89</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -2008,7 +2177,7 @@
         <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -2019,403 +2188,667 @@
         <v>93</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="C80" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="C81" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B82" s="1">
         <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B83" s="1">
         <v>2</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B84" s="1">
         <v>2</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B85" s="1">
         <v>2</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B86" s="1">
         <v>2</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B87" s="1">
         <v>2</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B88" s="1">
         <v>3</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B89" s="1">
         <v>2</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B90" s="1">
         <v>2</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B91" s="1">
         <v>2</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B92" s="1">
         <v>2</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B93" s="1">
         <v>2</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B94" s="1">
         <v>2</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B95" s="1">
         <v>2</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B96" s="1">
         <v>2</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B97" s="1">
         <v>2</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B98" s="1">
         <v>2</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B99" s="1">
         <v>2</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B100" s="1">
         <v>2</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B101" s="1">
         <v>2</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B102" s="1">
         <v>2</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B103" s="1">
         <v>2</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B104" s="1">
         <v>2</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B105" s="1">
+        <v>2</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B105" s="1">
-        <v>2</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A106" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="B106" s="1">
         <v>2</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B107" s="1">
         <v>2</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B108" s="1">
         <v>2</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B109" s="1">
         <v>2</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B110" s="1">
         <v>2</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B111" s="1">
         <v>2</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B112" s="1">
         <v>2</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B113" s="1">
         <v>2</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B114" s="1">
         <v>2</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B115" s="1">
         <v>2</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B116" s="1">
+        <v>1</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B117" s="1">
+        <v>1</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B118" s="1">
+        <v>1</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B119" s="1">
+        <v>1</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B120" s="1">
+        <v>1</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B121" s="1">
+        <v>1</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B122" s="1">
+        <v>1</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B123" s="1">
+        <v>1</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B124" s="1">
+        <v>2</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B125" s="1">
+        <v>1</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B126" s="1">
+        <v>1</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B127" s="1">
+        <v>2</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B128" s="1">
+        <v>1</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B129" s="1">
+        <v>1</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B130" s="1">
+        <v>1</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B131" s="1">
+        <v>1</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B132" s="1">
+        <v>1</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B133" s="1">
+        <v>1</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B134" s="1">
+        <v>1</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B135" s="1">
+        <v>1</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B136" s="1">
+        <v>1</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B137" s="1">
+        <v>1</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B138" s="1">
+        <v>1</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B139" s="1">
+        <v>1</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/영어_복습.xlsx
+++ b/학습자료/단답형/영어_복습.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$184</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="339">
   <si>
     <t>질문</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,198 +264,6 @@
     <t>동명사</t>
   </si>
   <si>
-    <t>involve 포함하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recommend 추천하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resist 반대하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deny 부인하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>finish 끝내다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quit 멈추다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delay 미루다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recall 상기하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>risk 무릅쓰다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>avoid 피하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admit 인정하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>consider 고려하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>suggest 제안하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stop 멈추다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">put off 연기하다 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>postpone 연기하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>appreciate 감사하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>give up 포기하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enjoy 즐기다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>miss 그리워하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mind 꺼리다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>intend 의도하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefer 좋아하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>continue 계속하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cease 그만두다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>propose 작정이다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hate 싫어하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>begin 시작하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>love 사랑하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>like 좋아하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start 시작하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plan 계획하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">learn 배우다 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>demand 요구하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ask 요청하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promise 약속하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wish 바라다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expect 기대하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decide 결정하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>offer 제안하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desire 바라다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>need 필요로 하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>agree 동의하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose 선택하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>threaten 위협하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attempt 시도하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hope 희망하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>want 원하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>부정사 전치사 구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -732,6 +540,607 @@
   </si>
   <si>
     <t>look forward to 동명사 : ~하는 것을 기대하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>want : 원하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>hope : 희망하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>attempt : 시도하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>threaten : 위협하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>choose : 선택하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>agree : 동의하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>need : 필요로 하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>desire : 바라다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>offer : 제안하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>decide : 결정하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>expect : 기대하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>wish : 바라다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>promise : 약속하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>ask : 요청하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>demand : 요구하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>learn : 배우다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>plan : 계획하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>start : 시작하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>like : 좋아하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>love : 사랑하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>begin : 시작하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>hate : 싫어하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>propose : 작정이다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>cease : 그만두다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>continue : 계속하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>prefer : 좋아하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>intend : 의도하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>mind : 꺼리다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>miss : 그리워하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>enjoy : 즐기다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>give up : 포기하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>appreciate : 감사하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>postpone : 연기하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>put off : 연기하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>stop : 멈추다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>suggest : 제안하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>consider : 고려하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>admit : 인정하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>avoid : 피하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>risk : 무릅쓰다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>recall : 상기하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>delay : 미루다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>quit : 멈추다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>finish : 끝내다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>deny : 부인하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>resist : 반대하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>recommend : 추천하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>involve : 포함하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>be susceptible to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~에 걸리기 쉽다, ~의 영향을 받기 쉽다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뜻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be suppressive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>억압하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be suspensive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불안하다, 확실하지 않다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be suspected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의심을 받다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuse A of B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A를 B로 기소[고소]하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attribute A to B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A를 B의 탓으로 돌리다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attribute A to B : A를 B의 탓으로 돌리다</t>
+  </si>
+  <si>
+    <t>to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>see off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배웅하다, 쫓아내다, 이기다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배제하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~의 형을 받다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be sentenced to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be sentenced to : ~의 형을 받다</t>
+  </si>
+  <si>
+    <t>resort to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~에 기대다, 의지하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resort to : ~에 기대다, 의지하다</t>
+  </si>
+  <si>
+    <t>make up with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~와 화해하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도망가다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make away</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make over</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양도하다, 고치다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make against</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~에게 불리하게 작용하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>increase in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~에 있어서 증가하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talk A out of B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A가 B 못하도록 설득하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be susceptible to : ~에 걸리기 쉽다, ~의 영향을 받기 쉽다</t>
+  </si>
+  <si>
+    <t>accuse A of B : A를 B로 기소[고소]하다</t>
+  </si>
+  <si>
+    <t>see off : 배웅하다, 쫓아내다, 이기다</t>
+  </si>
+  <si>
+    <t>rule out : 배제하다</t>
+  </si>
+  <si>
+    <t>make up with : ~와 화해하다</t>
+  </si>
+  <si>
+    <t>make away : 도망가다</t>
+  </si>
+  <si>
+    <t>make over : 양도하다, 고치다</t>
+  </si>
+  <si>
+    <t>make against : ~에게 불리하게 작용하다</t>
+  </si>
+  <si>
+    <t>increase in : ~에 있어서 증가하다</t>
+  </si>
+  <si>
+    <t>talk A out of B : A가 B 못하도록 설득하다</t>
+  </si>
+  <si>
+    <t>to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>up with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>away</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>over</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>against</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전치사 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">in </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lacking</t>
+  </si>
+  <si>
+    <t>부족한</t>
+  </si>
+  <si>
+    <t>leading</t>
+  </si>
+  <si>
+    <t>일류의</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>없어진</t>
+  </si>
+  <si>
+    <t>promising</t>
+  </si>
+  <si>
+    <t>유망한</t>
+  </si>
+  <si>
+    <t>learned</t>
+  </si>
+  <si>
+    <t>박식한</t>
+  </si>
+  <si>
+    <t>developed</t>
+  </si>
+  <si>
+    <t>고도로 발달한</t>
+  </si>
+  <si>
+    <t>finished</t>
+  </si>
+  <si>
+    <t>끝난</t>
+  </si>
+  <si>
+    <t>qualified</t>
+  </si>
+  <si>
+    <t>적격의</t>
+  </si>
+  <si>
+    <t>committed</t>
+  </si>
+  <si>
+    <t>성실한</t>
+  </si>
+  <si>
+    <t>married</t>
+  </si>
+  <si>
+    <t>결혼한</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>educated</t>
+  </si>
+  <si>
+    <t>교양 있는, 지식에 의한</t>
+  </si>
+  <si>
+    <t>advanced</t>
+  </si>
+  <si>
+    <t>선진의</t>
+  </si>
+  <si>
+    <t>experienced</t>
+  </si>
+  <si>
+    <t>노련한</t>
+  </si>
+  <si>
+    <t>time-consuming</t>
+  </si>
+  <si>
+    <t>시간이 걸리는</t>
+  </si>
+  <si>
+    <t>man-made</t>
+  </si>
+  <si>
+    <t>인공의</t>
+  </si>
+  <si>
+    <t>mouth-watering</t>
+  </si>
+  <si>
+    <t>군침이 도는</t>
+  </si>
+  <si>
+    <t>self-made</t>
+  </si>
+  <si>
+    <t>자수성가한</t>
+  </si>
+  <si>
+    <t>consumer-centered</t>
+  </si>
+  <si>
+    <t>소비자 중심의</t>
+  </si>
+  <si>
+    <t>emotion-centered</t>
+  </si>
+  <si>
+    <t>감정 중심의</t>
+  </si>
+  <si>
+    <t>형용사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형용사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amaze</t>
+  </si>
+  <si>
+    <t>annoy</t>
+  </si>
+  <si>
+    <t>confuse</t>
+  </si>
+  <si>
+    <t>depress</t>
+  </si>
+  <si>
+    <t>embarrass</t>
+  </si>
+  <si>
+    <t>excite</t>
+  </si>
+  <si>
+    <t>worry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frighten</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>irritate</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>satisfy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>~을 놀라게 하다 (감정동사)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~을 화나게 하다 (감정동사)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~을 혼란시키다 (감정동사)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~을 우울하게 하다 (감정동사)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~을 당황하게 하다 (감정동사)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~을 흥분시키다 (감정동사)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~을 걱정시키다 (감정동사)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~을 놀라게 하다 (감정동사)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~을 재미있게 하다 (감정동사)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~을 짜증나게 하다 (감정동사)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~을 즐겁게 하다 (감정동사)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~을 만족시키다 (감정동사)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~을 놀라게 하다 (감정동사)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감정동사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1068,11 +1477,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C184"/>
+  <dimension ref="A1:D246"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C184" sqref="C184"/>
+      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D233" sqref="D233:D246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1084,7 +1493,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1094,10 +1503,13 @@
       <c r="C1" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>69</v>
@@ -1105,10 +1517,13 @@
       <c r="C2" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>69</v>
@@ -1116,10 +1531,13 @@
       <c r="C3" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>69</v>
@@ -1127,10 +1545,13 @@
       <c r="C4" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>69</v>
@@ -1138,10 +1559,13 @@
       <c r="C5" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>69</v>
@@ -1149,10 +1573,13 @@
       <c r="C6" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>69</v>
@@ -1160,10 +1587,13 @@
       <c r="C7" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>69</v>
@@ -1171,10 +1601,13 @@
       <c r="C8" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>69</v>
@@ -1182,10 +1615,13 @@
       <c r="C9" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>69</v>
@@ -1193,10 +1629,13 @@
       <c r="C10" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>69</v>
@@ -1204,10 +1643,13 @@
       <c r="C11" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>108</v>
+        <v>171</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>69</v>
@@ -1215,10 +1657,13 @@
       <c r="C12" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>69</v>
@@ -1226,10 +1671,13 @@
       <c r="C13" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>69</v>
@@ -1237,10 +1685,13 @@
       <c r="C14" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>105</v>
+        <v>174</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>69</v>
@@ -1248,10 +1699,13 @@
       <c r="C15" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>69</v>
@@ -1259,10 +1713,13 @@
       <c r="C16" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>69</v>
@@ -1270,10 +1727,13 @@
       <c r="C17" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>69</v>
@@ -1281,120 +1741,153 @@
       <c r="C18" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>101</v>
+        <v>178</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>97</v>
+        <v>182</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>96</v>
+        <v>183</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>95</v>
+        <v>184</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>94</v>
+        <v>185</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>93</v>
+        <v>186</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>91</v>
+        <v>188</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>70</v>
@@ -1402,10 +1895,13 @@
       <c r="C29" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>90</v>
+        <v>189</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>70</v>
@@ -1413,10 +1909,13 @@
       <c r="C30" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>89</v>
+        <v>190</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>70</v>
@@ -1424,10 +1923,13 @@
       <c r="C31" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>88</v>
+        <v>191</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>70</v>
@@ -1435,10 +1937,13 @@
       <c r="C32" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>87</v>
+        <v>192</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>70</v>
@@ -1446,10 +1951,13 @@
       <c r="C33" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>86</v>
+        <v>193</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>70</v>
@@ -1457,10 +1965,13 @@
       <c r="C34" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>70</v>
@@ -1468,10 +1979,13 @@
       <c r="C35" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>70</v>
@@ -1479,10 +1993,13 @@
       <c r="C36" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>83</v>
+        <v>196</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>70</v>
@@ -1490,10 +2007,13 @@
       <c r="C37" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>70</v>
@@ -1501,10 +2021,13 @@
       <c r="C38" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>70</v>
@@ -1512,10 +2035,13 @@
       <c r="C39" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>70</v>
@@ -1523,10 +2049,13 @@
       <c r="C40" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>70</v>
@@ -1534,10 +2063,13 @@
       <c r="C41" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>70</v>
@@ -1545,10 +2077,13 @@
       <c r="C42" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>70</v>
@@ -1556,10 +2091,13 @@
       <c r="C43" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>70</v>
@@ -1567,10 +2105,13 @@
       <c r="C44" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>75</v>
+        <v>204</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>70</v>
@@ -1578,10 +2119,13 @@
       <c r="C45" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>70</v>
@@ -1589,10 +2133,13 @@
       <c r="C46" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>73</v>
+        <v>206</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>70</v>
@@ -1600,10 +2147,13 @@
       <c r="C47" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>72</v>
+        <v>207</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>70</v>
@@ -1611,10 +2161,13 @@
       <c r="C48" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>71</v>
+        <v>208</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>70</v>
@@ -1622,8 +2175,11 @@
       <c r="C49" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>2</v>
       </c>
@@ -1633,8 +2189,11 @@
       <c r="C50" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>46</v>
       </c>
@@ -1644,8 +2203,11 @@
       <c r="C51" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>47</v>
       </c>
@@ -1655,8 +2217,11 @@
       <c r="C52" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>4</v>
       </c>
@@ -1666,8 +2231,11 @@
       <c r="C53" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>6</v>
       </c>
@@ -1677,8 +2245,11 @@
       <c r="C54" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
@@ -1688,8 +2259,11 @@
       <c r="C55" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>10</v>
       </c>
@@ -1699,8 +2273,11 @@
       <c r="C56" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>12</v>
       </c>
@@ -1710,8 +2287,11 @@
       <c r="C57" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>14</v>
       </c>
@@ -1721,8 +2301,11 @@
       <c r="C58" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>16</v>
       </c>
@@ -1732,8 +2315,11 @@
       <c r="C59" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>54</v>
       </c>
@@ -1743,8 +2329,11 @@
       <c r="C60" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>49</v>
       </c>
@@ -1754,8 +2343,11 @@
       <c r="C61" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>22</v>
       </c>
@@ -1765,8 +2357,11 @@
       <c r="C62" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>48</v>
       </c>
@@ -1776,8 +2371,11 @@
       <c r="C63" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>18</v>
       </c>
@@ -1787,8 +2385,11 @@
       <c r="C64" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>20</v>
       </c>
@@ -1798,8 +2399,11 @@
       <c r="C65" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>22</v>
       </c>
@@ -1809,8 +2413,11 @@
       <c r="C66" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>23</v>
       </c>
@@ -1820,8 +2427,11 @@
       <c r="C67" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D67" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>25</v>
       </c>
@@ -1831,8 +2441,11 @@
       <c r="C68" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D68" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>27</v>
       </c>
@@ -1842,8 +2455,11 @@
       <c r="C69" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D69" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>29</v>
       </c>
@@ -1853,8 +2469,11 @@
       <c r="C70" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D70" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>31</v>
       </c>
@@ -1864,8 +2483,11 @@
       <c r="C71" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D71" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>33</v>
       </c>
@@ -1875,8 +2497,11 @@
       <c r="C72" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D72" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>35</v>
       </c>
@@ -1886,8 +2511,11 @@
       <c r="C73" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D73" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>37</v>
       </c>
@@ -1897,8 +2525,11 @@
       <c r="C74" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D74" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>39</v>
       </c>
@@ -1908,8 +2539,11 @@
       <c r="C75" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D75" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>41</v>
       </c>
@@ -1919,8 +2553,11 @@
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D76" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>43</v>
       </c>
@@ -1930,8 +2567,11 @@
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D77" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>50</v>
       </c>
@@ -1941,8 +2581,11 @@
       <c r="C78" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D78" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>52</v>
       </c>
@@ -1952,1164 +2595,2350 @@
       <c r="C79" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D79" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
+      <c r="B130" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
+      <c r="B131" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
+      <c r="B132" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
+      <c r="B133" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
+      <c r="B134" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
+      <c r="B135" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
+      <c r="C135" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
+      <c r="D135" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A122" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>194</v>
+        <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>198</v>
+        <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>199</v>
+        <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C154" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="1" t="s">
+      <c r="B174" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="1" t="s">
+      <c r="B175" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="1" t="s">
+      <c r="B182" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="1" t="s">
+      <c r="B183" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="B184" s="1" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>119</v>
+        <v>71</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C135"/>
+  <autoFilter ref="A1:C184"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/학습자료/단답형/영어_복습.xlsx
+++ b/학습자료/단답형/영어_복습.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="361">
   <si>
     <t>질문</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -906,18 +906,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오늘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">in </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1142,6 +1130,99 @@
   <si>
     <t>감정동사</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No sooner had S pp than S 과거시제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hardly(Scarcely) had S pp before(when) S 과거시제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>… 하자마자 ~ 했다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>As soon as S 과거시제, S 과거시제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upon(on) 동명사, S 과거시제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뜻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No sooner had S pp than S 과거시제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과거시제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과거완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hardly(Scarcely) 과거완료 S before(when) S 과거시제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No sooner 과거완료 S than S 과거시제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>should/were to R</t>
+  </si>
+  <si>
+    <t>조동사 현재/과거 동사원형</t>
+  </si>
+  <si>
+    <t>(미래) If S should/were to 동사원형, S 조동사 현재/과거 동사원형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(현재) If S R(-s/-es), S will/can + 동사원형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R(-s/-es)</t>
+  </si>
+  <si>
+    <t>will/can + 동사원형</t>
+  </si>
+  <si>
+    <t>(과거) If S 과거동사, S 조동사 과거 + 동사원형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동사시제_조동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과거동사</t>
+  </si>
+  <si>
+    <t>조동사 과거 + 동사원형</t>
+  </si>
+  <si>
+    <t>(대과거) If S 과거완료, S 조동사 과거 + 현재완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과거완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(대과거) If S 과거완료, S 조동사 과거 + 현재완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조동사 과거 + 현재완료</t>
   </si>
 </sst>
 </file>
@@ -1477,23 +1558,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D246"/>
+  <dimension ref="A1:C263"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D233" sqref="D233:D246"/>
+      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C260" sqref="C260:C263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1503,11 +1583,8 @@
       <c r="C1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>161</v>
       </c>
@@ -1517,11 +1594,8 @@
       <c r="C2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>162</v>
       </c>
@@ -1531,11 +1605,8 @@
       <c r="C3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>163</v>
       </c>
@@ -1545,11 +1616,8 @@
       <c r="C4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>164</v>
       </c>
@@ -1559,11 +1627,8 @@
       <c r="C5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>165</v>
       </c>
@@ -1573,11 +1638,8 @@
       <c r="C6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>166</v>
       </c>
@@ -1587,11 +1649,8 @@
       <c r="C7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>167</v>
       </c>
@@ -1601,11 +1660,8 @@
       <c r="C8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>168</v>
       </c>
@@ -1615,11 +1671,8 @@
       <c r="C9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>169</v>
       </c>
@@ -1629,11 +1682,8 @@
       <c r="C10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>170</v>
       </c>
@@ -1643,11 +1693,8 @@
       <c r="C11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>171</v>
       </c>
@@ -1657,11 +1704,8 @@
       <c r="C12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>172</v>
       </c>
@@ -1671,11 +1715,8 @@
       <c r="C13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>173</v>
       </c>
@@ -1685,11 +1726,8 @@
       <c r="C14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>174</v>
       </c>
@@ -1699,11 +1737,8 @@
       <c r="C15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>175</v>
       </c>
@@ -1713,11 +1748,8 @@
       <c r="C16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>176</v>
       </c>
@@ -1727,11 +1759,8 @@
       <c r="C17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>177</v>
       </c>
@@ -1741,11 +1770,8 @@
       <c r="C18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>178</v>
       </c>
@@ -1755,11 +1781,8 @@
       <c r="C19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>179</v>
       </c>
@@ -1769,11 +1792,8 @@
       <c r="C20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>180</v>
       </c>
@@ -1783,11 +1803,8 @@
       <c r="C21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>181</v>
       </c>
@@ -1797,11 +1814,8 @@
       <c r="C22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>182</v>
       </c>
@@ -1811,11 +1825,8 @@
       <c r="C23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>183</v>
       </c>
@@ -1825,11 +1836,8 @@
       <c r="C24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>184</v>
       </c>
@@ -1839,11 +1847,8 @@
       <c r="C25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>185</v>
       </c>
@@ -1853,11 +1858,8 @@
       <c r="C26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>186</v>
       </c>
@@ -1867,11 +1869,8 @@
       <c r="C27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>187</v>
       </c>
@@ -1881,11 +1880,8 @@
       <c r="C28" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>188</v>
       </c>
@@ -1895,11 +1891,8 @@
       <c r="C29" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>189</v>
       </c>
@@ -1909,11 +1902,8 @@
       <c r="C30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>190</v>
       </c>
@@ -1923,11 +1913,8 @@
       <c r="C31" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>191</v>
       </c>
@@ -1937,11 +1924,8 @@
       <c r="C32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>192</v>
       </c>
@@ -1951,11 +1935,8 @@
       <c r="C33" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>193</v>
       </c>
@@ -1965,11 +1946,8 @@
       <c r="C34" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>194</v>
       </c>
@@ -1979,11 +1957,8 @@
       <c r="C35" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>195</v>
       </c>
@@ -1993,11 +1968,8 @@
       <c r="C36" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>196</v>
       </c>
@@ -2007,11 +1979,8 @@
       <c r="C37" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>197</v>
       </c>
@@ -2021,11 +1990,8 @@
       <c r="C38" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>198</v>
       </c>
@@ -2035,11 +2001,8 @@
       <c r="C39" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>199</v>
       </c>
@@ -2049,11 +2012,8 @@
       <c r="C40" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>200</v>
       </c>
@@ -2063,11 +2023,8 @@
       <c r="C41" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>201</v>
       </c>
@@ -2077,11 +2034,8 @@
       <c r="C42" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>202</v>
       </c>
@@ -2091,11 +2045,8 @@
       <c r="C43" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>203</v>
       </c>
@@ -2105,11 +2056,8 @@
       <c r="C44" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>204</v>
       </c>
@@ -2119,11 +2067,8 @@
       <c r="C45" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>205</v>
       </c>
@@ -2133,11 +2078,8 @@
       <c r="C46" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>206</v>
       </c>
@@ -2147,11 +2089,8 @@
       <c r="C47" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>207</v>
       </c>
@@ -2161,11 +2100,8 @@
       <c r="C48" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>208</v>
       </c>
@@ -2175,11 +2111,8 @@
       <c r="C49" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>2</v>
       </c>
@@ -2189,11 +2122,8 @@
       <c r="C50" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>46</v>
       </c>
@@ -2203,11 +2133,8 @@
       <c r="C51" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>47</v>
       </c>
@@ -2217,11 +2144,8 @@
       <c r="C52" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>4</v>
       </c>
@@ -2231,11 +2155,8 @@
       <c r="C53" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>6</v>
       </c>
@@ -2245,11 +2166,8 @@
       <c r="C54" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
@@ -2259,11 +2177,8 @@
       <c r="C55" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>10</v>
       </c>
@@ -2273,11 +2188,8 @@
       <c r="C56" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>12</v>
       </c>
@@ -2287,11 +2199,8 @@
       <c r="C57" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>14</v>
       </c>
@@ -2301,11 +2210,8 @@
       <c r="C58" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>16</v>
       </c>
@@ -2315,11 +2221,8 @@
       <c r="C59" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>54</v>
       </c>
@@ -2329,11 +2232,8 @@
       <c r="C60" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>49</v>
       </c>
@@ -2343,11 +2243,8 @@
       <c r="C61" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>22</v>
       </c>
@@ -2357,11 +2254,8 @@
       <c r="C62" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>48</v>
       </c>
@@ -2371,11 +2265,8 @@
       <c r="C63" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>18</v>
       </c>
@@ -2385,11 +2276,8 @@
       <c r="C64" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>20</v>
       </c>
@@ -2399,11 +2287,8 @@
       <c r="C65" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>22</v>
       </c>
@@ -2413,11 +2298,8 @@
       <c r="C66" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>23</v>
       </c>
@@ -2427,11 +2309,8 @@
       <c r="C67" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>25</v>
       </c>
@@ -2441,11 +2320,8 @@
       <c r="C68" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>27</v>
       </c>
@@ -2455,11 +2331,8 @@
       <c r="C69" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>29</v>
       </c>
@@ -2469,11 +2342,8 @@
       <c r="C70" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>31</v>
       </c>
@@ -2483,11 +2353,8 @@
       <c r="C71" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>33</v>
       </c>
@@ -2497,11 +2364,8 @@
       <c r="C72" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>35</v>
       </c>
@@ -2511,11 +2375,8 @@
       <c r="C73" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>37</v>
       </c>
@@ -2525,11 +2386,8 @@
       <c r="C74" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>39</v>
       </c>
@@ -2539,11 +2397,8 @@
       <c r="C75" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>41</v>
       </c>
@@ -2553,11 +2408,8 @@
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>43</v>
       </c>
@@ -2567,11 +2419,8 @@
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>50</v>
       </c>
@@ -2581,11 +2430,8 @@
       <c r="C78" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>52</v>
       </c>
@@ -2595,11 +2441,8 @@
       <c r="C79" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>73</v>
       </c>
@@ -2609,11 +2452,8 @@
       <c r="C80" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>74</v>
       </c>
@@ -2623,11 +2463,8 @@
       <c r="C81" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>75</v>
       </c>
@@ -2637,11 +2474,8 @@
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>76</v>
       </c>
@@ -2651,11 +2485,8 @@
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>77</v>
       </c>
@@ -2665,11 +2496,8 @@
       <c r="C84" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>78</v>
       </c>
@@ -2679,11 +2507,8 @@
       <c r="C85" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>79</v>
       </c>
@@ -2693,11 +2518,8 @@
       <c r="C86" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>80</v>
       </c>
@@ -2707,11 +2529,8 @@
       <c r="C87" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>81</v>
       </c>
@@ -2721,11 +2540,8 @@
       <c r="C88" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>82</v>
       </c>
@@ -2735,11 +2551,8 @@
       <c r="C89" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>83</v>
       </c>
@@ -2749,11 +2562,8 @@
       <c r="C90" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>84</v>
       </c>
@@ -2763,11 +2573,8 @@
       <c r="C91" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>85</v>
       </c>
@@ -2777,11 +2584,8 @@
       <c r="C92" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>86</v>
       </c>
@@ -2791,11 +2595,8 @@
       <c r="C93" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>87</v>
       </c>
@@ -2805,11 +2606,8 @@
       <c r="C94" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>88</v>
       </c>
@@ -2819,11 +2617,8 @@
       <c r="C95" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D95" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>89</v>
       </c>
@@ -2833,11 +2628,8 @@
       <c r="C96" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>90</v>
       </c>
@@ -2847,11 +2639,8 @@
       <c r="C97" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>91</v>
       </c>
@@ -2861,11 +2650,8 @@
       <c r="C98" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D98" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>92</v>
       </c>
@@ -2875,11 +2661,8 @@
       <c r="C99" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>93</v>
       </c>
@@ -2889,11 +2672,8 @@
       <c r="C100" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>94</v>
       </c>
@@ -2903,11 +2683,8 @@
       <c r="C101" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>95</v>
       </c>
@@ -2917,11 +2694,8 @@
       <c r="C102" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>96</v>
       </c>
@@ -2931,11 +2705,8 @@
       <c r="C103" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>97</v>
       </c>
@@ -2945,11 +2716,8 @@
       <c r="C104" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D104" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>98</v>
       </c>
@@ -2959,11 +2727,8 @@
       <c r="C105" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>99</v>
       </c>
@@ -2973,11 +2738,8 @@
       <c r="C106" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>100</v>
       </c>
@@ -2987,11 +2749,8 @@
       <c r="C107" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>134</v>
       </c>
@@ -3001,11 +2760,8 @@
       <c r="C108" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>101</v>
       </c>
@@ -3015,11 +2771,8 @@
       <c r="C109" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>102</v>
       </c>
@@ -3029,11 +2782,8 @@
       <c r="C110" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>103</v>
       </c>
@@ -3043,11 +2793,8 @@
       <c r="C111" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>104</v>
       </c>
@@ -3057,11 +2804,8 @@
       <c r="C112" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>105</v>
       </c>
@@ -3071,11 +2815,8 @@
       <c r="C113" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>106</v>
       </c>
@@ -3085,11 +2826,8 @@
       <c r="C114" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>107</v>
       </c>
@@ -3099,11 +2837,8 @@
       <c r="C115" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D115" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>108</v>
       </c>
@@ -3113,11 +2848,8 @@
       <c r="C116" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D116" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>109</v>
       </c>
@@ -3127,11 +2859,8 @@
       <c r="C117" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>110</v>
       </c>
@@ -3141,11 +2870,8 @@
       <c r="C118" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D118" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>111</v>
       </c>
@@ -3155,11 +2881,8 @@
       <c r="C119" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D119" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>112</v>
       </c>
@@ -3169,11 +2892,8 @@
       <c r="C120" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D120" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>113</v>
       </c>
@@ -3183,11 +2903,8 @@
       <c r="C121" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D121" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>114</v>
       </c>
@@ -3197,11 +2914,8 @@
       <c r="C122" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D122" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>115</v>
       </c>
@@ -3211,11 +2925,8 @@
       <c r="C123" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D123" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>116</v>
       </c>
@@ -3225,11 +2936,8 @@
       <c r="C124" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>117</v>
       </c>
@@ -3239,11 +2947,8 @@
       <c r="C125" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D125" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>114</v>
       </c>
@@ -3253,11 +2958,8 @@
       <c r="C126" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>118</v>
       </c>
@@ -3267,11 +2969,8 @@
       <c r="C127" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D127" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>119</v>
       </c>
@@ -3281,11 +2980,8 @@
       <c r="C128" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D128" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>120</v>
       </c>
@@ -3295,11 +2991,8 @@
       <c r="C129" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D129" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>121</v>
       </c>
@@ -3309,11 +3002,8 @@
       <c r="C130" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D130" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>122</v>
       </c>
@@ -3323,11 +3013,8 @@
       <c r="C131" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D131" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>123</v>
       </c>
@@ -3337,11 +3024,8 @@
       <c r="C132" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D132" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>124</v>
       </c>
@@ -3351,11 +3035,8 @@
       <c r="C133" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D133" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>125</v>
       </c>
@@ -3365,11 +3046,8 @@
       <c r="C134" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D134" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>126</v>
       </c>
@@ -3379,11 +3057,8 @@
       <c r="C135" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D135" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>135</v>
       </c>
@@ -3393,11 +3068,8 @@
       <c r="C136" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D136" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>136</v>
       </c>
@@ -3407,11 +3079,8 @@
       <c r="C137" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D137" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>137</v>
       </c>
@@ -3421,11 +3090,8 @@
       <c r="C138" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D138" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>138</v>
       </c>
@@ -3435,11 +3101,8 @@
       <c r="C139" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D139" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>139</v>
       </c>
@@ -3449,11 +3112,8 @@
       <c r="C140" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D140" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>140</v>
       </c>
@@ -3463,11 +3123,8 @@
       <c r="C141" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D141" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>141</v>
       </c>
@@ -3477,11 +3134,8 @@
       <c r="C142" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D142" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>142</v>
       </c>
@@ -3491,11 +3145,8 @@
       <c r="C143" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D143" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>143</v>
       </c>
@@ -3505,11 +3156,8 @@
       <c r="C144" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D144" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>144</v>
       </c>
@@ -3519,11 +3167,8 @@
       <c r="C145" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D145" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>145</v>
       </c>
@@ -3533,11 +3178,8 @@
       <c r="C146" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D146" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>146</v>
       </c>
@@ -3547,11 +3189,8 @@
       <c r="C147" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D147" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>147</v>
       </c>
@@ -3561,11 +3200,8 @@
       <c r="C148" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D148" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>148</v>
       </c>
@@ -3575,11 +3211,8 @@
       <c r="C149" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D149" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>149</v>
       </c>
@@ -3589,11 +3222,8 @@
       <c r="C150" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D150" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>150</v>
       </c>
@@ -3603,11 +3233,8 @@
       <c r="C151" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D151" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>151</v>
       </c>
@@ -3617,11 +3244,8 @@
       <c r="C152" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D152" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>152</v>
       </c>
@@ -3631,11 +3255,8 @@
       <c r="C153" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D153" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>153</v>
       </c>
@@ -3645,11 +3266,8 @@
       <c r="C154" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D154" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>104</v>
       </c>
@@ -3659,11 +3277,8 @@
       <c r="C155" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D155" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>154</v>
       </c>
@@ -3673,11 +3288,8 @@
       <c r="C156" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D156" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>155</v>
       </c>
@@ -3687,11 +3299,8 @@
       <c r="C157" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D157" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>105</v>
       </c>
@@ -3701,11 +3310,8 @@
       <c r="C158" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D158" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>106</v>
       </c>
@@ -3715,11 +3321,8 @@
       <c r="C159" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D159" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>107</v>
       </c>
@@ -3729,11 +3332,8 @@
       <c r="C160" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D160" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>108</v>
       </c>
@@ -3743,11 +3343,8 @@
       <c r="C161" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D161" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>109</v>
       </c>
@@ -3757,11 +3354,8 @@
       <c r="C162" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D162" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>110</v>
       </c>
@@ -3771,11 +3365,8 @@
       <c r="C163" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D163" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>111</v>
       </c>
@@ -3785,11 +3376,8 @@
       <c r="C164" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D164" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>112</v>
       </c>
@@ -3799,11 +3387,8 @@
       <c r="C165" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D165" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>113</v>
       </c>
@@ -3813,11 +3398,8 @@
       <c r="C166" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D166" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>114</v>
       </c>
@@ -3827,11 +3409,8 @@
       <c r="C167" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D167" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>115</v>
       </c>
@@ -3841,11 +3420,8 @@
       <c r="C168" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D168" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>116</v>
       </c>
@@ -3855,11 +3431,8 @@
       <c r="C169" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D169" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>117</v>
       </c>
@@ -3869,11 +3442,8 @@
       <c r="C170" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D170" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>114</v>
       </c>
@@ -3883,11 +3453,8 @@
       <c r="C171" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D171" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>118</v>
       </c>
@@ -3897,11 +3464,8 @@
       <c r="C172" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D172" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>119</v>
       </c>
@@ -3911,11 +3475,8 @@
       <c r="C173" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D173" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>120</v>
       </c>
@@ -3925,11 +3486,8 @@
       <c r="C174" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D174" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>156</v>
       </c>
@@ -3939,11 +3497,8 @@
       <c r="C175" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D175" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>121</v>
       </c>
@@ -3953,11 +3508,8 @@
       <c r="C176" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D176" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>122</v>
       </c>
@@ -3967,11 +3519,8 @@
       <c r="C177" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D177" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>123</v>
       </c>
@@ -3981,11 +3530,8 @@
       <c r="C178" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D178" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>124</v>
       </c>
@@ -3995,11 +3541,8 @@
       <c r="C179" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D179" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>125</v>
       </c>
@@ -4009,11 +3552,8 @@
       <c r="C180" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D180" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>126</v>
       </c>
@@ -4023,11 +3563,8 @@
       <c r="C181" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D181" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>157</v>
       </c>
@@ -4037,11 +3574,8 @@
       <c r="C182" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D182" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>158</v>
       </c>
@@ -4051,11 +3585,8 @@
       <c r="C183" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D183" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>160</v>
       </c>
@@ -4065,11 +3596,8 @@
       <c r="C184" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D184" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>209</v>
       </c>
@@ -4079,11 +3607,8 @@
       <c r="C185" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D185" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>212</v>
       </c>
@@ -4093,11 +3618,8 @@
       <c r="C186" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D186" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>214</v>
       </c>
@@ -4107,11 +3629,8 @@
       <c r="C187" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D187" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>216</v>
       </c>
@@ -4121,11 +3640,8 @@
       <c r="C188" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D188" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>218</v>
       </c>
@@ -4135,11 +3651,8 @@
       <c r="C189" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D189" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>221</v>
       </c>
@@ -4149,11 +3662,8 @@
       <c r="C190" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D190" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>225</v>
       </c>
@@ -4163,11 +3673,8 @@
       <c r="C191" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D191" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>227</v>
       </c>
@@ -4177,11 +3684,8 @@
       <c r="C192" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D192" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>230</v>
       </c>
@@ -4191,11 +3695,8 @@
       <c r="C193" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D193" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>232</v>
       </c>
@@ -4205,11 +3706,8 @@
       <c r="C194" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D194" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>235</v>
       </c>
@@ -4219,11 +3717,8 @@
       <c r="C195" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D195" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>238</v>
       </c>
@@ -4233,11 +3728,8 @@
       <c r="C196" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D196" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>239</v>
       </c>
@@ -4247,11 +3739,8 @@
       <c r="C197" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D197" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>241</v>
       </c>
@@ -4261,11 +3750,8 @@
       <c r="C198" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D198" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>243</v>
       </c>
@@ -4275,11 +3761,8 @@
       <c r="C199" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D199" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>245</v>
       </c>
@@ -4289,11 +3772,8 @@
       <c r="C200" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D200" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>247</v>
       </c>
@@ -4303,11 +3783,8 @@
       <c r="C201" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D201" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>248</v>
       </c>
@@ -4317,11 +3794,8 @@
       <c r="C202" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D202" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>223</v>
       </c>
@@ -4331,11 +3805,8 @@
       <c r="C203" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D203" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>249</v>
       </c>
@@ -4345,11 +3816,8 @@
       <c r="C204" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D204" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>250</v>
       </c>
@@ -4359,11 +3827,8 @@
       <c r="C205" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D205" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>231</v>
       </c>
@@ -4373,11 +3838,8 @@
       <c r="C206" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D206" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>234</v>
       </c>
@@ -4387,11 +3849,8 @@
       <c r="C207" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D207" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>251</v>
       </c>
@@ -4401,11 +3860,8 @@
       <c r="C208" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D208" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>252</v>
       </c>
@@ -4415,11 +3871,8 @@
       <c r="C209" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D209" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>253</v>
       </c>
@@ -4429,11 +3882,8 @@
       <c r="C210" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D210" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>254</v>
       </c>
@@ -4443,25 +3893,19 @@
       <c r="C211" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D211" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>255</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D212" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>256</v>
       </c>
@@ -4471,470 +3915,555 @@
       <c r="C213" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D213" s="1" t="s">
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A214" s="1" t="s">
+      <c r="C214" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="C215" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C214" s="1" t="s">
+      <c r="B216" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D214" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A215" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A216" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A217" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A218" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A219" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A220" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A221" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A222" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A223" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A224" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A225" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A226" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A227" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A228" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D228" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A229" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A230" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A231" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A232" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D232" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A233" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A234" s="1" t="s">
+      <c r="B236" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="B237" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C234" s="1" t="s">
+      <c r="C237" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B247" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D234" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A235" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C235" s="1" t="s">
+      <c r="C247" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B248" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D235" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A236" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C236" s="1" t="s">
+      <c r="C248" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B249" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D236" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A237" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C237" s="1" t="s">
+      <c r="C249" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B250" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D237" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A238" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A239" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A240" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A241" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A242" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A243" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A244" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A245" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A246" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B246" s="1" t="s">
+      <c r="C250" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C246" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>269</v>
+      <c r="B253" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/영어_복습.xlsx
+++ b/학습자료/단답형/영어_복습.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="440">
   <si>
     <t>질문</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -475,761 +475,1074 @@
     <t>be crowded with  : ~로 붐비다</t>
   </si>
   <si>
+    <t>be filled with  : ~로 가득 차다</t>
+  </si>
+  <si>
+    <t>be opposed to  : ~에 반대하다</t>
+  </si>
+  <si>
+    <t>be devoted to  : ~에 헌신하다</t>
+  </si>
+  <si>
+    <t>be committed to  : ~에 전념하다</t>
+  </si>
+  <si>
+    <t>be absorbed in  : ~에 몰두하다</t>
+  </si>
+  <si>
+    <t>be convinced of / that  : ~을 확신하다</t>
+  </si>
+  <si>
+    <t>be divorced from  : ~와 이혼하다</t>
+  </si>
+  <si>
+    <t>be exposed to  : ~에 노출되다</t>
+  </si>
+  <si>
+    <t>be engaged in : ~와 약혼하다, ~에 종사하다</t>
+  </si>
+  <si>
+    <t>be based on : ~에 기초를 두다</t>
+  </si>
+  <si>
+    <t>be known to : ~에게 알려지다 (대상)</t>
+  </si>
+  <si>
+    <t>be known as : ~로서 알려지다 (별명, 명칭)</t>
+  </si>
+  <si>
+    <t>be known for : ~로 알려지다 (명성)</t>
+  </si>
+  <si>
+    <t>be on the verge of 동명사 : 막 ~하려 하다</t>
+  </si>
+  <si>
+    <t>be on the point of 동명사 : 막 ~하려 하다</t>
+  </si>
+  <si>
+    <t>to be frank with you : 솔직히 말하면</t>
+  </si>
+  <si>
+    <t>keep 목적어 from 동명사 : 막다</t>
+  </si>
+  <si>
+    <t>keep 목적어 (on) 동명사 : 유지하다</t>
+  </si>
+  <si>
+    <t>전치사 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>look forward to 동명사 : ~하는 것을 기대하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>want : 원하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>hope : 희망하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>attempt : 시도하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>threaten : 위협하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>choose : 선택하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>agree : 동의하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>need : 필요로 하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>desire : 바라다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>offer : 제안하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>decide : 결정하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>expect : 기대하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>wish : 바라다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>promise : 약속하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>ask : 요청하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>demand : 요구하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>learn : 배우다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>plan : 계획하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>start : 시작하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>like : 좋아하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>love : 사랑하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>begin : 시작하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>hate : 싫어하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>propose : 작정이다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>cease : 그만두다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>continue : 계속하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>prefer : 좋아하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>intend : 의도하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>mind : 꺼리다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>miss : 그리워하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>enjoy : 즐기다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>give up : 포기하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>appreciate : 감사하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>postpone : 연기하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>put off : 연기하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>stop : 멈추다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>suggest : 제안하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>consider : 고려하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>admit : 인정하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>avoid : 피하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>risk : 무릅쓰다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>recall : 상기하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>delay : 미루다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>quit : 멈추다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>finish : 끝내다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>deny : 부인하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>resist : 반대하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>recommend : 추천하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>involve : 포함하다 (목적어 유형)</t>
+  </si>
+  <si>
+    <t>be susceptible to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~에 걸리기 쉽다, ~의 영향을 받기 쉽다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뜻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be suppressive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>억압하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be suspensive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불안하다, 확실하지 않다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be suspected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의심을 받다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuse A of B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A를 B로 기소[고소]하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attribute A to B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A를 B의 탓으로 돌리다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attribute A to B : A를 B의 탓으로 돌리다</t>
+  </si>
+  <si>
+    <t>to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>see off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배웅하다, 쫓아내다, 이기다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배제하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~의 형을 받다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be sentenced to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be sentenced to : ~의 형을 받다</t>
+  </si>
+  <si>
+    <t>resort to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~에 기대다, 의지하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resort to : ~에 기대다, 의지하다</t>
+  </si>
+  <si>
+    <t>make up with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~와 화해하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도망가다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make away</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make over</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양도하다, 고치다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make against</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~에게 불리하게 작용하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>increase in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~에 있어서 증가하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talk A out of B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A가 B 못하도록 설득하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be susceptible to : ~에 걸리기 쉽다, ~의 영향을 받기 쉽다</t>
+  </si>
+  <si>
+    <t>accuse A of B : A를 B로 기소[고소]하다</t>
+  </si>
+  <si>
+    <t>see off : 배웅하다, 쫓아내다, 이기다</t>
+  </si>
+  <si>
+    <t>rule out : 배제하다</t>
+  </si>
+  <si>
+    <t>make up with : ~와 화해하다</t>
+  </si>
+  <si>
+    <t>make away : 도망가다</t>
+  </si>
+  <si>
+    <t>make over : 양도하다, 고치다</t>
+  </si>
+  <si>
+    <t>make against : ~에게 불리하게 작용하다</t>
+  </si>
+  <si>
+    <t>increase in : ~에 있어서 증가하다</t>
+  </si>
+  <si>
+    <t>talk A out of B : A가 B 못하도록 설득하다</t>
+  </si>
+  <si>
+    <t>to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>up with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>away</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>over</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>against</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전치사 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">in </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lacking</t>
+  </si>
+  <si>
+    <t>부족한</t>
+  </si>
+  <si>
+    <t>leading</t>
+  </si>
+  <si>
+    <t>일류의</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>없어진</t>
+  </si>
+  <si>
+    <t>promising</t>
+  </si>
+  <si>
+    <t>유망한</t>
+  </si>
+  <si>
+    <t>learned</t>
+  </si>
+  <si>
+    <t>박식한</t>
+  </si>
+  <si>
+    <t>developed</t>
+  </si>
+  <si>
+    <t>고도로 발달한</t>
+  </si>
+  <si>
+    <t>finished</t>
+  </si>
+  <si>
+    <t>끝난</t>
+  </si>
+  <si>
+    <t>qualified</t>
+  </si>
+  <si>
+    <t>적격의</t>
+  </si>
+  <si>
+    <t>committed</t>
+  </si>
+  <si>
+    <t>성실한</t>
+  </si>
+  <si>
+    <t>married</t>
+  </si>
+  <si>
+    <t>결혼한</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>educated</t>
+  </si>
+  <si>
+    <t>교양 있는, 지식에 의한</t>
+  </si>
+  <si>
+    <t>advanced</t>
+  </si>
+  <si>
+    <t>선진의</t>
+  </si>
+  <si>
+    <t>experienced</t>
+  </si>
+  <si>
+    <t>노련한</t>
+  </si>
+  <si>
+    <t>time-consuming</t>
+  </si>
+  <si>
+    <t>시간이 걸리는</t>
+  </si>
+  <si>
+    <t>man-made</t>
+  </si>
+  <si>
+    <t>인공의</t>
+  </si>
+  <si>
+    <t>mouth-watering</t>
+  </si>
+  <si>
+    <t>군침이 도는</t>
+  </si>
+  <si>
+    <t>self-made</t>
+  </si>
+  <si>
+    <t>자수성가한</t>
+  </si>
+  <si>
+    <t>consumer-centered</t>
+  </si>
+  <si>
+    <t>소비자 중심의</t>
+  </si>
+  <si>
+    <t>emotion-centered</t>
+  </si>
+  <si>
+    <t>감정 중심의</t>
+  </si>
+  <si>
+    <t>형용사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형용사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No sooner had S pp than S 과거시제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hardly(Scarcely) had S pp before(when) S 과거시제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>… 하자마자 ~ 했다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>As soon as S 과거시제, S 과거시제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upon(on) 동명사, S 과거시제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뜻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No sooner had S pp than S 과거시제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과거시제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과거완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hardly(Scarcely) 과거완료 S before(when) S 과거시제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No sooner 과거완료 S than S 과거시제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>should/were to R</t>
+  </si>
+  <si>
+    <t>조동사 현재/과거 동사원형</t>
+  </si>
+  <si>
+    <t>(미래) If S should/were to 동사원형, S 조동사 현재/과거 동사원형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(현재) If S R(-s/-es), S will/can + 동사원형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R(-s/-es)</t>
+  </si>
+  <si>
+    <t>will/can + 동사원형</t>
+  </si>
+  <si>
+    <t>(과거) If S 과거동사, S 조동사 과거 + 동사원형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동사시제_조동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과거동사</t>
+  </si>
+  <si>
+    <t>조동사 과거 + 동사원형</t>
+  </si>
+  <si>
+    <t>(대과거) If S 과거완료, S 조동사 과거 + 현재완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과거완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(대과거) If S 과거완료, S 조동사 과거 + 현재완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조동사 과거 + 현재완료</t>
+  </si>
+  <si>
+    <t>some of 단수명사 + 단수동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수일치_동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단수동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>some of 복수명사 + 복수동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복수동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>most of 단수명사 + 단수동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>most of 복수명사 + 복수동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the rest of 단수명사 + 단수동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the rest of 복수명사 + 복수동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>half of 단수명사 + 단수동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>half of 복수명사 + 복수동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분수 of 단수명사 + 단수동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분수 of 복수명사 + 복수동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>precent of 단수명사 + 단수동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>precent of 복수명사 + 복수동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>majority of 단수명사 + 단수동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>majority of 복수명사 + 복수동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minority of 단수명사 + 단수동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minority of 복수명사 + 복수동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동명사(주어) + 단수동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단수동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to 동사원형(주어) + 단수동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절(주어) + 단수동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A or B (주어) ; 수일치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>either A or B (주어) ; 수일치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neither A nor B (주어) ; 수일치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not A but B (주어) ; 수일치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not only A but also B (주어) ; 수일치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A as well as B (주어) ; 수일치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AB선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The number of + 복수명사 + 단수동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복수명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단수동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A number of + 복수명사 + 복수동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Many a + 단수명사 + 단수동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The + 형용사 (주어) + 복수동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단수명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복수명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수일치_명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주어 ＋ be동사 ＋ asked + to 동사원형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주어 ＋ be동사 ＋ told + to 동사원형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주어 ＋ be동사 ＋ allowed + to 동사원형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주어 ＋ be동사 ＋ forced + to 동사원형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주어 ＋ be동사 ＋ ordered + to 동사원형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주어 ＋ be동사 ＋ supposed + to 동사원형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주어 ＋ be동사 ＋ exoected + to 동사원형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주어 ＋ be동사 ＋ encouraged + to 동사원형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동사원형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수동태 불가 동사</t>
+  </si>
+  <si>
+    <t>특징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>happen / occur / take place：발생하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suffer from：~으로 고통받다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>belong to：~에 속하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appear / seem：~로 보이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disappear：사라지다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remain：~인 채로 남겨지다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consist of：~로 구성되다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resemble：~을 닮다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result in：~을 초래하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result from：~의 결과이다, ~로부터 기인하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">amaze : ~을 놀라게 하다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">annoy : ~을 화나게 하다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">confuse : ~을 혼란시키다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">depress : ~을 우울하게 하다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">embarrass : ~을 당황하게 하다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">excite : ~을 흥분시키다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">worry : ~을 걱정시키다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">frighten : ~을 놀라게 하다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">interest : ~을 재미있게 하다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">irritate : ~을 짜증나게 하다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">please : ~을 즐겁게 하다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">satisfy : ~을 만족시키다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shock : ~을 놀라게 하다 </t>
+  </si>
+  <si>
+    <t>감정동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>be married to  : ~와 결혼하다</t>
-  </si>
-  <si>
-    <t>be filled with  : ~로 가득 차다</t>
-  </si>
-  <si>
-    <t>be opposed to  : ~에 반대하다</t>
-  </si>
-  <si>
-    <t>be devoted to  : ~에 헌신하다</t>
-  </si>
-  <si>
-    <t>be committed to  : ~에 전념하다</t>
-  </si>
-  <si>
-    <t>be absorbed in  : ~에 몰두하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>be concerned about  : ~을 걱정하다</t>
-  </si>
-  <si>
-    <t>be convinced of / that  : ~을 확신하다</t>
-  </si>
-  <si>
-    <t>be divorced from  : ~와 이혼하다</t>
-  </si>
-  <si>
-    <t>be exposed to  : ~에 노출되다</t>
-  </si>
-  <si>
-    <t>be engaged in : ~와 약혼하다, ~에 종사하다</t>
-  </si>
-  <si>
-    <t>be based on : ~에 기초를 두다</t>
-  </si>
-  <si>
-    <t>be known to : ~에게 알려지다 (대상)</t>
-  </si>
-  <si>
-    <t>be known as : ~로서 알려지다 (별명, 명칭)</t>
-  </si>
-  <si>
-    <t>be known for : ~로 알려지다 (명성)</t>
-  </si>
-  <si>
-    <t>be on the verge of 동명사 : 막 ~하려 하다</t>
-  </si>
-  <si>
-    <t>be on the point of 동명사 : 막 ~하려 하다</t>
-  </si>
-  <si>
-    <t>to be frank with you : 솔직히 말하면</t>
-  </si>
-  <si>
-    <t>keep 목적어 from 동명사 : 막다</t>
-  </si>
-  <si>
-    <t>keep 목적어 (on) 동명사 : 유지하다</t>
-  </si>
-  <si>
-    <t>전치사 구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>look forward to 동명사 : ~하는 것을 기대하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>want : 원하다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>hope : 희망하다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>attempt : 시도하다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>threaten : 위협하다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>choose : 선택하다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>agree : 동의하다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>need : 필요로 하다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>desire : 바라다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>offer : 제안하다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>decide : 결정하다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>expect : 기대하다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>wish : 바라다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>promise : 약속하다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>ask : 요청하다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>demand : 요구하다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>learn : 배우다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>plan : 계획하다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>start : 시작하다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>like : 좋아하다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>love : 사랑하다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>begin : 시작하다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>hate : 싫어하다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>propose : 작정이다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>cease : 그만두다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>continue : 계속하다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>prefer : 좋아하다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>intend : 의도하다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>mind : 꺼리다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>miss : 그리워하다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>enjoy : 즐기다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>give up : 포기하다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>appreciate : 감사하다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>postpone : 연기하다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>put off : 연기하다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>stop : 멈추다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>suggest : 제안하다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>consider : 고려하다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>admit : 인정하다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>avoid : 피하다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>risk : 무릅쓰다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>recall : 상기하다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>delay : 미루다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>quit : 멈추다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>finish : 끝내다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>deny : 부인하다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>resist : 반대하다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>recommend : 추천하다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>involve : 포함하다 (목적어 유형)</t>
-  </si>
-  <si>
-    <t>be susceptible to</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~에 걸리기 쉽다, ~의 영향을 받기 쉽다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뜻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>be suppressive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>억압하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>be suspensive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불안하다, 확실하지 않다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>be suspected</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>의심을 받다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accuse A of B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A를 B로 기소[고소]하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>of</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attribute A to B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A를 B의 탓으로 돌리다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attribute A to B : A를 B의 탓으로 돌리다</t>
-  </si>
-  <si>
-    <t>to</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>see off</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배웅하다, 쫓아내다, 이기다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rule out</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배제하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~의 형을 받다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>be sentenced to</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>be sentenced to : ~의 형을 받다</t>
-  </si>
-  <si>
-    <t>resort to</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~에 기대다, 의지하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resort to : ~에 기대다, 의지하다</t>
-  </si>
-  <si>
-    <t>make up with</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~와 화해하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도망가다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>make away</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>make over</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>양도하다, 고치다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>make against</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~에게 불리하게 작용하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>increase in</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~에 있어서 증가하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>talk A out of B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A가 B 못하도록 설득하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>be susceptible to : ~에 걸리기 쉽다, ~의 영향을 받기 쉽다</t>
-  </si>
-  <si>
-    <t>accuse A of B : A를 B로 기소[고소]하다</t>
-  </si>
-  <si>
-    <t>see off : 배웅하다, 쫓아내다, 이기다</t>
-  </si>
-  <si>
-    <t>rule out : 배제하다</t>
-  </si>
-  <si>
-    <t>make up with : ~와 화해하다</t>
-  </si>
-  <si>
-    <t>make away : 도망가다</t>
-  </si>
-  <si>
-    <t>make over : 양도하다, 고치다</t>
-  </si>
-  <si>
-    <t>make against : ~에게 불리하게 작용하다</t>
-  </si>
-  <si>
-    <t>increase in : ~에 있어서 증가하다</t>
-  </si>
-  <si>
-    <t>talk A out of B : A가 B 못하도록 설득하다</t>
-  </si>
-  <si>
-    <t>to</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>off</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>out</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>up with</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>away</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>over</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>against</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>out of</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전치사 구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">in </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lacking</t>
-  </si>
-  <si>
-    <t>부족한</t>
-  </si>
-  <si>
-    <t>leading</t>
-  </si>
-  <si>
-    <t>일류의</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>없어진</t>
-  </si>
-  <si>
-    <t>promising</t>
-  </si>
-  <si>
-    <t>유망한</t>
-  </si>
-  <si>
-    <t>learned</t>
-  </si>
-  <si>
-    <t>박식한</t>
-  </si>
-  <si>
-    <t>developed</t>
-  </si>
-  <si>
-    <t>고도로 발달한</t>
-  </si>
-  <si>
-    <t>finished</t>
-  </si>
-  <si>
-    <t>끝난</t>
-  </si>
-  <si>
-    <t>qualified</t>
-  </si>
-  <si>
-    <t>적격의</t>
-  </si>
-  <si>
-    <t>committed</t>
-  </si>
-  <si>
-    <t>성실한</t>
-  </si>
-  <si>
-    <t>married</t>
-  </si>
-  <si>
-    <t>결혼한</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>educated</t>
-  </si>
-  <si>
-    <t>교양 있는, 지식에 의한</t>
-  </si>
-  <si>
-    <t>advanced</t>
-  </si>
-  <si>
-    <t>선진의</t>
-  </si>
-  <si>
-    <t>experienced</t>
-  </si>
-  <si>
-    <t>노련한</t>
-  </si>
-  <si>
-    <t>time-consuming</t>
-  </si>
-  <si>
-    <t>시간이 걸리는</t>
-  </si>
-  <si>
-    <t>man-made</t>
-  </si>
-  <si>
-    <t>인공의</t>
-  </si>
-  <si>
-    <t>mouth-watering</t>
-  </si>
-  <si>
-    <t>군침이 도는</t>
-  </si>
-  <si>
-    <t>self-made</t>
-  </si>
-  <si>
-    <t>자수성가한</t>
-  </si>
-  <si>
-    <t>consumer-centered</t>
-  </si>
-  <si>
-    <t>소비자 중심의</t>
-  </si>
-  <si>
-    <t>emotion-centered</t>
-  </si>
-  <si>
-    <t>감정 중심의</t>
-  </si>
-  <si>
-    <t>형용사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>형용사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>amaze</t>
-  </si>
-  <si>
-    <t>annoy</t>
-  </si>
-  <si>
-    <t>confuse</t>
-  </si>
-  <si>
-    <t>depress</t>
-  </si>
-  <si>
-    <t>embarrass</t>
-  </si>
-  <si>
-    <t>excite</t>
-  </si>
-  <si>
-    <t>worry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frighten</t>
-  </si>
-  <si>
-    <t>interest</t>
-  </si>
-  <si>
-    <t>irritate</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>satisfy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>~을 놀라게 하다 (감정동사)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~을 화나게 하다 (감정동사)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~을 혼란시키다 (감정동사)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~을 우울하게 하다 (감정동사)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~을 당황하게 하다 (감정동사)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~을 흥분시키다 (감정동사)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~을 걱정시키다 (감정동사)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~을 놀라게 하다 (감정동사)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~을 재미있게 하다 (감정동사)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~을 짜증나게 하다 (감정동사)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~을 즐겁게 하다 (감정동사)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~을 만족시키다 (감정동사)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~을 놀라게 하다 (감정동사)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>감정동사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No sooner had S pp than S 과거시제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hardly(Scarcely) had S pp before(when) S 과거시제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>… 하자마자 ~ 했다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>As soon as S 과거시제, S 과거시제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Upon(on) 동명사, S 과거시제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뜻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No sooner had S pp than S 과거시제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>과거시제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>과거완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hardly(Scarcely) 과거완료 S before(when) S 과거시제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No sooner 과거완료 S than S 과거시제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>should/were to R</t>
-  </si>
-  <si>
-    <t>조동사 현재/과거 동사원형</t>
-  </si>
-  <si>
-    <t>(미래) If S should/were to 동사원형, S 조동사 현재/과거 동사원형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(현재) If S R(-s/-es), S will/can + 동사원형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R(-s/-es)</t>
-  </si>
-  <si>
-    <t>will/can + 동사원형</t>
-  </si>
-  <si>
-    <t>(과거) If S 과거동사, S 조동사 과거 + 동사원형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동사시제_조동사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>과거동사</t>
-  </si>
-  <si>
-    <t>조동사 과거 + 동사원형</t>
-  </si>
-  <si>
-    <t>(대과거) If S 과거완료, S 조동사 과거 + 현재완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>과거완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(대과거) If S 과거완료, S 조동사 과거 + 현재완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조동사 과거 + 현재완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>used to ＋동사원형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~하곤 했다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be used to ＋동사원형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~하는 데 사용되다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be used to ＋명사/ 동명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~하는 것에 익숙하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>used to 관용표현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>must have p.p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~했었음에 틀림없다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조동사 have pp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>should have p.p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~했어야만 했다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cannot have p.p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~했을 리가 없다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>may have p.p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~했을지도 모른다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>need not have p.p</t>
+  </si>
+  <si>
+    <t>~할 필요는 없었다</t>
+  </si>
+  <si>
+    <t>insist : 주장하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demand : 요구하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>require : 요구하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order : 지시하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>command : 명령하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suggest : 제안하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>propose : 제안하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request : 요청하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목적어절 should</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Many + 복수명사 + 복수동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1245,13 +1558,51 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0B3A13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1268,14 +1619,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1284,6 +1644,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0B3A13"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1558,11 +1923,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C263"/>
+  <dimension ref="A1:C331"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C260" sqref="C260:C263"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B283" sqref="B283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1574,19 +1939,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>69</v>
@@ -1597,7 +1962,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>69</v>
@@ -1608,7 +1973,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>69</v>
@@ -1619,7 +1984,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>69</v>
@@ -1630,7 +1995,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>69</v>
@@ -1641,7 +2006,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>69</v>
@@ -1652,7 +2017,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>69</v>
@@ -1663,7 +2028,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>69</v>
@@ -1674,7 +2039,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>69</v>
@@ -1685,7 +2050,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>69</v>
@@ -1696,7 +2061,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>69</v>
@@ -1707,7 +2072,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>69</v>
@@ -1718,7 +2083,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>69</v>
@@ -1729,7 +2094,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>69</v>
@@ -1740,7 +2105,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>69</v>
@@ -1751,7 +2116,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>69</v>
@@ -1762,7 +2127,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>69</v>
@@ -1773,7 +2138,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>130</v>
@@ -1784,7 +2149,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>130</v>
@@ -1795,7 +2160,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>130</v>
@@ -1806,7 +2171,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>130</v>
@@ -1817,7 +2182,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>130</v>
@@ -1828,7 +2193,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>130</v>
@@ -1839,7 +2204,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>130</v>
@@ -1850,7 +2215,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>130</v>
@@ -1861,7 +2226,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>130</v>
@@ -1872,7 +2237,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>130</v>
@@ -1883,7 +2248,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>70</v>
@@ -1894,7 +2259,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>70</v>
@@ -1905,7 +2270,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>70</v>
@@ -1916,7 +2281,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>70</v>
@@ -1927,7 +2292,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>70</v>
@@ -1938,7 +2303,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>70</v>
@@ -1949,7 +2314,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>70</v>
@@ -1960,7 +2325,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>70</v>
@@ -1971,7 +2336,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>70</v>
@@ -1982,7 +2347,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>70</v>
@@ -1993,7 +2358,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>70</v>
@@ -2004,7 +2369,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>70</v>
@@ -2015,7 +2380,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>70</v>
@@ -2026,7 +2391,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>70</v>
@@ -2037,7 +2402,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>70</v>
@@ -2048,7 +2413,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>70</v>
@@ -2059,7 +2424,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>70</v>
@@ -2070,7 +2435,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>70</v>
@@ -2081,7 +2446,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>70</v>
@@ -2092,7 +2457,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>70</v>
@@ -2103,7 +2468,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>70</v>
@@ -3104,7 +3469,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>139</v>
+        <v>407</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>58</v>
@@ -3115,7 +3480,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>57</v>
@@ -3126,7 +3491,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>58</v>
@@ -3137,7 +3502,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>58</v>
@@ -3148,7 +3513,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>58</v>
@@ -3159,7 +3524,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>59</v>
@@ -3170,7 +3535,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>145</v>
+        <v>408</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>60</v>
@@ -3181,7 +3546,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>61</v>
@@ -3192,7 +3557,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>55</v>
@@ -3203,7 +3568,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>62</v>
@@ -3214,7 +3579,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>63</v>
@@ -3225,7 +3590,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>64</v>
@@ -3236,7 +3601,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>62</v>
@@ -3247,7 +3612,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>65</v>
@@ -3258,7 +3623,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>66</v>
@@ -3280,7 +3645,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>132</v>
@@ -3291,7 +3656,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>132</v>
@@ -3489,13 +3854,13 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -3566,7 +3931,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>132</v>
@@ -3577,7 +3942,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>132</v>
@@ -3588,7 +3953,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>132</v>
@@ -3599,871 +3964,1619 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C185" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B211" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C211" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C233" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
-        <v>309</v>
+        <v>393</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>322</v>
+        <v>406</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>335</v>
+        <v>392</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
-        <v>310</v>
+        <v>394</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>323</v>
+        <v>406</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>335</v>
+        <v>392</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
-        <v>311</v>
+        <v>395</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>324</v>
+        <v>406</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>335</v>
+        <v>392</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
-        <v>312</v>
+        <v>396</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>325</v>
+        <v>406</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>335</v>
+        <v>392</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
-        <v>313</v>
+        <v>397</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>326</v>
+        <v>406</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>335</v>
+        <v>392</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
-        <v>314</v>
+        <v>398</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>327</v>
+        <v>406</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>335</v>
+        <v>392</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
-        <v>315</v>
+        <v>399</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>328</v>
+        <v>406</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>335</v>
+        <v>392</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>329</v>
+        <v>406</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>335</v>
+        <v>392</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
-        <v>317</v>
+        <v>401</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>330</v>
+        <v>406</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>335</v>
+        <v>392</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
-        <v>318</v>
+        <v>402</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>331</v>
+        <v>406</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>335</v>
+        <v>392</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
-        <v>319</v>
+        <v>403</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>332</v>
+        <v>406</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>335</v>
+        <v>392</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
-        <v>320</v>
+        <v>404</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>333</v>
+        <v>406</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>335</v>
+        <v>392</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>321</v>
+        <v>405</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>334</v>
+        <v>406</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>335</v>
+        <v>392</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B263" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>354</v>
+      <c r="B288" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A310" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A316" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A317" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A320" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A324" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>436</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/영어_복습.xlsx
+++ b/학습자료/단답형/영어_복습.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D488"/>
+  <dimension ref="A1:D487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169">
@@ -3812,7 +3812,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174">
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175">
@@ -4052,7 +4052,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182">
@@ -4072,7 +4072,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183">
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192">
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195">
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200">
@@ -4432,7 +4432,7 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201">
@@ -4512,7 +4512,7 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="205">
@@ -4532,7 +4532,7 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206">
@@ -4592,7 +4592,7 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209">
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211">
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212">
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216">
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219">
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220">
@@ -4832,7 +4832,7 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227">
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239">
@@ -5212,7 +5212,7 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="241">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="242">
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="244">
@@ -5372,7 +5372,7 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248">
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249">
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253">
@@ -5512,7 +5512,7 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="255">
@@ -5552,7 +5552,7 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="257">
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258">
@@ -5592,7 +5592,7 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="259">
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="261">
@@ -5692,7 +5692,7 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="264">
@@ -5772,7 +5772,7 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="268">
@@ -5792,7 +5792,7 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="269">
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="270">
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="272">
@@ -5872,7 +5872,7 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="273">
@@ -5892,7 +5892,7 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="274">
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="276">
@@ -6092,7 +6092,7 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="284">
@@ -6152,7 +6152,7 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="287">
@@ -6172,7 +6172,7 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="288">
@@ -6192,7 +6192,7 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="289">
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="292">
@@ -6312,7 +6312,7 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="295">
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="298">
@@ -6612,7 +6612,7 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="310">
@@ -6632,7 +6632,7 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -6672,7 +6672,7 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="313">
@@ -6692,7 +6692,7 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="314">
@@ -6712,7 +6712,7 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="315">
@@ -6732,7 +6732,7 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="316">
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="317">
@@ -6792,7 +6792,7 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="319">
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="322">
@@ -6872,7 +6872,7 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="323">
@@ -6892,7 +6892,7 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="324">
@@ -6912,7 +6912,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="325">
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="327">
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="330">
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="331">
@@ -7052,7 +7052,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
@@ -7072,7 +7072,7 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="333">
@@ -7092,7 +7092,7 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
@@ -7112,7 +7112,7 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="335">
@@ -7152,7 +7152,7 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="337">
@@ -7172,7 +7172,7 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
@@ -7192,7 +7192,7 @@
         </is>
       </c>
       <c r="D338" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="339">
@@ -7212,7 +7212,7 @@
         </is>
       </c>
       <c r="D339" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="340">
@@ -7232,7 +7232,7 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="341">
@@ -7292,7 +7292,7 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
@@ -7312,7 +7312,7 @@
         </is>
       </c>
       <c r="D344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
@@ -7372,7 +7372,7 @@
         </is>
       </c>
       <c r="D347" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="348">
@@ -7432,7 +7432,7 @@
         </is>
       </c>
       <c r="D350" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="351">
@@ -7452,7 +7452,7 @@
         </is>
       </c>
       <c r="D351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
@@ -7472,7 +7472,7 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="353">
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="355">
@@ -7592,7 +7592,7 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="359">
@@ -7652,7 +7652,7 @@
         </is>
       </c>
       <c r="D361" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="362">
@@ -7672,7 +7672,7 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363">
@@ -7712,7 +7712,7 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="365">
@@ -7752,7 +7752,7 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="367">
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
@@ -7792,7 +7792,7 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="369">
@@ -7872,7 +7872,7 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="373">
@@ -7892,7 +7892,7 @@
         </is>
       </c>
       <c r="D373" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="374">
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="D374" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="375">
@@ -8012,7 +8012,7 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="380">
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="381">
@@ -8052,7 +8052,7 @@
         </is>
       </c>
       <c r="D381" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="382">
@@ -8072,7 +8072,7 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="383">
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="384">
@@ -8112,7 +8112,7 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
@@ -8132,7 +8132,7 @@
         </is>
       </c>
       <c r="D385" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="386">
@@ -8152,7 +8152,7 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="387">
@@ -8172,7 +8172,7 @@
         </is>
       </c>
       <c r="D387" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="388">
@@ -8192,7 +8192,7 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="389">
@@ -8232,7 +8232,7 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
@@ -8252,7 +8252,7 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
@@ -8272,7 +8272,7 @@
         </is>
       </c>
       <c r="D392" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="393">
@@ -8352,7 +8352,7 @@
         </is>
       </c>
       <c r="D396" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="397">
@@ -8372,7 +8372,7 @@
         </is>
       </c>
       <c r="D397" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="398">
@@ -8392,7 +8392,7 @@
         </is>
       </c>
       <c r="D398" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="399">
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="D400" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="401">
@@ -8472,7 +8472,7 @@
         </is>
       </c>
       <c r="D402" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="403">
@@ -8492,7 +8492,7 @@
         </is>
       </c>
       <c r="D403" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="404">
@@ -8552,7 +8552,7 @@
         </is>
       </c>
       <c r="D406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
@@ -8572,7 +8572,7 @@
         </is>
       </c>
       <c r="D407" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="408">
@@ -8652,7 +8652,7 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="412">
@@ -8672,7 +8672,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="413">
@@ -8712,7 +8712,7 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="415">
@@ -8752,7 +8752,7 @@
         </is>
       </c>
       <c r="D416" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="417">
@@ -8792,7 +8792,7 @@
         </is>
       </c>
       <c r="D418" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="419">
@@ -8832,7 +8832,7 @@
         </is>
       </c>
       <c r="D420" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="421">
@@ -8852,7 +8852,7 @@
         </is>
       </c>
       <c r="D421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
@@ -8872,7 +8872,7 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="423">
@@ -8972,7 +8972,7 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="428">
@@ -8992,7 +8992,7 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="429">
@@ -9012,7 +9012,7 @@
         </is>
       </c>
       <c r="D429" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="430">
@@ -9032,7 +9032,7 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="431">
@@ -9052,7 +9052,7 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="432">
@@ -9072,7 +9072,7 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="433">
@@ -9092,7 +9092,7 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="434">
@@ -9132,7 +9132,7 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="436">
@@ -9152,7 +9152,7 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="437">
@@ -9212,7 +9212,7 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="440">
@@ -9232,7 +9232,7 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="441">
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
@@ -9292,7 +9292,7 @@
         </is>
       </c>
       <c r="D443" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="444">
@@ -9312,7 +9312,7 @@
         </is>
       </c>
       <c r="D444" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="445">
@@ -9392,7 +9392,7 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="449">
@@ -9412,7 +9412,7 @@
         </is>
       </c>
       <c r="D449" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="450">
@@ -9452,7 +9452,7 @@
         </is>
       </c>
       <c r="D451" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="452">
@@ -9472,7 +9472,7 @@
         </is>
       </c>
       <c r="D452" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="453">
@@ -9512,7 +9512,7 @@
         </is>
       </c>
       <c r="D454" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="455">
@@ -9552,7 +9552,7 @@
         </is>
       </c>
       <c r="D456" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="457">
@@ -9572,7 +9572,7 @@
         </is>
       </c>
       <c r="D457" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="458">
@@ -9632,7 +9632,7 @@
         </is>
       </c>
       <c r="D460" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="461">
@@ -9652,7 +9652,7 @@
         </is>
       </c>
       <c r="D461" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="462">
@@ -9672,7 +9672,7 @@
         </is>
       </c>
       <c r="D462" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="463">
@@ -9692,7 +9692,7 @@
         </is>
       </c>
       <c r="D463" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="464">
@@ -9752,7 +9752,7 @@
         </is>
       </c>
       <c r="D466" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="467">
@@ -9792,7 +9792,7 @@
         </is>
       </c>
       <c r="D468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469">
@@ -9912,7 +9912,7 @@
         </is>
       </c>
       <c r="D474" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="475">
@@ -9958,12 +9958,12 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>be suppressive</t>
+          <t>be suspensive</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>억압하다</t>
+          <t>불안하다, 확실하지 않다</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -9972,23 +9972,23 @@
         </is>
       </c>
       <c r="D477" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>be suspensive</t>
+          <t>attribute A to B</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>불안하다, 확실하지 않다</t>
+          <t>A를 B의 탓으로 돌리다</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>뜻_동사</t>
+          <t>뜻_AB</t>
         </is>
       </c>
       <c r="D478" t="n">
@@ -9998,32 +9998,32 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>attribute A to B</t>
+          <t>close down</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>A를 B의 탓으로 돌리다</t>
+          <t>폐쇄하다</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>뜻_AB</t>
+          <t>뜻_동사</t>
         </is>
       </c>
       <c r="D479" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>close down</t>
+          <t>see off</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>폐쇄하다</t>
+          <t>배웅하다, 쫓아내다, 이기다</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -10032,18 +10032,18 @@
         </is>
       </c>
       <c r="D480" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>see off</t>
+          <t>send out</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>배웅하다, 쫓아내다, 이기다</t>
+          <t>보내다, 발송하다</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -10058,12 +10058,12 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>send out</t>
+          <t>be sentenced to</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>보내다, 발송하다</t>
+          <t>~의 형을 받다</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -10072,18 +10072,18 @@
         </is>
       </c>
       <c r="D482" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>be sentenced to</t>
+          <t>resort to</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>~의 형을 받다</t>
+          <t>~에 기대다, 의지하다</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -10092,18 +10092,18 @@
         </is>
       </c>
       <c r="D483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>resort to</t>
+          <t>make over</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>~에 기대다, 의지하다</t>
+          <t>양도하다, 고치다</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -10112,87 +10112,67 @@
         </is>
       </c>
       <c r="D484" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>make over</t>
+          <t>for the first time</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>양도하다, 고치다</t>
+          <t>처음으로</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>뜻_동사</t>
+          <t>뜻_부사</t>
         </is>
       </c>
       <c r="D485" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>for the first time</t>
+          <t>provide A(대상) with B</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>처음으로</t>
+          <t>A(대상)에게 B를 제공하다</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>뜻_부사</t>
+          <t>뜻_AB</t>
         </is>
       </c>
       <c r="D486" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>provide A(대상) with B</t>
+          <t>by</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>A(대상)에게 B를 제공하다</t>
+          <t>~만큼, ~ 옆에, ~에 의해, ~로써</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>뜻_AB</t>
+          <t>뜻_부사</t>
         </is>
       </c>
       <c r="D487" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="inlineStr">
-        <is>
-          <t>by</t>
-        </is>
-      </c>
-      <c r="B488" t="inlineStr">
-        <is>
-          <t>~만큼, ~ 옆에, ~에 의해, ~로써</t>
-        </is>
-      </c>
-      <c r="C488" t="inlineStr">
-        <is>
-          <t>뜻_부사</t>
-        </is>
-      </c>
-      <c r="D488" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/영어_복습.xlsx
+++ b/학습자료/단답형/영어_복습.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D487"/>
+  <dimension ref="A1:D486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="14">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171">
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172">
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173">
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176">
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186">
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188">
@@ -4272,7 +4272,7 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197">
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199">
@@ -4472,7 +4472,7 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203">
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204">
@@ -4552,7 +4552,7 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207">
@@ -4572,7 +4572,7 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208">
@@ -4612,7 +4612,7 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213">
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222">
@@ -4872,7 +4872,7 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223">
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="224">
@@ -4912,7 +4912,7 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -4972,7 +4972,7 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229">
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232">
@@ -5072,7 +5072,7 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -5132,7 +5132,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236">
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="245">
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="247">
@@ -5432,7 +5432,7 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="251">
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252">
@@ -5492,7 +5492,7 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="254">
@@ -5612,7 +5612,7 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="260">
@@ -5672,7 +5672,7 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="263">
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="266">
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="267">
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="271">
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="275">
@@ -6072,7 +6072,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -6192,7 +6192,7 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="289">
@@ -6212,7 +6212,7 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="290">
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="291">
@@ -6332,7 +6332,7 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="296">
@@ -6352,7 +6352,7 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="297">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -6632,7 +6632,7 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="311">
@@ -6652,7 +6652,7 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="312">
@@ -6772,7 +6772,7 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="318">
@@ -6812,7 +6812,7 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="320">
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="321">
@@ -6932,7 +6932,7 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="326">
@@ -6972,7 +6972,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="329">
@@ -7052,7 +7052,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="332">
@@ -7072,7 +7072,7 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
@@ -7092,7 +7092,7 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
@@ -7132,7 +7132,7 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="336">
@@ -7152,7 +7152,7 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="337">
@@ -7172,7 +7172,7 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
@@ -7252,7 +7252,7 @@
         </is>
       </c>
       <c r="D341" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="342">
@@ -7272,7 +7272,7 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="343">
@@ -7292,7 +7292,7 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="344">
@@ -7312,7 +7312,7 @@
         </is>
       </c>
       <c r="D344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
@@ -7332,7 +7332,7 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -7352,7 +7352,7 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="347">
@@ -7392,7 +7392,7 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="349">
@@ -7412,7 +7412,7 @@
         </is>
       </c>
       <c r="D349" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="350">
@@ -7452,7 +7452,7 @@
         </is>
       </c>
       <c r="D351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
@@ -7492,7 +7492,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="354">
@@ -7532,7 +7532,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356">
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="357">
@@ -7572,7 +7572,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="358">
@@ -7612,7 +7612,7 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="360">
@@ -7632,7 +7632,7 @@
         </is>
       </c>
       <c r="D360" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="361">
@@ -7672,7 +7672,7 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
@@ -7692,7 +7692,7 @@
         </is>
       </c>
       <c r="D363" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="364">
@@ -7732,7 +7732,7 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="366">
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="368">
@@ -7812,7 +7812,7 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="370">
@@ -7832,7 +7832,7 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
@@ -7852,7 +7852,7 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
@@ -7932,7 +7932,7 @@
         </is>
       </c>
       <c r="D375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
@@ -7952,7 +7952,7 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="377">
@@ -7992,7 +7992,7 @@
         </is>
       </c>
       <c r="D378" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379">
@@ -8112,7 +8112,7 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
@@ -8212,7 +8212,7 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="390">
@@ -8232,7 +8232,7 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="391">
@@ -8252,7 +8252,7 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="392">
@@ -8292,7 +8292,7 @@
         </is>
       </c>
       <c r="D393" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="394">
@@ -8312,7 +8312,7 @@
         </is>
       </c>
       <c r="D394" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="395">
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="D395" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="396">
@@ -8412,7 +8412,7 @@
         </is>
       </c>
       <c r="D399" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="400">
@@ -8452,7 +8452,7 @@
         </is>
       </c>
       <c r="D401" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="402">
@@ -8512,7 +8512,7 @@
         </is>
       </c>
       <c r="D404" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="405">
@@ -8532,7 +8532,7 @@
         </is>
       </c>
       <c r="D405" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="406">
@@ -8552,7 +8552,7 @@
         </is>
       </c>
       <c r="D406" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="407">
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="409">
@@ -8612,7 +8612,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410">
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="411">
@@ -8692,7 +8692,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="414">
@@ -8732,7 +8732,7 @@
         </is>
       </c>
       <c r="D415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416">
@@ -8772,7 +8772,7 @@
         </is>
       </c>
       <c r="D417" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="418">
@@ -8812,7 +8812,7 @@
         </is>
       </c>
       <c r="D419" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="420">
@@ -8852,7 +8852,7 @@
         </is>
       </c>
       <c r="D421" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="422">
@@ -8892,7 +8892,7 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424">
@@ -8912,7 +8912,7 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="425">
@@ -8932,7 +8932,7 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="426">
@@ -8952,7 +8952,7 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="427">
@@ -9032,7 +9032,7 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
@@ -9112,7 +9112,7 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="435">
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="438">
@@ -9192,7 +9192,7 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="439">
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="442">
@@ -9272,7 +9272,7 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="443">
@@ -9332,7 +9332,7 @@
         </is>
       </c>
       <c r="D445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446">
@@ -9352,7 +9352,7 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="447">
@@ -9372,7 +9372,7 @@
         </is>
       </c>
       <c r="D447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
@@ -9432,7 +9432,7 @@
         </is>
       </c>
       <c r="D450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451">
@@ -9492,7 +9492,7 @@
         </is>
       </c>
       <c r="D453" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="454">
@@ -9532,7 +9532,7 @@
         </is>
       </c>
       <c r="D455" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="456">
@@ -9592,7 +9592,7 @@
         </is>
       </c>
       <c r="D458" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="459">
@@ -9612,7 +9612,7 @@
         </is>
       </c>
       <c r="D459" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="460">
@@ -9712,7 +9712,7 @@
         </is>
       </c>
       <c r="D464" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="465">
@@ -9732,7 +9732,7 @@
         </is>
       </c>
       <c r="D465" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="466">
@@ -9772,7 +9772,7 @@
         </is>
       </c>
       <c r="D467" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="468">
@@ -9792,7 +9792,7 @@
         </is>
       </c>
       <c r="D468" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="469">
@@ -9812,7 +9812,7 @@
         </is>
       </c>
       <c r="D469" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="470">
@@ -9832,7 +9832,7 @@
         </is>
       </c>
       <c r="D470" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="471">
@@ -9852,7 +9852,7 @@
         </is>
       </c>
       <c r="D471" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="472">
@@ -9872,7 +9872,7 @@
         </is>
       </c>
       <c r="D472" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="473">
@@ -9892,7 +9892,7 @@
         </is>
       </c>
       <c r="D473" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="474">
@@ -9932,7 +9932,7 @@
         </is>
       </c>
       <c r="D475" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="476">
@@ -9952,7 +9952,7 @@
         </is>
       </c>
       <c r="D476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477">
@@ -9992,7 +9992,7 @@
         </is>
       </c>
       <c r="D478" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="479">
@@ -10052,18 +10052,18 @@
         </is>
       </c>
       <c r="D481" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>be sentenced to</t>
+          <t>resort to</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>~의 형을 받다</t>
+          <t>~에 기대다, 의지하다</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -10072,18 +10072,18 @@
         </is>
       </c>
       <c r="D482" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>resort to</t>
+          <t>make over</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>~에 기대다, 의지하다</t>
+          <t>양도하다, 고치다</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -10092,23 +10092,23 @@
         </is>
       </c>
       <c r="D483" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>make over</t>
+          <t>for the first time</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>양도하다, 고치다</t>
+          <t>처음으로</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>뜻_동사</t>
+          <t>뜻_부사</t>
         </is>
       </c>
       <c r="D484" t="n">
@@ -10118,17 +10118,17 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>for the first time</t>
+          <t>provide A(대상) with B</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>처음으로</t>
+          <t>A(대상)에게 B를 제공하다</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>뜻_부사</t>
+          <t>뜻_AB</t>
         </is>
       </c>
       <c r="D485" t="n">
@@ -10138,40 +10138,20 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>provide A(대상) with B</t>
+          <t>by</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>A(대상)에게 B를 제공하다</t>
+          <t>~만큼, ~ 옆에, ~에 의해, ~로써</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>뜻_AB</t>
+          <t>뜻_부사</t>
         </is>
       </c>
       <c r="D486" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="inlineStr">
-        <is>
-          <t>by</t>
-        </is>
-      </c>
-      <c r="B487" t="inlineStr">
-        <is>
-          <t>~만큼, ~ 옆에, ~에 의해, ~로써</t>
-        </is>
-      </c>
-      <c r="C487" t="inlineStr">
-        <is>
-          <t>뜻_부사</t>
-        </is>
-      </c>
-      <c r="D487" t="n">
         <v>-1</v>
       </c>
     </row>

--- a/학습자료/단답형/영어_복습.xlsx
+++ b/학습자료/단답형/영어_복습.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D486"/>
+  <dimension ref="A1:D482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="5">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="11">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="16">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="17">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="19">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="26">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="29">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="30">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="31">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="33">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="35">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="37">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="41">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="42">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="43">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="46">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="47">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="48">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="50">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="52">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="53">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="54">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="55">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="57">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="58">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="60">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="63">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="64">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="65">
@@ -1738,7 +1738,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>in order to 동사원형. so as to 동사원형</t>
+          <t>in order to 동사원형, so as to 동사원형</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="68">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="69">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="71">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="72">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="74">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="76">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="80">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="81">
@@ -2052,13 +2052,13 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>lead to 동명사 : 결국 ~가 되다. ~로 이끌다</t>
+          <t>lead to 동명사 : 결국 ~가 되다, ~로 이끌다</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="83">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85">
@@ -2138,7 +2138,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>in addition to 동명사 : ~이외에도. ~뿐만 아니라</t>
+          <t>in addition to 동명사 : ~이외에도, ~뿐만 아니라</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="87">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="88">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="89">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="90">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="91">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="92">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="93">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="94">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="99">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="100">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="101">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="102">
@@ -2478,7 +2478,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>be exposed to 동명사 : ~하는 것에 노출되다. 접하다</t>
+          <t>be exposed to 동명사 : ~하는 것에 노출되다, 접하다</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="105">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="108">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="109">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="115">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="119">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="122">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="123">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="124">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="125">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="127">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="131">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="133">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="135">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="138">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="142">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="143">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="145">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="147">
@@ -3372,13 +3372,13 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>be engaged in : ~와 약혼하다. ~에 종사하다</t>
+          <t>be engaged in : ~와 약혼하다, ~에 종사하다</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="150">
@@ -3432,13 +3432,13 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>be known as : ~로서 알려지다 (별명. 명칭)</t>
+          <t>be known as : ~로서 알려지다 (별명, 명칭)</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="154">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="155">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="156">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>~에 걸리기 쉽다. ~의 영향을 받기 쉽다</t>
+          <t>~에 걸리기 쉽다 / ~의 영향을 받기 쉽다</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="161">
@@ -3643,7 +3643,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>불안하다. 확실하지 않다</t>
+          <t>불안하다 / 확실하지 않다</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="162">
@@ -3723,7 +3723,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>배웅하다. 쫓아내다. 이기다</t>
+          <t>배웅하다 / 쫓아내다 / 이기다</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="167">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="168">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>~에 기대다. 의지하다</t>
+          <t>~에 기대다 / 의지하다</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3812,7 +3812,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="170">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="171">
@@ -3843,7 +3843,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>양도하다. 고치다</t>
+          <t>양도하다 / 고치다</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="174">
@@ -3918,7 +3918,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>be susceptible to : ~에 걸리기 쉽다. ~의 영향을 받기 쉽다</t>
+          <t>be susceptible to : ~에 걸리기 쉽다, ~의 영향을 받기 쉽다</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="176">
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="177">
@@ -3978,7 +3978,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>see off : 배웅하다. 쫓아내다. 이기다</t>
+          <t>see off : 배웅하다, 쫓아내다, 이기다</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="179">
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="180">
@@ -4032,13 +4032,13 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>resort to : ~에 기대다. 의지하다</t>
+          <t>resort to : ~에 기대다, 의지하다</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -4052,7 +4052,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="182">
@@ -4092,13 +4092,13 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>make over : 양도하다. 고치다</t>
+          <t>make over : 양도하다, 고치다</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="186">
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="188">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="189">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="192">
@@ -4272,7 +4272,7 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196">
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="197">
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="198">
@@ -4403,7 +4403,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>교양 있는. 지식에 의한</t>
+          <t>교양 있는 / 지식에 의한</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -4432,7 +4432,7 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="201">
@@ -4512,7 +4512,7 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="205">
@@ -4572,7 +4572,7 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="208">
@@ -4592,7 +4592,7 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="209">
@@ -4612,7 +4612,7 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="210">
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="212">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="213">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="214">
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="215">
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="217">
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -4832,7 +4832,7 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="221">
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="222">
@@ -4878,7 +4878,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>As soon as S 과거시제. S 과거시제</t>
+          <t>As soon as S 과거시제, S 과거시제</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -4892,13 +4892,13 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Upon(on) 동명사. S 과거시제</t>
+          <t>Upon(on) 동명사, S 과거시제</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -4912,7 +4912,7 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="225">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226">
@@ -4972,7 +4972,7 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -4992,13 +4992,13 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Upon(on) 동명사. S 과거시제</t>
+          <t>Upon(on) 동명사, S 과거시제</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -5012,13 +5012,13 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>(미래) If S [   ]. S 조동사 현재/과거 동사원형</t>
+          <t>(미래) If S [   ], S 조동사 현재/과거 동사원형</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -5038,7 +5038,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>(미래) If S should/were to 동사원형. S 조동사 현재/과거 동사원형</t>
+          <t>(미래) If S should/were to 동사원형, S 조동사 현재/과거 동사원형</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -5052,13 +5052,13 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>(현재) If S R(-s/-es). S will/can + 동사원형</t>
+          <t>(현재) If S R(-s/-es), S will/can + 동사원형</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -5072,13 +5072,13 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>(현재) If S R(-s/-es). S will/can + 동사원형</t>
+          <t>(현재) If S R(-s/-es), S will/can + 동사원형</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -5092,13 +5092,13 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>(과거) If S 과거동사. S 조동사 과거 + 동사원형</t>
+          <t>(과거) If S 과거동사, S 조동사 과거 + 동사원형</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -5118,7 +5118,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>(과거) If S 과거동사. S 조동사 과거 + 동사원형</t>
+          <t>(과거) If S 과거동사, S 조동사 과거 + 동사원형</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -5138,7 +5138,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>(대과거) If S 과거완료. S 조동사 과거 + 현재완료</t>
+          <t>(대과거) If S 과거완료, S 조동사 과거 + 현재완료</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -5158,7 +5158,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>(대과거) If S 과거완료. S 조동사 과거 + 현재완료</t>
+          <t>(대과거) If S 과거완료, S 조동사 과거 + 현재완료</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="239">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="241">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="242">
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="243">
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="245">
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="246">
@@ -5372,7 +5372,7 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="248">
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="249">
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="250">
@@ -5432,7 +5432,7 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="251">
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="253">
@@ -5492,7 +5492,7 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="254">
@@ -5552,7 +5552,7 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="257">
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="258">
@@ -5592,7 +5592,7 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="259">
@@ -5612,7 +5612,7 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="260">
@@ -5652,7 +5652,7 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="262">
@@ -5672,7 +5672,7 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="263">
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="265">
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="266">
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="267">
@@ -5792,7 +5792,7 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="269">
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="270">
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="271">
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="272">
@@ -5872,7 +5872,7 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="273">
@@ -5892,7 +5892,7 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="274">
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="276">
@@ -5952,7 +5952,7 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -5992,7 +5992,7 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
@@ -6012,7 +6012,7 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="280">
@@ -6032,7 +6032,7 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="281">
@@ -6072,7 +6072,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="283">
@@ -6092,7 +6092,7 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="284">
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="286">
@@ -6152,7 +6152,7 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="287">
@@ -6172,7 +6172,7 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="288">
@@ -6192,13 +6192,13 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>result from：~의 결과이다. ~로부터 기인하다</t>
+          <t>result from：~의 결과이다, ~로부터 기인하다</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="292">
@@ -6278,7 +6278,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>must have p.p</t>
+          <t>must have p,p</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -6298,7 +6298,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>should have p.p</t>
+          <t>should have p,p</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -6318,7 +6318,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>cannot have p.p</t>
+          <t>cannot have p,p</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -6338,7 +6338,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>may have p.p</t>
+          <t>may have p,p</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -6358,7 +6358,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>need not have p.p</t>
+          <t>need not have p,p</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="298">
@@ -6392,7 +6392,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="299">
@@ -6432,7 +6432,7 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="301">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="303">
@@ -6492,7 +6492,7 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="304">
@@ -6532,13 +6532,13 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>lend. ask. offer. owe</t>
+          <t>lend, ask, offer, owe</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -6552,7 +6552,7 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="307">
@@ -6592,18 +6592,18 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>If ＋주어＋동사의 과거/were~. 주어＋would / should / could / might ＋동사원형~.</t>
+          <t>If ＋주어＋동사의 과거/were~, 주어＋would / should / could / might ＋동사원형~,</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>가정법 과거(현재 사실의 반대) : ~라면. ~할 텐데</t>
+          <t>가정법 과거(현재 사실의 반대) : ~라면 / ~할 텐데</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -6618,12 +6618,12 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>If ＋주어＋had ＋p.p. ~. 주어＋would/ should/could/might have ＋p.p. ~.</t>
+          <t>If ＋주어＋had ＋p,p, ~, 주어＋would/ should/could/might have ＋p,p, ~,</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>가정법 과거완료(과거 사실의 반대) : ~했다면. ~했을 텐데</t>
+          <t>가정법 과거완료(과거 사실의 반대) : ~했다면 / ~했을 텐데</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -6632,13 +6632,13 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>If ＋주어＋동사의 과거/were~. 주어＋would / should / could / might ＋동사원형~.</t>
+          <t>If ＋주어＋동사의 과거/were~, 주어＋would / should / could / might ＋동사원형~,</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -6652,13 +6652,13 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>If ＋주어＋had ＋p.p. ~. 주어＋would/ should/could/might have ＋p.p. ~.</t>
+          <t>If ＋주어＋had ＋p,p, ~, 주어＋would/ should/could/might have ＋p,p, ~,</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -6672,7 +6672,7 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="313">
@@ -6692,13 +6692,13 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>I wish that ＋주어＋had ＋p.p.</t>
+          <t>I wish that ＋주어＋had ＋p,p,</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -6712,7 +6712,7 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="315">
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="317">
@@ -6772,7 +6772,7 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="318">
@@ -6792,7 +6792,7 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="319">
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="321">
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="322">
@@ -6872,7 +6872,7 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="323">
@@ -6932,7 +6932,7 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="326">
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="327">
@@ -6972,7 +6972,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="328">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="329">
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="330">
@@ -7052,7 +7052,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
@@ -7092,7 +7092,7 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="334">
@@ -7132,7 +7132,7 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="336">
@@ -7172,7 +7172,7 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
@@ -7192,7 +7192,7 @@
         </is>
       </c>
       <c r="D338" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="339">
@@ -7232,7 +7232,7 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="341">
@@ -7272,7 +7272,7 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="343">
@@ -7292,7 +7292,7 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="344">
@@ -7312,7 +7312,7 @@
         </is>
       </c>
       <c r="D344" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="345">
@@ -7332,7 +7332,7 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
@@ -7352,7 +7352,7 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="347">
@@ -7392,7 +7392,7 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="349">
@@ -7412,7 +7412,7 @@
         </is>
       </c>
       <c r="D349" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="350">
@@ -7432,7 +7432,7 @@
         </is>
       </c>
       <c r="D350" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="351">
@@ -7452,7 +7452,7 @@
         </is>
       </c>
       <c r="D351" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="352">
@@ -7472,7 +7472,7 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="353">
@@ -7492,7 +7492,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="354">
@@ -7532,7 +7532,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
@@ -7592,7 +7592,7 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="359">
@@ -7612,7 +7612,7 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="360">
@@ -7652,7 +7652,7 @@
         </is>
       </c>
       <c r="D361" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="362">
@@ -7672,18 +7672,18 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>지각동사 (목적격보어) ; see. …</t>
+          <t>지각동사 (목적격보어) ; see, …</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>동명사 O. 동사원형 O. to 동사원형 X. 과거분사(수동태) O</t>
+          <t>동명사 O / 동사원형 O / to 동사원형 X / 과거분사(수동태) O</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -7703,7 +7703,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>동명사 X. 동사원형 O. to 동사원형 X. 과거분사(수동태) O</t>
+          <t>동명사 X / 동사원형 O / to 동사원형 X / 과거분사(수동태) O</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -7723,7 +7723,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>동명사 X. 동사원형 O. to 동사원형 X. 과거분사(수동태→be p.p. O) X</t>
+          <t>동명사 X / 동사원형 O / to 동사원형 X / 과거분사(수동태→be p.p / O) X</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -7732,7 +7732,7 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="366">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>동명사 O. 동사원형 O. to 동사원형 X. 과거분사(수동태) O</t>
+          <t>동명사 O / 동사원형 O / to 동사원형 X / 과거분사(수동태) O</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -7752,18 +7752,18 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>준사역동사 (목적격보어) ; help. get</t>
+          <t>준사역동사 (목적격보어) ; help, get</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>동명사 X. 동사원형 O. to 동사원형 O. 과거분사(수동태) O</t>
+          <t>동명사 X / 동사원형 O / to 동사원형 O / 과거분사(수동태) O</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -7832,7 +7832,7 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371">
@@ -7852,7 +7852,7 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="372">
@@ -7872,7 +7872,7 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="373">
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="D374" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="375">
@@ -7932,7 +7932,7 @@
         </is>
       </c>
       <c r="D375" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="376">
@@ -7952,7 +7952,7 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="377">
@@ -7963,7 +7963,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>크게, 대단히</t>
+          <t>크게 / 대단히</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -7972,7 +7972,7 @@
         </is>
       </c>
       <c r="D377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -7992,7 +7992,7 @@
         </is>
       </c>
       <c r="D378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
@@ -8012,7 +8012,7 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="380">
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="381">
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="384">
@@ -8112,7 +8112,7 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="385">
@@ -8172,7 +8172,7 @@
         </is>
       </c>
       <c r="D387" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="388">
@@ -8212,7 +8212,7 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="390">
@@ -8243,7 +8243,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>곧, 간략하게</t>
+          <t>곧 / 간략하게</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -8252,7 +8252,7 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="D395" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="396">
@@ -8412,7 +8412,7 @@
         </is>
       </c>
       <c r="D399" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="D400" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="401">
@@ -8452,7 +8452,7 @@
         </is>
       </c>
       <c r="D401" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="402">
@@ -8492,7 +8492,7 @@
         </is>
       </c>
       <c r="D403" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="404">
@@ -8512,7 +8512,7 @@
         </is>
       </c>
       <c r="D404" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="405">
@@ -8572,7 +8572,7 @@
         </is>
       </c>
       <c r="D407" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="408">
@@ -8652,7 +8652,7 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="412">
@@ -8672,7 +8672,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="413">
@@ -8732,7 +8732,7 @@
         </is>
       </c>
       <c r="D415" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="416">
@@ -8772,7 +8772,7 @@
         </is>
       </c>
       <c r="D417" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
@@ -8872,7 +8872,7 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
@@ -8892,7 +8892,7 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
@@ -8912,7 +8912,7 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="425">
@@ -8932,7 +8932,7 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="426">
@@ -9012,7 +9012,7 @@
         </is>
       </c>
       <c r="D429" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
@@ -9032,7 +9032,7 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="431">
@@ -9092,7 +9092,7 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="434">
@@ -9112,7 +9112,7 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="435">
@@ -9152,7 +9152,7 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="437">
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="438">
@@ -9192,7 +9192,7 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="439">
@@ -9232,7 +9232,7 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="441">
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="442">
@@ -9272,7 +9272,7 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="443">
@@ -9312,7 +9312,7 @@
         </is>
       </c>
       <c r="D444" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="445">
@@ -9332,7 +9332,7 @@
         </is>
       </c>
       <c r="D445" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="446">
@@ -9372,7 +9372,7 @@
         </is>
       </c>
       <c r="D447" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="448">
@@ -9392,7 +9392,7 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="449">
@@ -9412,7 +9412,7 @@
         </is>
       </c>
       <c r="D449" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450">
@@ -9432,7 +9432,7 @@
         </is>
       </c>
       <c r="D450" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="451">
@@ -9452,7 +9452,7 @@
         </is>
       </c>
       <c r="D451" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="452">
@@ -9472,7 +9472,7 @@
         </is>
       </c>
       <c r="D452" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453">
@@ -9492,7 +9492,7 @@
         </is>
       </c>
       <c r="D453" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="454">
@@ -9552,7 +9552,7 @@
         </is>
       </c>
       <c r="D456" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="457">
@@ -9572,7 +9572,7 @@
         </is>
       </c>
       <c r="D457" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="458">
@@ -9592,7 +9592,7 @@
         </is>
       </c>
       <c r="D458" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="459">
@@ -9612,7 +9612,7 @@
         </is>
       </c>
       <c r="D459" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="460">
@@ -9632,7 +9632,7 @@
         </is>
       </c>
       <c r="D460" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="461">
@@ -9652,7 +9652,7 @@
         </is>
       </c>
       <c r="D461" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="462">
@@ -9672,7 +9672,7 @@
         </is>
       </c>
       <c r="D462" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="463">
@@ -9692,7 +9692,7 @@
         </is>
       </c>
       <c r="D463" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="464">
@@ -9792,7 +9792,7 @@
         </is>
       </c>
       <c r="D468" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="469">
@@ -9812,7 +9812,7 @@
         </is>
       </c>
       <c r="D469" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="470">
@@ -9832,7 +9832,7 @@
         </is>
       </c>
       <c r="D470" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="471">
@@ -9852,7 +9852,7 @@
         </is>
       </c>
       <c r="D471" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="472">
@@ -9872,7 +9872,7 @@
         </is>
       </c>
       <c r="D472" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="473">
@@ -9892,7 +9892,7 @@
         </is>
       </c>
       <c r="D473" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="474">
@@ -9912,7 +9912,7 @@
         </is>
       </c>
       <c r="D474" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="475">
@@ -9923,7 +9923,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>~에 책임이 있다, ~을 맡다</t>
+          <t>~에 책임이 있다 / ~을 맡다</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -9938,12 +9938,12 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>be susceptible to</t>
+          <t>close down</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>~에 걸리기 쉽다, ~의 영향을 받기 쉽다</t>
+          <t>폐쇄하다</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -9952,18 +9952,18 @@
         </is>
       </c>
       <c r="D476" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>be suspensive</t>
+          <t>see off</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>불안하다, 확실하지 않다</t>
+          <t>배웅하다 / 쫓아내다 / 이기다</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -9972,38 +9972,38 @@
         </is>
       </c>
       <c r="D477" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>attribute A to B</t>
+          <t>send out</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>A를 B의 탓으로 돌리다</t>
+          <t>보내다 / 발송하다</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>뜻_AB</t>
+          <t>뜻_동사</t>
         </is>
       </c>
       <c r="D478" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>close down</t>
+          <t>resort to</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>폐쇄하다</t>
+          <t>~에 기대다 / 의지하다</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -10012,23 +10012,23 @@
         </is>
       </c>
       <c r="D479" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>see off</t>
+          <t>for the first time</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>배웅하다, 쫓아내다, 이기다</t>
+          <t>처음으로</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>뜻_동사</t>
+          <t>뜻_부사</t>
         </is>
       </c>
       <c r="D480" t="n">
@@ -10038,120 +10038,40 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>send out</t>
+          <t>provide A(대상) with B</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>보내다, 발송하다</t>
+          <t>A(대상)에게 B를 제공하다</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>뜻_동사</t>
+          <t>뜻_AB</t>
         </is>
       </c>
       <c r="D481" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>resort to</t>
+          <t>by</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>~에 기대다, 의지하다</t>
+          <t>~만큼 / ~ 옆에 / ~에 의해 / ~로써</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>뜻_동사</t>
+          <t>뜻_부사</t>
         </is>
       </c>
       <c r="D482" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="inlineStr">
-        <is>
-          <t>make over</t>
-        </is>
-      </c>
-      <c r="B483" t="inlineStr">
-        <is>
-          <t>양도하다, 고치다</t>
-        </is>
-      </c>
-      <c r="C483" t="inlineStr">
-        <is>
-          <t>뜻_동사</t>
-        </is>
-      </c>
-      <c r="D483" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="inlineStr">
-        <is>
-          <t>for the first time</t>
-        </is>
-      </c>
-      <c r="B484" t="inlineStr">
-        <is>
-          <t>처음으로</t>
-        </is>
-      </c>
-      <c r="C484" t="inlineStr">
-        <is>
-          <t>뜻_부사</t>
-        </is>
-      </c>
-      <c r="D484" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="inlineStr">
-        <is>
-          <t>provide A(대상) with B</t>
-        </is>
-      </c>
-      <c r="B485" t="inlineStr">
-        <is>
-          <t>A(대상)에게 B를 제공하다</t>
-        </is>
-      </c>
-      <c r="C485" t="inlineStr">
-        <is>
-          <t>뜻_AB</t>
-        </is>
-      </c>
-      <c r="D485" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="inlineStr">
-        <is>
-          <t>by</t>
-        </is>
-      </c>
-      <c r="B486" t="inlineStr">
-        <is>
-          <t>~만큼, ~ 옆에, ~에 의해, ~로써</t>
-        </is>
-      </c>
-      <c r="C486" t="inlineStr">
-        <is>
-          <t>뜻_부사</t>
-        </is>
-      </c>
-      <c r="D486" t="n">
         <v>-1</v>
       </c>
     </row>

--- a/학습자료/단답형/영어_복습.xlsx
+++ b/학습자료/단답형/영어_복습.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D482"/>
+  <dimension ref="A1:D497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="7">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="10">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="18">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="20">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="29">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="32">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="50">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="57">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="59">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="65">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="66">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="70">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="72">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="73">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="77">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="79">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="86">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="87">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="90">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="91">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="98">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="101">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="104">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="106">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="111">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="112">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="118">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="119">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="125">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="131">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="132">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="138">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="139">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="141">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="146">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="148">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="155">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="158">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="159">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="161">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="168">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="171">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="174">
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="178">
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="179">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="185">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="190">
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="194">
@@ -4432,7 +4432,7 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="201">
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="202">
@@ -4472,7 +4472,7 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="203">
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="218">
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220">
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="224">
@@ -4912,7 +4912,7 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="225">
@@ -4972,7 +4972,7 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228">
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230">
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="231">
@@ -5172,53 +5172,53 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>some of 단수명사 + 단수동사</t>
+          <t>(혼합) If S 과거완료, S 조동사 과거 + 동사원형 (now)</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>단수동사</t>
+          <t>과거완료</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>수일치_동사</t>
+          <t>동사시제_조동사</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>some of 복수명사 + 복수동사</t>
+          <t>(혼합) If S 과거완료, S 조동사 과거 + 동사원형 (now)</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>복수동사</t>
+          <t>조동사 과거 + 동사원형 (now)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>수일치_동사</t>
+          <t>동사시제_조동사</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>most of 단수명사 + 단수동사</t>
+          <t>some of 단수명사 + 단수동사</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -5238,7 +5238,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>most of 복수명사 + 복수동사</t>
+          <t>some of 복수명사 + 복수동사</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -5258,7 +5258,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>the rest of 단수명사 + 단수동사</t>
+          <t>most of 단수명사 + 단수동사</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -5272,13 +5272,13 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>the rest of 복수명사 + 복수동사</t>
+          <t>most of 복수명사 + 복수동사</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -5292,13 +5292,13 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>half of 단수명사 + 단수동사</t>
+          <t>the rest of 단수명사 + 단수동사</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -5312,13 +5312,13 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>half of 복수명사 + 복수동사</t>
+          <t>the rest of 복수명사 + 복수동사</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -5332,13 +5332,13 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>분수 of 단수명사 + 단수동사</t>
+          <t>half of 단수명사 + 단수동사</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -5352,13 +5352,13 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>분수 of 복수명사 + 복수동사</t>
+          <t>half of 복수명사 + 복수동사</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -5372,13 +5372,13 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>precent of 단수명사 + 단수동사</t>
+          <t>분수 of 단수명사 + 단수동사</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -5392,13 +5392,13 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>precent of 복수명사 + 복수동사</t>
+          <t>분수 of 복수명사 + 복수동사</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -5418,7 +5418,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>majority of 단수명사 + 단수동사</t>
+          <t>precent of 단수명사 + 단수동사</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -5438,7 +5438,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>majority of 복수명사 + 복수동사</t>
+          <t>precent of 복수명사 + 복수동사</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -5452,13 +5452,13 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>minority of 단수명사 + 단수동사</t>
+          <t>majority of 단수명사 + 단수동사</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -5478,7 +5478,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>minority of 복수명사 + 복수동사</t>
+          <t>majority of 복수명사 + 복수동사</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -5492,13 +5492,13 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>동명사(주어) + 단수동사</t>
+          <t>minority of 단수명사 + 단수동사</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -5512,18 +5512,18 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>to 동사원형(주어) + 단수동사</t>
+          <t>minority of 복수명사 + 복수동사</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>단수동사</t>
+          <t>복수동사</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -5532,13 +5532,13 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>절(주어) + 단수동사</t>
+          <t>동명사(주어) + 단수동사</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -5552,23 +5552,23 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A as well as B (주어) ; 수일치</t>
+          <t>to 동사원형(주어) + 단수동사</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>앞</t>
+          <t>단수동사</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>AB선택</t>
+          <t>수일치_동사</t>
         </is>
       </c>
       <c r="D257" t="n">
@@ -5578,17 +5578,17 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A or B (주어) ; 수일치</t>
+          <t>절(주어) + 단수동사</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>뒤</t>
+          <t>단수동사</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>AB선택</t>
+          <t>수일치_동사</t>
         </is>
       </c>
       <c r="D258" t="n">
@@ -5598,12 +5598,12 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>either A or B (주어) ; 수일치</t>
+          <t>A as well as B (주어) ; 수일치</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>뒤</t>
+          <t>앞</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -5618,7 +5618,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>neither A nor B (주어) ; 수일치</t>
+          <t>A or B (주어) ; 수일치</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -5632,13 +5632,13 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>not A but B (주어) ; 수일치</t>
+          <t>either A or B (주어) ; 수일치</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -5658,7 +5658,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>not only A but also B (주어) ; 수일치</t>
+          <t>neither A nor B (주어) ; 수일치</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -5672,53 +5672,53 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>The number of + 복수명사 + 단수동사</t>
+          <t>not A but B (주어) ; 수일치</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>단수동사</t>
+          <t>뒤</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>수일치_동사</t>
+          <t>AB선택</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A number of + 복수명사 + 복수동사</t>
+          <t>not only A but also B (주어) ; 수일치</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>복수동사</t>
+          <t>뒤</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>수일치_동사</t>
+          <t>AB선택</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Many a + 단수명사 + 단수동사</t>
+          <t>The number of + 복수명사 + 단수동사</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -5732,13 +5732,13 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Many + 복수명사 + 복수동사</t>
+          <t>A number of + 복수명사 + 복수동사</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -5758,12 +5758,12 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>The + 형용사 (주어) + 복수동사</t>
+          <t>Many a + 단수명사 + 단수동사</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>복수동사</t>
+          <t>단수동사</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -5772,23 +5772,23 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>The number of + 복수명사 + 단수동사</t>
+          <t>Many + 복수명사 + 복수동사</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>복수명사</t>
+          <t>복수동사</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>수일치_명사</t>
+          <t>수일치_동사</t>
         </is>
       </c>
       <c r="D268" t="n">
@@ -5798,32 +5798,32 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A number of + 복수명사 + 복수동사</t>
+          <t>The + 형용사 (주어) + 복수동사</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>복수명사</t>
+          <t>복수동사</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>수일치_명사</t>
+          <t>수일치_동사</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Many a + 단수명사 + 단수동사</t>
+          <t>The number of + 복수명사 + 단수동사</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>단수명사</t>
+          <t>복수명사</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -5832,13 +5832,13 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Many + 복수명사 + 복수동사</t>
+          <t>A number of + 복수명사 + 복수동사</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -5858,17 +5858,17 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>주어 ＋ be동사 ＋ asked + to 동사원형</t>
+          <t>Many a + 단수명사 + 단수동사</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>동사원형</t>
+          <t>단수명사</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>부정사 전치사 구분</t>
+          <t>수일치_명사</t>
         </is>
       </c>
       <c r="D272" t="n">
@@ -5878,17 +5878,17 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>주어 ＋ be동사 ＋ told + to 동사원형</t>
+          <t>Many + 복수명사 + 복수동사</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>동사원형</t>
+          <t>복수명사</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>부정사 전치사 구분</t>
+          <t>수일치_명사</t>
         </is>
       </c>
       <c r="D273" t="n">
@@ -5898,7 +5898,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>주어 ＋ be동사 ＋ allowed + to 동사원형</t>
+          <t>be asked to 동사원형</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -5912,13 +5912,13 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>주어 ＋ be동사 ＋ forced + to 동사원형</t>
+          <t>be told to 동사원형</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -5938,7 +5938,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>주어 ＋ be동사 ＋ ordered + to 동사원형</t>
+          <t>be allowed to 동사원형</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -5952,13 +5952,13 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>주어 ＋ be동사 ＋ supposed + to 동사원형</t>
+          <t>be forced to 동사원형</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -5972,13 +5972,13 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>주어 ＋ be동사 ＋ exoected + to 동사원형</t>
+          <t>be ordered to 동사원형</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -5992,13 +5992,13 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>주어 ＋ be동사 ＋ encouraged + to 동사원형</t>
+          <t>be supposed to 동사원형</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -6012,53 +6012,53 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>happen / occur / take place：발생하다</t>
+          <t>be exoected to 동사원형</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>수동태 불가 동사</t>
+          <t>동사원형</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>특징</t>
+          <t>부정사 전치사 구분</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>suffer from：~으로 고통받다</t>
+          <t>be encouraged to 동사원형</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>수동태 불가 동사</t>
+          <t>동사원형</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>특징</t>
+          <t>부정사 전치사 구분</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>belong to：~에 속하다</t>
+          <t>happen / occur / take place：발생하다</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -6072,13 +6072,13 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>appear / seem：~로 보이다</t>
+          <t>suffer from：~으로 고통받다</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -6092,13 +6092,13 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>disappear：사라지다</t>
+          <t>belong to：~에 속하다</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -6112,13 +6112,13 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>remain：~인 채로 남겨지다</t>
+          <t>appear / seem：~로 보이다</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -6132,13 +6132,13 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>consist of：~로 구성되다</t>
+          <t>disappear：사라지다</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -6152,13 +6152,13 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>resemble：~을 닮다</t>
+          <t>remain：~인 채로 남겨지다</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -6172,13 +6172,13 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>result in：~을 초래하다</t>
+          <t>consist of：~로 구성되다</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -6192,13 +6192,13 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>result from：~의 결과이다, ~로부터 기인하다</t>
+          <t>resemble：~을 닮다</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -6212,43 +6212,43 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>used to ＋동사원형</t>
+          <t>result in：~을 초래하다</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>~하곤 했다</t>
+          <t>수동태 불가 동사</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>used to 관용표현</t>
+          <t>특징</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>be used to ＋동사원형</t>
+          <t>result from：~의 결과이다, ~로부터 기인하다</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>~하는 데 사용되다</t>
+          <t>수동태 불가 동사</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>used to 관용표현</t>
+          <t>특징</t>
         </is>
       </c>
       <c r="D291" t="n">
@@ -6258,12 +6258,12 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>be used to ＋명사/ 동명사</t>
+          <t>used to ＋동사원형</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>~하는 것에 익숙하다</t>
+          <t>~하곤 했다</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -6278,37 +6278,37 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>must have p,p</t>
+          <t>be used to ＋동사원형</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>~했었음에 틀림없다</t>
+          <t>~하는 데 사용되다</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>조동사 have pp</t>
+          <t>used to 관용표현</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>should have p,p</t>
+          <t>be used to ＋명사/ 동명사</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>~했어야만 했다</t>
+          <t>~하는 것에 익숙하다</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>조동사 have pp</t>
+          <t>used to 관용표현</t>
         </is>
       </c>
       <c r="D294" t="n">
@@ -6318,12 +6318,12 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>cannot have p,p</t>
+          <t>must have p,p</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>~했을 리가 없다</t>
+          <t>~했었음에 틀림없다</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -6338,12 +6338,12 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>may have p,p</t>
+          <t>should have p,p</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>~했을지도 모른다</t>
+          <t>~했어야만 했다</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -6358,12 +6358,12 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>need not have p,p</t>
+          <t>cannot have p,p</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>~할 필요는 없었다</t>
+          <t>~했을 리가 없다</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -6372,23 +6372,23 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>insist : 주장하다</t>
+          <t>may have p,p</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>목적어절 should</t>
+          <t>~했을지도 모른다</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>특징</t>
+          <t>조동사 have pp</t>
         </is>
       </c>
       <c r="D298" t="n">
@@ -6398,27 +6398,27 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>demand : 요구하다</t>
+          <t>need not have p,p</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>목적어절 should</t>
+          <t>~할 필요는 없었다</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>특징</t>
+          <t>조동사 have pp</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>require : 요구하다</t>
+          <t>insist : 주장하다</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -6438,7 +6438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>order : 지시하다</t>
+          <t>demand : 요구하다</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -6452,13 +6452,13 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>command : 명령하다</t>
+          <t>require : 요구하다</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -6472,13 +6472,13 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>suggest : 제안하다</t>
+          <t>order : 지시하다</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -6492,13 +6492,13 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>propose : 제안하다</t>
+          <t>command : 명령하다</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -6512,13 +6512,13 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>request : 요청하다</t>
+          <t>suggest : 제안하다</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -6532,18 +6532,18 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>lend, ask, offer, owe</t>
+          <t>propose : 제안하다</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>4형식</t>
+          <t>목적어절 should</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -6552,87 +6552,87 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>end up 동명사 : 결국 ~하게 되다</t>
+          <t>request : 요청하다</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>동명사</t>
+          <t>목적어절 should</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>부정사 전치사 구분</t>
+          <t>특징</t>
         </is>
       </c>
       <c r="D307" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>wind up 동명사 : 결국 ~하게 되다</t>
+          <t>lend, ask, offer, owe</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>동명사</t>
+          <t>4형식</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>부정사 전치사 구분</t>
+          <t>특징</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>If ＋주어＋동사의 과거/were~, 주어＋would / should / could / might ＋동사원형~,</t>
+          <t>end up 동명사 : 결국 ~하게 되다</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>가정법 과거(현재 사실의 반대) : ~라면 / ~할 텐데</t>
+          <t>동명사</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>가정법 의미</t>
+          <t>부정사 전치사 구분</t>
         </is>
       </c>
       <c r="D309" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>If ＋주어＋had ＋p,p, ~, 주어＋would/ should/could/might have ＋p,p, ~,</t>
+          <t>wind up 동명사 : 결국 ~하게 되다</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>가정법 과거완료(과거 사실의 반대) : ~했다면 / ~했을 텐데</t>
+          <t>동명사</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>가정법 의미</t>
+          <t>부정사 전치사 구분</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="311">
@@ -6643,12 +6643,12 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>가정법 과거</t>
+          <t>가정법 과거(현재 사실의 반대) : ~라면 / ~할 텐데</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>가정법 구분</t>
+          <t>가정법 의미</t>
         </is>
       </c>
       <c r="D311" t="n">
@@ -6663,12 +6663,12 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>가정법 과거완료</t>
+          <t>가정법 과거완료(과거 사실의 반대) : ~했다면 / ~했을 텐데</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>가정법 구분</t>
+          <t>가정법 의미</t>
         </is>
       </c>
       <c r="D312" t="n">
@@ -6678,7 +6678,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>I wish that ＋주어＋과거동사</t>
+          <t>If ＋주어＋동사의 과거/were~, 주어＋would / should / could / might ＋동사원형~,</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -6692,13 +6692,13 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>I wish that ＋주어＋had ＋p,p,</t>
+          <t>If ＋주어＋had ＋p,p, ~, 주어＋would/ should/could/might have ＋p,p, ~,</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -6718,7 +6718,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>It is time that ＋주어＋과거동사 : ~할 시간이다</t>
+          <t>I wish that ＋주어＋과거동사</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -6732,18 +6732,18 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>If it were not for：~이 없다면</t>
+          <t>I wish that ＋주어＋had ＋p,p,</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>가정법 과거</t>
+          <t>가정법 과거완료</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -6752,13 +6752,13 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Were it not for：~이 없다면</t>
+          <t>It is time that ＋주어＋과거동사 : ~할 시간이다</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -6772,18 +6772,18 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>If it had not been for：~이 없었더라면</t>
+          <t>If it were not for：~이 없다면</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>가정법 과거완료</t>
+          <t>가정법 과거</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -6798,12 +6798,12 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Had it not been for：~이 없었더라면</t>
+          <t>Were it not for：~이 없다면</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>가정법 과거완료</t>
+          <t>가정법 과거</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -6812,18 +6812,18 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>But for ＝ Without</t>
+          <t>If it had not been for：~이 없었더라면</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>가정법 과거 / 가정법 과거완료</t>
+          <t>가정법 과거완료</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -6838,17 +6838,17 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>afraid</t>
+          <t>Had it not been for：~이 없었더라면</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>후치수식 형용사 (전치수식X)</t>
+          <t>가정법 과거완료</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>특징</t>
+          <t>가정법 구분</t>
         </is>
       </c>
       <c r="D321" t="n">
@@ -6858,17 +6858,17 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>asleep</t>
+          <t>But for ＝ Without</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>후치수식 형용사 (전치수식X)</t>
+          <t>가정법 과거 / 가정법 과거완료</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>특징</t>
+          <t>가정법 구분</t>
         </is>
       </c>
       <c r="D322" t="n">
@@ -6878,7 +6878,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>alone</t>
+          <t>afraid</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -6892,13 +6892,13 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>alike</t>
+          <t>asleep</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -6912,13 +6912,13 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>ashamed</t>
+          <t>alone</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -6938,7 +6938,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>awake</t>
+          <t>alike</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -6958,7 +6958,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>aware</t>
+          <t>ashamed</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -6972,13 +6972,13 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>amiss</t>
+          <t>awake</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -6998,7 +6998,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>averse</t>
+          <t>aware</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -7018,7 +7018,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>astray</t>
+          <t>amiss</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -7032,13 +7032,13 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>content</t>
+          <t>averse</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -7052,13 +7052,13 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>fain</t>
+          <t>astray</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -7072,13 +7072,13 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>fond</t>
+          <t>content</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -7092,13 +7092,13 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>glad</t>
+          <t>fain</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -7112,13 +7112,13 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>liable</t>
+          <t>fond</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -7132,13 +7132,13 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>loath</t>
+          <t>glad</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -7152,13 +7152,13 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>subject</t>
+          <t>liable</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -7172,13 +7172,13 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>unable</t>
+          <t>loath</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -7198,7 +7198,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>well</t>
+          <t>subject</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -7218,7 +7218,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>worth</t>
+          <t>unable</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -7238,7 +7238,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>ill</t>
+          <t>well</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -7258,17 +7258,17 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>a good many + 가산명사 : 많은 ~</t>
+          <t>worth</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>가산명사</t>
+          <t>후치수식 형용사 (전치수식X)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>가산 명사 불가산 명사 구분</t>
+          <t>특징</t>
         </is>
       </c>
       <c r="D342" t="n">
@@ -7278,27 +7278,27 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>a great many + 가산명사 : 많은 ~</t>
+          <t>ill</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>가산명사</t>
+          <t>후치수식 형용사 (전치수식X)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>가산 명사 불가산 명사 구분</t>
+          <t>특징</t>
         </is>
       </c>
       <c r="D343" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>a great number of + 가산명사 : 많은 ~</t>
+          <t>a good many + 가산명사 : 많은 ~</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -7312,13 +7312,13 @@
         </is>
       </c>
       <c r="D344" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>a large number of + 가산명사 : 많은 ~</t>
+          <t>a great many + 가산명사 : 많은 ~</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>a multitude of + 가산명사 : 많은 ~</t>
+          <t>a great number of + 가산명사 : 많은 ~</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -7352,13 +7352,13 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>not a[no] few + 가산명사 : 많은 ~</t>
+          <t>a large number of + 가산명사 : 많은 ~</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -7378,7 +7378,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>quite a few + 가산명사 : 많은 ~</t>
+          <t>a multitude of + 가산명사 : 많은 ~</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -7392,13 +7392,13 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>a few + 가산명사 : 약간의 ~</t>
+          <t>not a[no] few + 가산명사 : 많은 ~</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -7418,7 +7418,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>few + 가산명사 : 거의없는 ~</t>
+          <t>quite a few + 가산명사 : 많은 ~</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -7432,18 +7432,18 @@
         </is>
       </c>
       <c r="D350" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>much + 불가산명사 : 많은 ~</t>
+          <t>a few + 가산명사 : 약간의 ~</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>불가산명사</t>
+          <t>가산명사</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -7452,18 +7452,18 @@
         </is>
       </c>
       <c r="D351" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>a good deal of + 불가산명사 : 많은 ~</t>
+          <t>few + 가산명사 : 거의없는 ~</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>불가산명사</t>
+          <t>가산명사</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -7478,7 +7478,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>a great deal of + 불가산명사 : 많은 ~</t>
+          <t>much + 불가산명사 : 많은 ~</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -7498,7 +7498,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>a great[large] quantity of + 불가산명사 : 많은 ~</t>
+          <t>a good deal of + 불가산명사 : 많은 ~</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -7512,13 +7512,13 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>a great[large] amount of + 불가산명사 : 많은 ~</t>
+          <t>a great deal of + 불가산명사 : 많은 ~</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -7532,13 +7532,13 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>not a[no] little + 불가산명사 : 많은 ~</t>
+          <t>a great[large] quantity of + 불가산명사 : 많은 ~</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -7558,7 +7558,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>quite a little + 불가산명사 : 많은 ~</t>
+          <t>a great[large] amount of + 불가산명사 : 많은 ~</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -7578,7 +7578,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>a little + 불가산명사 : 약간의 ~</t>
+          <t>not a[no] little + 불가산명사 : 많은 ~</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -7592,13 +7592,13 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>little + 불가산명사 : 거의없는 ~</t>
+          <t>quite a little + 불가산명사 : 많은 ~</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -7612,18 +7612,18 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>a lot of + 가산명사 / 불가산명사 : 많은 ~</t>
+          <t>a little + 불가산명사 : 약간의 ~</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>가산명사 / 불가산명사</t>
+          <t>불가산명사</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -7632,18 +7632,18 @@
         </is>
       </c>
       <c r="D360" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t xml:space="preserve"> lots of + 가산명사 / 불가산명사 : 많은 ~</t>
+          <t>little + 불가산명사 : 거의없는 ~</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>가산명사 / 불가산명사</t>
+          <t>불가산명사</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -7658,7 +7658,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>(a) plenty of + 가산명사 / 불가산명사 : 많은 ~</t>
+          <t>a lot of + 가산명사 / 불가산명사 : 많은 ~</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -7678,52 +7678,52 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>지각동사 (목적격보어) ; see, …</t>
+          <t xml:space="preserve"> lots of + 가산명사 / 불가산명사 : 많은 ~</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>동명사 O / 동사원형 O / to 동사원형 X / 과거분사(수동태) O</t>
+          <t>가산명사 / 불가산명사</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>목적격보어 설명</t>
+          <t>가산 명사 불가산 명사 구분</t>
         </is>
       </c>
       <c r="D363" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>사역동사 (목적격보어) ; make</t>
+          <t>(a) plenty of + 가산명사 / 불가산명사 : 많은 ~</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>동명사 X / 동사원형 O / to 동사원형 X / 과거분사(수동태) O</t>
+          <t>가산명사 / 불가산명사</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>목적격보어 설명</t>
+          <t>가산 명사 불가산 명사 구분</t>
         </is>
       </c>
       <c r="D364" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>사역동사 (목적격보어) ; let</t>
+          <t>지각동사 (목적격보어) ; see, …</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>동명사 X / 동사원형 O / to 동사원형 X / 과거분사(수동태→be p.p / O) X</t>
+          <t>동명사 O / 동사원형 O / to 동사원형 X / 과거분사(수동태) O</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -7732,18 +7732,18 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>사역동사 (목적격보어) ; have</t>
+          <t>사역동사 (목적격보어) ; make</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>동명사 O / 동사원형 O / to 동사원형 X / 과거분사(수동태) O</t>
+          <t>동명사 X / 동사원형 O / to 동사원형 X / 과거분사(수동태) O</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -7758,12 +7758,12 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>준사역동사 (목적격보어) ; help, get</t>
+          <t>사역동사 (목적격보어) ; let</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>동명사 X / 동사원형 O / to 동사원형 O / 과거분사(수동태) O</t>
+          <t>동명사 X / 동사원형 O / to 동사원형 X / 과거분사(수동태→be p.p / O) X</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -7772,43 +7772,43 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>every 단수명사 : 모든 ~ (명사구)</t>
+          <t>사역동사 (목적격보어) ; have</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>단수명사</t>
+          <t>동명사 O / 동사원형 O / to 동사원형 X / 과거분사(수동태) O</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>수일치_명사</t>
+          <t>목적격보어 설명</t>
         </is>
       </c>
       <c r="D368" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>every + 기수 + 복수명사 : 매 ~ 마다(부사구)</t>
+          <t>준사역동사 (목적격보어) ; help, get</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>복수명사</t>
+          <t>동명사 X / 동사원형 O / to 동사원형 O / 과거분사(수동태) O</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>수일치_명사</t>
+          <t>목적격보어 설명</t>
         </is>
       </c>
       <c r="D369" t="n">
@@ -7818,37 +7818,37 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>hold one's tongue</t>
+          <t>every 단수명사 : 모든 ~ (명사구)</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>묵묵부답 하다</t>
+          <t>단수명사</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>유사어_tongue</t>
+          <t>수일치_명사</t>
         </is>
       </c>
       <c r="D370" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>make a slip of the tongue</t>
+          <t>every + 기수 + 복수명사 : 매 ~ 마다(부사구)</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>말실수하다</t>
+          <t>복수명사</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>유사어_tongue</t>
+          <t>수일치_명사</t>
         </is>
       </c>
       <c r="D371" t="n">
@@ -7858,12 +7858,12 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>in the tip of one's tongue</t>
+          <t>hold one's tongue</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>기억이 날 듯 말듯하다</t>
+          <t>묵묵부답 하다</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -7872,43 +7872,43 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>숫자 + 단위명사 + 명사</t>
+          <t>make a slip of the tongue</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>단위명사</t>
+          <t>말실수하다</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>단위명사</t>
+          <t>유사어_tongue</t>
         </is>
       </c>
       <c r="D373" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>단위명사s + of + 명사</t>
+          <t>in the tip of one's tongue</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>단위명사s</t>
+          <t>기억이 날 듯 말듯하다</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>단위명사</t>
+          <t>유사어_tongue</t>
         </is>
       </c>
       <c r="D374" t="n">
@@ -7918,12 +7918,12 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>숫자 + 단위명사s + 형용사 + 명사</t>
+          <t>숫자 + 단위명사 + 명사</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>단위명사s</t>
+          <t>단위명사</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -7938,17 +7938,17 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>단위명사s + of + 명사</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>높이</t>
+          <t>단위명사s</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>단위명사</t>
         </is>
       </c>
       <c r="D376" t="n">
@@ -7958,157 +7958,157 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>highly</t>
+          <t>숫자 + 단위명사s + 형용사 + 명사</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>크게 / 대단히</t>
+          <t>단위명사s</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>단위명사</t>
         </is>
       </c>
       <c r="D377" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>free</t>
+          <t>high</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>무료로</t>
+          <t>높이</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>free</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D378" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>freely</t>
+          <t>highly</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>자유롭게</t>
+          <t>크게 / 대단히</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>free</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D379" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>near</t>
+          <t>free</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>가까이</t>
+          <t>무료로</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>near</t>
+          <t>free</t>
         </is>
       </c>
       <c r="D380" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>nearly</t>
+          <t>freely</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>거의</t>
+          <t>자유롭게</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>near</t>
+          <t>free</t>
         </is>
       </c>
       <c r="D381" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>dear</t>
+          <t>near</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>비싸게</t>
+          <t>가까이</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>dear</t>
+          <t>near</t>
         </is>
       </c>
       <c r="D382" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>dearly</t>
+          <t>nearly</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>몹시</t>
+          <t>거의</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>dear</t>
+          <t>near</t>
         </is>
       </c>
       <c r="D383" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>late</t>
+          <t>dear</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>늦게</t>
+          <t>비싸게</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>late</t>
+          <t>dear</t>
         </is>
       </c>
       <c r="D384" t="n">
@@ -8118,37 +8118,37 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>lately</t>
+          <t>dearly</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>최근에</t>
+          <t>몹시</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>late</t>
+          <t>dear</t>
         </is>
       </c>
       <c r="D385" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>late</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>열심히</t>
+          <t>늦게</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>late</t>
         </is>
       </c>
       <c r="D386" t="n">
@@ -8158,37 +8158,37 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>hardly</t>
+          <t>lately</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>거의 ~ 않다</t>
+          <t>최근에</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>late</t>
         </is>
       </c>
       <c r="D387" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>pretty</t>
+          <t>hard</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>매우</t>
+          <t>열심히</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>pretty</t>
+          <t>hard</t>
         </is>
       </c>
       <c r="D388" t="n">
@@ -8198,17 +8198,17 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>prettily</t>
+          <t>hardly</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>예쁘게</t>
+          <t>거의 ~ 않다</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>pretty</t>
+          <t>hard</t>
         </is>
       </c>
       <c r="D389" t="n">
@@ -8218,17 +8218,17 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>pretty</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>짧게</t>
+          <t>매우</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>pretty</t>
         </is>
       </c>
       <c r="D390" t="n">
@@ -8238,57 +8238,57 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>shortly</t>
+          <t>prettily</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>곧 / 간략하게</t>
+          <t>예쁘게</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>pretty</t>
         </is>
       </c>
       <c r="D391" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>blow up：폭발하다</t>
+          <t>short</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>짧게</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>전치사 구분</t>
+          <t>short</t>
         </is>
       </c>
       <c r="D392" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>turn on：켜다</t>
+          <t>shortly</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>on</t>
+          <t>곧 / 간략하게</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>전치사 구분</t>
+          <t>short</t>
         </is>
       </c>
       <c r="D393" t="n">
@@ -8298,12 +8298,12 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>turn off：끄다</t>
+          <t>blow up：폭발하다</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>up</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -8318,12 +8318,12 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>break down：고장나다</t>
+          <t>turn on：켜다</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>on</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -8338,7 +8338,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>call off：취소하다</t>
+          <t>turn off：끄다</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -8352,13 +8352,13 @@
         </is>
       </c>
       <c r="D396" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>turn down：거절하다</t>
+          <t>break down：고장나다</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -8372,13 +8372,13 @@
         </is>
       </c>
       <c r="D397" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>take off：이륙하다</t>
+          <t>call off：취소하다</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -8398,12 +8398,12 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>fill out：채우다</t>
+          <t>turn down：거절하다</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>down</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -8412,58 +8412,58 @@
         </is>
       </c>
       <c r="D399" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>look, smell, taste, sound, feel (보어)</t>
+          <t>take off：이륙하다</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>형용사 / like ＋명사</t>
+          <t>off</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>형용사를 보어로 취하는 동사</t>
+          <t>전치사 구분</t>
         </is>
       </c>
       <c r="D400" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>be, become, stay, seem (보어)</t>
+          <t>fill out：채우다</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>out</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>형용사를 보어로 취하는 동사</t>
+          <t>전치사 구분</t>
         </is>
       </c>
       <c r="D401" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>make, keep, find, leave, consider (보어)</t>
+          <t>look, smell, taste, sound, feel (보어)</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>목적어＋형용사</t>
+          <t>형용사 / like ＋명사</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -8478,17 +8478,17 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>as ＋형용사/ 부사 원급 ＋as ＋비교 대상</t>
+          <t>be, become, stay, seem (보어)</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>형용사/ 부사 원급</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>형용사/ 부사 원급 vs 형용사/ 부사 비교급</t>
+          <t>형용사를 보어로 취하는 동사</t>
         </is>
       </c>
       <c r="D403" t="n">
@@ -8498,27 +8498,27 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>형용사/ 부사 비교급 ＋than ＋비교 대상</t>
+          <t>make, keep, find, leave, consider (보어)</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>형용사/ 부사 비교급</t>
+          <t>목적어＋형용사</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>형용사/ 부사 원급 vs 형용사/ 부사 비교급</t>
+          <t>형용사를 보어로 취하는 동사</t>
         </is>
       </c>
       <c r="D404" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>배수사* ＋as ＋형용사/ 부사 원급＋as ＋비교 대상：~만큼의 몇 배 ~</t>
+          <t>as ＋형용사/ 부사 원급 ＋as ＋비교 대상</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -8532,43 +8532,43 @@
         </is>
       </c>
       <c r="D405" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>no more than ＝as little as</t>
+          <t>형용사/ 부사 비교급 ＋than ＋비교 대상</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>~밖에</t>
+          <t>형용사/ 부사 비교급</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>비교급 관용 표현</t>
+          <t>형용사/ 부사 원급 vs 형용사/ 부사 비교급</t>
         </is>
       </c>
       <c r="D406" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>not more than ＝at most</t>
+          <t>배수사* ＋as ＋형용사/ 부사 원급＋as ＋비교 대상：~만큼의 몇 배 ~</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>많아야</t>
+          <t>형용사/ 부사 원급</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>비교급 관용 표현</t>
+          <t>형용사/ 부사 원급 vs 형용사/ 부사 비교급</t>
         </is>
       </c>
       <c r="D407" t="n">
@@ -8578,12 +8578,12 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>not less than ＝at least</t>
+          <t>no more than ＝as little as</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>적어도</t>
+          <t>~밖에</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -8598,12 +8598,12 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>no less than ＝as much as</t>
+          <t>not more than ＝at most</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>~씩이나</t>
+          <t>많아야</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -8612,18 +8612,18 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>still, a lot, much, even, far ＋비교급</t>
+          <t>not less than ＝at least</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>훨씬 더 ~한</t>
+          <t>적어도</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -8632,18 +8632,18 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>more than</t>
+          <t>no less than ＝as much as</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>~ 이상</t>
+          <t>~씩이나</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -8658,12 +8658,12 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>less than</t>
+          <t>still, a lot, much, even, far ＋비교급</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>~ 이하</t>
+          <t>훨씬 더 ~한</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -8678,12 +8678,12 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>more or less</t>
+          <t>more than</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>다소</t>
+          <t>~ 이상</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -8692,18 +8692,18 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>sooner or later</t>
+          <t>less than</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>머지않아</t>
+          <t>~ 이하</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -8712,18 +8712,18 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>no more ＝no longer ＝not ~ any more＝not ~ any longer</t>
+          <t>more or less</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>더 이상 ~가 아닌</t>
+          <t>다소</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -8738,12 +8738,12 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>긍정문, much more＋명사</t>
+          <t>sooner or later</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>~은 말할 것도 없이 ~하다</t>
+          <t>머지않아</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -8758,12 +8758,12 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>부정문, much less ＋명사</t>
+          <t>no more ＝no longer ＝not ~ any more＝not ~ any longer</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>~은 말할 것도 없이 ~하지 않다</t>
+          <t>더 이상 ~가 아닌</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -8772,43 +8772,43 @@
         </is>
       </c>
       <c r="D417" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>ask</t>
+          <t>긍정문, much more＋명사</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>목적격 보어 to 부정사</t>
+          <t>~은 말할 것도 없이 ~하다</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>특징</t>
+          <t>비교급 관용 표현</t>
         </is>
       </c>
       <c r="D418" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>allow</t>
+          <t>부정문, much less ＋명사</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>목적격 보어 to 부정사</t>
+          <t>~은 말할 것도 없이 ~하지 않다</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>특징</t>
+          <t>비교급 관용 표현</t>
         </is>
       </c>
       <c r="D419" t="n">
@@ -8818,7 +8818,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>advise</t>
+          <t>ask</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -8838,7 +8838,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>cause</t>
+          <t>allow</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -8852,13 +8852,13 @@
         </is>
       </c>
       <c r="D421" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>enable</t>
+          <t>advise</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -8872,13 +8872,13 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>encourage</t>
+          <t>cause</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -8892,13 +8892,13 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>expect</t>
+          <t>enable</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -8912,13 +8912,13 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>force</t>
+          <t>encourage</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -8932,13 +8932,13 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>forbid</t>
+          <t>expect</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -8952,13 +8952,13 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>get</t>
+          <t>force</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -8972,13 +8972,13 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>invite</t>
+          <t>forbid</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -8998,7 +8998,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>order</t>
+          <t>get</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -9012,13 +9012,13 @@
         </is>
       </c>
       <c r="D429" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>warn</t>
+          <t>invite</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -9038,7 +9038,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>require</t>
+          <t>order</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -9058,57 +9058,57 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>It + be동사 + 형용사 + for + 목적격 + to 동사원형</t>
+          <t>warn</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>목적격 보어 to 부정사</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>전치사 구분</t>
+          <t>특징</t>
         </is>
       </c>
       <c r="D432" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>It + be동사 + 성격 형용사 + of + 목적격 + to 동사원형</t>
+          <t>require</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>of</t>
+          <t>목적격 보어 to 부정사</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>전치사 구분</t>
+          <t>특징</t>
         </is>
       </c>
       <c r="D433" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>mind</t>
+          <t>It + be동사 + 형용사 + for + 목적격 to 동사원형</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>목적어로 동명사 사용</t>
+          <t>for</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>특징</t>
+          <t>전치사 구분</t>
         </is>
       </c>
       <c r="D434" t="n">
@@ -9118,27 +9118,27 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>enjoy</t>
+          <t>It + be동사 + 성격 형용사 + of + 목적격 to 동사원형</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>목적어로 동명사 사용</t>
+          <t>of</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>특징</t>
+          <t>전치사 구분</t>
         </is>
       </c>
       <c r="D435" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>give up</t>
+          <t>mind</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -9158,7 +9158,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>avoid</t>
+          <t>enjoy</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -9172,13 +9172,13 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>postpone</t>
+          <t>give up</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -9198,7 +9198,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>avoid</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -9212,13 +9212,13 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>consider</t>
+          <t>postpone</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -9238,7 +9238,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>admit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -9252,13 +9252,13 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>resist</t>
+          <t>consider</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -9278,7 +9278,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>deny</t>
+          <t>admit</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -9292,13 +9292,13 @@
         </is>
       </c>
       <c r="D443" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>quit</t>
+          <t>resist</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -9312,18 +9312,18 @@
         </is>
       </c>
       <c r="D444" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>deny</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>목적어로 to 부정사 사용</t>
+          <t>목적어로 동명사 사용</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -9338,12 +9338,12 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>hope</t>
+          <t>quit</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>목적어로 to 부정사 사용</t>
+          <t>목적어로 동명사 사용</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -9352,13 +9352,13 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>ask</t>
+          <t>want</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -9372,13 +9372,13 @@
         </is>
       </c>
       <c r="D447" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>threaten</t>
+          <t>hope</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -9392,13 +9392,13 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>choose</t>
+          <t>ask</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -9412,13 +9412,13 @@
         </is>
       </c>
       <c r="D449" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>agree</t>
+          <t>threaten</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -9432,13 +9432,13 @@
         </is>
       </c>
       <c r="D450" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>need</t>
+          <t>choose</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -9452,13 +9452,13 @@
         </is>
       </c>
       <c r="D451" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>decide</t>
+          <t>agree</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -9472,13 +9472,13 @@
         </is>
       </c>
       <c r="D452" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>offer</t>
+          <t>need</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -9498,17 +9498,17 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>remember ＋ to V</t>
+          <t>decide</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>(미래) ~할 것을 기억하다</t>
+          <t>목적어로 to 부정사 사용</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>remember ＋ to V</t>
+          <t>특징</t>
         </is>
       </c>
       <c r="D454" t="n">
@@ -9518,57 +9518,57 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>remember + -ing</t>
+          <t>offer</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>(과거) ~했던 것을 기억하다</t>
+          <t>목적어로 to 부정사 사용</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>remember ＋ to V</t>
+          <t>특징</t>
         </is>
       </c>
       <c r="D455" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>forget ＋ to V</t>
+          <t>remember to V</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>(미래) ~할 것을 잊다</t>
+          <t>(미래) ~할 것을 기억하다</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>forget ＋ to V</t>
+          <t>remember to V</t>
         </is>
       </c>
       <c r="D456" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>forget + -ing</t>
+          <t>remember + -ing</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>(과거) ~했던 것을 잊다</t>
+          <t>(과거) ~했던 것을 기억하다</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>forget ＋ to V</t>
+          <t>remember to V</t>
         </is>
       </c>
       <c r="D457" t="n">
@@ -9578,37 +9578,37 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>regret＋ to V</t>
+          <t>forget to V</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>~하게 되어 유감이다</t>
+          <t>(미래) ~할 것을 잊다</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>regret＋ to V</t>
+          <t>forget to V</t>
         </is>
       </c>
       <c r="D458" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>regret＋-ing</t>
+          <t>forget + -ing</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>~했던 것을 후회하다</t>
+          <t>(과거) ~했던 것을 잊다</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>regret＋ to V</t>
+          <t>forget to V</t>
         </is>
       </c>
       <c r="D459" t="n">
@@ -9618,17 +9618,17 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>try＋ to V</t>
+          <t>regret＋ to V</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>~하기 위해 노력하다</t>
+          <t>~하게 되어 유감이다</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>try＋ to V</t>
+          <t>regret＋ to V</t>
         </is>
       </c>
       <c r="D460" t="n">
@@ -9638,37 +9638,37 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>try＋-ing</t>
+          <t>regret＋-ing</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>시험 삼아 ~해보다</t>
+          <t>~했던 것을 후회하다</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>try＋ to V</t>
+          <t>regret＋ to V</t>
         </is>
       </c>
       <c r="D461" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>stop + to V</t>
+          <t>try＋ to V</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>~하기 위하여 멈추다</t>
+          <t>~하기 위해 노력하다</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>stop + to V</t>
+          <t>try＋ to V</t>
         </is>
       </c>
       <c r="D462" t="n">
@@ -9678,17 +9678,17 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>stop + -ing</t>
+          <t>try＋-ing</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>~하던 것을 멈추다</t>
+          <t>시험 삼아 ~해보다</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>stop + to V</t>
+          <t>try＋ to V</t>
         </is>
       </c>
       <c r="D463" t="n">
@@ -9698,52 +9698,52 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>by + -ing</t>
+          <t>stop to V</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>~함으로써</t>
+          <t>~하기 위하여 멈추다</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>뜻_부사</t>
+          <t>stop to V</t>
         </is>
       </c>
       <c r="D464" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>in + -ing</t>
+          <t>stop + -ing</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>~할 때</t>
+          <t>~하던 것을 멈추다</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>뜻_부사</t>
+          <t>stop to V</t>
         </is>
       </c>
       <c r="D465" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>on + -ing</t>
+          <t>by + -ing</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>~하자마자</t>
+          <t>~함으로써</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -9752,18 +9752,18 @@
         </is>
       </c>
       <c r="D466" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>without + -ing</t>
+          <t>in + -ing</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>~하는 것 없이</t>
+          <t>~할 때</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -9778,57 +9778,57 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>look forward to + -ing</t>
+          <t>on + -ing</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>~하기를 고대하다</t>
+          <t>~하자마자</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>뜻_동사</t>
+          <t>뜻_부사</t>
         </is>
       </c>
       <c r="D468" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>be[get] used[accustomed] to + -ing</t>
+          <t>without + -ing</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>~하는 것에 익숙하다</t>
+          <t>~하는 것 없이</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>뜻_동사</t>
+          <t>뜻_부사</t>
         </is>
       </c>
       <c r="D469" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>when it comes to + -ing</t>
+          <t>look forward to + -ing</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>~하는 것에 관한 한</t>
+          <t>~하기를 고대하다</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>뜻_부사</t>
+          <t>뜻_동사</t>
         </is>
       </c>
       <c r="D470" t="n">
@@ -9838,12 +9838,12 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>object to + -ing</t>
+          <t>be[get] used[accustomed] to + -ing</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>~하는 것에 반대하다</t>
+          <t>~하는 것에 익숙하다</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -9858,32 +9858,32 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>contribute to + -ing</t>
+          <t>when it comes to + -ing</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>~하는 것에 공헌하다</t>
+          <t>~하는 것에 관한 한</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>뜻_동사</t>
+          <t>뜻_부사</t>
         </is>
       </c>
       <c r="D472" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>devote oneself to + -ing</t>
+          <t>object to + -ing</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>~하는 것에 공헌하다</t>
+          <t>~하는 것에 반대하다</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -9892,38 +9892,38 @@
         </is>
       </c>
       <c r="D473" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>such as</t>
+          <t>contribute to + -ing</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>~와 같은</t>
+          <t>~하는 것에 공헌하다</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>뜻_부사</t>
+          <t>뜻_동사</t>
         </is>
       </c>
       <c r="D474" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>be responsible for</t>
+          <t>devote oneself to + -ing</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>~에 책임이 있다 / ~을 맡다</t>
+          <t>~하는 것에 공헌하다</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -9932,23 +9932,23 @@
         </is>
       </c>
       <c r="D475" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>close down</t>
+          <t>such as</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>폐쇄하다</t>
+          <t>~와 같은</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>뜻_동사</t>
+          <t>뜻_부사</t>
         </is>
       </c>
       <c r="D476" t="n">
@@ -9958,12 +9958,12 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>see off</t>
+          <t>be responsible for</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>배웅하다 / 쫓아내다 / 이기다</t>
+          <t>~에 책임이 있다 / ~을 맡다</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -9972,18 +9972,18 @@
         </is>
       </c>
       <c r="D477" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>send out</t>
+          <t>close down</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>보내다 / 발송하다</t>
+          <t>폐쇄하다</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -9998,12 +9998,12 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>resort to</t>
+          <t>see off</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>~에 기대다 / 의지하다</t>
+          <t>배웅하다 / 쫓아내다 / 이기다</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -10012,66 +10012,366 @@
         </is>
       </c>
       <c r="D479" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>for the first time</t>
+          <t>send out</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>처음으로</t>
+          <t>보내다 / 발송하다</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>뜻_부사</t>
+          <t>뜻_동사</t>
         </is>
       </c>
       <c r="D480" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>provide A(대상) with B</t>
+          <t>for the first time</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>A(대상)에게 B를 제공하다</t>
+          <t>처음으로</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>뜻_AB</t>
+          <t>뜻_부사</t>
         </is>
       </c>
       <c r="D481" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
+          <t>provide A(대상) with B</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>A(대상)에게 B를 제공하다</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>뜻_AB</t>
+        </is>
+      </c>
+      <c r="D482" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
           <t>by</t>
         </is>
       </c>
-      <c r="B482" t="inlineStr">
+      <c r="B483" t="inlineStr">
         <is>
           <t>~만큼 / ~ 옆에 / ~에 의해 / ~로써</t>
         </is>
       </c>
-      <c r="C482" t="inlineStr">
+      <c r="C483" t="inlineStr">
         <is>
           <t>뜻_부사</t>
         </is>
       </c>
-      <c r="D482" t="n">
+      <c r="D483" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>People used to [love] books are there.</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D484" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>since : 때문에</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>접속사</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>특징_since</t>
+        </is>
+      </c>
+      <c r="D485" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>since : 이래로</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>접속사 / 전치사 (과거시제 사용)</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>특징_since</t>
+        </is>
+      </c>
+      <c r="D486" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>What time it is?</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>몇시니?</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>특징_time</t>
+        </is>
+      </c>
+      <c r="D487" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Do you have the time?</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>몇시니?</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>특징_time</t>
+        </is>
+      </c>
+      <c r="D488" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Do you have time?</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>시간 있어요?</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>특징_time</t>
+        </is>
+      </c>
+      <c r="D489" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>remind 누구 of / that 무엇</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>of / that</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>전치사 구분</t>
+        </is>
+      </c>
+      <c r="D490" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>who look 누구 in the 신체부위</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>전치사 구분</t>
+        </is>
+      </c>
+      <c r="D491" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>who catch 누구 by the 신체부위</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>by</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>전치사 구분</t>
+        </is>
+      </c>
+      <c r="D492" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>who pat 누구 on the 신체부위</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>전치사 구분</t>
+        </is>
+      </c>
+      <c r="D493" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>catch my hand : 나의 손을 잡다</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>my</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>특징_catch</t>
+        </is>
+      </c>
+      <c r="D494" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>catch me by the hand : 나의 손을 잡다</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>특징_catch</t>
+        </is>
+      </c>
+      <c r="D495" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>결과 that's because 원인</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>that's because</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>특징_that’s why</t>
+        </is>
+      </c>
+      <c r="D496" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>원인 that's why 결과</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>that's why</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>특징_that’s why</t>
+        </is>
+      </c>
+      <c r="D497" t="n">
         <v>-1</v>
       </c>
     </row>

--- a/학습자료/단답형/영어_복습.xlsx
+++ b/학습자료/단답형/영어_복습.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="5">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="7">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="19">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="21">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="23">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="30">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="37">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="41">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="42">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="54">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="61">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="68">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="78">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="79">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="87">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="88">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="93">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="97">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="110">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="138">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="149">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="155">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="157">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="164">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="189">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="190">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="192">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="196">
@@ -4572,7 +4572,7 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="208">
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="212">
@@ -4872,7 +4872,7 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="223">
@@ -4912,7 +4912,7 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="225">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="226">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="229">
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="232">
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="238">
@@ -5532,7 +5532,7 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="256">
@@ -5592,7 +5592,7 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="259">
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="266">
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="267">
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="271">
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="285">
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="292">
@@ -6312,13 +6312,13 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>must have p,p</t>
+          <t>must have p.p</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -6338,7 +6338,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>should have p,p</t>
+          <t>should have p.p</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -6358,7 +6358,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>cannot have p,p</t>
+          <t>cannot have p.p</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -6378,7 +6378,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>may have p,p</t>
+          <t>may have p.p</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -6398,7 +6398,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>need not have p,p</t>
+          <t>need not have p.p</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -6552,7 +6552,7 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="307">
@@ -6572,7 +6572,7 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="308">
@@ -6632,7 +6632,7 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="311">
@@ -6658,7 +6658,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>If ＋주어＋had ＋p,p, ~, 주어＋would/ should/could/might have ＋p,p, ~,</t>
+          <t>If ＋주어＋had ＋p.p ~, 주어＋would/ should/could/might have ＋p.p ~,</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -6698,7 +6698,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>If ＋주어＋had ＋p,p, ~, 주어＋would/ should/could/might have ＋p,p, ~,</t>
+          <t>If ＋주어＋had ＋p.p ~, 주어＋would/ should/could/might have ＋p.p ~,</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -6738,7 +6738,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>I wish that ＋주어＋had ＋p,p,</t>
+          <t>I wish that ＋주어＋had ＋p.p</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -6932,7 +6932,7 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="326">
@@ -7052,7 +7052,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="332">
@@ -7132,7 +7132,7 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="336">
@@ -7152,7 +7152,7 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="337">
@@ -7352,7 +7352,7 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="347">
@@ -7532,7 +7532,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="356">
@@ -7732,7 +7732,7 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="366">
@@ -7852,7 +7852,7 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="372">
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="384">
@@ -8112,7 +8112,7 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="385">
@@ -8292,7 +8292,7 @@
         </is>
       </c>
       <c r="D393" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="394">
@@ -8472,7 +8472,7 @@
         </is>
       </c>
       <c r="D402" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="403">
@@ -8512,7 +8512,7 @@
         </is>
       </c>
       <c r="D404" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="405">
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="411">
@@ -8652,7 +8652,7 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="412">
@@ -9132,7 +9132,7 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="436">
@@ -9232,7 +9232,7 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="441">
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="442">
@@ -9272,7 +9272,7 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="443">
@@ -9492,7 +9492,7 @@
         </is>
       </c>
       <c r="D453" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="454">
@@ -9512,7 +9512,7 @@
         </is>
       </c>
       <c r="D454" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="455">
@@ -9712,7 +9712,7 @@
         </is>
       </c>
       <c r="D464" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="465">
@@ -9752,7 +9752,7 @@
         </is>
       </c>
       <c r="D466" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="467">
@@ -9952,7 +9952,7 @@
         </is>
       </c>
       <c r="D476" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="477">
@@ -10192,7 +10192,7 @@
         </is>
       </c>
       <c r="D488" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="489">
@@ -10292,7 +10292,7 @@
         </is>
       </c>
       <c r="D493" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="494">
@@ -10312,7 +10312,7 @@
         </is>
       </c>
       <c r="D494" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="495">
@@ -10412,7 +10412,7 @@
         </is>
       </c>
       <c r="D499" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="500">
@@ -10452,7 +10452,7 @@
         </is>
       </c>
       <c r="D501" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="502">
@@ -10472,7 +10472,7 @@
         </is>
       </c>
       <c r="D502" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="503">
@@ -10512,7 +10512,7 @@
         </is>
       </c>
       <c r="D504" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="505">
@@ -10572,7 +10572,7 @@
         </is>
       </c>
       <c r="D507" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="508">
@@ -10652,7 +10652,7 @@
         </is>
       </c>
       <c r="D511" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="512">
@@ -10692,7 +10692,7 @@
         </is>
       </c>
       <c r="D513" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="514">
@@ -10712,7 +10712,7 @@
         </is>
       </c>
       <c r="D514" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="515">
@@ -10832,7 +10832,7 @@
         </is>
       </c>
       <c r="D520" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="521">
@@ -10912,7 +10912,7 @@
         </is>
       </c>
       <c r="D524" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="525">
@@ -10972,7 +10972,7 @@
         </is>
       </c>
       <c r="D527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
@@ -11072,7 +11072,7 @@
         </is>
       </c>
       <c r="D532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533">
@@ -11232,7 +11232,7 @@
         </is>
       </c>
       <c r="D540" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="541">

--- a/학습자료/단답형/영어_복습.xlsx
+++ b/학습자료/단답형/영어_복습.xlsx
@@ -458,7 +458,8 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>want : 원하다 (목적어 유형)</t>
+          <t>want 
+: 원하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -478,7 +479,8 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>hope : 희망하다 (목적어 유형)</t>
+          <t>hope 
+: 희망하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -498,7 +500,8 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>attempt : 시도하다 (목적어 유형)</t>
+          <t>attempt 
+: 시도하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -518,7 +521,8 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>threaten : 위협하다 (목적어 유형)</t>
+          <t>threaten 
+: 위협하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -538,7 +542,8 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>choose : 선택하다 (목적어 유형)</t>
+          <t>choose 
+: 선택하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -558,7 +563,8 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>agree : 동의하다 (목적어 유형)</t>
+          <t>agree 
+: 동의하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -578,7 +584,8 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>need : 필요로 하다 (목적어 유형)</t>
+          <t>need 
+: 필요로 하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -598,7 +605,8 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>desire : 바라다 (목적어 유형)</t>
+          <t>desire 
+: 바라다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -618,7 +626,8 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>offer : 제안하다 (목적어 유형)</t>
+          <t>offer 
+: 제안하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -638,7 +647,8 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>decide : 결정하다 (목적어 유형)</t>
+          <t>decide 
+: 결정하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -658,7 +668,8 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>expect : 기대하다 (목적어 유형)</t>
+          <t>expect 
+: 기대하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -678,7 +689,8 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>wish : 바라다 (목적어 유형)</t>
+          <t>wish 
+: 바라다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -698,7 +710,8 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>promise : 약속하다 (목적어 유형)</t>
+          <t>promise 
+: 약속하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -718,7 +731,8 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ask : 요청하다 (목적어 유형)</t>
+          <t>ask 
+: 요청하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -738,7 +752,8 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>demand : 요구하다 (목적어 유형)</t>
+          <t>demand 
+: 요구하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -758,7 +773,8 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>learn : 배우다 (목적어 유형)</t>
+          <t>learn 
+: 배우다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -778,7 +794,8 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>plan : 계획하다 (목적어 유형)</t>
+          <t>plan 
+: 계획하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -798,7 +815,8 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>start : 시작하다 (목적어 유형)</t>
+          <t>start 
+: 시작하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -818,7 +836,8 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>like : 좋아하다 (목적어 유형)</t>
+          <t>like 
+: 좋아하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -838,7 +857,8 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>love : 사랑하다 (목적어 유형)</t>
+          <t>love 
+: 사랑하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -858,7 +878,8 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>begin : 시작하다 (목적어 유형)</t>
+          <t>begin 
+: 시작하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -878,7 +899,8 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>hate : 싫어하다 (목적어 유형)</t>
+          <t>hate 
+: 싫어하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -898,7 +920,8 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>propose : 작정이다 (목적어 유형)</t>
+          <t>propose 
+: 작정이다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -918,7 +941,8 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>cease : 그만두다 (목적어 유형)</t>
+          <t>cease 
+: 그만두다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -938,7 +962,8 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>continue : 계속하다 (목적어 유형)</t>
+          <t>continue 
+: 계속하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -958,7 +983,8 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>prefer : 좋아하다 (목적어 유형)</t>
+          <t>prefer 
+: 좋아하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -978,7 +1004,8 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>intend : 의도하다 (목적어 유형)</t>
+          <t>intend 
+: 의도하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -998,7 +1025,8 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>mind : 꺼리다 (목적어 유형)</t>
+          <t>mind 
+: 꺼리다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1018,7 +1046,8 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>miss : 그리워하다 (목적어 유형)</t>
+          <t>miss 
+: 그리워하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1038,7 +1067,8 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>enjoy : 즐기다 (목적어 유형)</t>
+          <t>enjoy 
+: 즐기다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1058,7 +1088,8 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>give up : 포기하다 (목적어 유형)</t>
+          <t>give up 
+: 포기하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1078,7 +1109,8 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>appreciate : 감사하다 (목적어 유형)</t>
+          <t>appreciate 
+: 감사하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1098,7 +1130,8 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>postpone : 연기하다 (목적어 유형)</t>
+          <t>postpone 
+: 연기하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1118,7 +1151,8 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>put off : 연기하다 (목적어 유형)</t>
+          <t>put off 
+: 연기하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1138,7 +1172,8 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>stop : 멈추다 (목적어 유형)</t>
+          <t>stop 
+: 멈추다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1158,7 +1193,8 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>suggest : 제안하다 (목적어 유형)</t>
+          <t>suggest 
+: 제안하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1178,7 +1214,8 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>consider : 고려하다 (목적어 유형)</t>
+          <t>consider 
+: 고려하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1192,13 +1229,14 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>admit : 인정하다 (목적어 유형)</t>
+          <t>admit 
+: 인정하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1218,7 +1256,8 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>avoid : 피하다 (목적어 유형)</t>
+          <t>avoid 
+: 피하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1238,7 +1277,8 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>risk : 무릅쓰다 (목적어 유형)</t>
+          <t>risk 
+: 무릅쓰다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1258,7 +1298,8 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>recall : 상기하다 (목적어 유형)</t>
+          <t>recall 
+: 상기하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1278,7 +1319,8 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>delay : 미루다 (목적어 유형)</t>
+          <t>delay 
+: 미루다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1298,7 +1340,8 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>quit : 멈추다 (목적어 유형)</t>
+          <t>quit 
+: 멈추다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1318,7 +1361,8 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>finish : 끝내다 (목적어 유형)</t>
+          <t>finish 
+: 끝내다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1338,7 +1382,8 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>deny : 부인하다 (목적어 유형)</t>
+          <t>deny 
+: 부인하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1358,7 +1403,8 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>resist : 반대하다 (목적어 유형)</t>
+          <t>resist 
+: 반대하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1378,7 +1424,8 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>recommend : 추천하다 (목적어 유형)</t>
+          <t>recommend 
+: 추천하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1398,7 +1445,8 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>involve : 포함하다 (목적어 유형)</t>
+          <t>involve 
+: 포함하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1998,7 +2046,8 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>object to 동명사 : ~을 반대하다</t>
+          <t>object to 동명사 
+: ~을 반대하다</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2018,7 +2067,8 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>be opposed to 동명사 : ~을 반대하다</t>
+          <t>be opposed to 동명사 
+: ~을 반대하다</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2038,7 +2088,8 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>have an objection to 동명사 : ~을 반대하다</t>
+          <t>have an objection to 동명사 
+: ~을 반대하다</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2058,7 +2109,8 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>lead to 동명사 : 결국 ~가 되다, ~로 이끌다</t>
+          <t>lead to 동명사 
+: 결국 ~가 되다, ~로 이끌다</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2078,7 +2130,8 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>lead 목적어 to 동사원형/동명사 : ~가 … 하도록 이끌다</t>
+          <t>lead 목적어 to 동사원형/동명사 
+: ~가 … 하도록 이끌다</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2098,7 +2151,8 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>pay attention to 동명사 : ~에 주의를 기울이다</t>
+          <t>pay attention to 동명사 
+: ~에 주의를 기울이다</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2118,7 +2172,8 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>when it comes to 동명사 : ~에 관해서라면</t>
+          <t>when it comes to 동명사 
+: ~에 관해서라면</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2138,7 +2193,8 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>in addition to 동명사 : ~이외에도, ~뿐만 아니라</t>
+          <t>in addition to 동명사 
+: ~이외에도, ~뿐만 아니라</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2158,7 +2214,8 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>react to 동명사 : ~에 반응하다</t>
+          <t>react to 동명사 
+: ~에 반응하다</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2178,7 +2235,8 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>respond to 동명사 : ~에 응답하다</t>
+          <t>respond to 동명사 
+: ~에 응답하다</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2198,7 +2256,8 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>belong to 동명사 : ~에 속하다</t>
+          <t>belong to 동명사 
+: ~에 속하다</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2218,7 +2277,8 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>reply to 동명사 : ~에 대답하다</t>
+          <t>reply to 동명사 
+: ~에 대답하다</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2238,7 +2298,8 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>due to 동명사 : ~ 때문에</t>
+          <t>due to 동명사 
+: ~ 때문에</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2258,7 +2319,8 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>owing to 동명사 : ~ 때문에</t>
+          <t>owing to 동명사 
+: ~ 때문에</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2278,7 +2340,8 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>thanks to 동명사 : ~ 때문에</t>
+          <t>thanks to 동명사 
+: ~ 때문에</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2298,7 +2361,8 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>contribute to 동명사 : ~하는 것에 기여하다</t>
+          <t>contribute to 동명사 
+: ~하는 것에 기여하다</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2318,7 +2382,8 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>subject A to 동명사 : A가 ~하도록 복종시키다</t>
+          <t>subject A to 동명사 
+: A가 ~하도록 복종시키다</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2338,7 +2403,8 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>owe A to 동명사 : A는 ~한 덕분이다</t>
+          <t>owe A to 동명사 
+: A는 ~한 덕분이다</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2358,7 +2424,8 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>attribute A to 동명사 : A는 ~한 덕분이다</t>
+          <t>attribute A to 동명사 
+: A는 ~한 덕분이다</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2378,7 +2445,8 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>add A to 동명사 : ~하는 것에 A를 더하다</t>
+          <t>add A to 동명사 
+: ~하는 것에 A를 더하다</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2398,7 +2466,8 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>prefer A to 동명사 : ~하는 것보다 A를 더 좋아하다</t>
+          <t>prefer A to 동명사 
+: ~하는 것보다 A를 더 좋아하다</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2418,7 +2487,8 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>devote A to 동명사 : ~하는 것에 A를 바치다</t>
+          <t>devote A to 동명사 
+: ~하는 것에 A를 바치다</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2438,7 +2508,8 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A be devoted to 동명사 : A가 ~하는 것에 헌신하다</t>
+          <t>A be devoted to 동명사 
+: A가 ~하는 것에 헌신하다</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2458,7 +2529,8 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A be dedicated to 동명사 : A가 ~하는 것에 헌신하다</t>
+          <t>A be dedicated to 동명사 
+: A가 ~하는 것에 헌신하다</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2478,7 +2550,8 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>be exposed to 동명사 : ~하는 것에 노출되다, 접하다</t>
+          <t>be exposed to 동명사 
+: ~하는 것에 노출되다, 접하다</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2498,7 +2571,8 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>expose A to 동명사 : A를 ~하는 것에 노출시키다</t>
+          <t>expose A to 동명사 
+: A를 ~하는 것에 노출시키다</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2518,7 +2592,8 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>be used to 동명사 : ~하는 것에 익숙하다</t>
+          <t>be used to 동명사 
+: ~하는 것에 익숙하다</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2538,7 +2613,8 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>be accustomed to 동명사 : ~하는 것에 익숙하다</t>
+          <t>be accustomed to 동명사 
+: ~하는 것에 익숙하다</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2558,7 +2634,8 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>what do you say to 동명사 ? :  ~(하는 게) 어때?</t>
+          <t>what do you say to 동명사 ? 
+:  ~(하는 게) 어때?</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2578,7 +2655,8 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>be tied to 동명사 : ~하는 것과 관련되다</t>
+          <t>be tied to 동명사 
+: ~하는 것과 관련되다</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2598,7 +2676,8 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A be preferable to 동명사 : A는 ~하는 것보다 낫다</t>
+          <t>A be preferable to 동명사 
+: A는 ~하는 것보다 낫다</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2618,7 +2697,8 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>come near to 동명사 : 하마터면 ~할 뻔하다</t>
+          <t>come near to 동명사 
+: 하마터면 ~할 뻔하다</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2638,7 +2718,8 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>be about to 동사원형 : 막 ~하려 하다</t>
+          <t>be about to 동사원형 
+: 막 ~하려 하다</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2658,7 +2739,8 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>be apt to 동사원형 : ~하는 경향이 있다</t>
+          <t>be apt to 동사원형 
+: ~하는 경향이 있다</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2678,7 +2760,8 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>be free to 동사원형 : 자유로이 ~하다</t>
+          <t>be free to 동사원형 
+: 자유로이 ~하다</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2698,7 +2781,8 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>be likely to 동사원형 : ~할 것 같다</t>
+          <t>be likely to 동사원형 
+: ~할 것 같다</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2718,7 +2802,8 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>be ready to 동사원형 : ~할 준비가 되어 있다</t>
+          <t>be ready to 동사원형 
+: ~할 준비가 되어 있다</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2738,7 +2823,8 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>be sure to 동사원형 : 반드시 ~하다</t>
+          <t>be sure to 동사원형 
+: 반드시 ~하다</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2758,7 +2844,8 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>be willing to 동사원형 : 기꺼이 ~하다</t>
+          <t>be willing to 동사원형 
+: 기꺼이 ~하다</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -2778,7 +2865,8 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>cannot but 동사원형 : ~하지 않을 수 없다</t>
+          <t>cannot but 동사원형 
+: ~하지 않을 수 없다</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2798,7 +2886,8 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>cannot help 동명사 : ~하지 않을 수 없다</t>
+          <t>cannot help 동명사 
+: ~하지 않을 수 없다</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -2818,7 +2907,8 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>cannot help but 동사원형 : ~하지 않을 수 없다</t>
+          <t>cannot help but 동사원형 
+: ~하지 않을 수 없다</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -2838,7 +2928,8 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>have no choice but to 동사원형 : ~하지 않을 수 없다</t>
+          <t>have no choice but to 동사원형 
+: ~하지 않을 수 없다</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -2858,7 +2949,8 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>can't refrain from 동명사 : ~하지 않을 수 없다</t>
+          <t>can't refrain from 동명사 
+: ~하지 않을 수 없다</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -2878,7 +2970,8 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>enough to 동사원형 : ~할 정도로 충분히 ~한</t>
+          <t>enough to 동사원형 
+: ~할 정도로 충분히 ~한</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2898,7 +2991,8 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>had better 동사원형 : ~하는 것이 더 낫다</t>
+          <t>had better 동사원형 
+: ~하는 것이 더 낫다</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -2918,7 +3012,8 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>in order to 동사원형 : ~하기 위해</t>
+          <t>in order to 동사원형 
+: ~하기 위해</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -2938,7 +3033,8 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>so as to 동사원형 : ~하기 위해</t>
+          <t>so as to 동사원형 
+: ~하기 위해</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -2958,7 +3054,8 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>so ~ as to 동사원형 : 매우 ~해서 ~하다</t>
+          <t>so ~ as to 동사원형 
+: 매우 ~해서 ~하다</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -2978,7 +3075,8 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>too ~ to 동사원형 : 너무 ~해서 ~할 수 없는</t>
+          <t>too ~ to 동사원형 
+: 너무 ~해서 ~할 수 없는</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -2998,7 +3096,8 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>used to 동사원형 : ~하곤 했다</t>
+          <t>used to 동사원형 
+: ~하곤 했다</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3018,7 +3117,8 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>would rather 동사원형 : 오히려 ~하고 싶다</t>
+          <t>would rather 동사원형 
+: 오히려 ~하고 싶다</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3038,7 +3138,8 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>be the last man to 동사원형 : ~할 사람이 아니다</t>
+          <t>be the last man to 동사원형 
+: ~할 사람이 아니다</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3058,7 +3159,8 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>be cut out to 동사원형 : ~에 적임이다</t>
+          <t>be cut out to 동사원형 
+: ~에 적임이다</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3078,7 +3180,8 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>come to 동사원형 : ~하게 되다</t>
+          <t>come to 동사원형 
+: ~하게 되다</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3098,7 +3201,8 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>be addicted to  : ~에 중독되다</t>
+          <t>be addicted to  
+: ~에 중독되다</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3118,7 +3222,8 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>be acquainted with : ~와 안면이 있다</t>
+          <t>be acquainted with 
+: ~와 안면이 있다</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -3138,7 +3243,8 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>be covered with  : ~로 뒤덮이다</t>
+          <t>be covered with  
+: ~로 뒤덮이다</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -3158,7 +3264,8 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>be crowded with  : ~로 붐비다</t>
+          <t>be crowded with  
+: ~로 붐비다</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3178,7 +3285,8 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>be married to  : ~와 결혼하다</t>
+          <t>be married to  
+: ~와 결혼하다</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -3198,7 +3306,8 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>be filled with  : ~로 가득 차다</t>
+          <t>be filled with  
+: ~로 가득 차다</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3218,7 +3327,8 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>be opposed to  : ~에 반대하다</t>
+          <t>be opposed to  
+: ~에 반대하다</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -3238,7 +3348,8 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>be devoted to  : ~에 헌신하다</t>
+          <t>be devoted to  
+: ~에 헌신하다</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -3258,7 +3369,8 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>be committed to  : ~에 전념하다</t>
+          <t>be committed to  
+: ~에 전념하다</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -3278,7 +3390,8 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>be absorbed in  : ~에 몰두하다</t>
+          <t>be absorbed in  
+: ~에 몰두하다</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3298,7 +3411,8 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>be concerned about  : ~을 걱정하다</t>
+          <t>be concerned about  
+: ~을 걱정하다</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -3318,7 +3432,8 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>be convinced of / that  : ~을 확신하다</t>
+          <t>be convinced of / that  
+: ~을 확신하다</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3338,7 +3453,8 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>be divorced from  : ~와 이혼하다</t>
+          <t>be divorced from  
+: ~와 이혼하다</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3358,7 +3474,8 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>be exposed to  : ~에 노출되다</t>
+          <t>be exposed to  
+: ~에 노출되다</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3378,7 +3495,8 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>be engaged in : ~와 약혼하다, ~에 종사하다</t>
+          <t>be engaged in 
+: ~와 약혼하다, ~에 종사하다</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3398,7 +3516,8 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>be based on : ~에 기초를 두다</t>
+          <t>be based on 
+: ~에 기초를 두다</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3418,7 +3537,8 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>be known to : ~에게 알려지다 (대상)</t>
+          <t>be known to 
+: ~에게 알려지다 (대상)</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3438,7 +3558,8 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>be known as : ~로서 알려지다 (별명, 명칭)</t>
+          <t>be known as 
+: ~로서 알려지다 (별명, 명칭)</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3458,7 +3579,8 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>be known for : ~로 알려지다 (명성)</t>
+          <t>be known for 
+: ~로 알려지다 (명성)</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3478,7 +3600,8 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>be on the verge of 동명사 : 막 ~하려 하다</t>
+          <t>be on the verge of 동명사 
+: 막 ~하려 하다</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3498,7 +3621,8 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>be on the point of 동명사 : 막 ~하려 하다</t>
+          <t>be on the point of 동명사 
+: 막 ~하려 하다</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3518,7 +3642,8 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>to be frank with you : 솔직히 말하면</t>
+          <t>to be frank with you 
+: 솔직히 말하면</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3538,7 +3663,8 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>keep 목적어 from 동명사 : 막다</t>
+          <t>keep 목적어 from 동명사 
+: 막다</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -3558,7 +3684,8 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>keep 목적어 (on) 동명사 : 유지하다</t>
+          <t>keep 목적어 (on) 동명사 
+: 유지하다</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -3578,7 +3705,8 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>look forward to 동명사 : ~하는 것을 기대하다</t>
+          <t>look forward to 동명사 
+: ~하는 것을 기대하다</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3918,7 +4046,8 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>be susceptible to : ~에 걸리기 쉽다, ~의 영향을 받기 쉽다</t>
+          <t>be susceptible to 
+: ~에 걸리기 쉽다, ~의 영향을 받기 쉽다</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -3938,7 +4067,8 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>accuse A of B : A를 B로 기소[고소]하다</t>
+          <t>accuse A of B 
+: A를 B로 기소[고소]하다</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -3958,7 +4088,8 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>attribute A to B : A를 B의 탓으로 돌리다</t>
+          <t>attribute A to B 
+: A를 B의 탓으로 돌리다</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -3978,7 +4109,8 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>see off : 배웅하다, 쫓아내다, 이기다</t>
+          <t>see off 
+: 배웅하다, 쫓아내다, 이기다</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -3998,7 +4130,8 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>rule out : 배제하다</t>
+          <t>rule out 
+: 배제하다</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -4018,7 +4151,8 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>be sentenced to : ~의 형을 받다</t>
+          <t>be sentenced to 
+: ~의 형을 받다</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -4038,7 +4172,8 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>resort to : ~에 기대다, 의지하다</t>
+          <t>resort to 
+: ~에 기대다, 의지하다</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -4058,7 +4193,8 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>make up with : ~와 화해하다</t>
+          <t>make up with 
+: ~와 화해하다</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -4078,7 +4214,8 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>make away : 도망가다</t>
+          <t>make away 
+: 도망가다</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -4098,7 +4235,8 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>make over : 양도하다, 고치다</t>
+          <t>make over 
+: 양도하다, 고치다</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -4118,7 +4256,8 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>make against : ~에게 불리하게 작용하다</t>
+          <t>make against 
+: ~에게 불리하게 작용하다</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -4138,12 +4277,13 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>increase in : ~에 있어서 증가하다</t>
+          <t>increase in 
+: ~에 있어서 증가하다</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t xml:space="preserve">in </t>
+          <t>in</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -4158,7 +4298,8 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>talk A out of B : A가 B 못하도록 설득하다</t>
+          <t>talk A out of B 
+: A가 B 못하도록 설득하다</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -4578,7 +4719,8 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t xml:space="preserve">amaze : ~을 놀라게 하다 </t>
+          <t>amaze 
+: ~을 놀라게 하다</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -4598,7 +4740,8 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t xml:space="preserve">annoy : ~을 화나게 하다 </t>
+          <t>annoy 
+: ~을 화나게 하다</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -4618,7 +4761,8 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t xml:space="preserve">confuse : ~을 혼란시키다 </t>
+          <t>confuse 
+: ~을 혼란시키다</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -4638,7 +4782,8 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t xml:space="preserve">depress : ~을 우울하게 하다 </t>
+          <t>depress 
+: ~을 우울하게 하다</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -4658,7 +4803,8 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t xml:space="preserve">embarrass : ~을 당황하게 하다 </t>
+          <t>embarrass 
+: ~을 당황하게 하다</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -4678,7 +4824,8 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t xml:space="preserve">excite : ~을 흥분시키다 </t>
+          <t>excite 
+: ~을 흥분시키다</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -4698,7 +4845,8 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t xml:space="preserve">worry : ~을 걱정시키다 </t>
+          <t>worry 
+: ~을 걱정시키다</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -4718,7 +4866,8 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t xml:space="preserve">frighten : ~을 놀라게 하다 </t>
+          <t>frighten 
+: ~을 놀라게 하다</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -4738,7 +4887,8 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t xml:space="preserve">interest : ~을 재미있게 하다 </t>
+          <t>interest 
+: ~을 재미있게 하다</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -4758,7 +4908,8 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t xml:space="preserve">irritate : ~을 짜증나게 하다 </t>
+          <t>irritate 
+: ~을 짜증나게 하다</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -4778,7 +4929,8 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t xml:space="preserve">please : ~을 즐겁게 하다 </t>
+          <t>please 
+: ~을 즐겁게 하다</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -4798,7 +4950,8 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t xml:space="preserve">satisfy : ~을 만족시키다 </t>
+          <t>satisfy 
+: ~을 만족시키다</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -4818,7 +4971,8 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t xml:space="preserve">shock : ~을 놀라게 하다 </t>
+          <t>shock 
+: ~을 놀라게 하다</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -5058,7 +5212,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>(현재) If S R(-s/-es), S will/can + 동사원형</t>
+          <t>(현재) If S R(-s/-es), S will/can 동사원형</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -5078,12 +5232,12 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>(현재) If S R(-s/-es), S will/can + 동사원형</t>
+          <t>(현재) If S R(-s/-es), S will/can 동사원형</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>will/can + 동사원형</t>
+          <t>will/can 동사원형</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -5098,7 +5252,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>(과거) If S 과거동사, S 조동사 과거 + 동사원형</t>
+          <t>(과거) If S 과거동사, S 조동사 과거 동사원형</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -5118,12 +5272,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>(과거) If S 과거동사, S 조동사 과거 + 동사원형</t>
+          <t>(과거) If S 과거동사, S 조동사 과거 동사원형</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>조동사 과거 + 동사원형</t>
+          <t>조동사 과거 동사원형</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -5138,7 +5292,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>(대과거) If S 과거완료, S 조동사 과거 + 현재완료</t>
+          <t>(대과거) If S 과거완료, S 조동사 과거 현재완료</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -5158,12 +5312,12 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>(대과거) If S 과거완료, S 조동사 과거 + 현재완료</t>
+          <t>(대과거) If S 과거완료, S 조동사 과거 현재완료</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>조동사 과거 + 현재완료</t>
+          <t>조동사 과거 현재완료</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -5178,7 +5332,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>(혼합) If S 과거완료, S 조동사 과거 + 동사원형 (now)</t>
+          <t>(혼합) If S 과거완료, S 조동사 과거 동사원형 (now)</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -5198,12 +5352,12 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>(혼합) If S 과거완료, S 조동사 과거 + 동사원형 (now)</t>
+          <t>(혼합) If S 과거완료, S 조동사 과거 동사원형 (now)</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>조동사 과거 + 동사원형 (now)</t>
+          <t>조동사 과거 동사원형 (now)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -5218,7 +5372,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>some of 단수명사 + 단수동사</t>
+          <t>some of 단수명사 단수동사</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -5238,7 +5392,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>some of 복수명사 + 복수동사</t>
+          <t>some of 복수명사 복수동사</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -5258,7 +5412,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>most of 단수명사 + 단수동사</t>
+          <t>most of 단수명사 단수동사</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -5278,7 +5432,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>most of 복수명사 + 복수동사</t>
+          <t>most of 복수명사 복수동사</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -5298,7 +5452,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>the rest of 단수명사 + 단수동사</t>
+          <t>the rest of 단수명사 단수동사</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -5318,7 +5472,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>the rest of 복수명사 + 복수동사</t>
+          <t>the rest of 복수명사 복수동사</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -5338,7 +5492,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>half of 단수명사 + 단수동사</t>
+          <t>half of 단수명사 단수동사</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -5358,7 +5512,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>half of 복수명사 + 복수동사</t>
+          <t>half of 복수명사 복수동사</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -5378,7 +5532,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>분수 of 단수명사 + 단수동사</t>
+          <t>분수 of 단수명사 단수동사</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -5398,7 +5552,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>분수 of 복수명사 + 복수동사</t>
+          <t>분수 of 복수명사 복수동사</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -5418,7 +5572,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>precent of 단수명사 + 단수동사</t>
+          <t>precent of 단수명사 단수동사</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -5438,7 +5592,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>precent of 복수명사 + 복수동사</t>
+          <t>precent of 복수명사 복수동사</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -5458,7 +5612,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>majority of 단수명사 + 단수동사</t>
+          <t>majority of 단수명사 단수동사</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -5478,7 +5632,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>majority of 복수명사 + 복수동사</t>
+          <t>majority of 복수명사 복수동사</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -5498,7 +5652,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>minority of 단수명사 + 단수동사</t>
+          <t>minority of 단수명사 단수동사</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -5518,7 +5672,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>minority of 복수명사 + 복수동사</t>
+          <t>minority of 복수명사 복수동사</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -5538,7 +5692,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>동명사(주어) + 단수동사</t>
+          <t>동명사(주어) 단수동사</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -5558,7 +5712,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>to 동사원형(주어) + 단수동사</t>
+          <t>to 동사원형(주어) 단수동사</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -5578,7 +5732,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>절(주어) + 단수동사</t>
+          <t>절(주어) 단수동사</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -5718,7 +5872,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>The number of + 복수명사 + 단수동사</t>
+          <t>The number of 복수명사 단수동사</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -5738,7 +5892,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A number of + 복수명사 + 복수동사</t>
+          <t>A number of 복수명사 복수동사</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -5758,7 +5912,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Many a + 단수명사 + 단수동사</t>
+          <t>Many a 단수명사 단수동사</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -5778,7 +5932,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Many + 복수명사 + 복수동사</t>
+          <t>Many 복수명사 복수동사</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -5798,7 +5952,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>The + 형용사 (주어) + 복수동사</t>
+          <t>The 형용사 (주어) 복수동사</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -5818,7 +5972,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>The number of + 복수명사 + 단수동사</t>
+          <t>The number of 복수명사 단수동사</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -5838,7 +5992,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A number of + 복수명사 + 복수동사</t>
+          <t>A number of 복수명사 복수동사</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -5858,7 +6012,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Many a + 단수명사 + 단수동사</t>
+          <t>Many a 단수명사 단수동사</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -5878,7 +6032,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Many + 복수명사 + 복수동사</t>
+          <t>Many 복수명사 복수동사</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -6418,7 +6572,8 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>insist : 주장하다</t>
+          <t>insist 
+: 주장하다</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -6438,7 +6593,8 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>demand : 요구하다</t>
+          <t>demand 
+: 요구하다</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -6458,7 +6614,8 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>require : 요구하다</t>
+          <t>require 
+: 요구하다</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -6478,7 +6635,8 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>order : 지시하다</t>
+          <t>order 
+: 지시하다</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -6498,7 +6656,8 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>command : 명령하다</t>
+          <t>command 
+: 명령하다</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -6518,7 +6677,8 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>suggest : 제안하다</t>
+          <t>suggest 
+: 제안하다</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -6538,7 +6698,8 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>propose : 제안하다</t>
+          <t>propose 
+: 제안하다</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -6558,7 +6719,8 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>request : 요청하다</t>
+          <t>request 
+: 요청하다</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -6598,7 +6760,8 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>end up 동명사 : 결국 ~하게 되다</t>
+          <t>end up 동명사 
+: 결국 ~하게 되다</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -6618,7 +6781,8 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>wind up 동명사 : 결국 ~하게 되다</t>
+          <t>wind up 동명사 
+: 결국 ~하게 되다</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -6758,7 +6922,8 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>It is time that ＋주어＋과거동사 : ~할 시간이다</t>
+          <t>It is time that ＋주어＋과거동사 
+: ~할 시간이다</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -7298,7 +7463,8 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>a good many + 가산명사 : 많은 ~</t>
+          <t>a good many 가산명사 
+: 많은 ~</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -7318,7 +7484,8 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>a great many + 가산명사 : 많은 ~</t>
+          <t>a great many 가산명사 
+: 많은 ~</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -7338,7 +7505,8 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>a great number of + 가산명사 : 많은 ~</t>
+          <t>a great number of 가산명사 
+: 많은 ~</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -7358,7 +7526,8 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>a large number of + 가산명사 : 많은 ~</t>
+          <t>a large number of 가산명사 
+: 많은 ~</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -7378,7 +7547,8 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>a multitude of + 가산명사 : 많은 ~</t>
+          <t>a multitude of 가산명사 
+: 많은 ~</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -7398,7 +7568,8 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>not a[no] few + 가산명사 : 많은 ~</t>
+          <t>not a[no] few 가산명사 
+: 많은 ~</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -7418,7 +7589,8 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>quite a few + 가산명사 : 많은 ~</t>
+          <t>quite a few 가산명사 
+: 많은 ~</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -7438,7 +7610,8 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>a few + 가산명사 : 약간의 ~</t>
+          <t>a few 가산명사 
+: 약간의 ~</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -7458,7 +7631,8 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>few + 가산명사 : 거의없는 ~</t>
+          <t>few 가산명사 
+: 거의없는 ~</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -7478,7 +7652,8 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>much + 불가산명사 : 많은 ~</t>
+          <t>much 불가산명사 
+: 많은 ~</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -7498,7 +7673,8 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>a good deal of + 불가산명사 : 많은 ~</t>
+          <t>a good deal of 불가산명사 
+: 많은 ~</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -7518,7 +7694,8 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>a great deal of + 불가산명사 : 많은 ~</t>
+          <t>a great deal of 불가산명사 
+: 많은 ~</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -7538,7 +7715,8 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>a great[large] quantity of + 불가산명사 : 많은 ~</t>
+          <t>a great[large] quantity of 불가산명사 
+: 많은 ~</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -7558,7 +7736,8 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>a great[large] amount of + 불가산명사 : 많은 ~</t>
+          <t>a great[large] amount of 불가산명사 
+: 많은 ~</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -7578,7 +7757,8 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>not a[no] little + 불가산명사 : 많은 ~</t>
+          <t>not a[no] little 불가산명사 
+: 많은 ~</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -7598,7 +7778,8 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>quite a little + 불가산명사 : 많은 ~</t>
+          <t>quite a little 불가산명사 
+: 많은 ~</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -7618,7 +7799,8 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>a little + 불가산명사 : 약간의 ~</t>
+          <t>a little 불가산명사 
+: 약간의 ~</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -7638,7 +7820,8 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>little + 불가산명사 : 거의없는 ~</t>
+          <t>little 불가산명사 
+: 거의없는 ~</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -7658,7 +7841,8 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>a lot of + 가산명사 / 불가산명사 : 많은 ~</t>
+          <t>a lot of 가산명사 / 불가산명사 
+: 많은 ~</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -7678,7 +7862,8 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t xml:space="preserve"> lots of + 가산명사 / 불가산명사 : 많은 ~</t>
+          <t>lots of 가산명사 / 불가산명사 
+: 많은 ~</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -7698,7 +7883,8 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>(a) plenty of + 가산명사 / 불가산명사 : 많은 ~</t>
+          <t>(a) plenty of 가산명사 / 불가산명사 
+: 많은 ~</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -7818,7 +8004,8 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>every 단수명사 : 모든 ~ (명사구)</t>
+          <t>every 단수명사 
+: 모든 ~ (명사구)</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -7838,7 +8025,8 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>every + 기수 + 복수명사 : 매 ~ 마다(부사구)</t>
+          <t>every 기수 복수명사 
+: 매 ~ 마다(부사구)</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -7918,7 +8106,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>숫자 + 단위명사 + 명사</t>
+          <t>숫자 단위명사 명사</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -7938,7 +8126,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>단위명사s + of + 명사</t>
+          <t>단위명사s of 명사</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -7958,7 +8146,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>숫자 + 단위명사s + 형용사 + 명사</t>
+          <t>숫자 단위명사s 형용사 명사</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -9098,7 +9286,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>It + be동사 + 형용사 + for + 목적격 to 동사원형</t>
+          <t>It be동사 형용사 for 목적격 to 동사원형</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -9118,7 +9306,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>It + be동사 + 성격 형용사 + of + 목적격 to 동사원형</t>
+          <t>It be동사 성격 형용사 of 목적격 to 동사원형</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -9558,7 +9746,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>remember + -ing</t>
+          <t>remember -ing</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -9598,7 +9786,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>forget + -ing</t>
+          <t>forget -ing</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -9718,7 +9906,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>stop + -ing</t>
+          <t>stop -ing</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -9738,7 +9926,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>by + -ing</t>
+          <t>by -ing</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -9758,7 +9946,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>in + -ing</t>
+          <t>in -ing</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -9778,7 +9966,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>on + -ing</t>
+          <t>on -ing</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -9798,7 +9986,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>without + -ing</t>
+          <t>without -ing</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -9818,7 +10006,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>look forward to + -ing</t>
+          <t>look forward to -ing</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -9838,7 +10026,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>be[get] used[accustomed] to + -ing</t>
+          <t>be[get] used[accustomed] to -ing</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -9858,7 +10046,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>when it comes to + -ing</t>
+          <t>when it comes to -ing</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -9878,7 +10066,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>object to + -ing</t>
+          <t>object to -ing</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -9898,7 +10086,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>contribute to + -ing</t>
+          <t>contribute to -ing</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -9918,7 +10106,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>devote oneself to + -ing</t>
+          <t>devote oneself to -ing</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -10118,7 +10306,8 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>since : 때문에</t>
+          <t>since 
+: 때문에</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -10138,7 +10327,8 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>since : 이래로</t>
+          <t>since 
+: 이래로</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -10298,7 +10488,8 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>catch my hand : 나의 손을 잡다</t>
+          <t>catch my hand 
+: 나의 손을 잡다</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -10318,7 +10509,8 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>catch me by the hand : 나의 손을 잡다</t>
+          <t>catch me by the hand 
+: 나의 손을 잡다</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -10418,17 +10610,18 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>주어 + had + no sooner + 과거분사 ~ than 주어 + 과거동사 ~ : ~하자마자 …하다</t>
+          <t>주어 had no sooner 과거분사 ~ than 주어 과거동사 ~ 
+: ~하자마자 …하다</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>주어 + had</t>
+          <t>주어 had</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>001. ~하자마자 …하다 : had + no sooner</t>
+          <t>001. ~하자마자 …하다 : had no sooner</t>
         </is>
       </c>
       <c r="D500" t="n">
@@ -10438,17 +10631,18 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>No sooner + had + 주어 + 과거분사 ~ than 주어 + 과거동사 ~  : ~하자마자 …하다</t>
+          <t>No sooner had 주어 과거분사 ~ than 주어 과거동사 ~  
+: ~하자마자 …하다</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>had + 주어</t>
+          <t>had 주어</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>001. ~하자마자 …하다 : had + no sooner</t>
+          <t>001. ~하자마자 …하다 : had no sooner</t>
         </is>
       </c>
       <c r="D501" t="n">
@@ -10458,17 +10652,18 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>주어 + had + hardly[scarcely] + 과거분사 ~ when[before] 주어 + 과거동사 ~ : ~하자마자 …하다</t>
+          <t>주어 had hardly[scarcely] 과거분사 ~ when[before] 주어 과거동사 ~ 
+: ~하자마자 …하다</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>주어 + had</t>
+          <t>주어 had</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>001. ~하자마자 …하다 : had + hardly[scarcely]</t>
+          <t>001. ~하자마자 …하다 : had hardly[scarcely]</t>
         </is>
       </c>
       <c r="D502" t="n">
@@ -10478,17 +10673,18 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Hardly[Scarcely] + had + 주어 + 과거분사 ~ when[before] 주어 + 과거동사 ~ : ~하자마자 …하다</t>
+          <t>Hardly[Scarcely] had 주어 과거분사 ~ when[before] 주어 과거동사 ~ 
+: ~하자마자 …하다</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>had + 주어</t>
+          <t>had 주어</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>001. ~하자마자 …하다 : had + hardly[scarcely]</t>
+          <t>001. ~하자마자 …하다 : had hardly[scarcely]</t>
         </is>
       </c>
       <c r="D503" t="n">
@@ -10498,7 +10694,8 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>주어 + had + no sooner + 과거분사 ~ than 주어 + 과거동사 ~ : ~하자마자 …하다</t>
+          <t>주어 had no sooner 과거분사 ~ than 주어 과거동사 ~ 
+: ~하자마자 …하다</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -10518,7 +10715,8 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>no sooner + had + 주어 + 과거분사 ~ than 주어 + 과거동사 ~  : ~하자마자 …하다</t>
+          <t>no sooner had 주어 과거분사 ~ than 주어 과거동사 ~  
+: ~하자마자 …하다</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -10538,7 +10736,8 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>주어 + had + hardly[scarcely] + 과거분사 ~ when[before] 주어 + 과거동사 ~ : ~하자마자 …하다</t>
+          <t>주어 had hardly[scarcely] 과거분사 ~ when[before] 주어 과거동사 ~ 
+: ~하자마자 …하다</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -10558,7 +10757,8 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>hardly[scarcely] + had + 주어 + 과거분사 ~ when[before] 주어 + 과거동사 ~ : ~하자마자 …하다</t>
+          <t>hardly[scarcely] had 주어 과거분사 ~ when[before] 주어 과거동사 ~ 
+: ~하자마자 …하다</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -10578,7 +10778,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>주어 + had + no sooner + 과거분사 ~ than 주어 + 과거동사 ~</t>
+          <t>주어 had no sooner 과거분사 ~ than 주어 과거동사 ~</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -10598,7 +10798,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>no sooner + had + 주어 + 과거분사 ~ than 주어 + 과거동사 ~</t>
+          <t>no sooner had 주어 과거분사 ~ than 주어 과거동사 ~</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -10618,7 +10818,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>주어 + had + hardly[scarcely] + 과거분사 ~ when[before] 주어 + 과거동사 ~</t>
+          <t>주어 had hardly[scarcely] 과거분사 ~ when[before] 주어 과거동사 ~</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -10638,7 +10838,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>hardly[scarcely] + had + 주어 + 과거분사 ~ when[before] 주어 + 과거동사 ~</t>
+          <t>hardly[scarcely] had 주어 과거분사 ~ when[before] 주어 과거동사 ~</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -10658,7 +10858,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>As soon as + 주어 + 과거동사 ~, 주어 + 과거동사 ~.</t>
+          <t>As soon as 주어 과거동사 ~, 주어 과거동사 ~.</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -10678,7 +10878,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>On –ing ~, 주어 + 과거동사 ~.</t>
+          <t>On –ing ~, 주어 과거동사 ~.</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -10698,7 +10898,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Upon -ing ~, 주어 + 과거동사 ~.</t>
+          <t>Upon -ing ~, 주어 과거동사 ~.</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -10718,7 +10918,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>The moment[instant] 주어 + 과거동사 ~, 주어 + 과거동사 ~.</t>
+          <t>The moment[instant] 주어 과거동사 ~, 주어 과거동사 ~.</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -10738,7 +10938,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Instantly[Immediately] 주어 + 과거동사 ~, 주어 + 과거동사 ~.</t>
+          <t>Instantly[Immediately] 주어 과거동사 ~, 주어 과거동사 ~.</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -10758,12 +10958,13 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>주어 + had + no sooner + 과거분사 ~ than 주어 + 과거동사 ~ : ~하자마자 …하다</t>
+          <t>주어 had no sooner 과거분사 ~ than 주어 과거동사 ~ 
+: ~하자마자 …하다</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>had + no sooner + 과거분사</t>
+          <t>had no sooner 과거분사</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -10778,12 +10979,13 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>No sooner + had + 주어 + 과거분사 ~ than 주어 + 과거동사 ~  : ~하자마자 …하다</t>
+          <t>No sooner had 주어 과거분사 ~ than 주어 과거동사 ~  
+: ~하자마자 …하다</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>had + 주어 + 과거분사</t>
+          <t>had 주어 과거분사</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -10798,12 +11000,13 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>주어 + had + hardly[scarcely] + 과거분사 ~ when[before] 주어 + 과거동사 ~ : ~하자마자 …하다</t>
+          <t>주어 had hardly[scarcely] 과거분사 ~ when[before] 주어 과거동사 ~ 
+: ~하자마자 …하다</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>had + hardly[scarcely] + 과거분사</t>
+          <t>had hardly[scarcely] 과거분사</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -10818,12 +11021,13 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Hardly[Scarcely] + had + 주어 + 과거분사 ~ when[before] 주어 + 과거동사 ~ : ~하자마자 …하다</t>
+          <t>Hardly[Scarcely] had 주어 과거분사 ~ when[before] 주어 과거동사 ~ 
+: ~하자마자 …하다</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>had + 주어 + 과거분사</t>
+          <t>had 주어 과거분사</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -10838,7 +11042,8 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>주어 + had + no sooner + 과거분사 ~ than 주어 + 과거동사 ~ : ~하자마자 …하다</t>
+          <t>주어 had no sooner 과거분사 ~ than 주어 과거동사 ~ 
+: ~하자마자 …하다</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -10858,7 +11063,8 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>No sooner + had + 주어 + 과거분사 ~ than 주어 + 과거동사 ~  : ~하자마자 …하다</t>
+          <t>No sooner had 주어 과거분사 ~ than 주어 과거동사 ~  
+: ~하자마자 …하다</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -10878,7 +11084,8 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>주어 + had + hardly[scarcely] + 과거분사 ~ when[before] 주어 + 과거동사 ~ : ~하자마자 …하다</t>
+          <t>주어 had hardly[scarcely] 과거분사 ~ when[before] 주어 과거동사 ~ 
+: ~하자마자 …하다</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -10898,7 +11105,8 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Hardly[Scarcely] + had + 주어 + 과거분사 ~ when[before] 주어 + 과거동사 ~ : ~하자마자 …하다</t>
+          <t>Hardly[Scarcely] had 주어 과거분사 ~ when[before] 주어 과거동사 ~ 
+: ~하자마자 …하다</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -10958,7 +11166,8 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>주어 + had + 부정어 + 과거분사 ~ far[long] when[before] 주어 + 과거동사 ~ : ~하지 않아 …하고 말았다.</t>
+          <t>주어 had 부정어 과거분사 ~ far[long] when[before] 주어 과거동사 ~ 
+: ~하지 않아 …하고 말았다.</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -10978,12 +11187,13 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>주어 + had + 부정어 + 과거분사 ~ far[long] when[before] 주어 + 과거동사 ~ : ~하지 않아 …하고 말았다.</t>
+          <t>주어 had 부정어 과거분사 ~ far[long] when[before] 주어 과거동사 ~ 
+: ~하지 않아 …하고 말았다.</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>had + 부정어 + 과거분사</t>
+          <t>had 부정어 과거분사</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -10998,7 +11208,8 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>주어 + had + 부정어 + 과거분사 ~ far[long] when[before] 주어 + 과거동사 ~ : ~하지 않아 …하고 말았다.</t>
+          <t>주어 had 부정어 과거분사 ~ far[long] when[before] 주어 과거동사 ~ 
+: ~하지 않아 …하고 말았다.</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
@@ -11018,7 +11229,8 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>주어 + had + 부정어 + 과거분사 ~ far when[before] 주어 + 과거동사 ~ : ~하지 않아 …하고 말았다. (거리)</t>
+          <t>주어 had 부정어 과거분사 ~ far when[before] 주어 과거동사 ~ 
+: ~하지 않아 …하고 말았다. (거리)</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
@@ -11038,7 +11250,8 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>주어 + had + 부정어 + 과거분사 ~ long when[before] 주어 + 과거동사 ~ : ~하지 않아 …하고 말았다. (시간)</t>
+          <t>주어 had 부정어 과거분사 ~ long when[before] 주어 과거동사 ~ 
+: ~하지 않아 …하고 말았다. (시간)</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
@@ -11058,7 +11271,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>주어 + had + 부정어 + 과거분사 ~ far[long] when[before] 주어 + 과거동사 ~</t>
+          <t>주어 had 부정어 과거분사 ~ far[long] when[before] 주어 과거동사 ~</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
@@ -11118,7 +11331,8 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>It will not be long before 주어 + 현재동사 ~ : 조만간 ~하게 될 것이다</t>
+          <t>It will not be long before 주어 현재동사 ~ 
+: 조만간 ~하게 될 것이다</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
@@ -11138,7 +11352,8 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>It will be long before 주어 + 현재동사 ~ : 아직 ~하려면 멀었다</t>
+          <t>It will be long before 주어 현재동사 ~ 
+: 아직 ~하려면 멀었다</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -11158,7 +11373,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t xml:space="preserve">It will not be long before 주어 + 현재동사 ~ </t>
+          <t>It will not be long before 주어 현재동사 ~</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
@@ -11178,7 +11393,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t xml:space="preserve">It will be long before 주어 + 현재동사 ~ </t>
+          <t>It will be long before 주어 현재동사 ~</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
@@ -11198,7 +11413,8 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>It will not be long before 주어 + 현재동사 ~ : 조만간 ~하게 될 것이다</t>
+          <t>It will not be long before 주어 현재동사 ~ 
+: 조만간 ~하게 될 것이다</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
@@ -11218,7 +11434,8 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>It will be long before 주어 + 현재동사 ~ : 아직 ~하려면 멀었다</t>
+          <t>It will be long before 주어 현재동사 ~ 
+: 아직 ~하려면 멀었다</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
@@ -11238,17 +11455,18 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>It will not be long before 주어 + 현재동사 ~ : 조만간 ~하게 될 것이다</t>
+          <t>It will not be long before 주어 현재동사 ~ 
+: 조만간 ~하게 될 것이다</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t xml:space="preserve">not be </t>
+          <t>not be</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t xml:space="preserve">003. 조만간 ~하게 될 것이다/아직 ~하려면 멀었다  : not be </t>
+          <t>003. 조만간 ~하게 될 것이다/아직 ~하려면 멀었다  : not be</t>
         </is>
       </c>
       <c r="D541" t="n">
@@ -11258,17 +11476,18 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>It will be long before 주어 + 현재동사 ~ : 아직 ~하려면 멀었다</t>
+          <t>It will be long before 주어 현재동사 ~ 
+: 아직 ~하려면 멀었다</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t xml:space="preserve">be </t>
+          <t>be</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t xml:space="preserve">003. 조만간 ~하게 될 것이다/아직 ~하려면 멀었다  : not be </t>
+          <t>003. 조만간 ~하게 될 것이다/아직 ~하려면 멀었다  : not be</t>
         </is>
       </c>
       <c r="D542" t="n">
@@ -11278,12 +11497,13 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>I cannot thank you enough : 아무리 감사해도 지나치지 않다</t>
+          <t>I cannot thank you enough 
+: 아무리 감사해도 지나치지 않다</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>O | 주어 + cannot + 동사원형 + too … : 아무리 ~해도 지나치지 않다</t>
+          <t>O | 주어 cannot 동사원형 too … : 아무리 ~해도 지나치지 않다</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -11298,7 +11518,8 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>I cannot overthank you enough : 아무리 감사해도 지나치지 않다</t>
+          <t>I cannot overthank you enough 
+: 아무리 감사해도 지나치지 않다</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
@@ -11318,7 +11539,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>주어 + cannot + 동사원형 + too …</t>
+          <t>주어 cannot 동사원형 too …</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
@@ -11332,13 +11553,13 @@
         </is>
       </c>
       <c r="D545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>It is impossible + 의미상 주어(for + 목적어) + to부정사(to + 동사원형) + too …</t>
+          <t>It is impossible 의미상 주어(for 목적어) to부정사(to 동사원형) too …</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
@@ -11352,13 +11573,13 @@
         </is>
       </c>
       <c r="D546" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>주어 + cannot + 동사원형 + ... Enough</t>
+          <t>주어 cannot 동사원형 ... Enough</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
@@ -11372,13 +11593,13 @@
         </is>
       </c>
       <c r="D547" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>It is impossible + 의미상 주어(for + 목적어) + to부정사(to + 동사원형) + ... Enough</t>
+          <t>It is impossible 의미상 주어(for 목적어) to부정사(to 동사원형) ... Enough</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
@@ -11392,13 +11613,13 @@
         </is>
       </c>
       <c r="D548" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>주어 + cannot + over동사원형</t>
+          <t>주어 cannot over동사원형</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
@@ -11412,13 +11633,13 @@
         </is>
       </c>
       <c r="D549" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>It is impossible + 의미상 주어(for + 목적어) + to부정사(to + over동사원형)</t>
+          <t>It is impossible 의미상 주어(for 목적어) to부정사(to over동사원형)</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
@@ -11432,13 +11653,14 @@
         </is>
       </c>
       <c r="D550" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>We cannot praise him too much : 우리는 그를 아무리 칭찬해도 지나치지 않다</t>
+          <t>We cannot praise him too much 
+: 우리는 그를 아무리 칭찬해도 지나치지 않다</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
@@ -11452,13 +11674,14 @@
         </is>
       </c>
       <c r="D551" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>It is impossible for us to praise him too much : 우리는 그를 아무리 칭찬해도 지나치지 않다</t>
+          <t>It is impossible for us to praise him too much 
+: 우리는 그를 아무리 칭찬해도 지나치지 않다</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
@@ -11472,13 +11695,14 @@
         </is>
       </c>
       <c r="D552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>We cannot praise him enough : 우리는 그를 아무리 칭찬해도 지나치지 않다</t>
+          <t>We cannot praise him enough 
+: 우리는 그를 아무리 칭찬해도 지나치지 않다</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
@@ -11492,13 +11716,14 @@
         </is>
       </c>
       <c r="D553" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>It is impossible for us to praise him enough : 우리는 그를 아무리 칭찬해도 지나치지 않다</t>
+          <t>It is impossible for us to praise him enough 
+: 우리는 그를 아무리 칭찬해도 지나치지 않다</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
@@ -11512,13 +11737,14 @@
         </is>
       </c>
       <c r="D554" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>We cannot praise him too much : 우리는 그를 아무리 칭찬해도 지나치지 않다</t>
+          <t>We cannot praise him too much 
+: 우리는 그를 아무리 칭찬해도 지나치지 않다</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
@@ -11538,7 +11764,8 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>It is impossible for us to praise him too much : 우리는 그를 아무리 칭찬해도 지나치지 않다</t>
+          <t>It is impossible for us to praise him too much 
+: 우리는 그를 아무리 칭찬해도 지나치지 않다</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
@@ -11558,7 +11785,8 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>We cannot overpraise him : 우리는 그를 아무리 칭찬해도 지나치지 않다</t>
+          <t>We cannot overpraise him 
+: 우리는 그를 아무리 칭찬해도 지나치지 않다</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
@@ -11578,7 +11806,8 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>It is impossible for us to overpraise him : 우리는 그를 아무리 칭찬해도 지나치지 않다</t>
+          <t>It is impossible for us to overpraise him 
+: 우리는 그를 아무리 칭찬해도 지나치지 않다</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
@@ -11598,12 +11827,13 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>It is impossible for 사람 to 동사원형 : 아무리 ~해도 지나치지 않다</t>
+          <t>It is impossible for 사람 to 동사원형 
+: 아무리 ~해도 지나치지 않다</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>O | 주어 + cannot + 동사원형 + too …</t>
+          <t>O | 주어 cannot 동사원형 too …</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -11618,7 +11848,8 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>사람 is impossible to 동사원형 : 아무리 ~해도 지나치지 않다</t>
+          <t>사람 is impossible to 동사원형 
+: 아무리 ~해도 지나치지 않다</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
@@ -11638,12 +11869,13 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>You cannot help but wake up from your sleep : 너는 잠에서 깨어나지 않을 수 없다</t>
+          <t>You cannot help but wake up from your sleep 
+: 너는 잠에서 깨어나지 않을 수 없다</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>O | cannot help but + 동사원형 ~ : ~하지 않을 수 없다</t>
+          <t>O | cannot help but 동사원형 ~ : ~하지 않을 수 없다</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -11658,7 +11890,8 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>You cannot help but to wake up from your sleep : 너는 잠에서 깨어나지 않을 수 없다</t>
+          <t>You cannot help but to wake up from your sleep 
+: 너는 잠에서 깨어나지 않을 수 없다</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
@@ -11672,13 +11905,13 @@
         </is>
       </c>
       <c r="D562" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>cannot but + 동사원형 ~</t>
+          <t>cannot but 동사원형 ~</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
@@ -11692,13 +11925,13 @@
         </is>
       </c>
       <c r="D563" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>cannot help but + 동사원형 ~</t>
+          <t>cannot help but 동사원형 ~</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
@@ -11712,13 +11945,13 @@
         </is>
       </c>
       <c r="D564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>cannot choose but + 동사원형 ~</t>
+          <t>cannot choose but 동사원형 ~</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
@@ -11732,13 +11965,13 @@
         </is>
       </c>
       <c r="D565" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>have + no (other) + choice[alternative] + but + to + 동사원형</t>
+          <t>have no (other) choice[alternative] but to 동사원형</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
@@ -11752,13 +11985,13 @@
         </is>
       </c>
       <c r="D566" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>cannot help + ~ing</t>
+          <t>cannot help ~ing</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
@@ -11772,13 +12005,13 @@
         </is>
       </c>
       <c r="D567" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>cannot refrain from + ~ing</t>
+          <t>cannot refrain from ~ing</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
@@ -11792,13 +12025,14 @@
         </is>
       </c>
       <c r="D568" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>cannot but + 동사원형 ~ : ~하지 않을 수 없다</t>
+          <t>cannot but 동사원형 ~ 
+: ~하지 않을 수 없다</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
@@ -11812,13 +12046,14 @@
         </is>
       </c>
       <c r="D569" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>cannot help but + 동사원형 ~ : ~하지 않을 수 없다</t>
+          <t>cannot help but 동사원형 ~ 
+: ~하지 않을 수 없다</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
@@ -11832,13 +12067,14 @@
         </is>
       </c>
       <c r="D570" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>cannot choose but + 동사원형 ~ : ~하지 않을 수 없다</t>
+          <t>cannot choose but 동사원형 ~ 
+: ~하지 않을 수 없다</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
@@ -11858,7 +12094,8 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>cannot help + 동명사 : ~하지 않을 수 없다</t>
+          <t>cannot help 동명사 
+: ~하지 않을 수 없다</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
@@ -11878,7 +12115,8 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>cannot refrain from + 동명사 : ~하지 않을 수 없다</t>
+          <t>cannot refrain from 동명사 
+: ~하지 않을 수 없다</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
@@ -11892,13 +12130,14 @@
         </is>
       </c>
       <c r="D573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>have + no + choice + but + to 부정사 : ~하지 않을 수 없다</t>
+          <t>have no choice but to 부정사 
+: ~하지 않을 수 없다</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
@@ -11912,13 +12151,14 @@
         </is>
       </c>
       <c r="D574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>have + no + alternative + but + to 부정사 : ~하지 않을 수 없다</t>
+          <t>have no alternative but to 부정사 
+: ~하지 않을 수 없다</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
@@ -11932,13 +12172,14 @@
         </is>
       </c>
       <c r="D575" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>have + other + choice + but + to 부정사 : ~하지 않을 수 없다</t>
+          <t>have other choice but to 부정사 
+: ~하지 않을 수 없다</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
@@ -11952,13 +12193,14 @@
         </is>
       </c>
       <c r="D576" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>have + other + alternative + but + to 부정사 : ~하지 않을 수 없다</t>
+          <t>have other alternative but to 부정사 
+: ~하지 않을 수 없다</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
@@ -11978,7 +12220,8 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>He could not but wait : 그는 기다리지 않을 수 없었다</t>
+          <t>He could not but wait 
+: 그는 기다리지 않을 수 없었다</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
@@ -11998,7 +12241,8 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>He could not help but wait : 그는 기다리지 않을 수 없었다</t>
+          <t>He could not help but wait 
+: 그는 기다리지 않을 수 없었다</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
@@ -12012,13 +12256,14 @@
         </is>
       </c>
       <c r="D579" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>He could not choose but wait : 그는 기다리지 않을 수 없었다</t>
+          <t>He could not choose but wait 
+: 그는 기다리지 않을 수 없었다</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
@@ -12032,13 +12277,14 @@
         </is>
       </c>
       <c r="D580" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>He had no other choice but to wait : 그는 기다리지 않을 수 없었다</t>
+          <t>He had no other choice but to wait 
+: 그는 기다리지 않을 수 없었다</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
@@ -12052,13 +12298,14 @@
         </is>
       </c>
       <c r="D581" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>He had no other alternative but to wait : 그는 기다리지 않을 수 없었다</t>
+          <t>He had no other alternative but to wait 
+: 그는 기다리지 않을 수 없었다</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
@@ -12072,13 +12319,14 @@
         </is>
       </c>
       <c r="D582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>He had no choice but to wait : 그는 기다리지 않을 수 없었다</t>
+          <t>He had no choice but to wait 
+: 그는 기다리지 않을 수 없었다</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
@@ -12092,13 +12340,14 @@
         </is>
       </c>
       <c r="D583" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>He had no alternative but to wait : 그는 기다리지 않을 수 없었다</t>
+          <t>He had no alternative but to wait 
+: 그는 기다리지 않을 수 없었다</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
@@ -12112,13 +12361,14 @@
         </is>
       </c>
       <c r="D584" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>He could not help waiting : 그는 기다리지 않을 수 없었다</t>
+          <t>He could not help waiting 
+: 그는 기다리지 않을 수 없었다</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
@@ -12132,13 +12382,14 @@
         </is>
       </c>
       <c r="D585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>He could not refrain from waiting : 그는 기다리지 않을 수 없었다</t>
+          <t>He could not refrain from waiting 
+: 그는 기다리지 않을 수 없었다</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
@@ -12158,7 +12409,8 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>I may[might] as well go to the store now : 나는 가게에 지금 가는게 좋겠다</t>
+          <t>I may[might] as well go to the store now 
+: 나는 가게에 지금 가는게 좋겠다</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
@@ -12198,12 +12450,12 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t xml:space="preserve">may as well A(동사원형) as B(동사원형) </t>
+          <t>may as well A(동사원형) as B(동사원형)</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t xml:space="preserve">B보다는 A하겠다 </t>
+          <t>B보다는 A하겠다</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -12212,13 +12464,13 @@
         </is>
       </c>
       <c r="D589" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t xml:space="preserve">would rather A(동사원형) than B(동사원형) </t>
+          <t>would rather A(동사원형) than B(동사원형)</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
@@ -12232,13 +12484,13 @@
         </is>
       </c>
       <c r="D590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t xml:space="preserve">prefer A(to 부정사) rather than B(to 부정사 / 동사원형) </t>
+          <t>prefer A(to 부정사) rather than B(to 부정사 / 동사원형)</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
@@ -12252,13 +12504,13 @@
         </is>
       </c>
       <c r="D591" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t xml:space="preserve">prefer A(동명사) to B(동명사) </t>
+          <t>prefer A(동명사) to B(동명사)</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
@@ -12272,13 +12524,14 @@
         </is>
       </c>
       <c r="D592" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t xml:space="preserve">may as well A(동사원형) as B(동사원형) : B보다는 A하겠다 </t>
+          <t>may as well A(동사원형) as B(동사원형) 
+: B보다는 A하겠다</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
@@ -12292,13 +12545,14 @@
         </is>
       </c>
       <c r="D593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>would rather A(동사원형) than B(동사원형) : B보다는 A하는 편이 낫다</t>
+          <t>would rather A(동사원형) than B(동사원형) 
+: B보다는 A하는 편이 낫다</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
@@ -12312,13 +12566,14 @@
         </is>
       </c>
       <c r="D594" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>prefer A(to 부정사) rather than B(to 부정사 / 동사원형) : B보다 A를 더 선호하다</t>
+          <t>prefer A(to 부정사) rather than B(to 부정사 / 동사원형) 
+: B보다 A를 더 선호하다</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
@@ -12332,13 +12587,14 @@
         </is>
       </c>
       <c r="D595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>prefer A(to 부정사) rather than B(to 부정사 / 동사원형) : B보다 A를 더 선호하다</t>
+          <t>prefer A(to 부정사) rather than B(to 부정사 / 동사원형) 
+: B보다 A를 더 선호하다</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
@@ -12358,7 +12614,8 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>prefer A(동명사) to B(동명사) : B보다 A를 더 선호하다</t>
+          <t>prefer A(동명사) to B(동명사) 
+: B보다 A를 더 선호하다</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
@@ -12378,7 +12635,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t xml:space="preserve">may as well A(동사원형) as B(동사원형) </t>
+          <t>may as well A(동사원형) as B(동사원형)</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
@@ -12392,13 +12649,13 @@
         </is>
       </c>
       <c r="D598" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t xml:space="preserve">would rather A(동사원형) than B(동사원형) </t>
+          <t>would rather A(동사원형) than B(동사원형)</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
@@ -12418,7 +12675,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t xml:space="preserve">prefer A(to 부정사) rather than B(to 부정사 / 동사원형) </t>
+          <t>prefer A(to 부정사) rather than B(to 부정사 / 동사원형)</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
@@ -12432,13 +12689,13 @@
         </is>
       </c>
       <c r="D600" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t xml:space="preserve">prefer A(동명사) to B(동명사) </t>
+          <t>prefer A(동명사) to B(동명사)</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
@@ -12472,7 +12729,7 @@
         </is>
       </c>
       <c r="D602" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="603">
@@ -12492,13 +12749,14 @@
         </is>
       </c>
       <c r="D603" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>I may[might] as well go jogging as sleep inside : 나는 안에서 자기보다는 조깅하러 가겠다</t>
+          <t>I may[might] as well go jogging as sleep inside 
+: 나는 안에서 자기보다는 조깅하러 가겠다</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
@@ -12512,13 +12770,14 @@
         </is>
       </c>
       <c r="D604" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>I would rather[sooner] go jogging than sleep inside : 나는 안에서 자기보다는 조깅하러 가겠다</t>
+          <t>I would rather[sooner] go jogging than sleep inside 
+: 나는 안에서 자기보다는 조깅하러 가겠다</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
@@ -12532,13 +12791,14 @@
         </is>
       </c>
       <c r="D605" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>I prefer to go jogging rather than (to) sleep inside : 나는 안에서 자기보다는 조깅하러 가겠다</t>
+          <t>I prefer to go jogging rather than (to) sleep inside 
+: 나는 안에서 자기보다는 조깅하러 가겠다</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
@@ -12552,13 +12812,14 @@
         </is>
       </c>
       <c r="D606" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>I prefer going jogging to sleeping inside : 나는 안에서 자기보다는 조깅하러 가겠다</t>
+          <t>I prefer going jogging to sleeping inside 
+: 나는 안에서 자기보다는 조깅하러 가겠다</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
@@ -12572,13 +12833,14 @@
         </is>
       </c>
       <c r="D607" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>I may[might] as well go jogging as sleep inside : 나는 안에서 자기보다는 조깅하러 가겠다</t>
+          <t>I may[might] as well go jogging as sleep inside 
+: 나는 안에서 자기보다는 조깅하러 가겠다</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
@@ -12592,13 +12854,14 @@
         </is>
       </c>
       <c r="D608" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>I would rather[sooner] go jogging than sleep inside : 나는 안에서 자기보다는 조깅하러 가겠다</t>
+          <t>I would rather[sooner] go jogging than sleep inside 
+: 나는 안에서 자기보다는 조깅하러 가겠다</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
@@ -12612,13 +12875,14 @@
         </is>
       </c>
       <c r="D609" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>I prefer to go jogging rather than (to) sleep inside : 나는 안에서 자기보다는 조깅하러 가겠다</t>
+          <t>I prefer to go jogging rather than (to) sleep inside 
+: 나는 안에서 자기보다는 조깅하러 가겠다</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
@@ -12632,13 +12896,14 @@
         </is>
       </c>
       <c r="D610" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>I prefer going jogging to sleeping inside : 나는 안에서 자기보다는 조깅하러 가겠다</t>
+          <t>I prefer going jogging to sleeping inside 
+: 나는 안에서 자기보다는 조깅하러 가겠다</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
@@ -12652,13 +12917,14 @@
         </is>
       </c>
       <c r="D611" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>I may[might] as well go jogging as sleep inside : 나는 안에서 자기보다는 조깅하러 가겠다</t>
+          <t>I may[might] as well go jogging as sleep inside 
+: 나는 안에서 자기보다는 조깅하러 가겠다</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
@@ -12678,7 +12944,8 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>I would rather[sooner] go jogging than sleep inside : 나는 안에서 자기보다는 조깅하러 가겠다</t>
+          <t>I would rather[sooner] go jogging than sleep inside 
+: 나는 안에서 자기보다는 조깅하러 가겠다</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
@@ -12698,7 +12965,8 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>I prefer to go jogging rather than (to) sleep inside : 나는 안에서 자기보다는 조깅하러 가겠다</t>
+          <t>I prefer to go jogging rather than (to) sleep inside 
+: 나는 안에서 자기보다는 조깅하러 가겠다</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
@@ -12712,13 +12980,14 @@
         </is>
       </c>
       <c r="D614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>I prefer going jogging to sleeping inside : 나는 안에서 자기보다는 조깅하러 가겠다</t>
+          <t>I prefer going jogging to sleeping inside 
+: 나는 안에서 자기보다는 조깅하러 가겠다</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
@@ -12738,7 +13007,8 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>You may well believe it : 당신이 그것을 믿는 것도 당연하다</t>
+          <t>You may well believe it 
+: 당신이 그것을 믿는 것도 당연하다</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
@@ -12752,13 +13022,14 @@
         </is>
       </c>
       <c r="D616" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>You may as well believe it : 당신이 그것을 믿는 것도 당연하다</t>
+          <t>You may as well believe it 
+: 당신이 그것을 믿는 것도 당연하다</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
@@ -12772,7 +13043,7 @@
         </is>
       </c>
       <c r="D617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618">
@@ -12792,13 +13063,14 @@
         </is>
       </c>
       <c r="D618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>may well 동사원형 : ~하는 것도 당연하다</t>
+          <t>may well 동사원형 
+: ~하는 것도 당연하다</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
@@ -12812,13 +13084,13 @@
         </is>
       </c>
       <c r="D619" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t xml:space="preserve">He may well be proud of his son </t>
+          <t>He may well be proud of his son</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
@@ -12832,13 +13104,13 @@
         </is>
       </c>
       <c r="D620" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t xml:space="preserve">He has good reason to be proud of his son </t>
+          <t>He has good reason to be proud of his son</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
@@ -12852,13 +13124,13 @@
         </is>
       </c>
       <c r="D621" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t xml:space="preserve">He has every reason to be proud of his son </t>
+          <t>He has every reason to be proud of his son</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
@@ -12878,7 +13150,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t xml:space="preserve">It is natural that he (should) be proud of his son </t>
+          <t>It is natural that he (should) be proud of his son</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
@@ -12892,13 +13164,13 @@
         </is>
       </c>
       <c r="D623" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t xml:space="preserve">It is no wonder that he is proud of his son </t>
+          <t>It is no wonder that he is proud of his son</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
@@ -12912,13 +13184,13 @@
         </is>
       </c>
       <c r="D624" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t xml:space="preserve">It is a matter of course that he is proud of his son </t>
+          <t>It is a matter of course that he is proud of his son</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
@@ -12932,7 +13204,7 @@
         </is>
       </c>
       <c r="D625" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="626">
@@ -12952,7 +13224,7 @@
         </is>
       </c>
       <c r="D626" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627">
@@ -12978,7 +13250,8 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>may well 동사원형 -&gt; might well : ~하는 것도 당연하다</t>
+          <t>may well 동사원형 -&gt; might well 
+: ~하는 것도 당연하다</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
@@ -12992,13 +13265,14 @@
         </is>
       </c>
       <c r="D628" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>may as well 동사원형 -&gt; might as well : ~하는 게 더 낫다</t>
+          <t>may as well 동사원형 -&gt; might as well 
+: ~하는 게 더 낫다</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
@@ -13012,13 +13286,14 @@
         </is>
       </c>
       <c r="D629" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>may well not 동사원형 : ~하지 않는 것도 당연하다</t>
+          <t>may well not 동사원형 
+: ~하지 않는 것도 당연하다</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
@@ -13032,13 +13307,14 @@
         </is>
       </c>
       <c r="D630" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>not may well 동사원형 : ~하지 않는 것도 당연하다</t>
+          <t>not may well 동사원형 
+: ~하지 않는 것도 당연하다</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
@@ -13052,13 +13328,14 @@
         </is>
       </c>
       <c r="D631" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>He is no taller than she is : 그는 그녀만큼 키가 크지 않다</t>
+          <t>He is no taller than she is 
+: 그는 그녀만큼 키가 크지 않다</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
@@ -13078,7 +13355,8 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>He is not taller than she is : 그는 그녀만큼 키가 크지 않다</t>
+          <t>He is not taller than she is 
+: 그는 그녀만큼 키가 크지 않다</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
@@ -13092,13 +13370,13 @@
         </is>
       </c>
       <c r="D633" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t xml:space="preserve">A is no more B than C is D </t>
+          <t>A is no more B than C is D</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
@@ -13108,17 +13386,17 @@
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>암기문법 : 뜻 AB</t>
+          <t>암기문법 : 뜻 ABCD</t>
         </is>
       </c>
       <c r="D634" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t xml:space="preserve">A is not B any more than C is D </t>
+          <t>A is not B any more than C is D</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
@@ -13128,17 +13406,17 @@
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>암기문법 : 뜻 AB</t>
+          <t>암기문법 : 뜻 ABCD</t>
         </is>
       </c>
       <c r="D635" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t xml:space="preserve">A is not B just as C is not D </t>
+          <t>A is not B just as C is not D</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
@@ -13148,7 +13426,7 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>암기문법 : 뜻 AB</t>
+          <t>암기문법 : 뜻 ABCD</t>
         </is>
       </c>
       <c r="D636" t="n">
@@ -13158,7 +13436,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t xml:space="preserve">A is no less B than C is D </t>
+          <t>A is no less B than C is D</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
@@ -13168,17 +13446,18 @@
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>암기문법 : 뜻 AB</t>
+          <t>암기문법 : 뜻 ABCD</t>
         </is>
       </c>
       <c r="D637" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>A is no more B than C is D : A가 B가 아닌 것은 C가 D가 아닌 것과 같다</t>
+          <t>A is no more B than C is D 
+: A가 B가 아닌 것은 C가 D가 아닌 것과 같다</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
@@ -13192,13 +13471,14 @@
         </is>
       </c>
       <c r="D638" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>A is not B any more than C is D : A가 B가 아닌 것은 C가 D가 아닌 것과 같다</t>
+          <t>A is not B any more than C is D 
+: A가 B가 아닌 것은 C가 D가 아닌 것과 같다</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
@@ -13212,13 +13492,14 @@
         </is>
       </c>
       <c r="D639" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>A is not B just as C is not D : A가 B가 아닌 것은 C가 D가 아닌 것과 같다</t>
+          <t>A is not B just as C is not D 
+: A가 B가 아닌 것은 C가 D가 아닌 것과 같다</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
@@ -13232,13 +13513,14 @@
         </is>
       </c>
       <c r="D640" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>A is no less B than C is D : A가 B인 것은 C가 D인 것과 같다</t>
+          <t>A is no less B than C is D 
+: A가 B인 것은 C가 D인 것과 같다</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
@@ -13258,12 +13540,13 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>A is no more B than C is D : A가 B가 아닌 것은 C가 D가 아닌 것과 같다</t>
+          <t>A is no more B than C is D 
+: A가 B가 아닌 것은 C가 D가 아닌 것과 같다</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t xml:space="preserve">no </t>
+          <t>no</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -13272,13 +13555,14 @@
         </is>
       </c>
       <c r="D642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>A is not B any more than C is D : A가 B가 아닌 것은 C가 D가 아닌 것과 같다</t>
+          <t>A is not B any more than C is D 
+: A가 B가 아닌 것은 C가 D가 아닌 것과 같다</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
@@ -13292,13 +13576,14 @@
         </is>
       </c>
       <c r="D643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>A is not B just as C is not D : A가 B가 아닌 것은 C가 D가 아닌 것과 같다</t>
+          <t>A is not B just as C is not D 
+: A가 B가 아닌 것은 C가 D가 아닌 것과 같다</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
@@ -13312,18 +13597,19 @@
         </is>
       </c>
       <c r="D644" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>A is no less B than C is D : A가 B인 것은 C가 D인 것과 같다</t>
+          <t>A is no less B than C is D 
+: A가 B인 것은 C가 D인 것과 같다</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t xml:space="preserve">no </t>
+          <t>no</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -13332,13 +13618,14 @@
         </is>
       </c>
       <c r="D645" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>A is no more B than C is D : A가 B가 아닌 것은 C가 D가 아닌 것과 같다</t>
+          <t>A is no more B than C is D 
+: A가 B가 아닌 것은 C가 D가 아닌 것과 같다</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
@@ -13352,13 +13639,14 @@
         </is>
       </c>
       <c r="D646" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>A is not B any more than C is D : A가 B가 아닌 것은 C가 D가 아닌 것과 같다</t>
+          <t>A is not B any more than C is D 
+: A가 B가 아닌 것은 C가 D가 아닌 것과 같다</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
@@ -13378,7 +13666,8 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>A is not B just as C is not D : A가 B가 아닌 것은 C가 D가 아닌 것과 같다</t>
+          <t>A is not B just as C is not D 
+: A가 B가 아닌 것은 C가 D가 아닌 것과 같다</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
@@ -13392,13 +13681,14 @@
         </is>
       </c>
       <c r="D648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>A is no less B than C is D : A가 B인 것은 C가 D인 것과 같다</t>
+          <t>A is no less B than C is D 
+: A가 B인 것은 C가 D인 것과 같다</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
@@ -13412,13 +13702,14 @@
         </is>
       </c>
       <c r="D649" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>The victim is no more than 6 years old : 희생자는 겨우 6살이다</t>
+          <t>The victim is no more than 6 years old 
+: 희생자는 겨우 6살이다</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
@@ -13438,7 +13729,8 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>The victim is no less than 6 years old : 희생자는 겨우 6살이다</t>
+          <t>The victim is no less than 6 years old 
+: 희생자는 겨우 6살이다</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
@@ -13452,13 +13744,14 @@
         </is>
       </c>
       <c r="D651" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>The victim is no more than 6 years old : 희생자는 겨우 6살이다</t>
+          <t>The victim is no more than 6 years old 
+: 희생자는 겨우 6살이다</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
@@ -13472,7 +13765,7 @@
         </is>
       </c>
       <c r="D652" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="653">
@@ -13492,7 +13785,7 @@
         </is>
       </c>
       <c r="D653" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654">
@@ -13512,7 +13805,7 @@
         </is>
       </c>
       <c r="D654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655">
@@ -13532,7 +13825,7 @@
         </is>
       </c>
       <c r="D655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656">
@@ -13552,7 +13845,7 @@
         </is>
       </c>
       <c r="D656" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="657">
@@ -13612,7 +13905,7 @@
         </is>
       </c>
       <c r="D659" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660">
@@ -13632,13 +13925,14 @@
         </is>
       </c>
       <c r="D660" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>no more than : ~밖에, 겨우</t>
+          <t>no more than 
+: ~밖에, 겨우</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
@@ -13658,7 +13952,8 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>no less than : ~씩이나, ~에 못지 않게</t>
+          <t>no less than 
+: ~씩이나, ~에 못지 않게</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
@@ -13672,13 +13967,14 @@
         </is>
       </c>
       <c r="D662" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>not more than : 많아 봤자, 기껏해야</t>
+          <t>not more than 
+: 많아 봤자, 기껏해야</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
@@ -13692,13 +13988,14 @@
         </is>
       </c>
       <c r="D663" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>not less than : 적어도, 자그마치</t>
+          <t>not less than 
+: 적어도, 자그마치</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
@@ -13712,13 +14009,14 @@
         </is>
       </c>
       <c r="D664" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>He has no more than five apples : 그는 겨우 사과 다섯 개밖에 갖고 있지 않다</t>
+          <t>He has no more than five apples 
+: 그는 겨우 사과 다섯 개밖에 갖고 있지 않다</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
@@ -13732,13 +14030,14 @@
         </is>
       </c>
       <c r="D665" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>He has read not more than 2 books this year : 그는 올해 기껏해야 책 2권을 읽었다</t>
+          <t>He has read not more than 2 books this year 
+: 그는 올해 기껏해야 책 2권을 읽었다</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
@@ -13752,13 +14051,14 @@
         </is>
       </c>
       <c r="D666" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>No less than 1,000 people came : 1,000명이나 되는 사람들이 왔다</t>
+          <t>No less than 1,000 people came 
+: 1,000명이나 되는 사람들이 왔다</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
@@ -13772,13 +14072,14 @@
         </is>
       </c>
       <c r="D667" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>He has not less than 20 dollars now : 그는 지금 적어도 20달러를 가지고 있다</t>
+          <t>He has not less than 20 dollars now 
+: 그는 지금 적어도 20달러를 가지고 있다</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
@@ -13792,13 +14093,14 @@
         </is>
       </c>
       <c r="D668" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>He has no more than five apples : 그는 겨우 사과 다섯 개밖에 갖고 있지 않다</t>
+          <t>He has no more than five apples 
+: 그는 겨우 사과 다섯 개밖에 갖고 있지 않다</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
@@ -13812,13 +14114,14 @@
         </is>
       </c>
       <c r="D669" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>He has read not more than 2 books this year : 그는 올해 기껏해야 책 2권을 읽었다</t>
+          <t>He has read not more than 2 books this year 
+: 그는 올해 기껏해야 책 2권을 읽었다</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
@@ -13838,7 +14141,8 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>No less than 1,000 people came : 1,000명이나 되는 사람들이 왔다</t>
+          <t>No less than 1,000 people came 
+: 1,000명이나 되는 사람들이 왔다</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
@@ -13852,13 +14156,14 @@
         </is>
       </c>
       <c r="D671" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>He has not less than 20 dollars now : 그는 지금 적어도 20달러를 가지고 있다</t>
+          <t>He has not less than 20 dollars now 
+: 그는 지금 적어도 20달러를 가지고 있다</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -13878,12 +14183,13 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>He was not so much a statesman as a scholar : 그는 정치인보다는 학자에 가까웠다</t>
+          <t>He was not so much a statesman as a scholar 
+: 그는 정치인보다는 학자에 가까웠다</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>than</t>
+          <t>as</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -13892,13 +14198,13 @@
         </is>
       </c>
       <c r="D673" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t xml:space="preserve">not so much A as B </t>
+          <t>not so much A as B</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
@@ -13918,7 +14224,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t xml:space="preserve">not A so much as B </t>
+          <t>not A so much as B</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
@@ -13932,13 +14238,13 @@
         </is>
       </c>
       <c r="D675" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t xml:space="preserve">less A than B </t>
+          <t>less A than B</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
@@ -13952,13 +14258,13 @@
         </is>
       </c>
       <c r="D676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t xml:space="preserve">more B than A </t>
+          <t>more B than A</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
@@ -13972,13 +14278,13 @@
         </is>
       </c>
       <c r="D677" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t xml:space="preserve">rather B than A </t>
+          <t>rather B than A</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -13998,7 +14304,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t xml:space="preserve">B rather than A </t>
+          <t>B rather than A</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
@@ -14012,13 +14318,14 @@
         </is>
       </c>
       <c r="D679" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>not so much A as B : A라기보다는 오히려 B에 더 가까운</t>
+          <t>not so much A as B 
+: A라기보다는 오히려 B에 더 가까운</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
@@ -14038,7 +14345,8 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>not A so much as B : A라기보다는 오히려 B에 더 가까운</t>
+          <t>not A so much as B 
+: A라기보다는 오히려 B에 더 가까운</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
@@ -14052,13 +14360,14 @@
         </is>
       </c>
       <c r="D681" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>less A than B : A라기보다는 오히려 B에 더 가까운</t>
+          <t>less A than B 
+: A라기보다는 오히려 B에 더 가까운</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
@@ -14072,13 +14381,14 @@
         </is>
       </c>
       <c r="D682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>more B than A : A라기보다는 오히려 B에 더 가까운</t>
+          <t>more B than A 
+: A라기보다는 오히려 B에 더 가까운</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -14092,13 +14402,14 @@
         </is>
       </c>
       <c r="D683" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>rather B than A : A라기보다는 오히려 B에 더 가까운</t>
+          <t>rather B than A 
+: A라기보다는 오히려 B에 더 가까운</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
@@ -14112,13 +14423,14 @@
         </is>
       </c>
       <c r="D684" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>B rather than A : A라기보다는 오히려 B에 더 가까운</t>
+          <t>B rather than A 
+: A라기보다는 오히려 B에 더 가까운</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -14152,7 +14464,7 @@
         </is>
       </c>
       <c r="D686" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="687">
@@ -14178,7 +14490,8 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>She is the greatest golfer that Korea has ever produced : 그녀는 한국이 낳은 가장 훌륭한 골퍼이다</t>
+          <t>She is the greatest golfer that Korea has ever produced 
+: 그녀는 한국이 낳은 가장 훌륭한 골퍼이다</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -14198,7 +14511,8 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>She is greatest golfer who Korea has never produced : 그녀는 한국이 낳은 가장 훌륭한 골퍼이다</t>
+          <t>She is greatest golfer who Korea has never produced 
+: 그녀는 한국이 낳은 가장 훌륭한 골퍼이다</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
@@ -14212,7 +14526,7 @@
         </is>
       </c>
       <c r="D689" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="690">
@@ -14232,13 +14546,13 @@
         </is>
       </c>
       <c r="D690" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>He is neither tall or small</t>
+          <t>He is not either tall or small</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
@@ -14252,13 +14566,14 @@
         </is>
       </c>
       <c r="D691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>The gentleman neither smokes nor drinks : 그 신사는 담배를 피우지도 술을 마시지도 않는다</t>
+          <t>The gentleman neither smokes nor drinks 
+: 그 신사는 담배를 피우지도 술을 마시지도 않는다</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -14272,13 +14587,14 @@
         </is>
       </c>
       <c r="D692" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>The gentleman does not either smoke or drink : 그 신사는 담배를 피우지도 술을 마시지도 않는다</t>
+          <t>The gentleman does not either smoke or drink 
+: 그 신사는 담배를 피우지도 술을 마시지도 않는다</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -14292,13 +14608,14 @@
         </is>
       </c>
       <c r="D693" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>I never see this picture but it reminds me of my school days : 나는 이 사진을 볼 때마다 학창시절이 생각난다</t>
+          <t>I never see this picture but it reminds me of my school days 
+: 나는 이 사진을 볼 때마다 학창시절이 생각난다</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -14318,7 +14635,8 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>When I see this picture, it reminds me of my school days : 나는 이 사진을 볼 때마다 학창시절이 생각난다</t>
+          <t>When I see this picture, it reminds me of my school days 
+: 나는 이 사진을 볼 때마다 학창시절이 생각난다</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -14332,7 +14650,7 @@
         </is>
       </c>
       <c r="D695" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="696">
@@ -14352,13 +14670,14 @@
         </is>
       </c>
       <c r="D696" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>We never meet without quarreling : 우리는 만나기만 하면 싸운다</t>
+          <t>We never meet without quarreling 
+: 우리는 만나기만 하면 싸운다</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -14372,13 +14691,14 @@
         </is>
       </c>
       <c r="D697" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>We never meet but we quarrel : 우리는 만나기만 하면 싸운다</t>
+          <t>We never meet but we quarrel 
+: 우리는 만나기만 하면 싸운다</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -14392,13 +14712,14 @@
         </is>
       </c>
       <c r="D698" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>When we meet, we always quarrel : 우리는 만나기만 하면 싸운다</t>
+          <t>When we meet, we always quarrel 
+: 우리는 만나기만 하면 싸운다</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -14418,7 +14739,8 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>Whenever we meet, we quarrel : 우리는 만나기만 하면 싸운다</t>
+          <t>Whenever we meet, we quarrel 
+: 우리는 만나기만 하면 싸운다</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
@@ -14452,7 +14774,7 @@
         </is>
       </c>
       <c r="D701" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="702">
@@ -14478,7 +14800,8 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>I did not know the fact, till[until] the next morning : 오늘 아침이 되기 전까지는 나는 그 사실을 알지 못했다</t>
+          <t>I did not know the fact, till[until] the next morning 
+: 오늘 아침이 되기 전까지는 나는 그 사실을 알지 못했다</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
@@ -14492,13 +14815,14 @@
         </is>
       </c>
       <c r="D703" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>It was not till the next morning that I knew the fact : 오늘 아침이 되기 전까지는 나는 그 사실을 알지 못했다</t>
+          <t>It was not till the next morning that I knew the fact 
+: 오늘 아침이 되기 전까지는 나는 그 사실을 알지 못했다</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
@@ -14512,13 +14836,14 @@
         </is>
       </c>
       <c r="D704" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>Not till the next morning did I know the fact : 오늘 아침이 되기 전까지는 나는 그 사실을 알지 못했다</t>
+          <t>Not till the next morning did I know the fact 
+: 오늘 아침이 되기 전까지는 나는 그 사실을 알지 못했다</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -14538,7 +14863,8 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>Only after the next morning did I know the fact : 오늘 아침이 되기 전까지는 나는 그 사실을 알지 못했다</t>
+          <t>Only after the next morning did I know the fact 
+: 오늘 아침이 되기 전까지는 나는 그 사실을 알지 못했다</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
@@ -14552,13 +14878,14 @@
         </is>
       </c>
       <c r="D706" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>we don’t cherish our health until we lose it : 우리는 건강을 잃기 전까지 소중히 여기지 않는다</t>
+          <t>we don’t cherish our health until we lose it 
+: 우리는 건강을 잃기 전까지 소중히 여기지 않는다</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
@@ -14578,7 +14905,8 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>Not until we lose it do we cherish our health : 우리는 건강을 잃기 전까지 소중히 여기지 않는다</t>
+          <t>Not until we lose it do we cherish our health 
+: 우리는 건강을 잃기 전까지 소중히 여기지 않는다</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -14592,13 +14920,14 @@
         </is>
       </c>
       <c r="D708" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>It is not until we lose it that we cherish our health : 우리는 건강을 잃기 전까지 소중히 여기지 않는다</t>
+          <t>It is not until we lose it that we cherish our health 
+: 우리는 건강을 잃기 전까지 소중히 여기지 않는다</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
@@ -14618,7 +14947,8 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>we cherish our health only after we lose it : 우리는 건강을 잃기 전까지 소중히 여기지 않는다</t>
+          <t>we cherish our health only after we lose it 
+: 우리는 건강을 잃기 전까지 소중히 여기지 않는다</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
@@ -14638,7 +14968,8 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>Only after we lose it do we cherish our health : 우리는 건강을 잃기 전까지 소중히 여기지 않는다</t>
+          <t>Only after we lose it do we cherish our health 
+: 우리는 건강을 잃기 전까지 소중히 여기지 않는다</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
@@ -14652,7 +14983,7 @@
         </is>
       </c>
       <c r="D711" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/영어_복습.xlsx
+++ b/학습자료/단답형/영어_복습.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="1017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="1025">
   <si>
     <t>질문</t>
   </si>
@@ -3371,6 +3371,38 @@
   </si>
   <si>
     <t>~와의 접촉 (명사)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefer to 동명사 to 동명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefer to부정사 rather than to부정사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to부정사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>what is better</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금상첨화로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>what is worse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설상가상으로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3759,10 +3791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D717"/>
+  <dimension ref="A1:D723"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A696" workbookViewId="0">
-      <selection activeCell="A718" sqref="A718"/>
+    <sheetView tabSelected="1" topLeftCell="A701" workbookViewId="0">
+      <selection activeCell="A724" sqref="A724"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13792,6 +13824,72 @@
         <v>1013</v>
       </c>
     </row>
+    <row r="718" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A718" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B718" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C718" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A719" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B719" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C719" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A720" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B720" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C720" s="2" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A721" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B721" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C721" s="2" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A722" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B722" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C722" s="2" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A723" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B723" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C723" s="2" t="s">
+        <v>1021</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/학습자료/단답형/영어_복습.xlsx
+++ b/학습자료/단답형/영어_복습.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="3">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="6">
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="9">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="10">
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="14">
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="15">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="21">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="22">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="23">
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="24">
@@ -977,7 +977,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="27">
@@ -1187,7 +1187,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="37">
@@ -1250,7 +1250,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42">
@@ -1313,7 +1313,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="43">
@@ -1334,7 +1334,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="44">
@@ -1355,7 +1355,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="45">
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="46">
@@ -1560,7 +1560,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="55">
@@ -1580,7 +1580,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="56">
@@ -1660,7 +1660,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="60">
@@ -1740,7 +1740,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="64">
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="65">
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="78">
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="79">
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83">
@@ -2166,7 +2166,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="85">
@@ -2208,7 +2208,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="87">
@@ -2439,7 +2439,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="98">
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="100">
@@ -2523,7 +2523,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="102">
@@ -2649,7 +2649,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="108">
@@ -2691,7 +2691,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="110">
@@ -2775,7 +2775,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="114">
@@ -2817,7 +2817,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="116">
@@ -2838,7 +2838,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="117">
@@ -2859,7 +2859,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="118">
@@ -3006,7 +3006,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="125">
@@ -3090,7 +3090,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="129">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="131">
@@ -3195,7 +3195,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="134">
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="136">
@@ -3279,7 +3279,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="138">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="140">
@@ -3363,7 +3363,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="142">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="146">
@@ -3468,7 +3468,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="147">
@@ -3531,7 +3531,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="150">
@@ -3594,7 +3594,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="153">
@@ -3678,7 +3678,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="157">
@@ -3820,7 +3820,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="164">
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="165">
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="167">
@@ -3920,7 +3920,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="172">
@@ -4187,7 +4187,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="182">
@@ -4229,7 +4229,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="184">
@@ -4393,7 +4393,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="192">
@@ -4693,7 +4693,7 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="207">
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="212">
@@ -4860,7 +4860,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="215">
@@ -4881,7 +4881,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="216">
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="231">
@@ -5306,7 +5306,7 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="237">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="239">
@@ -5386,7 +5386,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="241">
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="243">
@@ -5486,7 +5486,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="246">
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="247">
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="255">
@@ -5706,7 +5706,7 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="257">
@@ -5786,7 +5786,7 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="261">
@@ -5806,7 +5806,7 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="262">
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="263">
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="271">
@@ -6026,7 +6026,7 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="273">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="284">
@@ -6266,7 +6266,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="285">
@@ -6286,7 +6286,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="286">
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="291">
@@ -6426,7 +6426,7 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="293">
@@ -6506,7 +6506,7 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="297">
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="298">
@@ -6566,7 +6566,7 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="300">
@@ -6587,7 +6587,7 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="301">
@@ -6713,7 +6713,7 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="307">
@@ -6836,7 +6836,7 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="313">
@@ -6937,7 +6937,7 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="318">
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="319">
@@ -7017,7 +7017,7 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="322">
@@ -7097,7 +7097,7 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="326">
@@ -7217,7 +7217,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="332">
@@ -7237,7 +7237,7 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="333">
@@ -7457,7 +7457,7 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="344">
@@ -7709,7 +7709,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="356">
@@ -7877,7 +7877,7 @@
         </is>
       </c>
       <c r="D363" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="364">
@@ -8060,7 +8060,7 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="373">
@@ -8140,7 +8140,7 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="377">
@@ -8200,7 +8200,7 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="380">
@@ -8260,7 +8260,7 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="383">
@@ -8300,7 +8300,7 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="385">
@@ -8360,7 +8360,7 @@
         </is>
       </c>
       <c r="D387" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="388">
@@ -8500,7 +8500,7 @@
         </is>
       </c>
       <c r="D394" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="395">
@@ -8540,7 +8540,7 @@
         </is>
       </c>
       <c r="D396" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="397">
@@ -8600,7 +8600,7 @@
         </is>
       </c>
       <c r="D399" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="400">
@@ -8640,7 +8640,7 @@
         </is>
       </c>
       <c r="D401" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="402">
@@ -8760,7 +8760,7 @@
         </is>
       </c>
       <c r="D407" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="408">
@@ -8860,7 +8860,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="413">
@@ -8900,7 +8900,7 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="415">
@@ -8940,7 +8940,7 @@
         </is>
       </c>
       <c r="D416" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="417">
@@ -9140,7 +9140,7 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="427">
@@ -9280,7 +9280,7 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="434">
@@ -9320,7 +9320,7 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="436">
@@ -9560,7 +9560,7 @@
         </is>
       </c>
       <c r="D447" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="448">
@@ -9620,7 +9620,7 @@
         </is>
       </c>
       <c r="D450" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="451">
@@ -9780,7 +9780,7 @@
         </is>
       </c>
       <c r="D458" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="459">
@@ -9800,7 +9800,7 @@
         </is>
       </c>
       <c r="D459" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="460">
@@ -9880,7 +9880,7 @@
         </is>
       </c>
       <c r="D463" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="464">
@@ -10000,7 +10000,7 @@
         </is>
       </c>
       <c r="D469" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="470">
@@ -10180,7 +10180,7 @@
         </is>
       </c>
       <c r="D478" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="479">
@@ -10280,7 +10280,7 @@
         </is>
       </c>
       <c r="D483" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="484">
@@ -10342,7 +10342,7 @@
         </is>
       </c>
       <c r="D486" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="487">
@@ -10402,7 +10402,7 @@
         </is>
       </c>
       <c r="D489" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="490">
@@ -10422,7 +10422,7 @@
         </is>
       </c>
       <c r="D490" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="491">
@@ -10462,7 +10462,7 @@
         </is>
       </c>
       <c r="D492" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="493">
@@ -10482,7 +10482,7 @@
         </is>
       </c>
       <c r="D493" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="494">
@@ -10524,7 +10524,7 @@
         </is>
       </c>
       <c r="D495" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="496">
@@ -10604,7 +10604,7 @@
         </is>
       </c>
       <c r="D499" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="500">
@@ -10730,7 +10730,7 @@
         </is>
       </c>
       <c r="D505" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506">
@@ -10832,7 +10832,7 @@
         </is>
       </c>
       <c r="D510" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="511">
@@ -10912,7 +10912,7 @@
         </is>
       </c>
       <c r="D514" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="515">
@@ -11057,7 +11057,7 @@
         </is>
       </c>
       <c r="D521" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="522">
@@ -11265,7 +11265,7 @@
         </is>
       </c>
       <c r="D531" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="532">
@@ -11305,7 +11305,7 @@
         </is>
       </c>
       <c r="D533" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="534">
@@ -11470,7 +11470,7 @@
         </is>
       </c>
       <c r="D541" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="542">
@@ -11491,7 +11491,7 @@
         </is>
       </c>
       <c r="D542" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="543">
@@ -11533,7 +11533,7 @@
         </is>
       </c>
       <c r="D544" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="545">
@@ -11553,7 +11553,7 @@
         </is>
       </c>
       <c r="D545" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="546">
@@ -11613,7 +11613,7 @@
         </is>
       </c>
       <c r="D548" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="549">
@@ -11633,7 +11633,7 @@
         </is>
       </c>
       <c r="D549" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="550">
@@ -11800,7 +11800,7 @@
         </is>
       </c>
       <c r="D557" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="558">
@@ -11945,7 +11945,7 @@
         </is>
       </c>
       <c r="D564" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="565">
@@ -11985,7 +11985,7 @@
         </is>
       </c>
       <c r="D566" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="567">
@@ -12193,7 +12193,7 @@
         </is>
       </c>
       <c r="D576" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="577">
@@ -12235,7 +12235,7 @@
         </is>
       </c>
       <c r="D578" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="579">
@@ -12277,7 +12277,7 @@
         </is>
       </c>
       <c r="D580" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="581">
@@ -12298,7 +12298,7 @@
         </is>
       </c>
       <c r="D581" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="582">
@@ -12566,7 +12566,7 @@
         </is>
       </c>
       <c r="D594" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="595">
@@ -12608,7 +12608,7 @@
         </is>
       </c>
       <c r="D596" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="597">
@@ -12629,7 +12629,7 @@
         </is>
       </c>
       <c r="D597" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="598">
@@ -12669,7 +12669,7 @@
         </is>
       </c>
       <c r="D599" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="600">
@@ -12689,7 +12689,7 @@
         </is>
       </c>
       <c r="D600" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601">
@@ -12729,7 +12729,7 @@
         </is>
       </c>
       <c r="D602" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="603">
@@ -12749,7 +12749,7 @@
         </is>
       </c>
       <c r="D603" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="604">
@@ -12770,7 +12770,7 @@
         </is>
       </c>
       <c r="D604" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="605">
@@ -12791,7 +12791,7 @@
         </is>
       </c>
       <c r="D605" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="606">
@@ -12812,7 +12812,7 @@
         </is>
       </c>
       <c r="D606" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="607">
@@ -12833,7 +12833,7 @@
         </is>
       </c>
       <c r="D607" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="608">
@@ -12875,7 +12875,7 @@
         </is>
       </c>
       <c r="D609" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="610">
@@ -12980,7 +12980,7 @@
         </is>
       </c>
       <c r="D614" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="615">
@@ -13022,7 +13022,7 @@
         </is>
       </c>
       <c r="D616" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="617">
@@ -13043,7 +13043,7 @@
         </is>
       </c>
       <c r="D617" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="618">
@@ -13084,7 +13084,7 @@
         </is>
       </c>
       <c r="D619" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="620">
@@ -13104,7 +13104,7 @@
         </is>
       </c>
       <c r="D620" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="621">
@@ -13124,7 +13124,7 @@
         </is>
       </c>
       <c r="D621" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="622">
@@ -13144,7 +13144,7 @@
         </is>
       </c>
       <c r="D622" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="623">
@@ -13184,7 +13184,7 @@
         </is>
       </c>
       <c r="D624" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="625">
@@ -13244,7 +13244,7 @@
         </is>
       </c>
       <c r="D627" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="628">
@@ -13340,7 +13340,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>둘다 키가 작다</t>
+          <t>둘다 키가 작다 | no -&gt; 너도 그래, not -&gt; 나만 그래</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
@@ -13361,7 +13361,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>그녀는 키가 크지만 그는 키가 작다</t>
+          <t>그녀는 키가 크지만 그는 키가 작다 | no -&gt; 너도 그래, not -&gt; 나만 그래</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -13410,7 +13410,7 @@
         </is>
       </c>
       <c r="D635" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="636">
@@ -13430,7 +13430,7 @@
         </is>
       </c>
       <c r="D636" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="637">
@@ -13492,7 +13492,7 @@
         </is>
       </c>
       <c r="D639" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="640">
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="D642" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="643">
@@ -13597,7 +13597,7 @@
         </is>
       </c>
       <c r="D644" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="645">
@@ -13702,7 +13702,7 @@
         </is>
       </c>
       <c r="D649" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650">
@@ -13845,7 +13845,7 @@
         </is>
       </c>
       <c r="D656" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="657">
@@ -14009,7 +14009,7 @@
         </is>
       </c>
       <c r="D664" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="665">
@@ -14156,7 +14156,7 @@
         </is>
       </c>
       <c r="D671" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="672">
@@ -14339,7 +14339,7 @@
         </is>
       </c>
       <c r="D680" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681">
@@ -14402,7 +14402,7 @@
         </is>
       </c>
       <c r="D683" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="684">
@@ -14526,7 +14526,7 @@
         </is>
       </c>
       <c r="D689" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="690">
@@ -14566,7 +14566,7 @@
         </is>
       </c>
       <c r="D691" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="692">
@@ -14670,7 +14670,7 @@
         </is>
       </c>
       <c r="D696" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="697">
@@ -14691,7 +14691,7 @@
         </is>
       </c>
       <c r="D697" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="698">
@@ -14712,7 +14712,7 @@
         </is>
       </c>
       <c r="D698" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="699">
@@ -14754,7 +14754,7 @@
         </is>
       </c>
       <c r="D700" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="701">
@@ -14857,7 +14857,7 @@
         </is>
       </c>
       <c r="D705" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="706">
@@ -14878,7 +14878,7 @@
         </is>
       </c>
       <c r="D706" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="707">
@@ -14962,7 +14962,7 @@
         </is>
       </c>
       <c r="D710" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711">
@@ -15183,7 +15183,7 @@
         </is>
       </c>
       <c r="D721" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="722">
@@ -15203,7 +15203,7 @@
         </is>
       </c>
       <c r="D722" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="723">
@@ -15223,7 +15223,7 @@
         </is>
       </c>
       <c r="D723" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="724">
@@ -15383,7 +15383,7 @@
         </is>
       </c>
       <c r="D731" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="732">
@@ -15483,7 +15483,7 @@
         </is>
       </c>
       <c r="D736" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="737">
@@ -15503,7 +15503,7 @@
         </is>
       </c>
       <c r="D737" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="738">
@@ -15543,7 +15543,7 @@
         </is>
       </c>
       <c r="D739" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="740">
@@ -15623,7 +15623,7 @@
         </is>
       </c>
       <c r="D743" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="744">
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="D744" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="745">
@@ -15663,7 +15663,7 @@
         </is>
       </c>
       <c r="D745" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="746">
@@ -15743,7 +15743,7 @@
         </is>
       </c>
       <c r="D749" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="750">
@@ -15883,7 +15883,7 @@
         </is>
       </c>
       <c r="D756" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="757">
@@ -15943,7 +15943,7 @@
         </is>
       </c>
       <c r="D759" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="760">
@@ -15963,7 +15963,7 @@
         </is>
       </c>
       <c r="D760" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="761">
@@ -15983,7 +15983,7 @@
         </is>
       </c>
       <c r="D761" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="762">
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="D762" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="763">
@@ -16043,7 +16043,7 @@
         </is>
       </c>
       <c r="D764" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765">
@@ -16063,7 +16063,7 @@
         </is>
       </c>
       <c r="D765" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="766">
@@ -16083,7 +16083,7 @@
         </is>
       </c>
       <c r="D766" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="767">
@@ -16103,7 +16103,7 @@
         </is>
       </c>
       <c r="D767" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="768">
@@ -16129,7 +16129,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>it is useless to 동사원형</t>
+          <t>it is useless to부정사</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
@@ -16163,7 +16163,7 @@
         </is>
       </c>
       <c r="D770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771">
@@ -16183,7 +16183,7 @@
         </is>
       </c>
       <c r="D771" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="772">
@@ -16223,7 +16223,7 @@
         </is>
       </c>
       <c r="D773" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774">
@@ -16283,7 +16283,7 @@
         </is>
       </c>
       <c r="D776" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="777">
@@ -16343,7 +16343,7 @@
         </is>
       </c>
       <c r="D779" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="780">
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="D780" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="781">
@@ -16543,7 +16543,7 @@
         </is>
       </c>
       <c r="D789" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="790">
@@ -16643,7 +16643,7 @@
         </is>
       </c>
       <c r="D794" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="795">
@@ -16663,7 +16663,7 @@
         </is>
       </c>
       <c r="D795" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="796">
@@ -16683,7 +16683,7 @@
         </is>
       </c>
       <c r="D796" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="797">
@@ -16703,7 +16703,7 @@
         </is>
       </c>
       <c r="D797" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="798">
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="D798" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="799">
@@ -16743,7 +16743,7 @@
         </is>
       </c>
       <c r="D799" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="800">
@@ -16763,7 +16763,7 @@
         </is>
       </c>
       <c r="D800" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="801">
@@ -16783,7 +16783,7 @@
         </is>
       </c>
       <c r="D801" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="802">
@@ -16803,7 +16803,7 @@
         </is>
       </c>
       <c r="D802" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="803">
@@ -16823,7 +16823,7 @@
         </is>
       </c>
       <c r="D803" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="804">
@@ -16843,7 +16843,7 @@
         </is>
       </c>
       <c r="D804" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="805">
@@ -16863,7 +16863,7 @@
         </is>
       </c>
       <c r="D805" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="806">
@@ -16883,7 +16883,7 @@
         </is>
       </c>
       <c r="D806" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="807">
@@ -16903,7 +16903,7 @@
         </is>
       </c>
       <c r="D807" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="808">
@@ -16923,7 +16923,7 @@
         </is>
       </c>
       <c r="D808" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="809">
@@ -16943,7 +16943,7 @@
         </is>
       </c>
       <c r="D809" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="810">
@@ -16963,7 +16963,7 @@
         </is>
       </c>
       <c r="D810" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="811">
@@ -16983,7 +16983,7 @@
         </is>
       </c>
       <c r="D811" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="812">
@@ -17004,7 +17004,7 @@
         </is>
       </c>
       <c r="D812" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="813">
@@ -17025,7 +17025,7 @@
         </is>
       </c>
       <c r="D813" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="814">
@@ -17045,7 +17045,7 @@
         </is>
       </c>
       <c r="D814" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="815">
@@ -17065,7 +17065,7 @@
         </is>
       </c>
       <c r="D815" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="816">
@@ -17085,7 +17085,7 @@
         </is>
       </c>
       <c r="D816" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="817">
@@ -17105,7 +17105,7 @@
         </is>
       </c>
       <c r="D817" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="818">
@@ -17125,7 +17125,7 @@
         </is>
       </c>
       <c r="D818" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="819">
@@ -17145,7 +17145,7 @@
         </is>
       </c>
       <c r="D819" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="820">
@@ -17165,7 +17165,7 @@
         </is>
       </c>
       <c r="D820" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="821">
@@ -17185,7 +17185,7 @@
         </is>
       </c>
       <c r="D821" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="822">
@@ -17205,7 +17205,7 @@
         </is>
       </c>
       <c r="D822" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="823">
@@ -17225,7 +17225,7 @@
         </is>
       </c>
       <c r="D823" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="824">
@@ -17245,7 +17245,7 @@
         </is>
       </c>
       <c r="D824" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="825">
@@ -17265,7 +17265,7 @@
         </is>
       </c>
       <c r="D825" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="826">
@@ -17285,7 +17285,7 @@
         </is>
       </c>
       <c r="D826" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="827">
@@ -17305,7 +17305,7 @@
         </is>
       </c>
       <c r="D827" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="828">
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D828" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="829">
@@ -17345,7 +17345,7 @@
         </is>
       </c>
       <c r="D829" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="830">
@@ -17365,7 +17365,7 @@
         </is>
       </c>
       <c r="D830" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="831">
@@ -17385,7 +17385,7 @@
         </is>
       </c>
       <c r="D831" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="832">
@@ -17405,7 +17405,7 @@
         </is>
       </c>
       <c r="D832" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="833">
@@ -17425,7 +17425,7 @@
         </is>
       </c>
       <c r="D833" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="834">
@@ -17445,7 +17445,7 @@
         </is>
       </c>
       <c r="D834" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="835">
@@ -17465,7 +17465,7 @@
         </is>
       </c>
       <c r="D835" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="836">
@@ -17485,7 +17485,7 @@
         </is>
       </c>
       <c r="D836" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="837">
@@ -17505,7 +17505,7 @@
         </is>
       </c>
       <c r="D837" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838">
@@ -17525,7 +17525,7 @@
         </is>
       </c>
       <c r="D838" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="839">
@@ -17545,7 +17545,7 @@
         </is>
       </c>
       <c r="D839" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="840">
@@ -17565,7 +17565,7 @@
         </is>
       </c>
       <c r="D840" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="841">
@@ -17585,7 +17585,7 @@
         </is>
       </c>
       <c r="D841" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842">
@@ -17605,7 +17605,7 @@
         </is>
       </c>
       <c r="D842" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="843">
@@ -17625,7 +17625,7 @@
         </is>
       </c>
       <c r="D843" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="844">
@@ -17645,7 +17645,7 @@
         </is>
       </c>
       <c r="D844" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="845">
@@ -17665,7 +17665,7 @@
         </is>
       </c>
       <c r="D845" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="846">
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D846" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="847">
@@ -17705,7 +17705,7 @@
         </is>
       </c>
       <c r="D847" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="848">
@@ -17725,7 +17725,7 @@
         </is>
       </c>
       <c r="D848" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="849">
@@ -17745,7 +17745,7 @@
         </is>
       </c>
       <c r="D849" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="850">
@@ -17765,7 +17765,7 @@
         </is>
       </c>
       <c r="D850" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="851">
@@ -17785,7 +17785,7 @@
         </is>
       </c>
       <c r="D851" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/영어_복습.xlsx
+++ b/학습자료/단답형/영어_복습.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2677" uniqueCount="1303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2743" uniqueCount="1343">
   <si>
     <t>질문</t>
   </si>
@@ -2905,13 +2905,16 @@
     <t>It is a matter of course that he is proud of his son</t>
   </si>
   <si>
+    <t>~하는 것도 당연하다 | 애 없당 (as 없으면 '당연하다')</t>
+  </si>
+  <si>
     <t>may well 동사원형 vs may as well 동사원형</t>
   </si>
   <si>
     <t>may as well 동사원형</t>
   </si>
   <si>
-    <t>~하는 게 더 낫다</t>
+    <t>~하는 게 더 낫다 | 애 낳다 (as 낫다)</t>
   </si>
   <si>
     <t>may well 동사원형 -&gt; might well 
@@ -4016,279 +4019,391 @@
   </si>
   <si>
     <t>late 비교급, 시간, 더 늦은, 더 늦게</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>later//latter | 순살튀김, 순사를 때리고 튄다, 순서(순)는 4(사)번째 자리에 t(티)를 쓴다</t>
   </si>
   <si>
     <t>late 비교급, 순서, 후반의, 후자의</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>later//latter</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>latter//later</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>latter//later | 순살튀김, 순사를 때리고 튄다, 순서(순)는 4(사)번째 자리에 t(티)를 쓴다</t>
   </si>
   <si>
     <t>late 최상급, 시간, 최근의, 가장 늦은</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>latest//last | 순살튀김, 순사를 때리고 튄다, 순서(순)는 4(사)번째 자리에 t(티)를 쓴다</t>
   </si>
   <si>
     <t>late 최상급, 순서, 마지막의, 마지막으로</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>latest//last</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>last//latest</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>last//latest | 순살튀김, 순사를 때리고 튄다, 순서(순)는 4(사)번째 자리에 t(티)를 쓴다</t>
+  </si>
+  <si>
+    <t>absolute 절대적인</t>
+  </si>
+  <si>
+    <t>비교급, 최상급 불가</t>
+  </si>
+  <si>
+    <t>alive 살아 있는</t>
+  </si>
+  <si>
+    <t>perfect 완벽한</t>
+  </si>
+  <si>
+    <t>dead 죽은</t>
+  </si>
+  <si>
+    <t>empty 빈</t>
+  </si>
+  <si>
+    <t>final 최종적인</t>
+  </si>
+  <si>
+    <t>primary 제1의</t>
+  </si>
+  <si>
+    <t>supreme 최고의</t>
+  </si>
+  <si>
+    <t>prime 가장 중요한</t>
+  </si>
+  <si>
+    <t>favorite 가장 좋아하는</t>
+  </si>
+  <si>
+    <t>extreme 극단적인</t>
+  </si>
+  <si>
+    <t>exterior (밖의)</t>
+  </si>
+  <si>
+    <t>비교급 : than이 아닌 to를 사용</t>
+  </si>
+  <si>
+    <t>interior (안의)</t>
+  </si>
+  <si>
+    <t>inferior (열등한)</t>
+  </si>
+  <si>
+    <t>superior (우수한)</t>
+  </si>
+  <si>
+    <t>junior (손아래의)</t>
+  </si>
+  <si>
+    <t>senior (손위의)</t>
+  </si>
+  <si>
+    <t>priot (이전의)</t>
+  </si>
+  <si>
+    <t>posterior (이후의)</t>
+  </si>
+  <si>
+    <t>major (중요한)</t>
+  </si>
+  <si>
+    <t>minor (중요하지 않은)</t>
+  </si>
+  <si>
+    <t>as 원급 as : 부정 표현</t>
+  </si>
+  <si>
+    <t>둘 다 가능//not as 원급 as//not so 원급 as</t>
+  </si>
+  <si>
+    <t>I love you more than he : 나는 그가 널 사랑하는 것보다 더 널 사랑한다</t>
+  </si>
+  <si>
+    <t>he</t>
+  </si>
+  <si>
+    <t>he vs him</t>
+  </si>
+  <si>
+    <t>I love you more than him : 나는 내가 그를 사랑하는 것보다 더 널 사랑한다</t>
+  </si>
+  <si>
+    <t>him</t>
+  </si>
+  <si>
+    <t>The weather of Korea is colder than Japan : 한국의 날씨는 일본의 그것(날씨)보다 더 춥다</t>
+  </si>
+  <si>
+    <t>X//O | than Japan -&gt; than that of Japan</t>
+  </si>
+  <si>
+    <t>The weather of Korea is colder than that of Japan : 한국의 날씨는 일본의 그것(날씨)보다 더 춥다</t>
+  </si>
+  <si>
+    <t>O//X | than that of Japan를 than Japan으로 쓰지 않도록 주의</t>
+  </si>
+  <si>
+    <t>I am no taller than she is : 나는 그녀만큼이나 키가 크지 않다</t>
+  </si>
+  <si>
+    <t>I am as short as she is : 나는 그녀만큼 작다</t>
+  </si>
+  <si>
+    <t>no 비교급 예문 vs not 비교급 예문</t>
+  </si>
+  <si>
+    <t>I am not taller than she is : 나는 그녀만큼 크지 않다</t>
+  </si>
+  <si>
+    <t>I am shorter than she is : 나는 그녀보다 더 작다</t>
+  </si>
+  <si>
+    <t>know better than to 동사원형</t>
+  </si>
+  <si>
+    <t>~할 만큼 어리석지 않다</t>
+  </si>
+  <si>
+    <t>know better than to 동사원형 : ~할 만큼 어리석지 않다</t>
+  </si>
+  <si>
+    <t>동사원형//동명사//둘 다 가능</t>
+  </si>
+  <si>
+    <t>none the 비교급 (for)</t>
+  </si>
+  <si>
+    <t>(~에도 불구하고) 조금도 더 ~하지 않은</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>비교급 수식</t>
+  </si>
+  <si>
+    <t>비교급 수식 vs 최상급 수식</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>a lot</t>
+  </si>
+  <si>
+    <t>very</t>
+  </si>
+  <si>
+    <t>최상급 수식 | the very 최상급</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>비교급 수식, 최상급 수식</t>
+  </si>
+  <si>
+    <t>(by) far</t>
+  </si>
+  <si>
+    <t>단수명사//복수명사//둘 다 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복수명사//단수명사//둘 다 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>기본</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>absolute 절대적인</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>alive 살아 있는</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>perfect 완벽한</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>dead 죽은</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>empty 빈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>특징</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>비교급, 최상급 불가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>final 최종적인</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>primary 제1의</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>supreme 최고의</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>prime 가장 중요한</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>favorite 가장 좋아하는</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>extreme 극단적인</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>exterior (밖의)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>interior (안의)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>inferior (열등한)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>superior (우수한)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>junior (손아래의)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>senior (손위의)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>priot (이전의)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>posterior (이후의)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>major (중요한)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>minor (중요하지 않은)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>비교급 : than이 아닌 to를 사용</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>as 원급 as : 부정 표현</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>둘 다 가능//not as 원급 as//not so 원급 as</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최상급 ~ of 비교의 대상이 되는 복수명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>classmates//classmate | 최상급 ~ of 비교의 대상이 되는 복수명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>She was the most diligent girl of my classmates
+: 그녀는 우리 반 학생들 중에서 가장 성실한 소녀였다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>기본</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>I love you more than he : 나는 그가 널 사랑하는 것보다 더 널 사랑한다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>he</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>I love you more than him : 나는 내가 그를 사랑하는 것보다 더 널 사랑한다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>him</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>The weather of Korea is colder than Japan : 한국의 날씨는 일본의 그것(날씨)보다 더 춥다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>X//O | than Japan -&gt; than that of Japan</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>The weather of Korea is colder than that of Japan : 한국의 날씨는 일본의 그것(날씨)보다 더 춥다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>O//X | than that of Japan를 than Japan으로 쓰지 않도록 주의</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>he vs him</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>I am no taller than she is : 나는 그녀만큼이나 키가 크지 않다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>I am as short as she is : 나는 그녀만큼 작다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>I am not taller than she is : 나는 그녀만큼 크지 않다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>I am shorter than she is : 나는 그녀보다 더 작다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>no 비교급 예문 vs not 비교급 예문</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>뜻_동사</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>know better than to 동사원형</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>~할 만큼 어리석지 않다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>동사원형//동명사//둘 다 가능</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>know better than to 동사원형 : ~할 만큼 어리석지 않다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>none the 비교급 (for)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(~에도 불구하고) 조금도 더 ~하지 않은</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>뜻_형용사</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>even</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>still</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>a lot</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>비교급 수식</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>very</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>much</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(by) far</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>비교급 수식, 최상급 수식</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>비교급 수식 vs 최상급 수식</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>최상급 수식 | the very 최상급</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He is the tallest player in the basketball team
+: 그는 농구팀에서 가장 키가 큰 선수이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최상급 ~ in 장소나 범위를 나타내는 단수명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team//teams | 최상급 ~ in 장소나 범위를 나타내는 단수명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최상급 ~ that have … [has] ever p.p
+: 지금까지 …한 것 중에 가장 ~한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>that//which//둘 다 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ever//never</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He is the greastest soccer player that has ever lived
+: 그는 역대 최고의 축구 선수이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최상급 ~ that have … [has] ever p.p
+: 지금까지 …한 것 중에 가장 ~한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>that//which//둘 다 가능 | 최상급 ~ that have … [has] ever p.p 지금까지 …한 것 중에 가장 ~한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ever//never | 최상급 ~ that have … [has] ever p.p 지금까지 …한 것 중에 가장 ~한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He is more polite than shy
+: 그는 숫기 없는 쪽이라기보다는 예의 바른 쪽에 더 가깝다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>more polite//polite more//둘 다 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He is 둘 다 가능 than shy
+: 그는 숫기 없는 쪽이라기보다는 예의 바른 쪽에 더 가깝다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둘 다 가능//rather polite//polite rather</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He is not 둘 다 가능 as polite
+: 그는 숫기 없는 쪽이라기보다는 예의 바른 쪽에 더 가깝다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둘 다 가능//so much shy//shy so much</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He is taller than any other person
+: 그는 세상에서 키가 가장 크다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>person//people</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He is taller than (all) the other people
+: 그는 세상에서 키가 가장 크다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>people//person</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He is much the strongest player in the team
+: 그는 팀에서 가장 최고로 힘이 센 선수이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is the very best machine
+: 이건 최고의 기계이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>much the strongest//the much strongest//둘 다 가능 | very를 제외한 나머지는 the 앞에 쓴다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the very best//very the best//둘 다 가능 | very를 제외한 나머지는 the 앞에 쓴다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He doesn't swim, and neither does she
+: 그는 수영을 하지 않고, 그녀도 하지 않는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He doesn't swim, neither does she
+: 그는 수영을 하지 않고, 그녀도 하지 않는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He doesn't swim, and neither she does
+: 그는 수영을 하지 않고, 그녀도 하지 않는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O//X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X//O | neither -&gt; and neither, neither는 접속사가 아니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X//O | neither는 부정부사이므로 뒤따라오는 문장의 어순은 의문문 어순이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I do not know both of them
+: 나는 그 둘을 다 아는 것이 아니다 (부분 부정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I do not know either of them
+: 나는 그들 중 아무도 모른다 (전체 부정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>both//either</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>either//both</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I did not invite any of them
+: 나는 그들 중 아무도 초대하지 않았다 (전체 부정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I did not invite all of them
+: 나는 그들 모두를 초대한 것이 아니었다 (부분 부정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all//any</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>any//all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4304,6 +4419,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
@@ -4314,13 +4436,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -4368,12 +4483,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -4676,16 +4794,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D892"/>
+  <dimension ref="A1:D914"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A866" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B884" sqref="B884"/>
+      <pane ySplit="1" topLeftCell="A897" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C914" sqref="C914"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="43.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="43.875" style="2"/>
+    <col min="1" max="1" width="61.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="58.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -4755,7 +4876,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -4783,7 +4904,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -4811,7 +4932,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="2">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -4853,7 +4974,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -4895,7 +5016,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -4937,7 +5058,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="2">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -4965,7 +5086,7 @@
         <v>6</v>
       </c>
       <c r="D20" s="2">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -4979,7 +5100,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -5035,7 +5156,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -5133,7 +5254,7 @@
         <v>6</v>
       </c>
       <c r="D32" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -5147,7 +5268,7 @@
         <v>6</v>
       </c>
       <c r="D33" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -5189,7 +5310,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -5259,7 +5380,7 @@
         <v>6</v>
       </c>
       <c r="D41" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -5329,7 +5450,7 @@
         <v>6</v>
       </c>
       <c r="D46" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -5385,7 +5506,7 @@
         <v>58</v>
       </c>
       <c r="D50" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -5469,7 +5590,7 @@
         <v>58</v>
       </c>
       <c r="D56" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -5511,7 +5632,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -5525,7 +5646,7 @@
         <v>58</v>
       </c>
       <c r="D60" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -5539,7 +5660,7 @@
         <v>58</v>
       </c>
       <c r="D61" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -5567,7 +5688,7 @@
         <v>58</v>
       </c>
       <c r="D63" s="2">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -5651,7 +5772,7 @@
         <v>86</v>
       </c>
       <c r="D69" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -5679,7 +5800,7 @@
         <v>81</v>
       </c>
       <c r="D71" s="2">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -5763,7 +5884,7 @@
         <v>58</v>
       </c>
       <c r="D77" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -5847,7 +5968,7 @@
         <v>112</v>
       </c>
       <c r="D83" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -5917,7 +6038,7 @@
         <v>112</v>
       </c>
       <c r="D88" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -5931,7 +6052,7 @@
         <v>112</v>
       </c>
       <c r="D89" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -5945,7 +6066,7 @@
         <v>112</v>
       </c>
       <c r="D90" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -6043,7 +6164,7 @@
         <v>112</v>
       </c>
       <c r="D97" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -6057,7 +6178,7 @@
         <v>112</v>
       </c>
       <c r="D98" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -6099,7 +6220,7 @@
         <v>112</v>
       </c>
       <c r="D101" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -6113,7 +6234,7 @@
         <v>112</v>
       </c>
       <c r="D102" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -6141,7 +6262,7 @@
         <v>112</v>
       </c>
       <c r="D104" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -6155,7 +6276,7 @@
         <v>112</v>
       </c>
       <c r="D105" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -6169,7 +6290,7 @@
         <v>112</v>
       </c>
       <c r="D106" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -6183,7 +6304,7 @@
         <v>112</v>
       </c>
       <c r="D107" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -6197,7 +6318,7 @@
         <v>112</v>
       </c>
       <c r="D108" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -6211,7 +6332,7 @@
         <v>112</v>
       </c>
       <c r="D109" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -6239,7 +6360,7 @@
         <v>112</v>
       </c>
       <c r="D111" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -6253,7 +6374,7 @@
         <v>112</v>
       </c>
       <c r="D112" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -6295,7 +6416,7 @@
         <v>112</v>
       </c>
       <c r="D115" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -6337,7 +6458,7 @@
         <v>112</v>
       </c>
       <c r="D118" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -6365,7 +6486,7 @@
         <v>112</v>
       </c>
       <c r="D120" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -6379,7 +6500,7 @@
         <v>112</v>
       </c>
       <c r="D121" s="2">
-        <v>-6</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -6463,7 +6584,7 @@
         <v>112</v>
       </c>
       <c r="D127" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -6519,7 +6640,7 @@
         <v>112</v>
       </c>
       <c r="D131" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -6533,7 +6654,7 @@
         <v>112</v>
       </c>
       <c r="D132" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -6561,7 +6682,7 @@
         <v>171</v>
       </c>
       <c r="D134" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -6603,7 +6724,7 @@
         <v>171</v>
       </c>
       <c r="D137" s="2">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -6631,7 +6752,7 @@
         <v>171</v>
       </c>
       <c r="D139" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -6715,7 +6836,7 @@
         <v>171</v>
       </c>
       <c r="D145" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -6785,7 +6906,7 @@
         <v>171</v>
       </c>
       <c r="D150" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -6827,7 +6948,7 @@
         <v>112</v>
       </c>
       <c r="D153" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -6995,7 +7116,7 @@
         <v>58</v>
       </c>
       <c r="D165" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -7009,7 +7130,7 @@
         <v>58</v>
       </c>
       <c r="D166" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -7023,7 +7144,7 @@
         <v>58</v>
       </c>
       <c r="D167" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -7135,7 +7256,7 @@
         <v>171</v>
       </c>
       <c r="D175" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -7233,7 +7354,7 @@
         <v>171</v>
       </c>
       <c r="D182" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -7415,7 +7536,7 @@
         <v>260</v>
       </c>
       <c r="D195" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
@@ -7443,7 +7564,7 @@
         <v>260</v>
       </c>
       <c r="D197" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
@@ -7471,7 +7592,7 @@
         <v>260</v>
       </c>
       <c r="D199" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -7499,7 +7620,7 @@
         <v>260</v>
       </c>
       <c r="D201" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
@@ -7527,7 +7648,7 @@
         <v>260</v>
       </c>
       <c r="D203" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
@@ -7555,7 +7676,7 @@
         <v>260</v>
       </c>
       <c r="D205" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
@@ -7569,7 +7690,7 @@
         <v>260</v>
       </c>
       <c r="D206" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
@@ -7583,7 +7704,7 @@
         <v>260</v>
       </c>
       <c r="D207" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
@@ -7639,7 +7760,7 @@
         <v>300</v>
       </c>
       <c r="D211" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -7653,7 +7774,7 @@
         <v>300</v>
       </c>
       <c r="D212" s="2">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -7695,7 +7816,7 @@
         <v>300</v>
       </c>
       <c r="D215" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -7751,7 +7872,7 @@
         <v>300</v>
       </c>
       <c r="D219" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -7779,7 +7900,7 @@
         <v>58</v>
       </c>
       <c r="D221" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -7793,7 +7914,7 @@
         <v>58</v>
       </c>
       <c r="D222" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -7807,7 +7928,7 @@
         <v>58</v>
       </c>
       <c r="D223" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -7835,7 +7956,7 @@
         <v>319</v>
       </c>
       <c r="D225" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -7877,7 +7998,7 @@
         <v>319</v>
       </c>
       <c r="D228" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
@@ -7905,7 +8026,7 @@
         <v>319</v>
       </c>
       <c r="D230" s="2">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
@@ -7919,7 +8040,7 @@
         <v>319</v>
       </c>
       <c r="D231" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
@@ -7947,7 +8068,7 @@
         <v>319</v>
       </c>
       <c r="D233" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
@@ -8087,7 +8208,7 @@
         <v>339</v>
       </c>
       <c r="D243" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
@@ -8213,7 +8334,7 @@
         <v>339</v>
       </c>
       <c r="D252" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
@@ -8227,7 +8348,7 @@
         <v>339</v>
       </c>
       <c r="D253" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -8241,7 +8362,7 @@
         <v>339</v>
       </c>
       <c r="D254" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
@@ -8283,7 +8404,7 @@
         <v>339</v>
       </c>
       <c r="D257" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -8297,7 +8418,7 @@
         <v>339</v>
       </c>
       <c r="D258" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -8311,7 +8432,7 @@
         <v>361</v>
       </c>
       <c r="D259" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -8325,7 +8446,7 @@
         <v>361</v>
       </c>
       <c r="D260" s="2">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
@@ -8353,7 +8474,7 @@
         <v>361</v>
       </c>
       <c r="D262" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
@@ -8493,7 +8614,7 @@
         <v>374</v>
       </c>
       <c r="D272" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
@@ -8591,7 +8712,7 @@
         <v>112</v>
       </c>
       <c r="D279" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
@@ -8619,7 +8740,7 @@
         <v>112</v>
       </c>
       <c r="D281" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
@@ -8661,7 +8782,7 @@
         <v>300</v>
       </c>
       <c r="D284" s="2">
-        <v>-5</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
@@ -8703,7 +8824,7 @@
         <v>300</v>
       </c>
       <c r="D287" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
@@ -8731,7 +8852,7 @@
         <v>300</v>
       </c>
       <c r="D289" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
@@ -8745,7 +8866,7 @@
         <v>300</v>
       </c>
       <c r="D290" s="2">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
@@ -8759,7 +8880,7 @@
         <v>300</v>
       </c>
       <c r="D291" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
@@ -8843,7 +8964,7 @@
         <v>402</v>
       </c>
       <c r="D297" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
@@ -8871,7 +8992,7 @@
         <v>402</v>
       </c>
       <c r="D299" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
@@ -9081,7 +9202,7 @@
         <v>430</v>
       </c>
       <c r="D314" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
@@ -9095,7 +9216,7 @@
         <v>430</v>
       </c>
       <c r="D315" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
@@ -9123,7 +9244,7 @@
         <v>430</v>
       </c>
       <c r="D317" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
@@ -9207,7 +9328,7 @@
         <v>300</v>
       </c>
       <c r="D323" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
@@ -9221,7 +9342,7 @@
         <v>300</v>
       </c>
       <c r="D324" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
@@ -9263,7 +9384,7 @@
         <v>300</v>
       </c>
       <c r="D327" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
@@ -9277,7 +9398,7 @@
         <v>300</v>
       </c>
       <c r="D328" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
@@ -9305,7 +9426,7 @@
         <v>300</v>
       </c>
       <c r="D330" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
@@ -9333,7 +9454,7 @@
         <v>300</v>
       </c>
       <c r="D332" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
@@ -9347,7 +9468,7 @@
         <v>300</v>
       </c>
       <c r="D333" s="2">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
@@ -9375,7 +9496,7 @@
         <v>300</v>
       </c>
       <c r="D335" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
@@ -9403,7 +9524,7 @@
         <v>300</v>
       </c>
       <c r="D337" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
@@ -9487,7 +9608,7 @@
         <v>300</v>
       </c>
       <c r="D343" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
@@ -9543,7 +9664,7 @@
         <v>465</v>
       </c>
       <c r="D347" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
@@ -9613,7 +9734,7 @@
         <v>465</v>
       </c>
       <c r="D352" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
@@ -9669,7 +9790,7 @@
         <v>465</v>
       </c>
       <c r="D356" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
@@ -9711,7 +9832,7 @@
         <v>465</v>
       </c>
       <c r="D359" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
@@ -9725,7 +9846,7 @@
         <v>465</v>
       </c>
       <c r="D360" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
@@ -9823,7 +9944,7 @@
         <v>490</v>
       </c>
       <c r="D367" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
@@ -9865,7 +9986,7 @@
         <v>374</v>
       </c>
       <c r="D370" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
@@ -9893,7 +10014,7 @@
         <v>502</v>
       </c>
       <c r="D372" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
@@ -9977,7 +10098,7 @@
         <v>512</v>
       </c>
       <c r="D378" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
@@ -10061,7 +10182,7 @@
         <v>524</v>
       </c>
       <c r="D384" s="2">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
@@ -10173,7 +10294,7 @@
         <v>540</v>
       </c>
       <c r="D392" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
@@ -10201,7 +10322,7 @@
         <v>171</v>
       </c>
       <c r="D394" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
@@ -10243,7 +10364,7 @@
         <v>171</v>
       </c>
       <c r="D397" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
@@ -10285,7 +10406,7 @@
         <v>171</v>
       </c>
       <c r="D400" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
@@ -10299,7 +10420,7 @@
         <v>171</v>
       </c>
       <c r="D401" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
@@ -10327,7 +10448,7 @@
         <v>556</v>
       </c>
       <c r="D403" s="2">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
@@ -10341,7 +10462,7 @@
         <v>556</v>
       </c>
       <c r="D404" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
@@ -10411,7 +10532,7 @@
         <v>568</v>
       </c>
       <c r="D409" s="2">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
@@ -10425,7 +10546,7 @@
         <v>573</v>
       </c>
       <c r="D410" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
@@ -10481,7 +10602,7 @@
         <v>578</v>
       </c>
       <c r="D414" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
@@ -10495,7 +10616,7 @@
         <v>578</v>
       </c>
       <c r="D415" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
@@ -10523,7 +10644,7 @@
         <v>578</v>
       </c>
       <c r="D417" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
@@ -10803,7 +10924,7 @@
         <v>300</v>
       </c>
       <c r="D437" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
@@ -10817,7 +10938,7 @@
         <v>300</v>
       </c>
       <c r="D438" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
@@ -10831,7 +10952,7 @@
         <v>300</v>
       </c>
       <c r="D439" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
@@ -10845,7 +10966,7 @@
         <v>300</v>
       </c>
       <c r="D440" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
@@ -10887,7 +11008,7 @@
         <v>300</v>
       </c>
       <c r="D443" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
@@ -10971,7 +11092,7 @@
         <v>300</v>
       </c>
       <c r="D449" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
@@ -11013,7 +11134,7 @@
         <v>300</v>
       </c>
       <c r="D452" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
@@ -11069,7 +11190,7 @@
         <v>631</v>
       </c>
       <c r="D456" s="2">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
@@ -11111,7 +11232,7 @@
         <v>635</v>
       </c>
       <c r="D459" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
@@ -11223,7 +11344,7 @@
         <v>86</v>
       </c>
       <c r="D467" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
@@ -11237,7 +11358,7 @@
         <v>86</v>
       </c>
       <c r="D468" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
@@ -11335,7 +11456,7 @@
         <v>58</v>
       </c>
       <c r="D475" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
@@ -11391,7 +11512,7 @@
         <v>58</v>
       </c>
       <c r="D479" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.3">
@@ -11405,7 +11526,7 @@
         <v>58</v>
       </c>
       <c r="D480" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
@@ -11461,7 +11582,7 @@
         <v>6</v>
       </c>
       <c r="D484" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.3">
@@ -11489,7 +11610,7 @@
         <v>686</v>
       </c>
       <c r="D486" s="2">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
@@ -11517,7 +11638,7 @@
         <v>691</v>
       </c>
       <c r="D488" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.3">
@@ -11559,7 +11680,7 @@
         <v>171</v>
       </c>
       <c r="D491" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.3">
@@ -11573,7 +11694,7 @@
         <v>171</v>
       </c>
       <c r="D492" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.3">
@@ -11629,7 +11750,7 @@
         <v>706</v>
       </c>
       <c r="D496" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.3">
@@ -11755,7 +11876,7 @@
         <v>723</v>
       </c>
       <c r="D505" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.3">
@@ -11853,7 +11974,7 @@
         <v>729</v>
       </c>
       <c r="D512" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.3">
@@ -11895,7 +12016,7 @@
         <v>729</v>
       </c>
       <c r="D515" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.3">
@@ -11909,7 +12030,7 @@
         <v>729</v>
       </c>
       <c r="D516" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.3">
@@ -12007,7 +12128,7 @@
         <v>739</v>
       </c>
       <c r="D523" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.3">
@@ -12021,7 +12142,7 @@
         <v>739</v>
       </c>
       <c r="D524" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.3">
@@ -12049,7 +12170,7 @@
         <v>743</v>
       </c>
       <c r="D526" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.3">
@@ -12063,7 +12184,7 @@
         <v>723</v>
       </c>
       <c r="D527" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.3">
@@ -12105,7 +12226,7 @@
         <v>749</v>
       </c>
       <c r="D530" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.3">
@@ -12119,7 +12240,7 @@
         <v>749</v>
       </c>
       <c r="D531" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.3">
@@ -12133,7 +12254,7 @@
         <v>729</v>
       </c>
       <c r="D532" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.3">
@@ -12245,7 +12366,7 @@
         <v>739</v>
       </c>
       <c r="D540" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.3">
@@ -12287,7 +12408,7 @@
         <v>770</v>
       </c>
       <c r="D543" s="2">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.3">
@@ -12399,7 +12520,7 @@
         <v>782</v>
       </c>
       <c r="D551" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.3">
@@ -12441,7 +12562,7 @@
         <v>782</v>
       </c>
       <c r="D554" s="2">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.3">
@@ -12455,7 +12576,7 @@
         <v>788</v>
       </c>
       <c r="D555" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.3">
@@ -12553,7 +12674,7 @@
         <v>799</v>
       </c>
       <c r="D562" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.3">
@@ -12567,7 +12688,7 @@
         <v>729</v>
       </c>
       <c r="D563" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.3">
@@ -12609,7 +12730,7 @@
         <v>729</v>
       </c>
       <c r="D566" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.3">
@@ -12623,7 +12744,7 @@
         <v>729</v>
       </c>
       <c r="D567" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.3">
@@ -12721,7 +12842,7 @@
         <v>809</v>
       </c>
       <c r="D574" s="2">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.3">
@@ -12763,7 +12884,7 @@
         <v>809</v>
       </c>
       <c r="D577" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.3">
@@ -12777,7 +12898,7 @@
         <v>819</v>
       </c>
       <c r="D578" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.3">
@@ -12791,7 +12912,7 @@
         <v>819</v>
       </c>
       <c r="D579" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.3">
@@ -12805,7 +12926,7 @@
         <v>819</v>
       </c>
       <c r="D580" s="2">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.3">
@@ -12861,7 +12982,7 @@
         <v>819</v>
       </c>
       <c r="D584" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.3">
@@ -12959,7 +13080,7 @@
         <v>837</v>
       </c>
       <c r="D591" s="2">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.3">
@@ -12987,7 +13108,7 @@
         <v>809</v>
       </c>
       <c r="D593" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.3">
@@ -13085,7 +13206,7 @@
         <v>847</v>
       </c>
       <c r="D600" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.3">
@@ -13127,7 +13248,7 @@
         <v>851</v>
       </c>
       <c r="D603" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.3">
@@ -13155,7 +13276,7 @@
         <v>856</v>
       </c>
       <c r="D605" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.3">
@@ -13309,7 +13430,7 @@
         <v>868</v>
       </c>
       <c r="D616" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.3">
@@ -13323,7 +13444,7 @@
         <v>868</v>
       </c>
       <c r="D617" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.3">
@@ -13443,10 +13564,10 @@
         <v>871</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
       <c r="C626" s="2" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="D626" s="2">
         <v>-1</v>
@@ -13454,13 +13575,13 @@
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A627" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="B627" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="C627" s="2" t="s">
         <v>881</v>
-      </c>
-      <c r="B627" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="C627" s="2" t="s">
-        <v>880</v>
       </c>
       <c r="D627" s="2">
         <v>-1</v>
@@ -13468,13 +13589,13 @@
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A628" s="2" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C628" s="2" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D628" s="2">
         <v>-1</v>
@@ -13482,27 +13603,27 @@
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A629" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="B629" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="C629" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="B629" s="2" t="s">
-        <v>887</v>
-      </c>
-      <c r="C629" s="2" t="s">
-        <v>885</v>
-      </c>
       <c r="D629" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A630" s="2" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B630" s="2" t="s">
         <v>710</v>
       </c>
       <c r="C630" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D630" s="2">
         <v>-1</v>
@@ -13510,13 +13631,13 @@
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A631" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="B631" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="C631" s="2" t="s">
         <v>890</v>
-      </c>
-      <c r="B631" s="2" t="s">
-        <v>891</v>
-      </c>
-      <c r="C631" s="2" t="s">
-        <v>889</v>
       </c>
       <c r="D631" s="2">
         <v>-3</v>
@@ -13524,13 +13645,13 @@
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A632" s="2" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C632" s="2" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="D632" s="2">
         <v>-1</v>
@@ -13538,55 +13659,55 @@
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A633" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B633" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="C633" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="B633" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="C633" s="2" t="s">
-        <v>894</v>
-      </c>
       <c r="D633" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A634" s="2" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C634" s="2" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D634" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A635" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="B635" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="C635" s="2" t="s">
         <v>900</v>
       </c>
-      <c r="B635" s="2" t="s">
-        <v>898</v>
-      </c>
-      <c r="C635" s="2" t="s">
-        <v>899</v>
-      </c>
       <c r="D635" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A636" s="2" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C636" s="2" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D636" s="2">
         <v>-2</v>
@@ -13594,13 +13715,13 @@
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A637" s="2" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C637" s="2" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D637" s="2">
         <v>-1</v>
@@ -13608,7 +13729,7 @@
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A638" s="2" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B638" s="2" t="s">
         <v>722</v>
@@ -13622,7 +13743,7 @@
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A639" s="2" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B639" s="2" t="s">
         <v>722</v>
@@ -13636,7 +13757,7 @@
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A640" s="2" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B640" s="2" t="s">
         <v>195</v>
@@ -13650,7 +13771,7 @@
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A641" s="2" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B641" s="2" t="s">
         <v>722</v>
@@ -13664,27 +13785,27 @@
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A642" s="2" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C642" s="2" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D642" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A643" s="2" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B643" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="C643" s="2" t="s">
         <v>910</v>
-      </c>
-      <c r="C643" s="2" t="s">
-        <v>909</v>
       </c>
       <c r="D643" s="2">
         <v>-2</v>
@@ -13692,13 +13813,13 @@
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A644" s="2" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B644" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="C644" s="2" t="s">
         <v>910</v>
-      </c>
-      <c r="C644" s="2" t="s">
-        <v>909</v>
       </c>
       <c r="D644" s="2">
         <v>-4</v>
@@ -13706,13 +13827,13 @@
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A645" s="2" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C645" s="2" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D645" s="2">
         <v>-2</v>
@@ -13720,13 +13841,13 @@
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A646" s="2" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C646" s="2" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D646" s="2">
         <v>-1</v>
@@ -13734,13 +13855,13 @@
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A647" s="2" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C647" s="2" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D647" s="2">
         <v>-2</v>
@@ -13748,13 +13869,13 @@
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A648" s="2" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B648" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="C648" s="2" t="s">
         <v>913</v>
-      </c>
-      <c r="C648" s="2" t="s">
-        <v>912</v>
       </c>
       <c r="D648" s="2">
         <v>-2</v>
@@ -13762,27 +13883,27 @@
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A649" s="2" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C649" s="2" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D649" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A650" s="2" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C650" s="2" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="D650" s="2">
         <v>-2</v>
@@ -13790,13 +13911,13 @@
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A651" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="B651" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="C651" s="2" t="s">
         <v>918</v>
-      </c>
-      <c r="B651" s="2" t="s">
-        <v>919</v>
-      </c>
-      <c r="C651" s="2" t="s">
-        <v>917</v>
       </c>
       <c r="D651" s="2">
         <v>-1</v>
@@ -13804,27 +13925,27 @@
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A652" s="2" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C652" s="2" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D652" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A653" s="2" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B653" s="2" t="s">
         <v>567</v>
       </c>
       <c r="C653" s="2" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D653" s="2">
         <v>-1</v>
@@ -13832,13 +13953,13 @@
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A654" s="2" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B654" s="2" t="s">
         <v>567</v>
       </c>
       <c r="C654" s="2" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D654" s="2">
         <v>-2</v>
@@ -13846,27 +13967,27 @@
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A655" s="2" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B655" s="2" t="s">
         <v>575</v>
       </c>
       <c r="C655" s="2" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D655" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A656" s="2" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B656" s="2" t="s">
         <v>575</v>
       </c>
       <c r="C656" s="2" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D656" s="2">
         <v>-1</v>
@@ -13874,27 +13995,27 @@
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A657" s="2" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B657" s="2" t="s">
         <v>570</v>
       </c>
       <c r="C657" s="2" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D657" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A658" s="2" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B658" s="2" t="s">
         <v>570</v>
       </c>
       <c r="C658" s="2" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D658" s="2">
         <v>-1</v>
@@ -13902,13 +14023,13 @@
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A659" s="2" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B659" s="2" t="s">
         <v>572</v>
       </c>
       <c r="C659" s="2" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D659" s="2">
         <v>-2</v>
@@ -13916,13 +14037,13 @@
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A660" s="2" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B660" s="2" t="s">
         <v>572</v>
       </c>
       <c r="C660" s="2" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D660" s="2">
         <v>-1</v>
@@ -13930,13 +14051,13 @@
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A661" s="2" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C661" s="2" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D661" s="2">
         <v>-3</v>
@@ -13944,13 +14065,13 @@
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A662" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="B662" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="C662" s="2" t="s">
         <v>931</v>
-      </c>
-      <c r="B662" s="2" t="s">
-        <v>924</v>
-      </c>
-      <c r="C662" s="2" t="s">
-        <v>930</v>
       </c>
       <c r="D662" s="2">
         <v>-1</v>
@@ -13958,13 +14079,13 @@
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A663" s="2" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C663" s="2" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D663" s="2">
         <v>-1</v>
@@ -13972,13 +14093,13 @@
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A664" s="2" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C664" s="2" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D664" s="2">
         <v>-1</v>
@@ -13986,27 +14107,27 @@
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A665" s="2" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C665" s="2" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D665" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A666" s="2" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C666" s="2" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D666" s="2">
         <v>-1</v>
@@ -14014,27 +14135,27 @@
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A667" s="2" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C667" s="2" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D667" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A668" s="2" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C668" s="2" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D668" s="2">
         <v>-1</v>
@@ -14042,7 +14163,7 @@
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A669" s="2" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B669" s="2" t="s">
         <v>722</v>
@@ -14051,12 +14172,12 @@
         <v>847</v>
       </c>
       <c r="D669" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A670" s="2" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B670" s="2" t="s">
         <v>722</v>
@@ -14065,12 +14186,12 @@
         <v>847</v>
       </c>
       <c r="D670" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A671" s="2" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B671" s="2" t="s">
         <v>722</v>
@@ -14079,12 +14200,12 @@
         <v>847</v>
       </c>
       <c r="D671" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A672" s="2" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B672" s="2" t="s">
         <v>722</v>
@@ -14093,12 +14214,12 @@
         <v>847</v>
       </c>
       <c r="D672" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A673" s="2" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B673" s="2" t="s">
         <v>195</v>
@@ -14112,10 +14233,10 @@
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A674" s="2" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C674" s="2" t="s">
         <v>837</v>
@@ -14126,10 +14247,10 @@
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A675" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="B675" s="2" t="s">
         <v>941</v>
-      </c>
-      <c r="B675" s="2" t="s">
-        <v>940</v>
       </c>
       <c r="C675" s="2" t="s">
         <v>837</v>
@@ -14140,10 +14261,10 @@
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A676" s="2" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C676" s="2" t="s">
         <v>837</v>
@@ -14154,10 +14275,10 @@
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A677" s="2" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C677" s="2" t="s">
         <v>837</v>
@@ -14168,10 +14289,10 @@
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A678" s="2" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C678" s="2" t="s">
         <v>837</v>
@@ -14182,10 +14303,10 @@
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A679" s="2" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C679" s="2" t="s">
         <v>837</v>
@@ -14196,7 +14317,7 @@
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A680" s="2" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B680" s="2" t="s">
         <v>195</v>
@@ -14205,12 +14326,12 @@
         <v>847</v>
       </c>
       <c r="D680" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A681" s="2" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B681" s="2" t="s">
         <v>195</v>
@@ -14219,12 +14340,12 @@
         <v>847</v>
       </c>
       <c r="D681" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A682" s="2" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B682" s="2" t="s">
         <v>722</v>
@@ -14238,7 +14359,7 @@
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A683" s="2" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B683" s="2" t="s">
         <v>722</v>
@@ -14252,7 +14373,7 @@
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A684" s="2" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B684" s="2" t="s">
         <v>722</v>
@@ -14266,7 +14387,7 @@
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A685" s="2" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B685" s="2" t="s">
         <v>722</v>
@@ -14280,10 +14401,10 @@
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A686" s="2" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="C686" s="2" t="s">
         <v>729</v>
@@ -14294,10 +14415,10 @@
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A687" s="2" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C687" s="2" t="s">
         <v>729</v>
@@ -14308,13 +14429,13 @@
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A688" s="2" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C688" s="2" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="D688" s="2">
         <v>-2</v>
@@ -14322,13 +14443,13 @@
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A689" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="B689" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="C689" s="2" t="s">
         <v>959</v>
-      </c>
-      <c r="B689" s="2" t="s">
-        <v>960</v>
-      </c>
-      <c r="C689" s="2" t="s">
-        <v>958</v>
       </c>
       <c r="D689" s="2">
         <v>-2</v>
@@ -14336,13 +14457,13 @@
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A690" s="2" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C690" s="2" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D690" s="2">
         <v>-1</v>
@@ -14350,13 +14471,13 @@
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A691" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="B691" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="C691" s="2" t="s">
         <v>964</v>
-      </c>
-      <c r="B691" s="2" t="s">
-        <v>965</v>
-      </c>
-      <c r="C691" s="2" t="s">
-        <v>963</v>
       </c>
       <c r="D691" s="2">
         <v>-3</v>
@@ -14364,27 +14485,27 @@
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A692" s="2" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C692" s="2" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D692" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A693" s="2" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C693" s="2" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D693" s="2">
         <v>-1</v>
@@ -14392,13 +14513,13 @@
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A694" s="2" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B694" s="2" t="s">
         <v>710</v>
       </c>
       <c r="C694" s="2" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="D694" s="2">
         <v>-1</v>
@@ -14406,24 +14527,24 @@
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A695" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="B695" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="C695" s="2" t="s">
         <v>970</v>
       </c>
-      <c r="B695" s="2" t="s">
-        <v>971</v>
-      </c>
-      <c r="C695" s="2" t="s">
-        <v>969</v>
-      </c>
       <c r="D695" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A696" s="2" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C696" s="2" t="s">
         <v>837</v>
@@ -14434,13 +14555,13 @@
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A697" s="2" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C697" s="2" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="D697" s="2">
         <v>-3</v>
@@ -14448,13 +14569,13 @@
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A698" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="B698" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="C698" s="2" t="s">
         <v>977</v>
-      </c>
-      <c r="B698" s="2" t="s">
-        <v>978</v>
-      </c>
-      <c r="C698" s="2" t="s">
-        <v>976</v>
       </c>
       <c r="D698" s="2">
         <v>-1</v>
@@ -14462,13 +14583,13 @@
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A699" s="2" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C699" s="2" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="D699" s="2">
         <v>-1</v>
@@ -14476,27 +14597,27 @@
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A700" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="B700" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="C700" s="2" t="s">
         <v>982</v>
       </c>
-      <c r="B700" s="2" t="s">
-        <v>983</v>
-      </c>
-      <c r="C700" s="2" t="s">
-        <v>981</v>
-      </c>
       <c r="D700" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A701" s="2" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B701" s="2" t="s">
         <v>710</v>
       </c>
       <c r="C701" s="2" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D701" s="2">
         <v>-1</v>
@@ -14504,13 +14625,13 @@
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A702" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="B702" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="C702" s="2" t="s">
         <v>986</v>
-      </c>
-      <c r="B702" s="2" t="s">
-        <v>987</v>
-      </c>
-      <c r="C702" s="2" t="s">
-        <v>985</v>
       </c>
       <c r="D702" s="2">
         <v>-1</v>
@@ -14518,13 +14639,13 @@
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A703" s="2" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C703" s="2" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="D703" s="2">
         <v>-3</v>
@@ -14532,13 +14653,13 @@
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A704" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="B704" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="C704" s="2" t="s">
         <v>991</v>
-      </c>
-      <c r="B704" s="2" t="s">
-        <v>992</v>
-      </c>
-      <c r="C704" s="2" t="s">
-        <v>990</v>
       </c>
       <c r="D704" s="2">
         <v>-1</v>
@@ -14546,41 +14667,41 @@
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A705" s="2" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C705" s="2" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="D705" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A706" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="B706" s="2" t="s">
         <v>995</v>
       </c>
-      <c r="B706" s="2" t="s">
-        <v>994</v>
-      </c>
       <c r="C706" s="2" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="D706" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A707" s="2" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="C707" s="2" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="D707" s="2">
         <v>-3</v>
@@ -14588,13 +14709,13 @@
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A708" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B708" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C708" s="2" t="s">
         <v>999</v>
-      </c>
-      <c r="B708" s="2" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C708" s="2" t="s">
-        <v>998</v>
       </c>
       <c r="D708" s="2">
         <v>-2</v>
@@ -14602,41 +14723,41 @@
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A709" s="2" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C709" s="2" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="D709" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A710" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B710" s="2" t="s">
         <v>1003</v>
       </c>
-      <c r="B710" s="2" t="s">
-        <v>1002</v>
-      </c>
       <c r="C710" s="2" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="D710" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A711" s="2" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C711" s="2" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="D711" s="2">
         <v>-2</v>
@@ -14644,13 +14765,13 @@
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A712" s="2" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B712" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C712" s="2" t="s">
         <v>1006</v>
-      </c>
-      <c r="C712" s="2" t="s">
-        <v>1005</v>
       </c>
       <c r="D712" s="2">
         <v>-1</v>
@@ -14658,27 +14779,27 @@
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A713" s="2" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C713" s="2" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D713" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A714" s="2" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B714" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C714" s="2" t="s">
         <v>1010</v>
-      </c>
-      <c r="C714" s="2" t="s">
-        <v>1009</v>
       </c>
       <c r="D714" s="2">
         <v>-1</v>
@@ -14686,27 +14807,27 @@
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A715" s="2" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C715" s="2" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D715" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A716" s="2" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B716" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C716" s="2" t="s">
         <v>1014</v>
-      </c>
-      <c r="C716" s="2" t="s">
-        <v>1013</v>
       </c>
       <c r="D716" s="2">
         <v>-1</v>
@@ -14714,13 +14835,13 @@
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A717" s="2" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C717" s="2" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D717" s="2">
         <v>-2</v>
@@ -14728,7 +14849,7 @@
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A718" s="2" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B718" s="2" t="s">
         <v>35</v>
@@ -14742,7 +14863,7 @@
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A719" s="2" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B719" s="2" t="s">
         <v>5</v>
@@ -14756,13 +14877,13 @@
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A720" s="2" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B720" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C720" s="2" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D720" s="2">
         <v>-3</v>
@@ -14770,16 +14891,16 @@
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A721" s="2" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B721" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C721" s="2" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D721" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.3">
@@ -14790,10 +14911,10 @@
         <v>92</v>
       </c>
       <c r="C722" s="2" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D722" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.3">
@@ -14804,7 +14925,7 @@
         <v>94</v>
       </c>
       <c r="C723" s="2" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D723" s="2">
         <v>-3</v>
@@ -14812,10 +14933,10 @@
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A724" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C724" s="2" t="s">
         <v>300</v>
@@ -14826,27 +14947,27 @@
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A725" s="2" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B725" s="2" t="s">
         <v>375</v>
       </c>
       <c r="C725" s="2" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D725" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A726" s="2" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B726" s="2" t="s">
         <v>373</v>
       </c>
       <c r="C726" s="2" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D726" s="2">
         <v>-1</v>
@@ -14854,27 +14975,27 @@
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A727" s="2" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C727" s="2" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D727" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A728" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B728" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C728" s="2" t="s">
         <v>1029</v>
-      </c>
-      <c r="B728" s="2" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C728" s="2" t="s">
-        <v>1028</v>
       </c>
       <c r="D728" s="2">
         <v>-2</v>
@@ -14882,13 +15003,13 @@
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A729" s="2" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C729" s="2" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D729" s="2">
         <v>-1</v>
@@ -14896,27 +15017,27 @@
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A730" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B730" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C730" s="2" t="s">
         <v>1034</v>
       </c>
-      <c r="B730" s="2" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C730" s="2" t="s">
-        <v>1033</v>
-      </c>
       <c r="D730" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A731" s="2" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="C731" s="2" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D731" s="2">
         <v>-2</v>
@@ -14924,13 +15045,13 @@
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A732" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B732" s="2" t="s">
         <v>1037</v>
       </c>
-      <c r="B732" s="2" t="s">
-        <v>1036</v>
-      </c>
       <c r="C732" s="2" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D732" s="2">
         <v>-1</v>
@@ -14938,27 +15059,27 @@
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A733" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B733" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C733" s="2" t="s">
         <v>1039</v>
       </c>
-      <c r="B733" s="2" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C733" s="2" t="s">
-        <v>1038</v>
-      </c>
       <c r="D733" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A734" s="2" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B734" s="2" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="C734" s="2" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D734" s="2">
         <v>-1</v>
@@ -14966,13 +15087,13 @@
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A735" s="2" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B735" s="2" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C735" s="2" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D735" s="2">
         <v>-1</v>
@@ -14980,13 +15101,13 @@
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A736" s="2" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B736" s="2" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="C736" s="2" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D736" s="2">
         <v>-1</v>
@@ -14994,13 +15115,13 @@
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A737" s="2" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="C737" s="2" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D737" s="2">
         <v>-2</v>
@@ -15008,13 +15129,13 @@
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A738" s="2" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="C738" s="2" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D738" s="2">
         <v>-1</v>
@@ -15022,13 +15143,13 @@
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A739" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B739" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C739" s="2" t="s">
         <v>1049</v>
-      </c>
-      <c r="B739" s="2" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C739" s="2" t="s">
-        <v>1048</v>
       </c>
       <c r="D739" s="2">
         <v>-1</v>
@@ -15036,13 +15157,13 @@
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A740" s="2" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C740" s="2" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D740" s="2">
         <v>-2</v>
@@ -15050,13 +15171,13 @@
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A741" s="2" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B741" s="2" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C741" s="2" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D741" s="2">
         <v>-1</v>
@@ -15064,13 +15185,13 @@
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A742" s="2" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C742" s="2" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D742" s="2">
         <v>-1</v>
@@ -15078,13 +15199,13 @@
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A743" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B743" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C743" s="2" t="s">
         <v>1058</v>
-      </c>
-      <c r="B743" s="2" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C743" s="2" t="s">
-        <v>1057</v>
       </c>
       <c r="D743" s="2">
         <v>-1</v>
@@ -15092,13 +15213,13 @@
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A744" s="2" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C744" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D744" s="2">
         <v>-2</v>
@@ -15106,27 +15227,27 @@
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A745" s="2" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B745" s="2" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C745" s="2" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="D745" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A746" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B746" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C746" s="2" t="s">
         <v>1066</v>
-      </c>
-      <c r="B746" s="2" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C746" s="2" t="s">
-        <v>1065</v>
       </c>
       <c r="D746" s="2">
         <v>-1</v>
@@ -15134,13 +15255,13 @@
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A747" s="2" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B747" s="2" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C747" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D747" s="2">
         <v>-1</v>
@@ -15148,13 +15269,13 @@
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A748" s="2" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C748" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D748" s="2">
         <v>-1</v>
@@ -15162,13 +15283,13 @@
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A749" s="2" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B749" s="2" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C749" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D749" s="2">
         <v>-1</v>
@@ -15176,13 +15297,13 @@
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A750" s="2" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C750" s="2" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D750" s="2">
         <v>-1</v>
@@ -15190,13 +15311,13 @@
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A751" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B751" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C751" s="2" t="s">
         <v>1077</v>
-      </c>
-      <c r="B751" s="2" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C751" s="2" t="s">
-        <v>1076</v>
       </c>
       <c r="D751" s="2">
         <v>-1</v>
@@ -15204,27 +15325,27 @@
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A752" s="2" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B752" s="2" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C752" s="2" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="D752" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A753" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B753" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C753" s="2" t="s">
         <v>1082</v>
-      </c>
-      <c r="B753" s="2" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C753" s="2" t="s">
-        <v>1081</v>
       </c>
       <c r="D753" s="2">
         <v>-1</v>
@@ -15232,27 +15353,27 @@
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A754" s="2" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B754" s="2" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C754" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D754" s="2">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A755" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B755" s="2" t="s">
         <v>1086</v>
       </c>
-      <c r="B755" s="2" t="s">
-        <v>1085</v>
-      </c>
       <c r="C755" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D755" s="2">
         <v>-1</v>
@@ -15260,13 +15381,13 @@
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A756" s="2" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B756" s="2" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="C756" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D756" s="2">
         <v>-1</v>
@@ -15274,13 +15395,13 @@
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A757" s="2" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B757" s="2" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="C757" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D757" s="2">
         <v>-1</v>
@@ -15288,10 +15409,10 @@
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A758" s="2" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B758" s="2" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C758" s="2" t="s">
         <v>58</v>
@@ -15302,24 +15423,24 @@
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A759" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B759" s="2" t="s">
         <v>1093</v>
-      </c>
-      <c r="B759" s="2" t="s">
-        <v>1092</v>
       </c>
       <c r="C759" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D759" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A760" s="2" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B760" s="2" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C760" s="2" t="s">
         <v>58</v>
@@ -15330,10 +15451,10 @@
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A761" s="2" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C761" s="2" t="s">
         <v>58</v>
@@ -15344,13 +15465,13 @@
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A762" s="2" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C762" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D762" s="2">
         <v>-1</v>
@@ -15358,41 +15479,41 @@
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A763" s="2" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C763" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D763" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A764" s="2" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C764" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D764" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A765" s="2" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B765" s="2" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C765" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D765" s="2">
         <v>-1</v>
@@ -15400,38 +15521,38 @@
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A766" s="2" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="C766" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D766" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A767" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B767" s="2" t="s">
         <v>1102</v>
-      </c>
-      <c r="B767" s="2" t="s">
-        <v>1101</v>
       </c>
       <c r="C767" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D767" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A768" s="2" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B768" s="2" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="C768" s="2" t="s">
         <v>58</v>
@@ -15442,80 +15563,80 @@
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A769" s="2" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B769" s="2" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="C769" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D769" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="770" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A770" s="2" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B770" s="2" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C770" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D770" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A771" s="2" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B771" s="2" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C771" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D771" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A772" s="2" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B772" s="2" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C772" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D772" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A773" s="2" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B773" s="2" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C773" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D773" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A774" s="2" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B774" s="2" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C774" s="2" t="s">
         <v>58</v>
@@ -15526,10 +15647,10 @@
     </row>
     <row r="775" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A775" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B775" s="2" t="s">
         <v>1112</v>
-      </c>
-      <c r="B775" s="2" t="s">
-        <v>1111</v>
       </c>
       <c r="C775" s="2" t="s">
         <v>58</v>
@@ -15540,13 +15661,13 @@
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A776" s="2" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B776" s="2" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C776" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D776" s="2">
         <v>-1</v>
@@ -15554,13 +15675,13 @@
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A777" s="2" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B777" s="2" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C777" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D777" s="2">
         <v>-1</v>
@@ -15568,10 +15689,10 @@
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A778" s="2" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="C778" s="2" t="s">
         <v>58</v>
@@ -15582,52 +15703,52 @@
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A779" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B779" s="2" t="s">
         <v>1117</v>
-      </c>
-      <c r="B779" s="2" t="s">
-        <v>1116</v>
       </c>
       <c r="C779" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D779" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A780" s="2" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B780" s="2" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="C780" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D780" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A781" s="2" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="C781" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D781" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="782" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A782" s="2" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B782" s="2" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C782" s="2" t="s">
         <v>58</v>
@@ -15638,10 +15759,10 @@
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A783" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B783" s="2" t="s">
         <v>1123</v>
-      </c>
-      <c r="B783" s="2" t="s">
-        <v>1122</v>
       </c>
       <c r="C783" s="2" t="s">
         <v>58</v>
@@ -15652,10 +15773,10 @@
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A784" s="2" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C784" s="2" t="s">
         <v>58</v>
@@ -15666,13 +15787,13 @@
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A785" s="2" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B785" s="2" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="C785" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D785" s="2">
         <v>-1</v>
@@ -15680,10 +15801,10 @@
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A786" s="2" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B786" s="2" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="C786" s="2" t="s">
         <v>58</v>
@@ -15694,10 +15815,10 @@
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A787" s="2" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="C787" s="2" t="s">
         <v>58</v>
@@ -15708,21 +15829,21 @@
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A788" s="2" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B788" s="2" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C788" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D788" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A789" s="2" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B789" s="2" t="s">
         <v>654</v>
@@ -15736,38 +15857,38 @@
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A790" s="2" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="B790" s="2" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="C790" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D790" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A791" s="2" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B791" s="2" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C791" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D791" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A792" s="2" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="B792" s="2" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C792" s="2" t="s">
         <v>58</v>
@@ -15778,13 +15899,13 @@
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A793" s="2" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B793" s="2" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="C793" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D793" s="2">
         <v>-1</v>
@@ -15792,13 +15913,13 @@
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A794" s="2" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B794" s="2" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="C794" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D794" s="2">
         <v>-2</v>
@@ -15806,13 +15927,13 @@
     </row>
     <row r="795" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A795" s="2" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B795" s="2" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="C795" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D795" s="2">
         <v>-1</v>
@@ -15820,13 +15941,13 @@
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A796" s="2" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B796" s="2" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="C796" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D796" s="2">
         <v>-1</v>
@@ -15834,27 +15955,27 @@
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A797" s="2" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B797" s="2" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="C797" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D797" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A798" s="2" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B798" s="2" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="C798" s="2" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D798" s="2">
         <v>-1</v>
@@ -15862,41 +15983,41 @@
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A799" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B799" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C799" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="B799" s="2" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C799" s="2" t="s">
-        <v>1150</v>
-      </c>
       <c r="D799" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A800" s="2" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="B800" s="2" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="C800" s="2" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D800" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A801" s="2" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B801" s="2" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="C801" s="2" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="D801" s="2">
         <v>-1</v>
@@ -15904,13 +16025,13 @@
     </row>
     <row r="802" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A802" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B802" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C802" s="2" t="s">
         <v>1158</v>
-      </c>
-      <c r="B802" s="2" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C802" s="2" t="s">
-        <v>1157</v>
       </c>
       <c r="D802" s="2">
         <v>-1</v>
@@ -15918,13 +16039,13 @@
     </row>
     <row r="803" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A803" s="2" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B803" s="2" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="C803" s="2" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="D803" s="2">
         <v>-1</v>
@@ -15932,41 +16053,41 @@
     </row>
     <row r="804" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A804" s="2" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="B804" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C804" s="2" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="D804" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="805" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A805" s="2" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B805" s="2" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="C805" s="2" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="D805" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="806" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A806" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B806" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C806" s="2" t="s">
         <v>1167</v>
-      </c>
-      <c r="B806" s="2" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C806" s="2" t="s">
-        <v>1166</v>
       </c>
       <c r="D806" s="2">
         <v>-1</v>
@@ -15974,13 +16095,13 @@
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A807" s="2" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="B807" s="2" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="C807" s="2" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="D807" s="2">
         <v>-2</v>
@@ -15988,27 +16109,27 @@
     </row>
     <row r="808" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A808" s="2" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B808" s="2" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="C808" s="2" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="D808" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A809" s="2" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B809" s="2" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="C809" s="2" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="D809" s="2">
         <v>-2</v>
@@ -16016,41 +16137,41 @@
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A810" s="2" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="B810" s="2" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="C810" s="2" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="D810" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A811" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B811" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C811" s="2" t="s">
         <v>1178</v>
       </c>
-      <c r="B811" s="2" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C811" s="2" t="s">
-        <v>1177</v>
-      </c>
       <c r="D811" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A812" s="2" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B812" s="2" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C812" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D812" s="2">
         <v>-1</v>
@@ -16058,27 +16179,27 @@
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A813" s="2" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B813" s="2" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="C813" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D813" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A814" s="2" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B814" s="2" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="C814" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D814" s="2">
         <v>-1</v>
@@ -16086,13 +16207,13 @@
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A815" s="2" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="B815" s="2" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="C815" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D815" s="2">
         <v>-1</v>
@@ -16100,27 +16221,27 @@
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A816" s="2" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B816" s="2" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="C816" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D816" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="817" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A817" s="2" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B817" s="2" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="C817" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D817" s="2">
         <v>-2</v>
@@ -16128,13 +16249,13 @@
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A818" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B818" s="2" t="s">
         <v>1192</v>
       </c>
-      <c r="B818" s="2" t="s">
-        <v>1191</v>
-      </c>
       <c r="C818" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D818" s="2">
         <v>-1</v>
@@ -16145,13 +16266,13 @@
         <v>82</v>
       </c>
       <c r="B819" s="2" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="C819" s="2" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D819" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.3">
@@ -16162,7 +16283,7 @@
         <v>74</v>
       </c>
       <c r="C820" s="2" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D820" s="2">
         <v>-1</v>
@@ -16170,27 +16291,27 @@
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A821" s="2" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B821" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C821" s="2" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D821" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="822" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A822" s="2" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B822" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C822" s="2" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D822" s="2">
         <v>-1</v>
@@ -16204,7 +16325,7 @@
         <v>74</v>
       </c>
       <c r="C823" s="2" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D823" s="2">
         <v>-1</v>
@@ -16218,7 +16339,7 @@
         <v>74</v>
       </c>
       <c r="C824" s="2" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D824" s="2">
         <v>-2</v>
@@ -16226,13 +16347,13 @@
     </row>
     <row r="825" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A825" s="2" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B825" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C825" s="2" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D825" s="2">
         <v>-2</v>
@@ -16240,27 +16361,27 @@
     </row>
     <row r="826" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A826" s="2" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B826" s="2" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="C826" s="2" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D826" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A827" s="2" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B827" s="2" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="C827" s="2" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D827" s="2">
         <v>-1</v>
@@ -16268,13 +16389,13 @@
     </row>
     <row r="828" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A828" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B828" s="2" t="s">
         <v>1202</v>
       </c>
-      <c r="B828" s="2" t="s">
-        <v>1201</v>
-      </c>
       <c r="C828" s="2" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D828" s="2">
         <v>-2</v>
@@ -16282,27 +16403,27 @@
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A829" s="2" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B829" s="2" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="C829" s="2" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D829" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A830" s="2" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B830" s="2" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="C830" s="2" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D830" s="2">
         <v>-1</v>
@@ -16310,13 +16431,13 @@
     </row>
     <row r="831" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A831" s="2" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="B831" s="2" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="C831" s="2" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D831" s="2">
         <v>-1</v>
@@ -16324,13 +16445,13 @@
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A832" s="2" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B832" s="2" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="C832" s="2" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D832" s="2">
         <v>-1</v>
@@ -16338,13 +16459,13 @@
     </row>
     <row r="833" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A833" s="2" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="B833" s="2" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="C833" s="2" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D833" s="2">
         <v>-2</v>
@@ -16352,69 +16473,69 @@
     </row>
     <row r="834" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A834" s="2" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="B834" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C834" s="2" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D834" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="835" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A835" s="2" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B835" s="2" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="C835" s="2" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D835" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="836" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A836" s="2" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B836" s="2" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="C836" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D836" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="837" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A837" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B837" s="2" t="s">
         <v>1216</v>
       </c>
-      <c r="B837" s="2" t="s">
-        <v>1215</v>
-      </c>
       <c r="C837" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D837" s="2">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="838" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A838" s="2" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B838" s="2" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="C838" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D838" s="2">
         <v>-1</v>
@@ -16422,27 +16543,27 @@
     </row>
     <row r="839" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A839" s="2" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B839" s="2" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="C839" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D839" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="840" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A840" s="2" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="B840" s="2" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="C840" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D840" s="2">
         <v>-1</v>
@@ -16450,27 +16571,27 @@
     </row>
     <row r="841" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A841" s="2" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B841" s="2" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="C841" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D841" s="2">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="842" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A842" s="2" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B842" s="2" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="C842" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D842" s="2">
         <v>-1</v>
@@ -16478,13 +16599,13 @@
     </row>
     <row r="843" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A843" s="2" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B843" s="2" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="C843" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D843" s="2">
         <v>-1</v>
@@ -16492,13 +16613,13 @@
     </row>
     <row r="844" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A844" s="2" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B844" s="2" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="C844" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D844" s="2">
         <v>-1</v>
@@ -16506,13 +16627,13 @@
     </row>
     <row r="845" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A845" s="2" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B845" s="2" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="C845" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D845" s="2">
         <v>-1</v>
@@ -16520,13 +16641,13 @@
     </row>
     <row r="846" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A846" s="2" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B846" s="2" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="C846" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D846" s="2">
         <v>-1</v>
@@ -16534,27 +16655,27 @@
     </row>
     <row r="847" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A847" s="2" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B847" s="2" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="C847" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D847" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="848" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A848" s="2" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B848" s="2" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="C848" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D848" s="2">
         <v>-1</v>
@@ -16562,13 +16683,13 @@
     </row>
     <row r="849" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A849" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B849" s="2" t="s">
         <v>1231</v>
       </c>
-      <c r="B849" s="2" t="s">
-        <v>1230</v>
-      </c>
       <c r="C849" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D849" s="2">
         <v>-1</v>
@@ -16576,13 +16697,13 @@
     </row>
     <row r="850" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A850" s="2" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="B850" s="2" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="C850" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D850" s="2">
         <v>-1</v>
@@ -16590,60 +16711,72 @@
     </row>
     <row r="851" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A851" s="2" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="B851" s="2" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="C851" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D851" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="852" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A852" s="2" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="B852" s="2" t="s">
         <v>1236</v>
       </c>
       <c r="C852" s="2" t="s">
-        <v>1242</v>
+        <v>1063</v>
+      </c>
+      <c r="D852" s="2">
+        <v>-1</v>
       </c>
     </row>
     <row r="853" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A853" s="2" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="B853" s="2" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="C853" s="2" t="s">
-        <v>1242</v>
+        <v>1063</v>
+      </c>
+      <c r="D853" s="2">
+        <v>-1</v>
       </c>
     </row>
     <row r="854" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A854" s="2" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="B854" s="2" t="s">
         <v>1240</v>
       </c>
       <c r="C854" s="2" t="s">
-        <v>1242</v>
+        <v>1063</v>
+      </c>
+      <c r="D854" s="2">
+        <v>-2</v>
       </c>
     </row>
     <row r="855" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A855" s="2" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="B855" s="2" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="C855" s="2" t="s">
-        <v>1242</v>
+        <v>1063</v>
+      </c>
+      <c r="D855" s="2">
+        <v>-1</v>
       </c>
     </row>
     <row r="856" spans="1:4" x14ac:dyDescent="0.3">
@@ -16651,410 +16784,763 @@
         <v>1243</v>
       </c>
       <c r="B856" s="2" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="C856" s="2" t="s">
-        <v>1248</v>
+        <v>300</v>
+      </c>
+      <c r="D856" s="2">
+        <v>-1</v>
       </c>
     </row>
     <row r="857" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A857" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B857" s="2" t="s">
         <v>1244</v>
       </c>
-      <c r="B857" s="2" t="s">
-        <v>1249</v>
-      </c>
       <c r="C857" s="2" t="s">
-        <v>1248</v>
+        <v>300</v>
+      </c>
+      <c r="D857" s="2">
+        <v>-1</v>
       </c>
     </row>
     <row r="858" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A858" s="2" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="B858" s="2" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="C858" s="2" t="s">
-        <v>1248</v>
+        <v>300</v>
+      </c>
+      <c r="D858" s="2">
+        <v>-2</v>
       </c>
     </row>
     <row r="859" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A859" s="2" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="B859" s="2" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="C859" s="2" t="s">
-        <v>1248</v>
+        <v>300</v>
+      </c>
+      <c r="D859" s="2">
+        <v>-2</v>
       </c>
     </row>
     <row r="860" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A860" s="2" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="B860" s="2" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="C860" s="2" t="s">
-        <v>1248</v>
+        <v>300</v>
+      </c>
+      <c r="D860" s="2">
+        <v>-2</v>
       </c>
     </row>
     <row r="861" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A861" s="2" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B861" s="2" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="C861" s="2" t="s">
-        <v>1248</v>
+        <v>300</v>
+      </c>
+      <c r="D861" s="2">
+        <v>-1</v>
       </c>
     </row>
     <row r="862" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A862" s="2" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B862" s="2" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="C862" s="2" t="s">
-        <v>1248</v>
+        <v>300</v>
+      </c>
+      <c r="D862" s="2">
+        <v>-2</v>
       </c>
     </row>
     <row r="863" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A863" s="2" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B863" s="2" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="C863" s="2" t="s">
-        <v>1248</v>
+        <v>300</v>
+      </c>
+      <c r="D863" s="2">
+        <v>-1</v>
       </c>
     </row>
     <row r="864" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A864" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B864" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C864" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D864" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="865" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A865" s="2" t="s">
         <v>1253</v>
       </c>
-      <c r="B864" s="2" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C864" s="2" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="865" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A865" s="2" t="s">
+      <c r="B865" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C865" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D865" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="866" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A866" s="2" t="s">
         <v>1254</v>
       </c>
-      <c r="B865" s="2" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C865" s="2" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="866" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A866" s="2" t="s">
+      <c r="B866" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C866" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D866" s="2">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="867" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A867" s="2" t="s">
         <v>1255</v>
       </c>
-      <c r="B866" s="2" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C866" s="2" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="867" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A867" s="2" t="s">
+      <c r="B867" s="2" t="s">
         <v>1256</v>
       </c>
-      <c r="B867" s="2" t="s">
-        <v>1266</v>
-      </c>
       <c r="C867" s="2" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="868" spans="1:3" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="D867" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="868" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A868" s="2" t="s">
         <v>1257</v>
       </c>
       <c r="B868" s="2" t="s">
-        <v>1266</v>
+        <v>1256</v>
       </c>
       <c r="C868" s="2" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="869" spans="1:3" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="D868" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="869" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A869" s="2" t="s">
         <v>1258</v>
       </c>
       <c r="B869" s="2" t="s">
-        <v>1266</v>
+        <v>1256</v>
       </c>
       <c r="C869" s="2" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="870" spans="1:3" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="D869" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="870" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A870" s="2" t="s">
         <v>1259</v>
       </c>
       <c r="B870" s="2" t="s">
-        <v>1266</v>
+        <v>1256</v>
       </c>
       <c r="C870" s="2" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="871" spans="1:3" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="D870" s="2">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="871" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A871" s="2" t="s">
         <v>1260</v>
       </c>
       <c r="B871" s="2" t="s">
-        <v>1266</v>
+        <v>1256</v>
       </c>
       <c r="C871" s="2" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="872" spans="1:3" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="D871" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="872" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A872" s="2" t="s">
         <v>1261</v>
       </c>
       <c r="B872" s="2" t="s">
-        <v>1266</v>
+        <v>1256</v>
       </c>
       <c r="C872" s="2" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="873" spans="1:3" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="D872" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="873" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A873" s="2" t="s">
         <v>1262</v>
       </c>
       <c r="B873" s="2" t="s">
-        <v>1266</v>
+        <v>1256</v>
       </c>
       <c r="C873" s="2" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="874" spans="1:3" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="D873" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="874" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A874" s="2" t="s">
         <v>1263</v>
       </c>
       <c r="B874" s="2" t="s">
-        <v>1266</v>
+        <v>1256</v>
       </c>
       <c r="C874" s="2" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="875" spans="1:3" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="D874" s="2">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="875" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A875" s="2" t="s">
         <v>1264</v>
       </c>
       <c r="B875" s="2" t="s">
-        <v>1266</v>
+        <v>1256</v>
       </c>
       <c r="C875" s="2" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="876" spans="1:3" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="D875" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="876" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A876" s="2" t="s">
         <v>1265</v>
       </c>
       <c r="B876" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C876" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D876" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="877" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A877" s="2" t="s">
         <v>1266</v>
       </c>
-      <c r="C876" s="2" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="877" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A877" s="2" t="s">
+      <c r="B877" s="2" t="s">
         <v>1267</v>
       </c>
-      <c r="B877" s="2" t="s">
+      <c r="C877" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D877" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="878" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A878" s="2" t="s">
         <v>1268</v>
       </c>
-      <c r="C877" s="2" t="s">
+      <c r="B878" s="2" t="s">
         <v>1269</v>
       </c>
-    </row>
-    <row r="878" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A878" s="2" t="s">
+      <c r="C878" s="2" t="s">
         <v>1270</v>
       </c>
-      <c r="B878" s="2" t="s">
+      <c r="D878" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="879" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A879" s="2" t="s">
         <v>1271</v>
       </c>
-      <c r="C878" s="2" t="s">
+      <c r="B879" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C879" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D879" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="880" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A880" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B880" s="2" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C880" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D880" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="881" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A881" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B881" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C881" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D881" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="882" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A882" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B882" s="2" t="s">
         <v>1278</v>
       </c>
-    </row>
-    <row r="879" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A879" s="2" t="s">
-        <v>1272</v>
-      </c>
-      <c r="B879" s="2" t="s">
-        <v>1273</v>
-      </c>
-      <c r="C879" s="2" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="880" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A880" s="2" t="s">
-        <v>1274</v>
-      </c>
-      <c r="B880" s="2" t="s">
-        <v>1275</v>
-      </c>
-      <c r="C880" s="2" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="881" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A881" s="2" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B881" s="2" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C881" s="2" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="882" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A882" s="2" t="s">
+      <c r="C882" s="2" t="s">
         <v>1279</v>
       </c>
-      <c r="B882" s="2" t="s">
+      <c r="D882" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="883" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A883" s="2" t="s">
         <v>1280</v>
       </c>
-      <c r="C882" s="2" t="s">
+      <c r="B883" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C883" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D883" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="884" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A884" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B884" s="2" t="s">
         <v>1283</v>
       </c>
-    </row>
-    <row r="883" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A883" s="2" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B883" s="2" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C883" s="2" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="884" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A884" s="2" t="s">
+      <c r="C884" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D884" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="885" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A885" s="2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B885" s="2" t="s">
         <v>1285</v>
       </c>
-      <c r="B884" s="2" t="s">
+      <c r="C885" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D885" s="2">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="886" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A886" s="2" t="s">
         <v>1286</v>
       </c>
-      <c r="C884" s="2" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="885" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A885" s="2" t="s">
+      <c r="B886" s="2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C886" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D886" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="887" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A887" s="2" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B887" s="2" t="s">
         <v>1289</v>
       </c>
-      <c r="B885" s="2" t="s">
-        <v>1287</v>
-      </c>
-      <c r="C885" s="2" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="886" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A886" s="2" t="s">
+      <c r="C887" s="2" t="s">
         <v>1290</v>
       </c>
-      <c r="B886" s="2" t="s">
+      <c r="D887" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="888" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A888" s="2" t="s">
         <v>1291</v>
       </c>
-      <c r="C886" s="2" t="s">
+      <c r="B888" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C888" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D888" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="889" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A889" s="2" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="887" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A887" s="2" t="s">
+      <c r="B889" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C889" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D889" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="890" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A890" s="2" t="s">
         <v>1293</v>
       </c>
-      <c r="B887" s="2" t="s">
+      <c r="B890" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C890" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D890" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="891" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A891" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B891" s="2" t="s">
         <v>1296</v>
       </c>
-      <c r="C887" s="2" t="s">
+      <c r="C891" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D891" s="2">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="892" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A892" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B892" s="2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C892" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D892" s="2">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="893" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A893" s="2" t="s">
         <v>1301</v>
       </c>
-    </row>
-    <row r="888" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A888" s="2" t="s">
-        <v>1294</v>
-      </c>
-      <c r="B888" s="2" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C888" s="2" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="889" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A889" s="2" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B889" s="2" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C889" s="2" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="890" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A890" s="2" t="s">
-        <v>1297</v>
-      </c>
-      <c r="B890" s="2" t="s">
+      <c r="B893" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C893" s="2" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="894" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A894" s="2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B894" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C894" s="2" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="895" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A895" s="3" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B895" s="2" t="s">
         <v>1302</v>
       </c>
-      <c r="C890" s="2" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="891" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A891" s="2" t="s">
-        <v>1298</v>
-      </c>
-      <c r="B891" s="2" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C891" s="2" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="892" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A892" s="2" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B892" s="2" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C892" s="2" t="s">
-        <v>1301</v>
+      <c r="C895" s="2" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="896" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A896" s="3" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B896" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C896" s="2" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="897" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A897" s="3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B897" s="2" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C897" s="2" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="898" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A898" s="3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B898" s="2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C898" s="2" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="899" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A899" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B899" s="2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C899" s="2" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="900" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A900" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B900" s="2" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C900" s="2" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="901" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A901" s="3" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B901" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C901" s="2" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="902" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A902" s="3" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B902" s="2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C902" s="2" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="903" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A903" s="3" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B903" s="2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C903" s="2" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="904" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A904" s="3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B904" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C904" s="2" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="905" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A905" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B905" s="2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C905" s="2" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="906" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A906" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B906" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C906" s="2" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="907" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A907" s="3" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B907" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C907" s="2" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="908" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A908" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B908" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C908" s="2" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="909" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A909" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B909" s="2" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C909" s="2" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="910" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A910" s="3" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B910" s="2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C910" s="2" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="911" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A911" s="3" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B911" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C911" s="2" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="912" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A912" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B912" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C912" s="2" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="913" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A913" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B913" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C913" s="2" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="914" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A914" s="3" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B914" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C914" s="2" t="s">
+        <v>1304</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/학습자료/단답형/영어_복습.xlsx
+++ b/학습자료/단답형/영어_복습.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1244"/>
+  <dimension ref="A1:D1267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6006,7 +6006,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="272">
@@ -13534,7 +13534,7 @@
         </is>
       </c>
       <c r="D641" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="642">
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D699" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="700">
@@ -16223,7 +16223,7 @@
         </is>
       </c>
       <c r="D773" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="774">
@@ -18792,7 +18792,7 @@
         </is>
       </c>
       <c r="D901" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="902">
@@ -18960,7 +18960,7 @@
         </is>
       </c>
       <c r="D909" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="910">
@@ -19145,7 +19145,7 @@
         </is>
       </c>
       <c r="D918" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="919">
@@ -19165,7 +19165,7 @@
         </is>
       </c>
       <c r="D919" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="920">
@@ -19185,7 +19185,7 @@
         </is>
       </c>
       <c r="D920" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="921">
@@ -19205,7 +19205,7 @@
         </is>
       </c>
       <c r="D921" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="922">
@@ -19245,7 +19245,7 @@
         </is>
       </c>
       <c r="D923" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="924">
@@ -19285,7 +19285,7 @@
         </is>
       </c>
       <c r="D925" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926">
@@ -19305,7 +19305,7 @@
         </is>
       </c>
       <c r="D926" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927">
@@ -19365,7 +19365,7 @@
         </is>
       </c>
       <c r="D929" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930">
@@ -19385,7 +19385,7 @@
         </is>
       </c>
       <c r="D930" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="931">
@@ -19465,7 +19465,7 @@
         </is>
       </c>
       <c r="D934" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="935">
@@ -19505,7 +19505,7 @@
         </is>
       </c>
       <c r="D936" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="937">
@@ -19565,7 +19565,7 @@
         </is>
       </c>
       <c r="D939" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="940">
@@ -19585,7 +19585,7 @@
         </is>
       </c>
       <c r="D940" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="941">
@@ -19665,7 +19665,7 @@
         </is>
       </c>
       <c r="D944" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945">
@@ -19745,7 +19745,7 @@
         </is>
       </c>
       <c r="D948" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="949">
@@ -19765,7 +19765,7 @@
         </is>
       </c>
       <c r="D949" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="950">
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D953" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="954">
@@ -19945,7 +19945,7 @@
         </is>
       </c>
       <c r="D958" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="959">
@@ -19985,7 +19985,7 @@
         </is>
       </c>
       <c r="D960" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="961">
@@ -20005,7 +20005,7 @@
         </is>
       </c>
       <c r="D961" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="962">
@@ -20025,7 +20025,7 @@
         </is>
       </c>
       <c r="D962" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="963">
@@ -20125,7 +20125,7 @@
         </is>
       </c>
       <c r="D967" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="968">
@@ -20185,7 +20185,7 @@
         </is>
       </c>
       <c r="D970" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="971">
@@ -20225,7 +20225,7 @@
         </is>
       </c>
       <c r="D972" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973">
@@ -20245,7 +20245,7 @@
         </is>
       </c>
       <c r="D973" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="974">
@@ -20265,7 +20265,7 @@
         </is>
       </c>
       <c r="D974" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="975">
@@ -20285,7 +20285,7 @@
         </is>
       </c>
       <c r="D975" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="976">
@@ -20365,7 +20365,7 @@
         </is>
       </c>
       <c r="D979" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="980">
@@ -20405,7 +20405,7 @@
         </is>
       </c>
       <c r="D981" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="982">
@@ -20465,7 +20465,7 @@
         </is>
       </c>
       <c r="D984" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="985">
@@ -20485,7 +20485,7 @@
         </is>
       </c>
       <c r="D985" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986">
@@ -20505,7 +20505,7 @@
         </is>
       </c>
       <c r="D986" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="987">
@@ -20645,7 +20645,7 @@
         </is>
       </c>
       <c r="D993" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="994">
@@ -20665,7 +20665,7 @@
         </is>
       </c>
       <c r="D994" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="995">
@@ -20685,7 +20685,7 @@
         </is>
       </c>
       <c r="D995" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="996">
@@ -20745,7 +20745,7 @@
         </is>
       </c>
       <c r="D998" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999">
@@ -20805,7 +20805,7 @@
         </is>
       </c>
       <c r="D1001" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1002">
@@ -20845,7 +20845,7 @@
         </is>
       </c>
       <c r="D1003" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1004">
@@ -20865,7 +20865,7 @@
         </is>
       </c>
       <c r="D1004" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1005">
@@ -20885,7 +20885,7 @@
         </is>
       </c>
       <c r="D1005" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1006">
@@ -20945,7 +20945,7 @@
         </is>
       </c>
       <c r="D1008" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1009">
@@ -20965,7 +20965,7 @@
         </is>
       </c>
       <c r="D1009" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1010">
@@ -20985,7 +20985,7 @@
         </is>
       </c>
       <c r="D1010" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1011">
@@ -21025,7 +21025,7 @@
         </is>
       </c>
       <c r="D1012" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1013">
@@ -21065,7 +21065,7 @@
         </is>
       </c>
       <c r="D1014" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1015">
@@ -21085,7 +21085,7 @@
         </is>
       </c>
       <c r="D1015" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1016">
@@ -21245,7 +21245,7 @@
         </is>
       </c>
       <c r="D1023" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1024">
@@ -21265,7 +21265,7 @@
         </is>
       </c>
       <c r="D1024" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1025">
@@ -21365,7 +21365,7 @@
         </is>
       </c>
       <c r="D1029" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1030">
@@ -21385,7 +21385,7 @@
         </is>
       </c>
       <c r="D1030" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1031">
@@ -21425,7 +21425,7 @@
         </is>
       </c>
       <c r="D1032" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1033">
@@ -21445,7 +21445,7 @@
         </is>
       </c>
       <c r="D1033" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1034">
@@ -21525,7 +21525,7 @@
         </is>
       </c>
       <c r="D1037" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1038">
@@ -21545,7 +21545,7 @@
         </is>
       </c>
       <c r="D1038" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1039">
@@ -21685,7 +21685,7 @@
         </is>
       </c>
       <c r="D1045" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1046">
@@ -21705,7 +21705,7 @@
         </is>
       </c>
       <c r="D1046" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1047">
@@ -21745,7 +21745,7 @@
         </is>
       </c>
       <c r="D1048" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1049">
@@ -21805,7 +21805,7 @@
         </is>
       </c>
       <c r="D1051" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052">
@@ -21825,7 +21825,7 @@
         </is>
       </c>
       <c r="D1052" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1053">
@@ -21845,7 +21845,7 @@
         </is>
       </c>
       <c r="D1053" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1054">
@@ -21865,7 +21865,7 @@
         </is>
       </c>
       <c r="D1054" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1055">
@@ -21885,7 +21885,7 @@
         </is>
       </c>
       <c r="D1055" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1056">
@@ -21905,7 +21905,7 @@
         </is>
       </c>
       <c r="D1056" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1057">
@@ -21945,7 +21945,7 @@
         </is>
       </c>
       <c r="D1058" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1059">
@@ -21965,7 +21965,7 @@
         </is>
       </c>
       <c r="D1059" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1060">
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D1061" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1062">
@@ -22025,7 +22025,7 @@
         </is>
       </c>
       <c r="D1062" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1063">
@@ -22045,7 +22045,7 @@
         </is>
       </c>
       <c r="D1063" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1064">
@@ -22085,7 +22085,7 @@
         </is>
       </c>
       <c r="D1065" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1066">
@@ -22125,7 +22125,7 @@
         </is>
       </c>
       <c r="D1067" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1068">
@@ -22165,7 +22165,7 @@
         </is>
       </c>
       <c r="D1069" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1070">
@@ -22185,7 +22185,7 @@
         </is>
       </c>
       <c r="D1070" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1071">
@@ -22225,7 +22225,7 @@
         </is>
       </c>
       <c r="D1072" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1073">
@@ -22265,7 +22265,7 @@
         </is>
       </c>
       <c r="D1074" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1075">
@@ -22285,7 +22285,7 @@
         </is>
       </c>
       <c r="D1075" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1076">
@@ -22385,7 +22385,7 @@
         </is>
       </c>
       <c r="D1080" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1081">
@@ -22405,7 +22405,7 @@
         </is>
       </c>
       <c r="D1081" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1082">
@@ -22445,7 +22445,7 @@
         </is>
       </c>
       <c r="D1083" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1084">
@@ -22505,7 +22505,7 @@
         </is>
       </c>
       <c r="D1086" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1087">
@@ -22585,7 +22585,7 @@
         </is>
       </c>
       <c r="D1090" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1091">
@@ -22645,7 +22645,7 @@
         </is>
       </c>
       <c r="D1093" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1094">
@@ -22685,7 +22685,7 @@
         </is>
       </c>
       <c r="D1095" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1096">
@@ -22705,7 +22705,7 @@
         </is>
       </c>
       <c r="D1096" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1097">
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D1097" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1098">
@@ -22825,7 +22825,7 @@
         </is>
       </c>
       <c r="D1102" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1103">
@@ -22865,7 +22865,7 @@
         </is>
       </c>
       <c r="D1104" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1105">
@@ -22885,7 +22885,7 @@
         </is>
       </c>
       <c r="D1105" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1106">
@@ -22945,7 +22945,7 @@
         </is>
       </c>
       <c r="D1108" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1109">
@@ -22985,7 +22985,7 @@
         </is>
       </c>
       <c r="D1110" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1111">
@@ -23005,7 +23005,7 @@
         </is>
       </c>
       <c r="D1111" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1112">
@@ -23065,7 +23065,7 @@
         </is>
       </c>
       <c r="D1114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1115">
@@ -23105,7 +23105,7 @@
         </is>
       </c>
       <c r="D1116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1117">
@@ -23125,7 +23125,7 @@
         </is>
       </c>
       <c r="D1117" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1118">
@@ -23205,7 +23205,7 @@
         </is>
       </c>
       <c r="D1121" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1122">
@@ -23245,7 +23245,7 @@
         </is>
       </c>
       <c r="D1123" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1124">
@@ -23265,7 +23265,7 @@
         </is>
       </c>
       <c r="D1124" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1125">
@@ -23285,7 +23285,7 @@
         </is>
       </c>
       <c r="D1125" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1126">
@@ -23305,7 +23305,7 @@
         </is>
       </c>
       <c r="D1126" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1127">
@@ -23345,7 +23345,7 @@
         </is>
       </c>
       <c r="D1128" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1129">
@@ -23365,7 +23365,7 @@
         </is>
       </c>
       <c r="D1129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1130">
@@ -23385,7 +23385,7 @@
         </is>
       </c>
       <c r="D1130" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1131">
@@ -23425,7 +23425,7 @@
         </is>
       </c>
       <c r="D1132" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1133">
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D1133" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1134">
@@ -23505,7 +23505,7 @@
         </is>
       </c>
       <c r="D1136" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1137">
@@ -23525,7 +23525,7 @@
         </is>
       </c>
       <c r="D1137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1138">
@@ -23545,7 +23545,7 @@
         </is>
       </c>
       <c r="D1138" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1139">
@@ -23565,7 +23565,7 @@
         </is>
       </c>
       <c r="D1139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1140">
@@ -23585,7 +23585,7 @@
         </is>
       </c>
       <c r="D1140" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1141">
@@ -23605,7 +23605,7 @@
         </is>
       </c>
       <c r="D1141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1142">
@@ -23625,7 +23625,7 @@
         </is>
       </c>
       <c r="D1142" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1143">
@@ -23645,7 +23645,7 @@
         </is>
       </c>
       <c r="D1143" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1144">
@@ -23685,7 +23685,7 @@
         </is>
       </c>
       <c r="D1145" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1146">
@@ -23705,7 +23705,7 @@
         </is>
       </c>
       <c r="D1146" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1147">
@@ -23745,7 +23745,7 @@
         </is>
       </c>
       <c r="D1148" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1149">
@@ -23785,7 +23785,7 @@
         </is>
       </c>
       <c r="D1150" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1151">
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D1151" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1152">
@@ -23825,7 +23825,7 @@
         </is>
       </c>
       <c r="D1152" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1153">
@@ -23885,7 +23885,7 @@
         </is>
       </c>
       <c r="D1155" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1156">
@@ -23925,7 +23925,7 @@
         </is>
       </c>
       <c r="D1157" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1158">
@@ -23965,7 +23965,7 @@
         </is>
       </c>
       <c r="D1159" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1160">
@@ -23985,7 +23985,7 @@
         </is>
       </c>
       <c r="D1160" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1161">
@@ -24005,7 +24005,7 @@
         </is>
       </c>
       <c r="D1161" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1162">
@@ -24145,7 +24145,7 @@
         </is>
       </c>
       <c r="D1168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1169">
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D1169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1170">
@@ -24185,7 +24185,7 @@
         </is>
       </c>
       <c r="D1170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1171">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="D1171" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1172">
@@ -24265,7 +24265,7 @@
         </is>
       </c>
       <c r="D1174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1175">
@@ -24305,7 +24305,7 @@
         </is>
       </c>
       <c r="D1176" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1177">
@@ -24385,7 +24385,7 @@
         </is>
       </c>
       <c r="D1180" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1181">
@@ -24405,7 +24405,7 @@
         </is>
       </c>
       <c r="D1181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1182">
@@ -24485,7 +24485,7 @@
         </is>
       </c>
       <c r="D1185" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1186">
@@ -24505,7 +24505,7 @@
         </is>
       </c>
       <c r="D1186" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1187">
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D1187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1188">
@@ -24545,7 +24545,7 @@
         </is>
       </c>
       <c r="D1188" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1189">
@@ -24565,7 +24565,7 @@
         </is>
       </c>
       <c r="D1189" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1190">
@@ -24605,7 +24605,7 @@
         </is>
       </c>
       <c r="D1191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1192">
@@ -24625,7 +24625,7 @@
         </is>
       </c>
       <c r="D1192" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1193">
@@ -24665,7 +24665,7 @@
         </is>
       </c>
       <c r="D1194" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1195">
@@ -24685,7 +24685,7 @@
         </is>
       </c>
       <c r="D1195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1196">
@@ -24705,7 +24705,7 @@
         </is>
       </c>
       <c r="D1196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1197">
@@ -24745,7 +24745,7 @@
         </is>
       </c>
       <c r="D1198" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1199">
@@ -24765,7 +24765,7 @@
         </is>
       </c>
       <c r="D1199" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1200">
@@ -24805,7 +24805,7 @@
         </is>
       </c>
       <c r="D1201" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1202">
@@ -24845,7 +24845,7 @@
         </is>
       </c>
       <c r="D1203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1204">
@@ -24865,7 +24865,7 @@
         </is>
       </c>
       <c r="D1204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1205">
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D1205" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1206">
@@ -24945,7 +24945,7 @@
         </is>
       </c>
       <c r="D1208" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1209">
@@ -24965,7 +24965,7 @@
         </is>
       </c>
       <c r="D1209" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1210">
@@ -25005,7 +25005,7 @@
         </is>
       </c>
       <c r="D1211" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1212">
@@ -25025,7 +25025,7 @@
         </is>
       </c>
       <c r="D1212" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1213">
@@ -25045,7 +25045,7 @@
         </is>
       </c>
       <c r="D1213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1214">
@@ -25085,7 +25085,7 @@
         </is>
       </c>
       <c r="D1215" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1216">
@@ -25105,7 +25105,7 @@
         </is>
       </c>
       <c r="D1216" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1217">
@@ -25185,7 +25185,7 @@
         </is>
       </c>
       <c r="D1220" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1221">
@@ -25205,7 +25205,7 @@
         </is>
       </c>
       <c r="D1221" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1222">
@@ -25225,7 +25225,7 @@
         </is>
       </c>
       <c r="D1222" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1223">
@@ -25285,7 +25285,7 @@
         </is>
       </c>
       <c r="D1225" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1226">
@@ -25405,7 +25405,7 @@
         </is>
       </c>
       <c r="D1231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1232">
@@ -25445,7 +25445,7 @@
         </is>
       </c>
       <c r="D1233" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1234">
@@ -25545,7 +25545,7 @@
         </is>
       </c>
       <c r="D1238" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1239">
@@ -25585,7 +25585,7 @@
         </is>
       </c>
       <c r="D1240" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1241">
@@ -25645,7 +25645,7 @@
         </is>
       </c>
       <c r="D1243" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1244">
@@ -25665,6 +25665,466 @@
         </is>
       </c>
       <c r="D1244" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="inlineStr">
+        <is>
+          <t>-body, -thing, -one' + 단수동사</t>
+        </is>
+      </c>
+      <c r="B1245" t="inlineStr">
+        <is>
+          <t>단수동사//복수동사//둘 다 가능</t>
+        </is>
+      </c>
+      <c r="C1245" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D1245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="inlineStr">
+        <is>
+          <t>Somebody wakes him up from his nap</t>
+        </is>
+      </c>
+      <c r="B1246" t="inlineStr">
+        <is>
+          <t>wakes//wake | '-body, -thing, -one' + 단수동사</t>
+        </is>
+      </c>
+      <c r="C1246" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D1246" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="inlineStr">
+        <is>
+          <t>Everything works very well</t>
+        </is>
+      </c>
+      <c r="B1247" t="inlineStr">
+        <is>
+          <t>works//work | '-body, -thing, -one' + 단수동사</t>
+        </is>
+      </c>
+      <c r="C1247" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D1247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="inlineStr">
+        <is>
+          <t>Please notify the police if anyone knows anything</t>
+        </is>
+      </c>
+      <c r="B1248" t="inlineStr">
+        <is>
+          <t>knows//know | '-body, -thing, -one' + 단수동사</t>
+        </is>
+      </c>
+      <c r="C1248" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D1248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="inlineStr">
+        <is>
+          <t>Six years is so long that she doesn't remember his name</t>
+        </is>
+      </c>
+      <c r="B1249" t="inlineStr">
+        <is>
+          <t>years//year | 시간, 거리, 가격, 무게의 복수명사가 하나의 '단위'를 의미할 때는 단수 취급한다</t>
+        </is>
+      </c>
+      <c r="C1249" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D1249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="inlineStr">
+        <is>
+          <t>Three days is plenty to finish a painting</t>
+        </is>
+      </c>
+      <c r="B1250" t="inlineStr">
+        <is>
+          <t>days//day | 시간, 거리, 가격, 무게의 복수명사가 하나의 '단위'를 의미할 때는 단수 취급한다</t>
+        </is>
+      </c>
+      <c r="C1250" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D1250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="inlineStr">
+        <is>
+          <t>aspire</t>
+        </is>
+      </c>
+      <c r="B1251" t="inlineStr">
+        <is>
+          <t>자동사//타통사 | '열망하다', aspire + 전치사 + 명사, aspire to 동사원형</t>
+        </is>
+      </c>
+      <c r="C1251" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D1251" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">agree with </t>
+        </is>
+      </c>
+      <c r="B1252" t="inlineStr">
+        <is>
+          <t>~에게 동의하다//~에 동의하다 | agree with 사람</t>
+        </is>
+      </c>
+      <c r="C1252" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D1252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="inlineStr">
+        <is>
+          <t>agree to</t>
+        </is>
+      </c>
+      <c r="B1253" t="inlineStr">
+        <is>
+          <t>~에 동의하다//~에게 동의하다 | agree to 의견</t>
+        </is>
+      </c>
+      <c r="C1253" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D1253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="inlineStr">
+        <is>
+          <t>consist of</t>
+        </is>
+      </c>
+      <c r="B1254" t="inlineStr">
+        <is>
+          <t>~으로 구성되다//~와 일치하다</t>
+        </is>
+      </c>
+      <c r="C1254" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D1254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="inlineStr">
+        <is>
+          <t>consist with</t>
+        </is>
+      </c>
+      <c r="B1255" t="inlineStr">
+        <is>
+          <t>~와 일치하다//~으로 구성되다</t>
+        </is>
+      </c>
+      <c r="C1255" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D1255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="inlineStr">
+        <is>
+          <t>succeed in</t>
+        </is>
+      </c>
+      <c r="B1256" t="inlineStr">
+        <is>
+          <t>~에 성공하다//~을 계승하다</t>
+        </is>
+      </c>
+      <c r="C1256" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D1256" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="inlineStr">
+        <is>
+          <t>succeed to</t>
+        </is>
+      </c>
+      <c r="B1257" t="inlineStr">
+        <is>
+          <t>~을 계승하다//~에 성공하다</t>
+        </is>
+      </c>
+      <c r="C1257" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D1257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="inlineStr">
+        <is>
+          <t>result in</t>
+        </is>
+      </c>
+      <c r="B1258" t="inlineStr">
+        <is>
+          <t>~을 초래하다//~로부터 기인하다 | result in 결과</t>
+        </is>
+      </c>
+      <c r="C1258" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D1258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="inlineStr">
+        <is>
+          <t>result from</t>
+        </is>
+      </c>
+      <c r="B1259" t="inlineStr">
+        <is>
+          <t>~로부터 기인하다//~을 초래하다 | result from 원인</t>
+        </is>
+      </c>
+      <c r="C1259" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D1259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" t="inlineStr">
+        <is>
+          <t>get through</t>
+        </is>
+      </c>
+      <c r="B1260" t="inlineStr">
+        <is>
+          <t>~을 끝내다//~을 겪다 | go through ~을 겪다, 검토하다</t>
+        </is>
+      </c>
+      <c r="C1260" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D1260" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="inlineStr">
+        <is>
+          <t>go through</t>
+        </is>
+      </c>
+      <c r="B1261" t="inlineStr">
+        <is>
+          <t>~을 겪다,검토하다//~을 끝내다 | get through ~을 끝내다</t>
+        </is>
+      </c>
+      <c r="C1261" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D1261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="inlineStr">
+        <is>
+          <t>agree to 동명사</t>
+        </is>
+      </c>
+      <c r="B1262" t="inlineStr">
+        <is>
+          <t>동명사//동사원형 | 자동사 + 전치사 + 명사</t>
+        </is>
+      </c>
+      <c r="C1262" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D1262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="inlineStr">
+        <is>
+          <t>succeed to 동명사</t>
+        </is>
+      </c>
+      <c r="B1263" t="inlineStr">
+        <is>
+          <t>동명사//동사원형 | 자동사 + 전치사 + 명사</t>
+        </is>
+      </c>
+      <c r="C1263" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D1263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="inlineStr">
+        <is>
+          <t>adjust to 동명사</t>
+        </is>
+      </c>
+      <c r="B1264" t="inlineStr">
+        <is>
+          <t>동명사//동사원형 | 자동사 + 전치사 + 명사</t>
+        </is>
+      </c>
+      <c r="C1264" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D1264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="inlineStr">
+        <is>
+          <t>서류를 검토하다</t>
+        </is>
+      </c>
+      <c r="B1265" t="inlineStr">
+        <is>
+          <t>go through the documents//go the documents through//둘 다 가능 | 자동사 + 전치사 + 명사는 어순을 바꿀 수 없다.</t>
+        </is>
+      </c>
+      <c r="C1265" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D1265" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="inlineStr">
+        <is>
+          <t>recede 멀어지다, 물러나다</t>
+        </is>
+      </c>
+      <c r="B1266" t="inlineStr">
+        <is>
+          <t>자동사//타동사</t>
+        </is>
+      </c>
+      <c r="C1266" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D1266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="inlineStr">
+        <is>
+          <t>the amount of sugar</t>
+        </is>
+      </c>
+      <c r="B1267" t="inlineStr">
+        <is>
+          <t>amount//number | 불가산 명사는 amount를 사용한다</t>
+        </is>
+      </c>
+      <c r="C1267" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D1267" t="n">
         <v>0</v>
       </c>
     </row>

--- a/학습자료/단답형/영어_복습.xlsx
+++ b/학습자료/단답형/영어_복습.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1267"/>
+  <dimension ref="A1:D1269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="10">
@@ -809,7 +809,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="19">
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -977,7 +977,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="27">
@@ -1439,7 +1439,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2334,7 +2334,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="93">
@@ -3006,7 +3006,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="125">
@@ -3174,7 +3174,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133">
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="231">
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="275">
@@ -6186,7 +6186,7 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -6426,7 +6426,7 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="293">
@@ -6486,7 +6486,7 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="296">
@@ -6629,7 +6629,7 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="303">
@@ -7137,7 +7137,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="328">
@@ -7978,7 +7978,7 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="369">
@@ -8200,7 +8200,7 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="380">
@@ -9880,7 +9880,7 @@
         </is>
       </c>
       <c r="D463" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="464">
@@ -10080,7 +10080,7 @@
         </is>
       </c>
       <c r="D473" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="474">
@@ -10503,7 +10503,7 @@
         </is>
       </c>
       <c r="D494" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="495">
@@ -10625,7 +10625,7 @@
         </is>
       </c>
       <c r="D500" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="501">
@@ -10912,7 +10912,7 @@
         </is>
       </c>
       <c r="D514" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="515">
@@ -10952,7 +10952,7 @@
         </is>
       </c>
       <c r="D516" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="517">
@@ -11512,7 +11512,7 @@
         </is>
       </c>
       <c r="D543" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="544">
@@ -12340,7 +12340,7 @@
         </is>
       </c>
       <c r="D583" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="584">
@@ -12464,7 +12464,7 @@
         </is>
       </c>
       <c r="D589" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590">
@@ -12608,7 +12608,7 @@
         </is>
       </c>
       <c r="D596" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="597">
@@ -13349,7 +13349,7 @@
         </is>
       </c>
       <c r="D632" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="633">
@@ -13450,7 +13450,7 @@
         </is>
       </c>
       <c r="D637" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="638">
@@ -13639,7 +13639,7 @@
         </is>
       </c>
       <c r="D646" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647">
@@ -13967,7 +13967,7 @@
         </is>
       </c>
       <c r="D662" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="663">
@@ -14339,7 +14339,7 @@
         </is>
       </c>
       <c r="D680" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="681">
@@ -16043,7 +16043,7 @@
         </is>
       </c>
       <c r="D764" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765">
@@ -16083,7 +16083,7 @@
         </is>
       </c>
       <c r="D766" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="767">
@@ -16443,7 +16443,7 @@
         </is>
       </c>
       <c r="D784" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="785">
@@ -17565,7 +17565,7 @@
         </is>
       </c>
       <c r="D840" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="841">
@@ -17765,7 +17765,7 @@
         </is>
       </c>
       <c r="D850" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="851">
@@ -17825,7 +17825,7 @@
         </is>
       </c>
       <c r="D853" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="854">
@@ -17925,7 +17925,7 @@
         </is>
       </c>
       <c r="D858" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="859">
@@ -18505,7 +18505,7 @@
         </is>
       </c>
       <c r="D887" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="888">
@@ -18729,7 +18729,7 @@
         </is>
       </c>
       <c r="D898" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="899">
@@ -18876,7 +18876,7 @@
         </is>
       </c>
       <c r="D905" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906">
@@ -19044,7 +19044,7 @@
         </is>
       </c>
       <c r="D913" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="914">
@@ -19085,7 +19085,7 @@
         </is>
       </c>
       <c r="D915" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="916">
@@ -19105,7 +19105,7 @@
         </is>
       </c>
       <c r="D916" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="917">
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D917" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="918">
@@ -19225,7 +19225,7 @@
         </is>
       </c>
       <c r="D922" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="923">
@@ -19265,7 +19265,7 @@
         </is>
       </c>
       <c r="D924" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="925">
@@ -19285,7 +19285,7 @@
         </is>
       </c>
       <c r="D925" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="926">
@@ -19305,7 +19305,7 @@
         </is>
       </c>
       <c r="D926" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="927">
@@ -19325,7 +19325,7 @@
         </is>
       </c>
       <c r="D927" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="928">
@@ -19345,7 +19345,7 @@
         </is>
       </c>
       <c r="D928" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="929">
@@ -19365,7 +19365,7 @@
         </is>
       </c>
       <c r="D929" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="930">
@@ -19405,7 +19405,7 @@
         </is>
       </c>
       <c r="D931" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="932">
@@ -19425,7 +19425,7 @@
         </is>
       </c>
       <c r="D932" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="933">
@@ -19445,7 +19445,7 @@
         </is>
       </c>
       <c r="D933" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="934">
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D935" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="936">
@@ -19525,7 +19525,7 @@
         </is>
       </c>
       <c r="D937" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="938">
@@ -19545,7 +19545,7 @@
         </is>
       </c>
       <c r="D938" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="939">
@@ -19605,7 +19605,7 @@
         </is>
       </c>
       <c r="D941" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="942">
@@ -19625,7 +19625,7 @@
         </is>
       </c>
       <c r="D942" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="943">
@@ -19645,7 +19645,7 @@
         </is>
       </c>
       <c r="D943" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="944">
@@ -19665,7 +19665,7 @@
         </is>
       </c>
       <c r="D944" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="945">
@@ -19685,7 +19685,7 @@
         </is>
       </c>
       <c r="D945" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="946">
@@ -19705,7 +19705,7 @@
         </is>
       </c>
       <c r="D946" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="947">
@@ -19725,7 +19725,7 @@
         </is>
       </c>
       <c r="D947" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="948">
@@ -19745,7 +19745,7 @@
         </is>
       </c>
       <c r="D948" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="949">
@@ -19785,7 +19785,7 @@
         </is>
       </c>
       <c r="D950" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="951">
@@ -19805,7 +19805,7 @@
         </is>
       </c>
       <c r="D951" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="952">
@@ -19825,7 +19825,7 @@
         </is>
       </c>
       <c r="D952" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="953">
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D953" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="954">
@@ -19865,7 +19865,7 @@
         </is>
       </c>
       <c r="D954" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="955">
@@ -19885,7 +19885,7 @@
         </is>
       </c>
       <c r="D955" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="956">
@@ -19905,7 +19905,7 @@
         </is>
       </c>
       <c r="D956" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="957">
@@ -19925,7 +19925,7 @@
         </is>
       </c>
       <c r="D957" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="958">
@@ -19945,7 +19945,7 @@
         </is>
       </c>
       <c r="D958" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="959">
@@ -19965,7 +19965,7 @@
         </is>
       </c>
       <c r="D959" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="960">
@@ -20005,7 +20005,7 @@
         </is>
       </c>
       <c r="D961" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="962">
@@ -20025,7 +20025,7 @@
         </is>
       </c>
       <c r="D962" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="963">
@@ -20045,7 +20045,7 @@
         </is>
       </c>
       <c r="D963" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="964">
@@ -20065,7 +20065,7 @@
         </is>
       </c>
       <c r="D964" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="965">
@@ -20085,7 +20085,7 @@
         </is>
       </c>
       <c r="D965" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="966">
@@ -20105,7 +20105,7 @@
         </is>
       </c>
       <c r="D966" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="967">
@@ -20125,7 +20125,7 @@
         </is>
       </c>
       <c r="D967" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="968">
@@ -20145,7 +20145,7 @@
         </is>
       </c>
       <c r="D968" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="969">
@@ -20165,7 +20165,7 @@
         </is>
       </c>
       <c r="D969" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="970">
@@ -20185,7 +20185,7 @@
         </is>
       </c>
       <c r="D970" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="971">
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D971" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="972">
@@ -20225,7 +20225,7 @@
         </is>
       </c>
       <c r="D972" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="973">
@@ -20265,7 +20265,7 @@
         </is>
       </c>
       <c r="D974" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="975">
@@ -20285,7 +20285,7 @@
         </is>
       </c>
       <c r="D975" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="976">
@@ -20305,7 +20305,7 @@
         </is>
       </c>
       <c r="D976" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="977">
@@ -20325,7 +20325,7 @@
         </is>
       </c>
       <c r="D977" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="978">
@@ -20345,7 +20345,7 @@
         </is>
       </c>
       <c r="D978" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="979">
@@ -20385,7 +20385,7 @@
         </is>
       </c>
       <c r="D980" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="981">
@@ -20425,7 +20425,7 @@
         </is>
       </c>
       <c r="D982" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="983">
@@ -20445,7 +20445,7 @@
         </is>
       </c>
       <c r="D983" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="984">
@@ -20485,7 +20485,7 @@
         </is>
       </c>
       <c r="D985" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="986">
@@ -20525,7 +20525,7 @@
         </is>
       </c>
       <c r="D987" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="988">
@@ -20545,7 +20545,7 @@
         </is>
       </c>
       <c r="D988" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="989">
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D989" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="990">
@@ -20585,7 +20585,7 @@
         </is>
       </c>
       <c r="D990" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="991">
@@ -20605,7 +20605,7 @@
         </is>
       </c>
       <c r="D991" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="992">
@@ -20625,7 +20625,7 @@
         </is>
       </c>
       <c r="D992" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="993">
@@ -20645,7 +20645,7 @@
         </is>
       </c>
       <c r="D993" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="994">
@@ -20705,7 +20705,7 @@
         </is>
       </c>
       <c r="D996" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="997">
@@ -20725,7 +20725,7 @@
         </is>
       </c>
       <c r="D997" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="998">
@@ -20745,7 +20745,7 @@
         </is>
       </c>
       <c r="D998" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="999">
@@ -20765,7 +20765,7 @@
         </is>
       </c>
       <c r="D999" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1000">
@@ -20785,7 +20785,7 @@
         </is>
       </c>
       <c r="D1000" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1001">
@@ -20825,7 +20825,7 @@
         </is>
       </c>
       <c r="D1002" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1003">
@@ -20865,7 +20865,7 @@
         </is>
       </c>
       <c r="D1004" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1005">
@@ -20905,7 +20905,7 @@
         </is>
       </c>
       <c r="D1006" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1007">
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D1007" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1008">
@@ -21005,7 +21005,7 @@
         </is>
       </c>
       <c r="D1011" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1012">
@@ -21025,7 +21025,7 @@
         </is>
       </c>
       <c r="D1012" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1013">
@@ -21045,7 +21045,7 @@
         </is>
       </c>
       <c r="D1013" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1014">
@@ -21065,7 +21065,7 @@
         </is>
       </c>
       <c r="D1014" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1015">
@@ -21105,7 +21105,7 @@
         </is>
       </c>
       <c r="D1016" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1017">
@@ -21125,7 +21125,7 @@
         </is>
       </c>
       <c r="D1017" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1018">
@@ -21145,7 +21145,7 @@
         </is>
       </c>
       <c r="D1018" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1019">
@@ -21165,7 +21165,7 @@
         </is>
       </c>
       <c r="D1019" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1020">
@@ -21185,7 +21185,7 @@
         </is>
       </c>
       <c r="D1020" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1021">
@@ -21205,7 +21205,7 @@
         </is>
       </c>
       <c r="D1021" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1022">
@@ -21225,7 +21225,7 @@
         </is>
       </c>
       <c r="D1022" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1023">
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D1025" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1026">
@@ -21305,7 +21305,7 @@
         </is>
       </c>
       <c r="D1026" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1027">
@@ -21325,7 +21325,7 @@
         </is>
       </c>
       <c r="D1027" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1028">
@@ -21345,7 +21345,7 @@
         </is>
       </c>
       <c r="D1028" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1029">
@@ -21365,7 +21365,7 @@
         </is>
       </c>
       <c r="D1029" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1030">
@@ -21385,7 +21385,7 @@
         </is>
       </c>
       <c r="D1030" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1031">
@@ -21405,7 +21405,7 @@
         </is>
       </c>
       <c r="D1031" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1032">
@@ -21425,7 +21425,7 @@
         </is>
       </c>
       <c r="D1032" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1033">
@@ -21445,7 +21445,7 @@
         </is>
       </c>
       <c r="D1033" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1034">
@@ -21465,7 +21465,7 @@
         </is>
       </c>
       <c r="D1034" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1035">
@@ -21485,7 +21485,7 @@
         </is>
       </c>
       <c r="D1035" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1036">
@@ -21505,7 +21505,7 @@
         </is>
       </c>
       <c r="D1036" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1037">
@@ -21565,7 +21565,7 @@
         </is>
       </c>
       <c r="D1039" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1040">
@@ -21585,7 +21585,7 @@
         </is>
       </c>
       <c r="D1040" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1041">
@@ -21605,7 +21605,7 @@
         </is>
       </c>
       <c r="D1041" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1042">
@@ -21625,7 +21625,7 @@
         </is>
       </c>
       <c r="D1042" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1043">
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D1043" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1044">
@@ -21665,7 +21665,7 @@
         </is>
       </c>
       <c r="D1044" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1045">
@@ -21685,7 +21685,7 @@
         </is>
       </c>
       <c r="D1045" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1046">
@@ -21725,7 +21725,7 @@
         </is>
       </c>
       <c r="D1047" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1048">
@@ -21745,7 +21745,7 @@
         </is>
       </c>
       <c r="D1048" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1049">
@@ -21765,7 +21765,7 @@
         </is>
       </c>
       <c r="D1049" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1050">
@@ -21785,7 +21785,7 @@
         </is>
       </c>
       <c r="D1050" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1051">
@@ -21805,7 +21805,7 @@
         </is>
       </c>
       <c r="D1051" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1052">
@@ -21865,7 +21865,7 @@
         </is>
       </c>
       <c r="D1054" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1055">
@@ -21885,7 +21885,7 @@
         </is>
       </c>
       <c r="D1055" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1056">
@@ -21905,7 +21905,7 @@
         </is>
       </c>
       <c r="D1056" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1057">
@@ -21925,7 +21925,7 @@
         </is>
       </c>
       <c r="D1057" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1058">
@@ -21965,7 +21965,7 @@
         </is>
       </c>
       <c r="D1059" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1060">
@@ -21985,7 +21985,7 @@
         </is>
       </c>
       <c r="D1060" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1061">
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D1061" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1062">
@@ -22065,7 +22065,7 @@
         </is>
       </c>
       <c r="D1064" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1065">
@@ -22105,7 +22105,7 @@
         </is>
       </c>
       <c r="D1066" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1067">
@@ -22125,7 +22125,7 @@
         </is>
       </c>
       <c r="D1067" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1068">
@@ -22145,7 +22145,7 @@
         </is>
       </c>
       <c r="D1068" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1069">
@@ -22205,7 +22205,7 @@
         </is>
       </c>
       <c r="D1071" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1072">
@@ -22225,7 +22225,7 @@
         </is>
       </c>
       <c r="D1072" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1073">
@@ -22245,7 +22245,7 @@
         </is>
       </c>
       <c r="D1073" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1074">
@@ -22265,7 +22265,7 @@
         </is>
       </c>
       <c r="D1074" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1075">
@@ -22285,7 +22285,7 @@
         </is>
       </c>
       <c r="D1075" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1076">
@@ -22305,7 +22305,7 @@
         </is>
       </c>
       <c r="D1076" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1077">
@@ -22325,7 +22325,7 @@
         </is>
       </c>
       <c r="D1077" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1078">
@@ -22345,7 +22345,7 @@
         </is>
       </c>
       <c r="D1078" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1079">
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D1079" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1080">
@@ -22425,7 +22425,7 @@
         </is>
       </c>
       <c r="D1082" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1083">
@@ -22465,7 +22465,7 @@
         </is>
       </c>
       <c r="D1084" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1085">
@@ -22485,7 +22485,7 @@
         </is>
       </c>
       <c r="D1085" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1086">
@@ -22505,7 +22505,7 @@
         </is>
       </c>
       <c r="D1086" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1087">
@@ -22525,7 +22525,7 @@
         </is>
       </c>
       <c r="D1087" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1088">
@@ -22545,7 +22545,7 @@
         </is>
       </c>
       <c r="D1088" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1089">
@@ -22565,7 +22565,7 @@
         </is>
       </c>
       <c r="D1089" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1090">
@@ -22605,7 +22605,7 @@
         </is>
       </c>
       <c r="D1091" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1092">
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="D1092" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1093">
@@ -22645,7 +22645,7 @@
         </is>
       </c>
       <c r="D1093" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1094">
@@ -22665,7 +22665,7 @@
         </is>
       </c>
       <c r="D1094" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1095">
@@ -22685,7 +22685,7 @@
         </is>
       </c>
       <c r="D1095" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1096">
@@ -22705,7 +22705,7 @@
         </is>
       </c>
       <c r="D1096" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1097">
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D1097" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1098">
@@ -22745,7 +22745,7 @@
         </is>
       </c>
       <c r="D1098" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1099">
@@ -22765,7 +22765,7 @@
         </is>
       </c>
       <c r="D1099" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1100">
@@ -22785,7 +22785,7 @@
         </is>
       </c>
       <c r="D1100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1101">
@@ -22805,7 +22805,7 @@
         </is>
       </c>
       <c r="D1101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1102">
@@ -22825,7 +22825,7 @@
         </is>
       </c>
       <c r="D1102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1103">
@@ -22845,7 +22845,7 @@
         </is>
       </c>
       <c r="D1103" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1104">
@@ -22885,7 +22885,7 @@
         </is>
       </c>
       <c r="D1105" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1106">
@@ -22905,7 +22905,7 @@
         </is>
       </c>
       <c r="D1106" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1107">
@@ -22925,7 +22925,7 @@
         </is>
       </c>
       <c r="D1107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1108">
@@ -22945,7 +22945,7 @@
         </is>
       </c>
       <c r="D1108" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1109">
@@ -22965,7 +22965,7 @@
         </is>
       </c>
       <c r="D1109" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1110">
@@ -22985,7 +22985,7 @@
         </is>
       </c>
       <c r="D1110" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1111">
@@ -23025,7 +23025,7 @@
         </is>
       </c>
       <c r="D1112" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1113">
@@ -23045,7 +23045,7 @@
         </is>
       </c>
       <c r="D1113" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1114">
@@ -23065,7 +23065,7 @@
         </is>
       </c>
       <c r="D1114" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1115">
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D1115" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1116">
@@ -23105,7 +23105,7 @@
         </is>
       </c>
       <c r="D1116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1117">
@@ -23145,7 +23145,7 @@
         </is>
       </c>
       <c r="D1118" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1119">
@@ -23165,7 +23165,7 @@
         </is>
       </c>
       <c r="D1119" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1120">
@@ -23185,7 +23185,7 @@
         </is>
       </c>
       <c r="D1120" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1121">
@@ -23225,7 +23225,7 @@
         </is>
       </c>
       <c r="D1122" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1123">
@@ -23325,7 +23325,7 @@
         </is>
       </c>
       <c r="D1127" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1128">
@@ -23365,7 +23365,7 @@
         </is>
       </c>
       <c r="D1129" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1130">
@@ -23405,7 +23405,7 @@
         </is>
       </c>
       <c r="D1131" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1132">
@@ -23465,7 +23465,7 @@
         </is>
       </c>
       <c r="D1134" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1135">
@@ -23485,7 +23485,7 @@
         </is>
       </c>
       <c r="D1135" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1136">
@@ -23525,7 +23525,7 @@
         </is>
       </c>
       <c r="D1137" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1138">
@@ -23565,7 +23565,7 @@
         </is>
       </c>
       <c r="D1139" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1140">
@@ -23605,7 +23605,7 @@
         </is>
       </c>
       <c r="D1141" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1142">
@@ -23665,7 +23665,7 @@
         </is>
       </c>
       <c r="D1144" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1145">
@@ -23725,7 +23725,7 @@
         </is>
       </c>
       <c r="D1147" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1148">
@@ -23765,7 +23765,7 @@
         </is>
       </c>
       <c r="D1149" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1150">
@@ -23845,7 +23845,7 @@
         </is>
       </c>
       <c r="D1153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1154">
@@ -23865,7 +23865,7 @@
         </is>
       </c>
       <c r="D1154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1155">
@@ -23905,7 +23905,7 @@
         </is>
       </c>
       <c r="D1156" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1157">
@@ -23945,7 +23945,7 @@
         </is>
       </c>
       <c r="D1158" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1159">
@@ -24025,7 +24025,7 @@
         </is>
       </c>
       <c r="D1162" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1163">
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="D1163" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1164">
@@ -24065,7 +24065,7 @@
         </is>
       </c>
       <c r="D1164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1165">
@@ -24085,7 +24085,7 @@
         </is>
       </c>
       <c r="D1165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1166">
@@ -24105,7 +24105,7 @@
         </is>
       </c>
       <c r="D1166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1167">
@@ -24125,7 +24125,7 @@
         </is>
       </c>
       <c r="D1167" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1168">
@@ -24145,7 +24145,7 @@
         </is>
       </c>
       <c r="D1168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1169">
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D1169" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1170">
@@ -24185,7 +24185,7 @@
         </is>
       </c>
       <c r="D1170" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1171">
@@ -24225,7 +24225,7 @@
         </is>
       </c>
       <c r="D1172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1173">
@@ -24245,7 +24245,7 @@
         </is>
       </c>
       <c r="D1173" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1174">
@@ -24265,7 +24265,7 @@
         </is>
       </c>
       <c r="D1174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1175">
@@ -24285,7 +24285,7 @@
         </is>
       </c>
       <c r="D1175" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1176">
@@ -24325,7 +24325,7 @@
         </is>
       </c>
       <c r="D1177" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1178">
@@ -24345,7 +24345,7 @@
         </is>
       </c>
       <c r="D1178" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1179">
@@ -24365,7 +24365,7 @@
         </is>
       </c>
       <c r="D1179" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1180">
@@ -24405,7 +24405,7 @@
         </is>
       </c>
       <c r="D1181" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1182">
@@ -24425,7 +24425,7 @@
         </is>
       </c>
       <c r="D1182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1183">
@@ -24445,7 +24445,7 @@
         </is>
       </c>
       <c r="D1183" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1184">
@@ -24465,7 +24465,7 @@
         </is>
       </c>
       <c r="D1184" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1185">
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D1187" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1188">
@@ -24565,7 +24565,7 @@
         </is>
       </c>
       <c r="D1189" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1190">
@@ -24585,7 +24585,7 @@
         </is>
       </c>
       <c r="D1190" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1191">
@@ -24605,7 +24605,7 @@
         </is>
       </c>
       <c r="D1191" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1192">
@@ -24645,7 +24645,7 @@
         </is>
       </c>
       <c r="D1193" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1194">
@@ -24685,7 +24685,7 @@
         </is>
       </c>
       <c r="D1195" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1196">
@@ -24705,7 +24705,7 @@
         </is>
       </c>
       <c r="D1196" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1197">
@@ -24725,7 +24725,7 @@
         </is>
       </c>
       <c r="D1197" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1198">
@@ -24745,7 +24745,7 @@
         </is>
       </c>
       <c r="D1198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1199">
@@ -24765,7 +24765,7 @@
         </is>
       </c>
       <c r="D1199" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1200">
@@ -24785,7 +24785,7 @@
         </is>
       </c>
       <c r="D1200" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1201">
@@ -24825,7 +24825,7 @@
         </is>
       </c>
       <c r="D1202" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1203">
@@ -24845,7 +24845,7 @@
         </is>
       </c>
       <c r="D1203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1204">
@@ -24865,7 +24865,7 @@
         </is>
       </c>
       <c r="D1204" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1205">
@@ -24905,7 +24905,7 @@
         </is>
       </c>
       <c r="D1206" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1207">
@@ -24925,7 +24925,7 @@
         </is>
       </c>
       <c r="D1207" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1208">
@@ -24945,7 +24945,7 @@
         </is>
       </c>
       <c r="D1208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1209">
@@ -24985,7 +24985,7 @@
         </is>
       </c>
       <c r="D1210" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1211">
@@ -25025,7 +25025,7 @@
         </is>
       </c>
       <c r="D1212" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1213">
@@ -25045,7 +25045,7 @@
         </is>
       </c>
       <c r="D1213" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1214">
@@ -25065,7 +25065,7 @@
         </is>
       </c>
       <c r="D1214" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1215">
@@ -25125,7 +25125,7 @@
         </is>
       </c>
       <c r="D1217" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1218">
@@ -25145,7 +25145,7 @@
         </is>
       </c>
       <c r="D1218" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1219">
@@ -25165,7 +25165,7 @@
         </is>
       </c>
       <c r="D1219" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1220">
@@ -25185,7 +25185,7 @@
         </is>
       </c>
       <c r="D1220" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1221">
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D1223" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1224">
@@ -25265,7 +25265,7 @@
         </is>
       </c>
       <c r="D1224" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1225">
@@ -25305,7 +25305,7 @@
         </is>
       </c>
       <c r="D1226" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1227">
@@ -25325,7 +25325,7 @@
         </is>
       </c>
       <c r="D1227" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1228">
@@ -25345,7 +25345,7 @@
         </is>
       </c>
       <c r="D1228" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1229">
@@ -25365,7 +25365,7 @@
         </is>
       </c>
       <c r="D1229" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1230">
@@ -25385,7 +25385,7 @@
         </is>
       </c>
       <c r="D1230" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1231">
@@ -25405,7 +25405,7 @@
         </is>
       </c>
       <c r="D1231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1232">
@@ -25425,7 +25425,7 @@
         </is>
       </c>
       <c r="D1232" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1233">
@@ -25465,7 +25465,7 @@
         </is>
       </c>
       <c r="D1234" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1235">
@@ -25485,7 +25485,7 @@
         </is>
       </c>
       <c r="D1235" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1236">
@@ -25505,7 +25505,7 @@
         </is>
       </c>
       <c r="D1236" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1237">
@@ -25525,7 +25525,7 @@
         </is>
       </c>
       <c r="D1237" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1238">
@@ -25565,7 +25565,7 @@
         </is>
       </c>
       <c r="D1239" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1240">
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D1241" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1242">
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="D1242" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1243">
@@ -25685,7 +25685,7 @@
         </is>
       </c>
       <c r="D1245" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1246">
@@ -25725,7 +25725,7 @@
         </is>
       </c>
       <c r="D1247" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1248">
@@ -25745,7 +25745,7 @@
         </is>
       </c>
       <c r="D1248" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1249">
@@ -25765,7 +25765,7 @@
         </is>
       </c>
       <c r="D1249" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1250">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="D1250" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1251">
@@ -25805,7 +25805,7 @@
         </is>
       </c>
       <c r="D1251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1252">
@@ -25825,7 +25825,7 @@
         </is>
       </c>
       <c r="D1252" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1253">
@@ -25845,7 +25845,7 @@
         </is>
       </c>
       <c r="D1253" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1254">
@@ -25865,7 +25865,7 @@
         </is>
       </c>
       <c r="D1254" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1255">
@@ -25885,7 +25885,7 @@
         </is>
       </c>
       <c r="D1255" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1256">
@@ -25905,7 +25905,7 @@
         </is>
       </c>
       <c r="D1256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1257">
@@ -25925,7 +25925,7 @@
         </is>
       </c>
       <c r="D1257" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1258">
@@ -25945,7 +25945,7 @@
         </is>
       </c>
       <c r="D1258" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1259">
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D1259" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1260">
@@ -25985,7 +25985,7 @@
         </is>
       </c>
       <c r="D1260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1261">
@@ -26005,7 +26005,7 @@
         </is>
       </c>
       <c r="D1261" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1262">
@@ -26025,7 +26025,7 @@
         </is>
       </c>
       <c r="D1262" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1263">
@@ -26045,7 +26045,7 @@
         </is>
       </c>
       <c r="D1263" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1264">
@@ -26065,7 +26065,7 @@
         </is>
       </c>
       <c r="D1264" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1265">
@@ -26085,7 +26085,7 @@
         </is>
       </c>
       <c r="D1265" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1266">
@@ -26105,7 +26105,7 @@
         </is>
       </c>
       <c r="D1266" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1267">
@@ -26125,6 +26125,46 @@
         </is>
       </c>
       <c r="D1267" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="inlineStr">
+        <is>
+          <t>enough (형용사)</t>
+        </is>
+      </c>
+      <c r="B1268" t="inlineStr">
+        <is>
+          <t>enough + 수식대상 | 수식대상 + enough(부사)</t>
+        </is>
+      </c>
+      <c r="C1268" t="inlineStr">
+        <is>
+          <t>enough (형용사) vs enough (부사)</t>
+        </is>
+      </c>
+      <c r="D1268" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="inlineStr">
+        <is>
+          <t>enough(부사)</t>
+        </is>
+      </c>
+      <c r="B1269" t="inlineStr">
+        <is>
+          <t>수식대상 + enough | enough(형용사) + 수식대상</t>
+        </is>
+      </c>
+      <c r="C1269" t="inlineStr">
+        <is>
+          <t>enough (형용사) vs enough (부사)</t>
+        </is>
+      </c>
+      <c r="D1269" t="n">
         <v>0</v>
       </c>
     </row>

--- a/학습자료/단답형/영어_복습.xlsx
+++ b/학습자료/단답형/영어_복습.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="3">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="6">
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="11">
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="31">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="32">
@@ -1418,7 +1418,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="48">
@@ -1439,7 +1439,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1520,7 +1520,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1600,7 +1600,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="57">
@@ -1640,7 +1640,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="59">
@@ -1740,7 +1740,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="64">
@@ -1780,7 +1780,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="66">
@@ -1960,7 +1960,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="75">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="81">
@@ -2103,7 +2103,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82">
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2145,7 +2145,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="84">
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="94">
@@ -2544,7 +2544,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="103">
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="104">
@@ -2775,7 +2775,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="114">
@@ -2880,7 +2880,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="119">
@@ -2901,7 +2901,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="121">
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="124">
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -3048,7 +3048,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="127">
@@ -3111,7 +3111,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="130">
@@ -3195,7 +3195,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="134">
@@ -3780,7 +3780,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="162">
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="165">
@@ -4103,7 +4103,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="178">
@@ -4124,7 +4124,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="179">
@@ -4208,7 +4208,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="183">
@@ -4250,7 +4250,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="185">
@@ -4313,7 +4313,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188">
@@ -4373,7 +4373,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="191">
@@ -4513,7 +4513,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="198">
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="205">
@@ -4839,7 +4839,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="214">
@@ -4923,7 +4923,7 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218">
@@ -4986,7 +4986,7 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="221">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="229">
@@ -5206,7 +5206,7 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="232">
@@ -5386,7 +5386,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="241">
@@ -5526,7 +5526,7 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="248">
@@ -5606,7 +5606,7 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="252">
@@ -5686,7 +5686,7 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="256">
@@ -5766,7 +5766,7 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="260">
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="263">
@@ -5966,7 +5966,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="270">
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="271">
@@ -6006,7 +6006,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -6186,7 +6186,7 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281">
@@ -6206,7 +6206,7 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="282">
@@ -6266,7 +6266,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="285">
@@ -6286,7 +6286,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="286">
@@ -6426,7 +6426,7 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="293">
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="298">
@@ -6650,7 +6650,7 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
@@ -6876,7 +6876,7 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="315">
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="319">
@@ -7117,7 +7117,7 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="327">
@@ -7177,7 +7177,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="330">
@@ -7237,7 +7237,7 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="333">
@@ -7257,7 +7257,7 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="334">
@@ -7297,7 +7297,7 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="336">
@@ -7357,7 +7357,7 @@
         </is>
       </c>
       <c r="D338" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="339">
@@ -7520,7 +7520,7 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="347">
@@ -7604,7 +7604,7 @@
         </is>
       </c>
       <c r="D350" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="351">
@@ -7688,7 +7688,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="355">
@@ -7730,7 +7730,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="357">
@@ -7751,7 +7751,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="358">
@@ -8360,7 +8360,7 @@
         </is>
       </c>
       <c r="D387" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="388">
@@ -8400,7 +8400,7 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="390">
@@ -8460,7 +8460,7 @@
         </is>
       </c>
       <c r="D392" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="393">
@@ -8620,7 +8620,7 @@
         </is>
       </c>
       <c r="D400" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="401">
@@ -8640,7 +8640,7 @@
         </is>
       </c>
       <c r="D401" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="402">
@@ -8960,7 +8960,7 @@
         </is>
       </c>
       <c r="D417" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="418">
@@ -8980,7 +8980,7 @@
         </is>
       </c>
       <c r="D418" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="419">
@@ -9140,7 +9140,7 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="427">
@@ -9160,7 +9160,7 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="428">
@@ -9220,7 +9220,7 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="431">
@@ -9240,7 +9240,7 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="432">
@@ -9280,7 +9280,7 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="434">
@@ -9580,7 +9580,7 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="449">
@@ -9640,7 +9640,7 @@
         </is>
       </c>
       <c r="D451" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="452">
@@ -9680,7 +9680,7 @@
         </is>
       </c>
       <c r="D453" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="454">
@@ -9760,7 +9760,7 @@
         </is>
       </c>
       <c r="D457" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="458">
@@ -9800,7 +9800,7 @@
         </is>
       </c>
       <c r="D459" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="460">
@@ -9900,7 +9900,7 @@
         </is>
       </c>
       <c r="D464" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="465">
@@ -10100,7 +10100,7 @@
         </is>
       </c>
       <c r="D474" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="475">
@@ -10120,7 +10120,7 @@
         </is>
       </c>
       <c r="D475" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="476">
@@ -10200,7 +10200,7 @@
         </is>
       </c>
       <c r="D479" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="480">
@@ -10280,7 +10280,7 @@
         </is>
       </c>
       <c r="D483" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="484">
@@ -10362,7 +10362,7 @@
         </is>
       </c>
       <c r="D487" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="488">
@@ -10812,7 +10812,7 @@
         </is>
       </c>
       <c r="D509" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="510">
@@ -11057,7 +11057,7 @@
         </is>
       </c>
       <c r="D521" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="522">
@@ -11099,7 +11099,7 @@
         </is>
       </c>
       <c r="D523" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="524">
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D536" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="537">
@@ -11428,7 +11428,7 @@
         </is>
       </c>
       <c r="D539" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="540">
@@ -11533,7 +11533,7 @@
         </is>
       </c>
       <c r="D544" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="545">
@@ -11593,7 +11593,7 @@
         </is>
       </c>
       <c r="D547" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="548">
@@ -11613,7 +11613,7 @@
         </is>
       </c>
       <c r="D548" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="549">
@@ -11653,7 +11653,7 @@
         </is>
       </c>
       <c r="D550" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="551">
@@ -11695,7 +11695,7 @@
         </is>
       </c>
       <c r="D552" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="553">
@@ -11779,7 +11779,7 @@
         </is>
       </c>
       <c r="D556" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="557">
@@ -11800,7 +11800,7 @@
         </is>
       </c>
       <c r="D557" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="558">
@@ -11842,7 +11842,7 @@
         </is>
       </c>
       <c r="D559" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="560">
@@ -11884,7 +11884,7 @@
         </is>
       </c>
       <c r="D561" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="562">
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D563" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="564">
@@ -11945,7 +11945,7 @@
         </is>
       </c>
       <c r="D564" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="565">
@@ -11985,7 +11985,7 @@
         </is>
       </c>
       <c r="D566" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="567">
@@ -12130,7 +12130,7 @@
         </is>
       </c>
       <c r="D573" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="574">
@@ -12298,7 +12298,7 @@
         </is>
       </c>
       <c r="D581" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="582">
@@ -12361,7 +12361,7 @@
         </is>
       </c>
       <c r="D584" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="585">
@@ -12464,7 +12464,7 @@
         </is>
       </c>
       <c r="D589" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="590">
@@ -12504,7 +12504,7 @@
         </is>
       </c>
       <c r="D591" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="592">
@@ -12608,7 +12608,7 @@
         </is>
       </c>
       <c r="D596" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="597">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="D610" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611">
@@ -13022,7 +13022,7 @@
         </is>
       </c>
       <c r="D616" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="617">
@@ -13043,7 +13043,7 @@
         </is>
       </c>
       <c r="D617" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="618">
@@ -13063,7 +13063,7 @@
         </is>
       </c>
       <c r="D618" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="619">
@@ -13104,7 +13104,7 @@
         </is>
       </c>
       <c r="D620" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="621">
@@ -13328,7 +13328,7 @@
         </is>
       </c>
       <c r="D631" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="632">
@@ -13513,7 +13513,7 @@
         </is>
       </c>
       <c r="D640" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="641">
@@ -13639,7 +13639,7 @@
         </is>
       </c>
       <c r="D646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647">
@@ -13723,7 +13723,7 @@
         </is>
       </c>
       <c r="D650" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="651">
@@ -13825,7 +13825,7 @@
         </is>
       </c>
       <c r="D655" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="656">
@@ -13885,7 +13885,7 @@
         </is>
       </c>
       <c r="D658" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="659">
@@ -14177,7 +14177,7 @@
         </is>
       </c>
       <c r="D672" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="673">
@@ -14339,7 +14339,7 @@
         </is>
       </c>
       <c r="D680" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="681">
@@ -14360,7 +14360,7 @@
         </is>
       </c>
       <c r="D681" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="682">
@@ -14381,7 +14381,7 @@
         </is>
       </c>
       <c r="D682" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="683">
@@ -14587,7 +14587,7 @@
         </is>
       </c>
       <c r="D692" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="693">
@@ -14941,7 +14941,7 @@
         </is>
       </c>
       <c r="D709" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710">
@@ -14962,7 +14962,7 @@
         </is>
       </c>
       <c r="D710" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711">
@@ -15143,7 +15143,7 @@
         </is>
       </c>
       <c r="D719" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="720">
@@ -15303,7 +15303,7 @@
         </is>
       </c>
       <c r="D727" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="728">
@@ -15523,7 +15523,7 @@
         </is>
       </c>
       <c r="D738" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="739">
@@ -15623,7 +15623,7 @@
         </is>
       </c>
       <c r="D743" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744">
@@ -15723,7 +15723,7 @@
         </is>
       </c>
       <c r="D748" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="749">
@@ -15783,7 +15783,7 @@
         </is>
       </c>
       <c r="D751" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="752">
@@ -15963,7 +15963,7 @@
         </is>
       </c>
       <c r="D760" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="761">
@@ -16043,7 +16043,7 @@
         </is>
       </c>
       <c r="D764" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765">
@@ -16063,7 +16063,7 @@
         </is>
       </c>
       <c r="D765" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="766">
@@ -16143,7 +16143,7 @@
         </is>
       </c>
       <c r="D769" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="770">
@@ -16483,7 +16483,7 @@
         </is>
       </c>
       <c r="D786" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787">
@@ -16623,7 +16623,7 @@
         </is>
       </c>
       <c r="D793" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794">
@@ -16743,7 +16743,7 @@
         </is>
       </c>
       <c r="D799" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="800">
@@ -16783,7 +16783,7 @@
         </is>
       </c>
       <c r="D801" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="802">
@@ -16883,7 +16883,7 @@
         </is>
       </c>
       <c r="D806" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="807">
@@ -16983,7 +16983,7 @@
         </is>
       </c>
       <c r="D811" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="812">
@@ -17085,7 +17085,7 @@
         </is>
       </c>
       <c r="D816" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="817">
@@ -17105,7 +17105,7 @@
         </is>
       </c>
       <c r="D817" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="818">
@@ -17265,7 +17265,7 @@
         </is>
       </c>
       <c r="D825" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="826">
@@ -17365,7 +17365,7 @@
         </is>
       </c>
       <c r="D830" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="831">
@@ -17625,7 +17625,7 @@
         </is>
       </c>
       <c r="D843" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844">
@@ -17645,7 +17645,7 @@
         </is>
       </c>
       <c r="D844" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="845">
@@ -17665,7 +17665,7 @@
         </is>
       </c>
       <c r="D845" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="846">
@@ -17825,7 +17825,7 @@
         </is>
       </c>
       <c r="D853" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="854">
@@ -17905,7 +17905,7 @@
         </is>
       </c>
       <c r="D857" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="858">
@@ -17945,7 +17945,7 @@
         </is>
       </c>
       <c r="D859" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="860">
@@ -18265,7 +18265,7 @@
         </is>
       </c>
       <c r="D875" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="876">
@@ -18285,7 +18285,7 @@
         </is>
       </c>
       <c r="D876" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="877">
@@ -18855,7 +18855,7 @@
         </is>
       </c>
       <c r="D904" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905">
@@ -18876,7 +18876,7 @@
         </is>
       </c>
       <c r="D905" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906">
@@ -18939,7 +18939,7 @@
         </is>
       </c>
       <c r="D908" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="909">
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D910" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="911">
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D917" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918">
@@ -19325,7 +19325,7 @@
         </is>
       </c>
       <c r="D927" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928">
@@ -19465,7 +19465,7 @@
         </is>
       </c>
       <c r="D934" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="935">
@@ -19505,7 +19505,7 @@
         </is>
       </c>
       <c r="D936" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="937">
@@ -19545,7 +19545,7 @@
         </is>
       </c>
       <c r="D938" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="939">
@@ -19685,7 +19685,7 @@
         </is>
       </c>
       <c r="D945" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946">
@@ -19745,7 +19745,7 @@
         </is>
       </c>
       <c r="D948" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="949">
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D953" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="954">
@@ -19925,7 +19925,7 @@
         </is>
       </c>
       <c r="D957" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="958">
@@ -19945,7 +19945,7 @@
         </is>
       </c>
       <c r="D958" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959">
@@ -19965,7 +19965,7 @@
         </is>
       </c>
       <c r="D959" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960">
@@ -20005,7 +20005,7 @@
         </is>
       </c>
       <c r="D961" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="962">
@@ -20025,7 +20025,7 @@
         </is>
       </c>
       <c r="D962" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963">
@@ -20045,7 +20045,7 @@
         </is>
       </c>
       <c r="D963" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="964">
@@ -20085,7 +20085,7 @@
         </is>
       </c>
       <c r="D965" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="966">
@@ -20145,7 +20145,7 @@
         </is>
       </c>
       <c r="D968" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="969">
@@ -20165,7 +20165,7 @@
         </is>
       </c>
       <c r="D969" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970">
@@ -20185,7 +20185,7 @@
         </is>
       </c>
       <c r="D970" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="971">
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D971" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="972">
@@ -20225,7 +20225,7 @@
         </is>
       </c>
       <c r="D972" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973">
@@ -20245,7 +20245,7 @@
         </is>
       </c>
       <c r="D973" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="974">
@@ -20325,7 +20325,7 @@
         </is>
       </c>
       <c r="D977" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="978">
@@ -20445,7 +20445,7 @@
         </is>
       </c>
       <c r="D983" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984">
@@ -20545,7 +20545,7 @@
         </is>
       </c>
       <c r="D988" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989">
@@ -20605,7 +20605,7 @@
         </is>
       </c>
       <c r="D991" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992">
@@ -20645,7 +20645,7 @@
         </is>
       </c>
       <c r="D993" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="994">
@@ -20725,7 +20725,7 @@
         </is>
       </c>
       <c r="D997" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="998">
@@ -20765,7 +20765,7 @@
         </is>
       </c>
       <c r="D999" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1000">
@@ -20805,7 +20805,7 @@
         </is>
       </c>
       <c r="D1001" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1002">
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D1007" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1008">
@@ -20945,7 +20945,7 @@
         </is>
       </c>
       <c r="D1008" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1009">
@@ -21125,7 +21125,7 @@
         </is>
       </c>
       <c r="D1017" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1018">
@@ -21185,7 +21185,7 @@
         </is>
       </c>
       <c r="D1020" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1021">
@@ -21365,7 +21365,7 @@
         </is>
       </c>
       <c r="D1029" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1030">
@@ -21385,7 +21385,7 @@
         </is>
       </c>
       <c r="D1030" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1031">
@@ -21425,7 +21425,7 @@
         </is>
       </c>
       <c r="D1032" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1033">
@@ -21445,7 +21445,7 @@
         </is>
       </c>
       <c r="D1033" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1034">
@@ -21625,7 +21625,7 @@
         </is>
       </c>
       <c r="D1042" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1043">
@@ -21685,7 +21685,7 @@
         </is>
       </c>
       <c r="D1045" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1046">
@@ -21745,7 +21745,7 @@
         </is>
       </c>
       <c r="D1048" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1049">
@@ -21785,7 +21785,7 @@
         </is>
       </c>
       <c r="D1050" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1051">
@@ -21825,7 +21825,7 @@
         </is>
       </c>
       <c r="D1052" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1053">
@@ -21865,7 +21865,7 @@
         </is>
       </c>
       <c r="D1054" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1055">
@@ -21905,7 +21905,7 @@
         </is>
       </c>
       <c r="D1056" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1057">
@@ -21945,7 +21945,7 @@
         </is>
       </c>
       <c r="D1058" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1059">
@@ -22145,7 +22145,7 @@
         </is>
       </c>
       <c r="D1068" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1069">
@@ -22225,7 +22225,7 @@
         </is>
       </c>
       <c r="D1072" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1073">
@@ -22245,7 +22245,7 @@
         </is>
       </c>
       <c r="D1073" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1074">
@@ -22265,7 +22265,7 @@
         </is>
       </c>
       <c r="D1074" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1075">
@@ -22285,7 +22285,7 @@
         </is>
       </c>
       <c r="D1075" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1076">
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D1079" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1080">
@@ -22505,7 +22505,7 @@
         </is>
       </c>
       <c r="D1086" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1087">
@@ -22525,7 +22525,7 @@
         </is>
       </c>
       <c r="D1087" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1088">
@@ -22645,7 +22645,7 @@
         </is>
       </c>
       <c r="D1093" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1094">
@@ -22685,7 +22685,7 @@
         </is>
       </c>
       <c r="D1095" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1096">
@@ -22705,7 +22705,7 @@
         </is>
       </c>
       <c r="D1096" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1097">
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D1097" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1098">
@@ -22765,7 +22765,7 @@
         </is>
       </c>
       <c r="D1099" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1100">
@@ -22785,7 +22785,7 @@
         </is>
       </c>
       <c r="D1100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1101">
@@ -22805,7 +22805,7 @@
         </is>
       </c>
       <c r="D1101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1102">
@@ -22825,7 +22825,7 @@
         </is>
       </c>
       <c r="D1102" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1103">
@@ -22925,7 +22925,7 @@
         </is>
       </c>
       <c r="D1107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1108">
@@ -22985,7 +22985,7 @@
         </is>
       </c>
       <c r="D1110" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1111">
@@ -23005,7 +23005,7 @@
         </is>
       </c>
       <c r="D1111" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1112">
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D1115" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1116">
@@ -23105,7 +23105,7 @@
         </is>
       </c>
       <c r="D1116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1117">
@@ -23425,7 +23425,7 @@
         </is>
       </c>
       <c r="D1132" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1133">
@@ -23785,7 +23785,7 @@
         </is>
       </c>
       <c r="D1150" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1151">
@@ -23845,7 +23845,7 @@
         </is>
       </c>
       <c r="D1153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1154">
@@ -23865,7 +23865,7 @@
         </is>
       </c>
       <c r="D1154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1155">
@@ -24065,7 +24065,7 @@
         </is>
       </c>
       <c r="D1164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1165">
@@ -24085,7 +24085,7 @@
         </is>
       </c>
       <c r="D1165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1166">
@@ -24105,7 +24105,7 @@
         </is>
       </c>
       <c r="D1166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1167">
@@ -24145,7 +24145,7 @@
         </is>
       </c>
       <c r="D1168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1169">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="D1171" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1172">
@@ -24225,7 +24225,7 @@
         </is>
       </c>
       <c r="D1172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1173">
@@ -24265,7 +24265,7 @@
         </is>
       </c>
       <c r="D1174" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1175">
@@ -24285,7 +24285,7 @@
         </is>
       </c>
       <c r="D1175" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1176">
@@ -24365,7 +24365,7 @@
         </is>
       </c>
       <c r="D1179" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1180">
@@ -24405,7 +24405,7 @@
         </is>
       </c>
       <c r="D1181" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1182">
@@ -24425,7 +24425,7 @@
         </is>
       </c>
       <c r="D1182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1183">
@@ -24745,7 +24745,7 @@
         </is>
       </c>
       <c r="D1198" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1199">
@@ -24765,7 +24765,7 @@
         </is>
       </c>
       <c r="D1199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1200">
@@ -24845,7 +24845,7 @@
         </is>
       </c>
       <c r="D1203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1204">
@@ -24945,7 +24945,7 @@
         </is>
       </c>
       <c r="D1208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1209">
@@ -25005,7 +25005,7 @@
         </is>
       </c>
       <c r="D1211" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1212">
@@ -25025,7 +25025,7 @@
         </is>
       </c>
       <c r="D1212" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1213">
@@ -25145,7 +25145,7 @@
         </is>
       </c>
       <c r="D1218" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1219">
@@ -25285,7 +25285,7 @@
         </is>
       </c>
       <c r="D1225" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1226">
@@ -25305,7 +25305,7 @@
         </is>
       </c>
       <c r="D1226" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1227">
@@ -25405,7 +25405,7 @@
         </is>
       </c>
       <c r="D1231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1232">
@@ -25465,7 +25465,7 @@
         </is>
       </c>
       <c r="D1234" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1235">
@@ -25485,7 +25485,7 @@
         </is>
       </c>
       <c r="D1235" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1236">
@@ -25505,7 +25505,7 @@
         </is>
       </c>
       <c r="D1236" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1237">
@@ -25805,7 +25805,7 @@
         </is>
       </c>
       <c r="D1251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1252">
@@ -25905,7 +25905,7 @@
         </is>
       </c>
       <c r="D1256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1257">
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D1259" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1260">
@@ -25985,7 +25985,7 @@
         </is>
       </c>
       <c r="D1260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1261">
@@ -26025,7 +26025,7 @@
         </is>
       </c>
       <c r="D1262" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1263">
@@ -26145,7 +26145,7 @@
         </is>
       </c>
       <c r="D1268" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1269">
@@ -26165,7 +26165,7 @@
         </is>
       </c>
       <c r="D1269" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/영어_복습.xlsx
+++ b/학습자료/단답형/영어_복습.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1269"/>
+  <dimension ref="A1:D1270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1520,7 +1520,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53">
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="54">
@@ -1560,7 +1560,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="55">
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -2901,7 +2901,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126">
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="210">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="234">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="254">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="259">
@@ -6006,7 +6006,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="272">
@@ -6126,7 +6126,7 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="278">
@@ -6186,7 +6186,7 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="281">
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="287">
@@ -6650,7 +6650,7 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
@@ -7197,7 +7197,7 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="331">
@@ -8680,7 +8680,7 @@
         </is>
       </c>
       <c r="D403" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
@@ -9100,7 +9100,7 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
@@ -9540,7 +9540,7 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="447">
@@ -9720,7 +9720,7 @@
         </is>
       </c>
       <c r="D455" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="456">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="D610" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611">
@@ -13639,7 +13639,7 @@
         </is>
       </c>
       <c r="D646" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="647">
@@ -14941,7 +14941,7 @@
         </is>
       </c>
       <c r="D709" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="710">
@@ -14962,7 +14962,7 @@
         </is>
       </c>
       <c r="D710" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="711">
@@ -15143,7 +15143,7 @@
         </is>
       </c>
       <c r="D719" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="720">
@@ -15623,7 +15623,7 @@
         </is>
       </c>
       <c r="D743" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744">
@@ -15723,7 +15723,7 @@
         </is>
       </c>
       <c r="D748" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="749">
@@ -15783,7 +15783,7 @@
         </is>
       </c>
       <c r="D751" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="752">
@@ -16043,7 +16043,7 @@
         </is>
       </c>
       <c r="D764" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="765">
@@ -16103,7 +16103,7 @@
         </is>
       </c>
       <c r="D767" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="768">
@@ -16463,7 +16463,7 @@
         </is>
       </c>
       <c r="D785" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786">
@@ -16483,7 +16483,7 @@
         </is>
       </c>
       <c r="D786" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="787">
@@ -16623,7 +16623,7 @@
         </is>
       </c>
       <c r="D793" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794">
@@ -16883,7 +16883,7 @@
         </is>
       </c>
       <c r="D806" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="807">
@@ -16983,7 +16983,7 @@
         </is>
       </c>
       <c r="D811" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="812">
@@ -17305,7 +17305,7 @@
         </is>
       </c>
       <c r="D827" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="828">
@@ -17605,7 +17605,7 @@
         </is>
       </c>
       <c r="D842" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="843">
@@ -17625,7 +17625,7 @@
         </is>
       </c>
       <c r="D843" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844">
@@ -18855,7 +18855,7 @@
         </is>
       </c>
       <c r="D904" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="905">
@@ -18876,7 +18876,7 @@
         </is>
       </c>
       <c r="D905" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="906">
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D917" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="918">
@@ -19325,7 +19325,7 @@
         </is>
       </c>
       <c r="D927" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="928">
@@ -19685,7 +19685,7 @@
         </is>
       </c>
       <c r="D945" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="946">
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D953" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="954">
@@ -19945,7 +19945,7 @@
         </is>
       </c>
       <c r="D958" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="959">
@@ -19965,7 +19965,7 @@
         </is>
       </c>
       <c r="D959" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="960">
@@ -20005,7 +20005,7 @@
         </is>
       </c>
       <c r="D961" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="962">
@@ -20025,7 +20025,7 @@
         </is>
       </c>
       <c r="D962" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="963">
@@ -20045,7 +20045,7 @@
         </is>
       </c>
       <c r="D963" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="964">
@@ -20085,7 +20085,7 @@
         </is>
       </c>
       <c r="D965" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="966">
@@ -20145,7 +20145,7 @@
         </is>
       </c>
       <c r="D968" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="969">
@@ -20165,7 +20165,7 @@
         </is>
       </c>
       <c r="D969" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="970">
@@ -20185,7 +20185,7 @@
         </is>
       </c>
       <c r="D970" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="971">
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D971" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="972">
@@ -20225,7 +20225,7 @@
         </is>
       </c>
       <c r="D972" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="973">
@@ -20445,7 +20445,7 @@
         </is>
       </c>
       <c r="D983" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="984">
@@ -20545,7 +20545,7 @@
         </is>
       </c>
       <c r="D988" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="989">
@@ -20605,7 +20605,7 @@
         </is>
       </c>
       <c r="D991" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="992">
@@ -20765,7 +20765,7 @@
         </is>
       </c>
       <c r="D999" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1000">
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D1007" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1008">
@@ -20945,7 +20945,7 @@
         </is>
       </c>
       <c r="D1008" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1009">
@@ -21185,7 +21185,7 @@
         </is>
       </c>
       <c r="D1020" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1021">
@@ -21365,7 +21365,7 @@
         </is>
       </c>
       <c r="D1029" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1030">
@@ -21425,7 +21425,7 @@
         </is>
       </c>
       <c r="D1032" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1033">
@@ -21445,7 +21445,7 @@
         </is>
       </c>
       <c r="D1033" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1034">
@@ -21685,7 +21685,7 @@
         </is>
       </c>
       <c r="D1045" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1046">
@@ -21945,7 +21945,7 @@
         </is>
       </c>
       <c r="D1058" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1059">
@@ -22145,7 +22145,7 @@
         </is>
       </c>
       <c r="D1068" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1069">
@@ -22245,7 +22245,7 @@
         </is>
       </c>
       <c r="D1073" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1074">
@@ -22285,7 +22285,7 @@
         </is>
       </c>
       <c r="D1075" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1076">
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D1079" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1080">
@@ -22645,7 +22645,7 @@
         </is>
       </c>
       <c r="D1093" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1094">
@@ -22685,7 +22685,7 @@
         </is>
       </c>
       <c r="D1095" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1096">
@@ -22705,7 +22705,7 @@
         </is>
       </c>
       <c r="D1096" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1097">
@@ -22765,7 +22765,7 @@
         </is>
       </c>
       <c r="D1099" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1100">
@@ -22785,7 +22785,7 @@
         </is>
       </c>
       <c r="D1100" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1101">
@@ -22805,7 +22805,7 @@
         </is>
       </c>
       <c r="D1101" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1102">
@@ -22925,7 +22925,7 @@
         </is>
       </c>
       <c r="D1107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1108">
@@ -22985,7 +22985,7 @@
         </is>
       </c>
       <c r="D1110" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1111">
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D1115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1116">
@@ -23105,7 +23105,7 @@
         </is>
       </c>
       <c r="D1116" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1117">
@@ -23845,7 +23845,7 @@
         </is>
       </c>
       <c r="D1153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1154">
@@ -23865,7 +23865,7 @@
         </is>
       </c>
       <c r="D1154" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1155">
@@ -24065,7 +24065,7 @@
         </is>
       </c>
       <c r="D1164" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1165">
@@ -24085,7 +24085,7 @@
         </is>
       </c>
       <c r="D1165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1166">
@@ -24105,7 +24105,7 @@
         </is>
       </c>
       <c r="D1166" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1167">
@@ -24145,7 +24145,7 @@
         </is>
       </c>
       <c r="D1168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1169">
@@ -24225,7 +24225,7 @@
         </is>
       </c>
       <c r="D1172" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1173">
@@ -24425,7 +24425,7 @@
         </is>
       </c>
       <c r="D1182" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1183">
@@ -24625,7 +24625,7 @@
         </is>
       </c>
       <c r="D1192" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1193">
@@ -24765,7 +24765,7 @@
         </is>
       </c>
       <c r="D1199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1200">
@@ -24845,7 +24845,7 @@
         </is>
       </c>
       <c r="D1203" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1204">
@@ -24945,7 +24945,7 @@
         </is>
       </c>
       <c r="D1208" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1209">
@@ -25405,7 +25405,7 @@
         </is>
       </c>
       <c r="D1231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1232">
@@ -25445,7 +25445,7 @@
         </is>
       </c>
       <c r="D1233" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1234">
@@ -25505,7 +25505,7 @@
         </is>
       </c>
       <c r="D1236" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1237">
@@ -25805,7 +25805,7 @@
         </is>
       </c>
       <c r="D1251" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1252">
@@ -25905,7 +25905,7 @@
         </is>
       </c>
       <c r="D1256" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1257">
@@ -25985,7 +25985,7 @@
         </is>
       </c>
       <c r="D1260" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1261">
@@ -26166,6 +26166,26 @@
       </c>
       <c r="D1269" t="n">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="inlineStr">
+        <is>
+          <t>a variety of 복수명사</t>
+        </is>
+      </c>
+      <c r="B1270" t="inlineStr">
+        <is>
+          <t>복수명사//단수명사//둘 다 가능</t>
+        </is>
+      </c>
+      <c r="C1270" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D1270" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/영어_복습.xlsx
+++ b/학습자료/단답형/영어_복습.xlsx
@@ -6217,11 +6217,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1242" workbookViewId="0">
-      <selection activeCell="C1276" sqref="B1276:C1276"/>
+    <sheetView tabSelected="1" topLeftCell="A936" workbookViewId="0">
+      <selection activeCell="E952" sqref="E952:G971"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="32.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
